--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27211"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -17,6 +17,9 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="144">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -454,6 +457,9 @@
   </si>
   <si>
     <t>R*,W*,päätös</t>
+  </si>
+  <si>
+    <t>asiatarkastus</t>
   </si>
 </sst>
 </file>
@@ -1130,11 +1136,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2643,7 +2649,9 @@
       <c r="F30" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="G30" s="21"/>
+      <c r="G30" s="21" t="s">
+        <v>143</v>
+      </c>
       <c r="H30" s="21" t="s">
         <v>134</v>
       </c>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8780" yWindow="460" windowWidth="26580" windowHeight="27040" tabRatio="500"/>
+    <workbookView xWindow="8780" yWindow="460" windowWidth="37420" windowHeight="27040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
     <t>R*,W*,päätös</t>
   </si>
   <si>
-    <t>asiatarkastus</t>
+    <t>R*,asiatarkastus</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:X61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="G30" sqref="G30"/>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="144">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -655,7 +655,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -715,6 +715,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1134,13 +1135,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X61"/>
+  <dimension ref="A1:X62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1175,38 +1176,38 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
@@ -1227,30 +1228,30 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="J5" s="38" t="s">
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="J5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="P5" s="38" t="s">
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="P5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
       <c r="X5" s="5" t="s">
         <v>14</v>
       </c>
@@ -3922,7 +3923,7 @@
         <v>17</v>
       </c>
       <c r="W51" s="21"/>
-      <c r="X51" s="36" t="s">
+      <c r="X51" s="37" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3992,7 +3993,7 @@
         <v>17</v>
       </c>
       <c r="W52" s="21"/>
-      <c r="X52" s="37"/>
+      <c r="X52" s="38"/>
     </row>
     <row r="53" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="26" t="s">
@@ -4230,12 +4231,12 @@
       <c r="V58" s="17"/>
       <c r="W58" s="17"/>
     </row>
-    <row r="59" spans="1:24" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:24" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="C59" s="17"/>
       <c r="D59" s="21" t="s">
@@ -4261,79 +4262,110 @@
       <c r="V59" s="17"/>
       <c r="W59" s="17"/>
     </row>
-    <row r="60" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:24" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="16" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="C60" s="17"/>
       <c r="D60" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="20"/>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="20"/>
-      <c r="S60" s="20"/>
-      <c r="T60" s="20"/>
-      <c r="U60" s="20"/>
-      <c r="V60" s="20"/>
-      <c r="W60" s="20"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="17"/>
+      <c r="U60" s="17"/>
+      <c r="V60" s="17"/>
+      <c r="W60" s="17"/>
     </row>
     <row r="61" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="16" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="20"/>
+      <c r="T61" s="20"/>
+      <c r="U61" s="20"/>
+      <c r="V61" s="20"/>
+      <c r="W61" s="20"/>
+    </row>
+    <row r="62" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="20"/>
+      <c r="D62" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="E61" s="30" t="s">
+      <c r="E62" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30" t="s">
+      <c r="F62" s="30"/>
+      <c r="G62" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30" t="s">
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="K61" s="30" t="s">
+      <c r="K62" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="L61" s="30" t="s">
+      <c r="L62" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="M61" s="30" t="s">
+      <c r="M62" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="N61" s="30"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="30"/>
-      <c r="R61" s="30"/>
-      <c r="S61" s="30"/>
-      <c r="T61" s="30"/>
-      <c r="U61" s="30"/>
-      <c r="V61" s="30"/>
-      <c r="W61" s="30"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30"/>
+      <c r="R62" s="30"/>
+      <c r="S62" s="30"/>
+      <c r="T62" s="30"/>
+      <c r="U62" s="30"/>
+      <c r="V62" s="30"/>
+      <c r="W62" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarihan/Desktop/Harja/harja/resources/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8780" yWindow="460" windowWidth="37420" windowHeight="27040" tabRatio="500"/>
+    <workbookView xWindow="2560" yWindow="180" windowWidth="37420" windowHeight="27040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -17,11 +12,11 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -429,9 +424,6 @@
     <t>R*,W*</t>
   </si>
   <si>
-    <t>R*,W*,sido</t>
-  </si>
-  <si>
     <t>R*</t>
   </si>
   <si>
@@ -456,10 +448,13 @@
     <t>R*,W,sido</t>
   </si>
   <si>
-    <t>R*,W*,päätös</t>
-  </si>
-  <si>
     <t>R*,asiatarkastus</t>
+  </si>
+  <si>
+    <t>R*,W*,päätös*</t>
+  </si>
+  <si>
+    <t>R*,W*,sido*</t>
   </si>
 </sst>
 </file>
@@ -1138,13 +1133,13 @@
   <dimension ref="A1:X62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
@@ -1171,7 +1166,7 @@
     <col min="24" max="24" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1191,7 +1186,7 @@
       <c r="M1" s="38"/>
       <c r="N1" s="38"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="40" t="s">
@@ -1209,7 +1204,7 @@
       <c r="M2" s="38"/>
       <c r="N2" s="38"/>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -1224,10 +1219,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1">
       <c r="C5" s="39" t="s">
         <v>6</v>
       </c>
@@ -1256,7 +1251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1325,7 +1320,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
@@ -1337,52 +1332,52 @@
         <v>132</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J7" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="K7" s="17" t="s">
-        <v>137</v>
-      </c>
       <c r="L7" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q7" s="17" t="s">
         <v>114</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S7" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U7" s="17" t="s">
         <v>17</v>
@@ -1393,7 +1388,7 @@
       <c r="W7" s="17"/>
       <c r="X7" s="10"/>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1">
       <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
@@ -1405,28 +1400,28 @@
         <v>132</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K8" s="17" t="s">
         <v>136</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>137</v>
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N8" s="21"/>
       <c r="O8" s="17"/>
       <c r="P8" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q8" s="21" t="s">
         <v>17</v>
@@ -1434,7 +1429,7 @@
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
       <c r="T8" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U8" s="17" t="s">
         <v>19</v>
@@ -1447,7 +1442,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
@@ -1459,28 +1454,28 @@
         <v>132</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K9" s="17" t="s">
         <v>136</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>137</v>
       </c>
       <c r="L9" s="21"/>
       <c r="M9" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N9" s="21"/>
       <c r="O9" s="17"/>
       <c r="P9" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q9" s="21" t="s">
         <v>17</v>
@@ -1488,14 +1483,14 @@
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
       <c r="T9" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U9" s="17"/>
       <c r="V9" s="17"/>
       <c r="W9" s="17"/>
       <c r="X9" s="10"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
@@ -1507,28 +1502,28 @@
         <v>132</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K10" s="17" t="s">
         <v>136</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>137</v>
       </c>
       <c r="L10" s="21"/>
       <c r="M10" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N10" s="21"/>
       <c r="O10" s="17"/>
       <c r="P10" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="21" t="s">
         <v>17</v>
@@ -1536,14 +1531,14 @@
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
       <c r="T10" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U10" s="17"/>
       <c r="V10" s="17"/>
       <c r="W10" s="17"/>
       <c r="X10" s="10"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>15</v>
       </c>
@@ -1555,57 +1550,57 @@
         <v>132</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J11" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="K11" s="17" t="s">
-        <v>137</v>
-      </c>
       <c r="L11" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O11" s="17"/>
       <c r="P11" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="17" t="s">
         <v>17</v>
       </c>
       <c r="R11" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S11" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U11" s="17"/>
       <c r="V11" s="17"/>
       <c r="W11" s="17"/>
       <c r="X11" s="10"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -1617,57 +1612,57 @@
         <v>132</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J12" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="K12" s="17" t="s">
-        <v>137</v>
-      </c>
       <c r="L12" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O12" s="17"/>
       <c r="P12" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q12" s="17" t="s">
         <v>17</v>
       </c>
       <c r="R12" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S12" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U12" s="17"/>
       <c r="V12" s="17"/>
       <c r="W12" s="17"/>
       <c r="X12" s="10"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1">
       <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
@@ -1679,28 +1674,28 @@
         <v>132</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N13" s="21"/>
       <c r="O13" s="17"/>
       <c r="P13" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q13" s="17" t="s">
         <v>114</v>
@@ -1708,14 +1703,14 @@
       <c r="R13" s="21"/>
       <c r="S13" s="17"/>
       <c r="T13" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U13" s="17"/>
       <c r="V13" s="17"/>
       <c r="W13" s="17"/>
       <c r="X13" s="10"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="16" t="s">
         <v>15</v>
       </c>
@@ -1727,28 +1722,28 @@
         <v>132</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L14" s="17"/>
       <c r="M14" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N14" s="21"/>
       <c r="O14" s="17"/>
       <c r="P14" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="17" t="s">
         <v>114</v>
@@ -1756,14 +1751,14 @@
       <c r="R14" s="21"/>
       <c r="S14" s="17"/>
       <c r="T14" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U14" s="17"/>
       <c r="V14" s="17"/>
       <c r="W14" s="17"/>
       <c r="X14" s="10"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
@@ -1775,28 +1770,28 @@
         <v>132</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N15" s="21"/>
       <c r="O15" s="17"/>
       <c r="P15" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q15" s="17" t="s">
         <v>114</v>
@@ -1804,14 +1799,14 @@
       <c r="R15" s="21"/>
       <c r="S15" s="17"/>
       <c r="T15" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U15" s="17"/>
       <c r="V15" s="17"/>
       <c r="W15" s="17"/>
       <c r="X15" s="10"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
@@ -1823,57 +1818,57 @@
         <v>132</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O16" s="17"/>
       <c r="P16" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q16" s="17" t="s">
         <v>114</v>
       </c>
       <c r="R16" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S16" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U16" s="17"/>
       <c r="V16" s="17"/>
       <c r="W16" s="17"/>
       <c r="X16" s="10"/>
     </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -1885,57 +1880,57 @@
         <v>132</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O17" s="17"/>
       <c r="P17" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q17" s="17" t="s">
         <v>114</v>
       </c>
       <c r="R17" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S17" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U17" s="17"/>
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
       <c r="X17" s="10"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1">
       <c r="A18" s="16" t="s">
         <v>15</v>
       </c>
@@ -1947,28 +1942,28 @@
         <v>132</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K18" s="17" t="s">
         <v>136</v>
-      </c>
-      <c r="K18" s="17" t="s">
-        <v>137</v>
       </c>
       <c r="L18" s="17"/>
       <c r="M18" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N18" s="21"/>
       <c r="O18" s="17"/>
       <c r="P18" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q18" s="17" t="s">
         <v>17</v>
@@ -1976,14 +1971,14 @@
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
       <c r="T18" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U18" s="17"/>
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
       <c r="X18" s="10"/>
     </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1">
       <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
@@ -1995,57 +1990,57 @@
         <v>132</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O19" s="17"/>
       <c r="P19" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="17" t="s">
         <v>114</v>
       </c>
       <c r="R19" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S19" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U19" s="17"/>
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
       <c r="X19" s="10"/>
     </row>
-    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" ht="15.75" customHeight="1">
       <c r="A20" s="16" t="s">
         <v>15</v>
       </c>
@@ -2057,52 +2052,52 @@
         <v>132</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>132</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J20" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="K20" s="17" t="s">
-        <v>137</v>
-      </c>
       <c r="L20" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O20" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P20" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="17" t="s">
         <v>114</v>
       </c>
       <c r="R20" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S20" s="21" t="s">
         <v>114</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U20" s="17"/>
       <c r="V20" s="21" t="s">
@@ -2111,7 +2106,7 @@
       <c r="W20" s="17"/>
       <c r="X20" s="10"/>
     </row>
-    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" ht="15.75" customHeight="1">
       <c r="A21" s="26" t="s">
         <v>15</v>
       </c>
@@ -2123,52 +2118,52 @@
         <v>132</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>132</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J21" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K21" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="K21" s="17" t="s">
-        <v>137</v>
-      </c>
       <c r="L21" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P21" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q21" s="21" t="s">
         <v>114</v>
       </c>
       <c r="R21" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S21" s="21" t="s">
         <v>114</v>
       </c>
       <c r="T21" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U21" s="21" t="s">
         <v>17</v>
@@ -2179,7 +2174,7 @@
       <c r="W21" s="21"/>
       <c r="X21" s="10"/>
     </row>
-    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" ht="15.75" customHeight="1">
       <c r="A22" s="26" t="s">
         <v>15</v>
       </c>
@@ -2191,50 +2186,50 @@
         <v>132</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P22" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q22" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R22" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S22" s="21"/>
       <c r="T22" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U22" s="21"/>
       <c r="V22" s="21" t="s">
@@ -2245,7 +2240,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24" ht="15.75" customHeight="1">
       <c r="A23" s="26" t="s">
         <v>15</v>
       </c>
@@ -2257,52 +2252,52 @@
         <v>132</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J23" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="K23" s="21" t="s">
-        <v>137</v>
-      </c>
       <c r="L23" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P23" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="21" t="s">
         <v>114</v>
       </c>
       <c r="R23" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S23" s="21" t="s">
         <v>114</v>
       </c>
       <c r="T23" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U23" s="21"/>
       <c r="V23" s="21" t="s">
@@ -2311,7 +2306,7 @@
       <c r="W23" s="21"/>
       <c r="X23" s="10"/>
     </row>
-    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" ht="15.75" customHeight="1">
       <c r="A24" s="26" t="s">
         <v>15</v>
       </c>
@@ -2323,57 +2318,57 @@
         <v>132</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J24" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K24" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="K24" s="21" t="s">
-        <v>137</v>
-      </c>
       <c r="L24" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O24" s="21"/>
       <c r="P24" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q24" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R24" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S24" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T24" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U24" s="21"/>
       <c r="V24" s="21"/>
       <c r="W24" s="21"/>
       <c r="X24" s="10"/>
     </row>
-    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" ht="15.75" customHeight="1">
       <c r="A25" s="26" t="s">
         <v>15</v>
       </c>
@@ -2385,7 +2380,7 @@
         <v>132</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
@@ -2394,25 +2389,25 @@
         <v>132</v>
       </c>
       <c r="J25" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K25" s="21" t="s">
         <v>136</v>
-      </c>
-      <c r="K25" s="21" t="s">
-        <v>137</v>
       </c>
       <c r="L25" s="21"/>
       <c r="M25" s="21"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P25" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q25" s="21" t="s">
         <v>114</v>
       </c>
       <c r="R25" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S25" s="27"/>
       <c r="T25" s="21"/>
@@ -2423,7 +2418,7 @@
       <c r="W25" s="21"/>
       <c r="X25" s="10"/>
     </row>
-    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" ht="15.75" customHeight="1">
       <c r="A26" s="26" t="s">
         <v>15</v>
       </c>
@@ -2432,31 +2427,31 @@
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K26" s="21" t="s">
         <v>136</v>
-      </c>
-      <c r="K26" s="21" t="s">
-        <v>137</v>
       </c>
       <c r="L26" s="21"/>
       <c r="M26" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q26" s="21" t="s">
         <v>17</v>
@@ -2469,7 +2464,7 @@
       <c r="W26" s="21"/>
       <c r="X26" s="10"/>
     </row>
-    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" ht="15.75" customHeight="1">
       <c r="A27" s="26" t="s">
         <v>15</v>
       </c>
@@ -2481,17 +2476,17 @@
         <v>132</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K27" s="21" t="s">
         <v>136</v>
-      </c>
-      <c r="K27" s="21" t="s">
-        <v>137</v>
       </c>
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
@@ -2509,7 +2504,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" ht="15.75" customHeight="1">
       <c r="A28" s="26" t="s">
         <v>15</v>
       </c>
@@ -2521,50 +2516,50 @@
         <v>132</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J28" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K28" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="K28" s="21" t="s">
-        <v>137</v>
-      </c>
       <c r="L28" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N28" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O28" s="21"/>
       <c r="P28" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q28" s="21" t="s">
         <v>114</v>
       </c>
       <c r="R28" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S28" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T28" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
@@ -2575,7 +2570,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" ht="15.75" customHeight="1">
       <c r="A29" s="26" t="s">
         <v>15</v>
       </c>
@@ -2584,56 +2579,56 @@
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="21" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G29" s="21"/>
       <c r="H29" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J29" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K29" s="21" t="s">
         <v>136</v>
-      </c>
-      <c r="K29" s="21" t="s">
-        <v>137</v>
       </c>
       <c r="L29" s="21"/>
       <c r="M29" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O29" s="21"/>
       <c r="P29" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q29" s="21" t="s">
         <v>114</v>
       </c>
       <c r="R29" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S29" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T29" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
       <c r="X29" s="10"/>
     </row>
-    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" ht="15.75" customHeight="1">
       <c r="A30" s="26" t="s">
         <v>15</v>
       </c>
@@ -2645,55 +2640,55 @@
         <v>142</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K30" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L30" s="21"/>
       <c r="M30" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N30" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O30" s="21"/>
       <c r="P30" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q30" s="21" t="s">
         <v>114</v>
       </c>
       <c r="R30" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S30" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T30" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
       <c r="X30" s="10"/>
     </row>
-    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" ht="15.75" customHeight="1">
       <c r="A31" s="26" t="s">
         <v>15</v>
       </c>
@@ -2702,56 +2697,56 @@
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G31" s="21"/>
       <c r="H31" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J31" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K31" s="21" t="s">
         <v>136</v>
-      </c>
-      <c r="K31" s="21" t="s">
-        <v>137</v>
       </c>
       <c r="L31" s="21"/>
       <c r="M31" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N31" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O31" s="21"/>
       <c r="P31" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q31" s="21" t="s">
         <v>114</v>
       </c>
       <c r="R31" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S31" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T31" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
       <c r="X31" s="10"/>
     </row>
-    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" ht="15.75" customHeight="1">
       <c r="A32" s="26" t="s">
         <v>15</v>
       </c>
@@ -2763,53 +2758,53 @@
         <v>142</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G32" s="21"/>
       <c r="H32" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J32" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K32" s="21" t="s">
         <v>136</v>
-      </c>
-      <c r="K32" s="21" t="s">
-        <v>137</v>
       </c>
       <c r="L32" s="21"/>
       <c r="M32" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N32" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O32" s="21"/>
       <c r="P32" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q32" s="21" t="s">
         <v>114</v>
       </c>
       <c r="R32" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S32" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T32" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U32" s="21"/>
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
       <c r="X32" s="10"/>
     </row>
-    <row r="33" spans="1:24" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:24" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A33" s="26" t="s">
         <v>15</v>
       </c>
@@ -2821,52 +2816,52 @@
         <v>132</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G33" s="21" t="s">
         <v>132</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I33" s="21" t="s">
         <v>132</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K33" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L33" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M33" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N33" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O33" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P33" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q33" s="21" t="s">
         <v>114</v>
       </c>
       <c r="R33" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S33" s="21" t="s">
         <v>114</v>
       </c>
       <c r="T33" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U33" s="21" t="s">
         <v>17</v>
@@ -2877,7 +2872,7 @@
       <c r="W33" s="21"/>
       <c r="X33" s="12"/>
     </row>
-    <row r="34" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A34" s="26" t="s">
         <v>43</v>
       </c>
@@ -2886,31 +2881,31 @@
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K34" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L34" s="21"/>
       <c r="M34" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
       <c r="P34" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q34" s="21" t="s">
         <v>17</v>
@@ -2923,7 +2918,7 @@
       <c r="W34" s="21"/>
       <c r="X34" s="31"/>
     </row>
-    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:24" ht="15.75" customHeight="1">
       <c r="A35" s="26" t="s">
         <v>43</v>
       </c>
@@ -2932,13 +2927,13 @@
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G35" s="21" t="s">
         <v>19</v>
@@ -2946,19 +2941,19 @@
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K35" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L35" s="21"/>
       <c r="M35" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="P35" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q35" s="21" t="s">
         <v>17</v>
@@ -2966,14 +2961,14 @@
       <c r="R35" s="21"/>
       <c r="S35" s="21"/>
       <c r="T35" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
       <c r="W35" s="21"/>
       <c r="X35" s="10"/>
     </row>
-    <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:24" ht="15.75" customHeight="1">
       <c r="A36" s="26" t="s">
         <v>43</v>
       </c>
@@ -2982,55 +2977,55 @@
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J36" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K36" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L36" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M36" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N36" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O36" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P36" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q36" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R36" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S36" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T36" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U36" s="21"/>
       <c r="V36" s="21" t="s">
@@ -3039,7 +3034,7 @@
       <c r="W36" s="21"/>
       <c r="X36" s="10"/>
     </row>
-    <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:24" ht="15.75" customHeight="1">
       <c r="A37" s="26" t="s">
         <v>43</v>
       </c>
@@ -3048,55 +3043,55 @@
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J37" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K37" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L37" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M37" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N37" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O37" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P37" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q37" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R37" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S37" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T37" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U37" s="21"/>
       <c r="V37" s="21" t="s">
@@ -3105,7 +3100,7 @@
       <c r="W37" s="21"/>
       <c r="X37" s="10"/>
     </row>
-    <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:24" ht="15.75" customHeight="1">
       <c r="A38" s="26" t="s">
         <v>43</v>
       </c>
@@ -3114,55 +3109,55 @@
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I38" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J38" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K38" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L38" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M38" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N38" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P38" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q38" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R38" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S38" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T38" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U38" s="21"/>
       <c r="V38" s="21" t="s">
@@ -3171,7 +3166,7 @@
       <c r="W38" s="21"/>
       <c r="X38" s="10"/>
     </row>
-    <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:24" ht="15.75" customHeight="1">
       <c r="A39" s="26" t="s">
         <v>43</v>
       </c>
@@ -3180,55 +3175,55 @@
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J39" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K39" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L39" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M39" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N39" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P39" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q39" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R39" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S39" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T39" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U39" s="21"/>
       <c r="V39" s="21" t="s">
@@ -3237,7 +3232,7 @@
       <c r="W39" s="21"/>
       <c r="X39" s="10"/>
     </row>
-    <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:24" ht="15.75" customHeight="1">
       <c r="A40" s="26" t="s">
         <v>43</v>
       </c>
@@ -3246,55 +3241,55 @@
       </c>
       <c r="C40" s="21"/>
       <c r="D40" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J40" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K40" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L40" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M40" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N40" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P40" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q40" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R40" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S40" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T40" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U40" s="21"/>
       <c r="V40" s="21" t="s">
@@ -3303,7 +3298,7 @@
       <c r="W40" s="21"/>
       <c r="X40" s="10"/>
     </row>
-    <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:24" ht="15.75" customHeight="1">
       <c r="A41" s="26" t="s">
         <v>43</v>
       </c>
@@ -3312,49 +3307,49 @@
       </c>
       <c r="C41" s="21"/>
       <c r="D41" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J41" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K41" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L41" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M41" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
       <c r="P41" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q41" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R41" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S41" s="21"/>
       <c r="T41" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U41" s="21"/>
       <c r="V41" s="21" t="s">
@@ -3363,7 +3358,7 @@
       <c r="W41" s="21"/>
       <c r="X41" s="10"/>
     </row>
-    <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:24" ht="15.75" customHeight="1">
       <c r="A42" s="26" t="s">
         <v>43</v>
       </c>
@@ -3372,55 +3367,55 @@
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I42" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J42" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K42" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L42" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M42" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N42" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P42" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q42" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R42" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S42" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T42" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U42" s="21"/>
       <c r="V42" s="21" t="s">
@@ -3429,7 +3424,7 @@
       <c r="W42" s="21"/>
       <c r="X42" s="10"/>
     </row>
-    <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:24" ht="15.75" customHeight="1">
       <c r="A43" s="26" t="s">
         <v>43</v>
       </c>
@@ -3438,31 +3433,31 @@
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
       <c r="I43" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J43" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K43" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L43" s="21"/>
       <c r="M43" s="21"/>
       <c r="N43" s="21"/>
       <c r="O43" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P43" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q43" s="21" t="s">
         <v>17</v>
@@ -3470,7 +3465,7 @@
       <c r="R43" s="21"/>
       <c r="S43" s="21"/>
       <c r="T43" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U43" s="21"/>
       <c r="V43" s="21" t="s">
@@ -3479,7 +3474,7 @@
       <c r="W43" s="21"/>
       <c r="X43" s="10"/>
     </row>
-    <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:24" ht="15.75" customHeight="1">
       <c r="A44" s="26" t="s">
         <v>43</v>
       </c>
@@ -3488,13 +3483,13 @@
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G44" s="21"/>
       <c r="H44" s="21" t="s">
@@ -3502,21 +3497,21 @@
       </c>
       <c r="I44" s="21"/>
       <c r="J44" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K44" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L44" s="21"/>
       <c r="M44" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N44" s="21" t="s">
         <v>19</v>
       </c>
       <c r="O44" s="21"/>
       <c r="P44" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q44" s="21" t="s">
         <v>17</v>
@@ -3529,7 +3524,7 @@
       <c r="W44" s="21"/>
       <c r="X44" s="10"/>
     </row>
-    <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:24" ht="15.75" customHeight="1">
       <c r="A45" s="26" t="s">
         <v>43</v>
       </c>
@@ -3538,31 +3533,31 @@
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K45" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L45" s="21"/>
       <c r="M45" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
       <c r="P45" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q45" s="21" t="s">
         <v>17</v>
@@ -3570,14 +3565,14 @@
       <c r="R45" s="21"/>
       <c r="S45" s="21"/>
       <c r="T45" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U45" s="21"/>
       <c r="V45" s="21"/>
       <c r="W45" s="21"/>
       <c r="X45" s="10"/>
     </row>
-    <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:24" ht="15.75" customHeight="1">
       <c r="A46" s="26" t="s">
         <v>43</v>
       </c>
@@ -3586,31 +3581,31 @@
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K46" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L46" s="21"/>
       <c r="M46" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N46" s="21"/>
       <c r="O46" s="21"/>
       <c r="P46" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q46" s="21" t="s">
         <v>17</v>
@@ -3618,14 +3613,14 @@
       <c r="R46" s="21"/>
       <c r="S46" s="21"/>
       <c r="T46" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U46" s="21"/>
       <c r="V46" s="21"/>
       <c r="W46" s="21"/>
       <c r="X46" s="10"/>
     </row>
-    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:24" ht="15.75" customHeight="1">
       <c r="A47" s="26" t="s">
         <v>43</v>
       </c>
@@ -3634,31 +3629,31 @@
       </c>
       <c r="C47" s="21"/>
       <c r="D47" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K47" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L47" s="21"/>
       <c r="M47" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q47" s="21" t="s">
         <v>17</v>
@@ -3666,14 +3661,14 @@
       <c r="R47" s="21"/>
       <c r="S47" s="21"/>
       <c r="T47" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U47" s="21"/>
       <c r="V47" s="21"/>
       <c r="W47" s="21"/>
       <c r="X47" s="10"/>
     </row>
-    <row r="48" spans="1:24" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:24" s="29" customFormat="1" ht="15.75" customHeight="1">
       <c r="A48" s="26" t="s">
         <v>43</v>
       </c>
@@ -3682,45 +3677,45 @@
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G48" s="21"/>
       <c r="H48" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I48" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J48" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K48" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L48" s="21"/>
       <c r="M48" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N48" s="21"/>
       <c r="O48" s="21"/>
       <c r="P48" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q48" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R48" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S48" s="21"/>
       <c r="T48" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U48" s="21"/>
       <c r="V48" s="21" t="s">
@@ -3729,7 +3724,7 @@
       <c r="W48" s="21"/>
       <c r="X48" s="28"/>
     </row>
-    <row r="49" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:24" ht="15.75" customHeight="1">
       <c r="A49" s="26" t="s">
         <v>43</v>
       </c>
@@ -3738,55 +3733,55 @@
       </c>
       <c r="C49" s="21"/>
       <c r="D49" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I49" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J49" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K49" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L49" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M49" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N49" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O49" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P49" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q49" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R49" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S49" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T49" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U49" s="21"/>
       <c r="V49" s="21" t="s">
@@ -3795,7 +3790,7 @@
       <c r="W49" s="21"/>
       <c r="X49" s="10"/>
     </row>
-    <row r="50" spans="1:24" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:24" s="35" customFormat="1" ht="15.75" customHeight="1">
       <c r="A50" s="26" t="s">
         <v>43</v>
       </c>
@@ -3804,49 +3799,49 @@
       </c>
       <c r="C50" s="21"/>
       <c r="D50" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J50" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K50" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L50" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M50" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N50" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O50" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P50" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q50" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R50" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S50" s="21" t="s">
         <v>17</v>
@@ -3857,7 +3852,7 @@
       <c r="W50" s="21"/>
       <c r="X50" s="34"/>
     </row>
-    <row r="51" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:24" ht="15.75" customHeight="1">
       <c r="A51" s="26" t="s">
         <v>58</v>
       </c>
@@ -3866,55 +3861,55 @@
       </c>
       <c r="C51" s="21"/>
       <c r="D51" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J51" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K51" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L51" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M51" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N51" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P51" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q51" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R51" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S51" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T51" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U51" s="21" t="s">
         <v>17</v>
@@ -3927,7 +3922,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:24" ht="15.75" customHeight="1">
       <c r="A52" s="26" t="s">
         <v>58</v>
       </c>
@@ -3936,55 +3931,55 @@
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I52" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J52" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K52" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L52" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M52" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N52" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O52" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P52" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q52" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R52" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S52" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T52" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U52" s="21" t="s">
         <v>17</v>
@@ -3995,7 +3990,7 @@
       <c r="W52" s="21"/>
       <c r="X52" s="38"/>
     </row>
-    <row r="53" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:24" ht="15.75" customHeight="1">
       <c r="A53" s="26" t="s">
         <v>62</v>
       </c>
@@ -4007,50 +4002,50 @@
         <v>132</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I53" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J53" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="K53" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="K53" s="21" t="s">
-        <v>137</v>
-      </c>
       <c r="L53" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M53" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N53" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O53" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P53" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q53" s="21" t="s">
         <v>114</v>
       </c>
       <c r="R53" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S53" s="21"/>
       <c r="T53" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U53" s="21" t="s">
         <v>114</v>
@@ -4061,7 +4056,7 @@
       <c r="W53" s="21"/>
       <c r="X53" s="10"/>
     </row>
-    <row r="54" spans="1:24" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:24" s="15" customFormat="1" ht="15.75" customHeight="1">
       <c r="A54" s="18" t="s">
         <v>63</v>
       </c>
@@ -4095,7 +4090,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:24" ht="15.75" customHeight="1">
       <c r="A55" s="16" t="s">
         <v>63</v>
       </c>
@@ -4138,7 +4133,7 @@
       <c r="V55" s="17"/>
       <c r="W55" s="17"/>
     </row>
-    <row r="56" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:24" ht="15.75" customHeight="1">
       <c r="A56" s="16" t="s">
         <v>63</v>
       </c>
@@ -4169,7 +4164,7 @@
       <c r="V56" s="17"/>
       <c r="W56" s="17"/>
     </row>
-    <row r="57" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:24" ht="15.75" customHeight="1">
       <c r="A57" s="16" t="s">
         <v>63</v>
       </c>
@@ -4200,7 +4195,7 @@
       <c r="V57" s="17"/>
       <c r="W57" s="17"/>
     </row>
-    <row r="58" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:24" ht="15.75" customHeight="1">
       <c r="A58" s="16" t="s">
         <v>63</v>
       </c>
@@ -4231,7 +4226,7 @@
       <c r="V58" s="17"/>
       <c r="W58" s="17"/>
     </row>
-    <row r="59" spans="1:24" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:24" s="36" customFormat="1" ht="15.75" customHeight="1">
       <c r="A59" s="16" t="s">
         <v>63</v>
       </c>
@@ -4262,7 +4257,7 @@
       <c r="V59" s="17"/>
       <c r="W59" s="17"/>
     </row>
-    <row r="60" spans="1:24" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:24" s="33" customFormat="1" ht="15.75" customHeight="1">
       <c r="A60" s="16" t="s">
         <v>63</v>
       </c>
@@ -4293,7 +4288,7 @@
       <c r="V60" s="17"/>
       <c r="W60" s="17"/>
     </row>
-    <row r="61" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:24" ht="15.75" customHeight="1">
       <c r="A61" s="16" t="s">
         <v>110</v>
       </c>
@@ -4324,7 +4319,7 @@
       <c r="V61" s="20"/>
       <c r="W61" s="20"/>
     </row>
-    <row r="62" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:24" ht="15.75" customHeight="1">
       <c r="A62" s="16" t="s">
         <v>124</v>
       </c>
@@ -4333,28 +4328,28 @@
       </c>
       <c r="C62" s="20"/>
       <c r="D62" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E62" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F62" s="30"/>
       <c r="G62" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H62" s="30"/>
       <c r="I62" s="30"/>
       <c r="J62" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K62" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L62" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M62" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N62" s="30"/>
       <c r="O62" s="30"/>
@@ -4378,6 +4373,11 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4389,7 +4389,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" customWidth="1"/>
@@ -4397,7 +4397,7 @@
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="22" t="s">
         <v>70</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15">
       <c r="A2" s="23" t="s">
         <v>73</v>
       </c>
@@ -4427,7 +4427,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15">
       <c r="A3" s="23" t="s">
         <v>75</v>
       </c>
@@ -4440,7 +4440,7 @@
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15">
       <c r="A4" s="23" t="s">
         <v>77</v>
       </c>
@@ -4453,7 +4453,7 @@
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15">
       <c r="A5" s="23" t="s">
         <v>97</v>
       </c>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15">
       <c r="A6" s="23" t="s">
         <v>98</v>
       </c>
@@ -4483,7 +4483,7 @@
       </c>
       <c r="E6" s="24"/>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15">
       <c r="A7" s="23" t="s">
         <v>99</v>
       </c>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15">
       <c r="A8" s="23" t="s">
         <v>100</v>
       </c>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15">
       <c r="A9" s="23" t="s">
         <v>109</v>
       </c>
@@ -4526,7 +4526,7 @@
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15">
       <c r="A10" s="23" t="s">
         <v>108</v>
       </c>
@@ -4539,7 +4539,7 @@
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15">
       <c r="A11" s="23" t="s">
         <v>107</v>
       </c>
@@ -4552,7 +4552,7 @@
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15">
       <c r="A12" s="23" t="s">
         <v>101</v>
       </c>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15">
       <c r="A13" s="23" t="s">
         <v>106</v>
       </c>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15">
       <c r="A14" s="23" t="s">
         <v>102</v>
       </c>
@@ -4597,7 +4597,7 @@
       </c>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15">
       <c r="A15" s="23" t="s">
         <v>103</v>
       </c>
@@ -4612,7 +4612,7 @@
       </c>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15">
       <c r="A16" s="23" t="s">
         <v>104</v>
       </c>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15">
       <c r="A17" s="23" t="s">
         <v>127</v>
       </c>
@@ -4642,7 +4642,7 @@
       </c>
       <c r="E17" s="24"/>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15">
       <c r="A18" s="23" t="s">
         <v>12</v>
       </c>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15">
       <c r="A19" s="23" t="s">
         <v>13</v>
       </c>
@@ -4672,7 +4672,7 @@
       </c>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15">
       <c r="A20" s="23" t="s">
         <v>105</v>
       </c>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15">
       <c r="A21" s="23" t="s">
         <v>117</v>
       </c>
@@ -4707,5 +4707,10 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="180" windowWidth="37420" windowHeight="27040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="150">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -455,6 +455,24 @@
   </si>
   <si>
     <t>R*,W*,sido*</t>
+  </si>
+  <si>
+    <t>R+,valmis+</t>
+  </si>
+  <si>
+    <t>R,valmis</t>
+  </si>
+  <si>
+    <t>valmis tarkoittaa välitavoitteen merkitsemistä valmiiksi</t>
+  </si>
+  <si>
+    <t>R*,W*,valmis*</t>
+  </si>
+  <si>
+    <t>R*,W,valmis</t>
+  </si>
+  <si>
+    <t>R*,W+,valmis+</t>
   </si>
 </sst>
 </file>
@@ -1133,10 +1151,10 @@
   <dimension ref="A1:X62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="O11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2315,10 +2333,10 @@
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="17" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>133</v>
@@ -2333,10 +2351,10 @@
         <v>133</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L24" s="21" t="s">
         <v>133</v>
@@ -2349,16 +2367,16 @@
       </c>
       <c r="O24" s="21"/>
       <c r="P24" s="21" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="Q24" s="21" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="R24" s="21" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="T24" s="17" t="s">
         <v>137</v>
@@ -2366,7 +2384,9 @@
       <c r="U24" s="21"/>
       <c r="V24" s="21"/>
       <c r="W24" s="21"/>
-      <c r="X24" s="10"/>
+      <c r="X24" s="10" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="25" spans="1:24" ht="15.75" customHeight="1">
       <c r="A25" s="26" t="s">

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="151">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -473,6 +473,9 @@
   </si>
   <si>
     <t>R*,W+,valmis+</t>
+  </si>
+  <si>
+    <t>R*,W*,päätös*,asiatarkastus*</t>
   </si>
 </sst>
 </file>
@@ -1151,10 +1154,10 @@
   <dimension ref="A1:X62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="O11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="T24" sqref="T24"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2657,7 +2660,7 @@
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="17" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>136</v>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27417"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarihan/Desktop/Harja/harja/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="41500" windowHeight="24520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -12,11 +17,11 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -1154,13 +1159,13 @@
   <dimension ref="A1:X62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
@@ -1187,7 +1192,7 @@
     <col min="24" max="24" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1207,7 +1212,7 @@
       <c r="M1" s="38"/>
       <c r="N1" s="38"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="40" t="s">
@@ -1225,7 +1230,7 @@
       <c r="M2" s="38"/>
       <c r="N2" s="38"/>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -1240,10 +1245,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="39" t="s">
         <v>6</v>
       </c>
@@ -1272,7 +1277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1341,7 +1346,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
@@ -1409,7 +1414,7 @@
       <c r="W7" s="17"/>
       <c r="X7" s="10"/>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
@@ -1463,7 +1468,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
@@ -1511,7 +1516,7 @@
       <c r="W9" s="17"/>
       <c r="X9" s="10"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
@@ -1559,7 +1564,7 @@
       <c r="W10" s="17"/>
       <c r="X10" s="10"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>15</v>
       </c>
@@ -1621,7 +1626,7 @@
       <c r="W11" s="17"/>
       <c r="X11" s="10"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -1683,7 +1688,7 @@
       <c r="W12" s="17"/>
       <c r="X12" s="10"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
@@ -1731,7 +1736,7 @@
       <c r="W13" s="17"/>
       <c r="X13" s="10"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
         <v>15</v>
       </c>
@@ -1779,7 +1784,7 @@
       <c r="W14" s="17"/>
       <c r="X14" s="10"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
@@ -1827,7 +1832,7 @@
       <c r="W15" s="17"/>
       <c r="X15" s="10"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
@@ -1889,7 +1894,7 @@
       <c r="W16" s="17"/>
       <c r="X16" s="10"/>
     </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -1951,7 +1956,7 @@
       <c r="W17" s="17"/>
       <c r="X17" s="10"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>15</v>
       </c>
@@ -1999,7 +2004,7 @@
       <c r="W18" s="17"/>
       <c r="X18" s="10"/>
     </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
@@ -2061,7 +2066,7 @@
       <c r="W19" s="17"/>
       <c r="X19" s="10"/>
     </row>
-    <row r="20" spans="1:24" ht="15.75" customHeight="1">
+    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>15</v>
       </c>
@@ -2127,7 +2132,7 @@
       <c r="W20" s="17"/>
       <c r="X20" s="10"/>
     </row>
-    <row r="21" spans="1:24" ht="15.75" customHeight="1">
+    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="26" t="s">
         <v>15</v>
       </c>
@@ -2195,7 +2200,7 @@
       <c r="W21" s="21"/>
       <c r="X21" s="10"/>
     </row>
-    <row r="22" spans="1:24" ht="15.75" customHeight="1">
+    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="26" t="s">
         <v>15</v>
       </c>
@@ -2204,7 +2209,7 @@
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="17" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>136</v>
@@ -2261,7 +2266,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15.75" customHeight="1">
+    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="26" t="s">
         <v>15</v>
       </c>
@@ -2327,7 +2332,7 @@
       <c r="W23" s="21"/>
       <c r="X23" s="10"/>
     </row>
-    <row r="24" spans="1:24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="26" t="s">
         <v>15</v>
       </c>
@@ -2391,7 +2396,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15.75" customHeight="1">
+    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="26" t="s">
         <v>15</v>
       </c>
@@ -2441,7 +2446,7 @@
       <c r="W25" s="21"/>
       <c r="X25" s="10"/>
     </row>
-    <row r="26" spans="1:24" ht="15.75" customHeight="1">
+    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="26" t="s">
         <v>15</v>
       </c>
@@ -2487,7 +2492,7 @@
       <c r="W26" s="21"/>
       <c r="X26" s="10"/>
     </row>
-    <row r="27" spans="1:24" ht="15.75" customHeight="1">
+    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="26" t="s">
         <v>15</v>
       </c>
@@ -2527,7 +2532,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="15.75" customHeight="1">
+    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="26" t="s">
         <v>15</v>
       </c>
@@ -2593,7 +2598,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="15.75" customHeight="1">
+    <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="26" t="s">
         <v>15</v>
       </c>
@@ -2651,7 +2656,7 @@
       <c r="W29" s="21"/>
       <c r="X29" s="10"/>
     </row>
-    <row r="30" spans="1:24" ht="15.75" customHeight="1">
+    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="26" t="s">
         <v>15</v>
       </c>
@@ -2711,7 +2716,7 @@
       <c r="W30" s="21"/>
       <c r="X30" s="10"/>
     </row>
-    <row r="31" spans="1:24" ht="15.75" customHeight="1">
+    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="26" t="s">
         <v>15</v>
       </c>
@@ -2769,7 +2774,7 @@
       <c r="W31" s="21"/>
       <c r="X31" s="10"/>
     </row>
-    <row r="32" spans="1:24" ht="15.75" customHeight="1">
+    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="26" t="s">
         <v>15</v>
       </c>
@@ -2827,7 +2832,7 @@
       <c r="W32" s="21"/>
       <c r="X32" s="10"/>
     </row>
-    <row r="33" spans="1:24" s="13" customFormat="1" ht="15.75" customHeight="1">
+    <row r="33" spans="1:24" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="26" t="s">
         <v>15</v>
       </c>
@@ -2895,7 +2900,7 @@
       <c r="W33" s="21"/>
       <c r="X33" s="12"/>
     </row>
-    <row r="34" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1">
+    <row r="34" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="26" t="s">
         <v>43</v>
       </c>
@@ -2941,7 +2946,7 @@
       <c r="W34" s="21"/>
       <c r="X34" s="31"/>
     </row>
-    <row r="35" spans="1:24" ht="15.75" customHeight="1">
+    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="26" t="s">
         <v>43</v>
       </c>
@@ -2991,7 +2996,7 @@
       <c r="W35" s="21"/>
       <c r="X35" s="10"/>
     </row>
-    <row r="36" spans="1:24" ht="15.75" customHeight="1">
+    <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="26" t="s">
         <v>43</v>
       </c>
@@ -3057,7 +3062,7 @@
       <c r="W36" s="21"/>
       <c r="X36" s="10"/>
     </row>
-    <row r="37" spans="1:24" ht="15.75" customHeight="1">
+    <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="26" t="s">
         <v>43</v>
       </c>
@@ -3123,7 +3128,7 @@
       <c r="W37" s="21"/>
       <c r="X37" s="10"/>
     </row>
-    <row r="38" spans="1:24" ht="15.75" customHeight="1">
+    <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="26" t="s">
         <v>43</v>
       </c>
@@ -3189,7 +3194,7 @@
       <c r="W38" s="21"/>
       <c r="X38" s="10"/>
     </row>
-    <row r="39" spans="1:24" ht="15.75" customHeight="1">
+    <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="26" t="s">
         <v>43</v>
       </c>
@@ -3255,7 +3260,7 @@
       <c r="W39" s="21"/>
       <c r="X39" s="10"/>
     </row>
-    <row r="40" spans="1:24" ht="15.75" customHeight="1">
+    <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="26" t="s">
         <v>43</v>
       </c>
@@ -3321,7 +3326,7 @@
       <c r="W40" s="21"/>
       <c r="X40" s="10"/>
     </row>
-    <row r="41" spans="1:24" ht="15.75" customHeight="1">
+    <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="26" t="s">
         <v>43</v>
       </c>
@@ -3381,7 +3386,7 @@
       <c r="W41" s="21"/>
       <c r="X41" s="10"/>
     </row>
-    <row r="42" spans="1:24" ht="15.75" customHeight="1">
+    <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="26" t="s">
         <v>43</v>
       </c>
@@ -3447,7 +3452,7 @@
       <c r="W42" s="21"/>
       <c r="X42" s="10"/>
     </row>
-    <row r="43" spans="1:24" ht="15.75" customHeight="1">
+    <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26" t="s">
         <v>43</v>
       </c>
@@ -3497,7 +3502,7 @@
       <c r="W43" s="21"/>
       <c r="X43" s="10"/>
     </row>
-    <row r="44" spans="1:24" ht="15.75" customHeight="1">
+    <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="26" t="s">
         <v>43</v>
       </c>
@@ -3547,7 +3552,7 @@
       <c r="W44" s="21"/>
       <c r="X44" s="10"/>
     </row>
-    <row r="45" spans="1:24" ht="15.75" customHeight="1">
+    <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="26" t="s">
         <v>43</v>
       </c>
@@ -3595,7 +3600,7 @@
       <c r="W45" s="21"/>
       <c r="X45" s="10"/>
     </row>
-    <row r="46" spans="1:24" ht="15.75" customHeight="1">
+    <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="26" t="s">
         <v>43</v>
       </c>
@@ -3643,7 +3648,7 @@
       <c r="W46" s="21"/>
       <c r="X46" s="10"/>
     </row>
-    <row r="47" spans="1:24" ht="15.75" customHeight="1">
+    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="26" t="s">
         <v>43</v>
       </c>
@@ -3691,7 +3696,7 @@
       <c r="W47" s="21"/>
       <c r="X47" s="10"/>
     </row>
-    <row r="48" spans="1:24" s="29" customFormat="1" ht="15.75" customHeight="1">
+    <row r="48" spans="1:24" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="26" t="s">
         <v>43</v>
       </c>
@@ -3747,7 +3752,7 @@
       <c r="W48" s="21"/>
       <c r="X48" s="28"/>
     </row>
-    <row r="49" spans="1:24" ht="15.75" customHeight="1">
+    <row r="49" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="26" t="s">
         <v>43</v>
       </c>
@@ -3813,7 +3818,7 @@
       <c r="W49" s="21"/>
       <c r="X49" s="10"/>
     </row>
-    <row r="50" spans="1:24" s="35" customFormat="1" ht="15.75" customHeight="1">
+    <row r="50" spans="1:24" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="26" t="s">
         <v>43</v>
       </c>
@@ -3875,7 +3880,7 @@
       <c r="W50" s="21"/>
       <c r="X50" s="34"/>
     </row>
-    <row r="51" spans="1:24" ht="15.75" customHeight="1">
+    <row r="51" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="26" t="s">
         <v>58</v>
       </c>
@@ -3945,7 +3950,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="15.75" customHeight="1">
+    <row r="52" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="26" t="s">
         <v>58</v>
       </c>
@@ -4013,7 +4018,7 @@
       <c r="W52" s="21"/>
       <c r="X52" s="38"/>
     </row>
-    <row r="53" spans="1:24" ht="15.75" customHeight="1">
+    <row r="53" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="26" t="s">
         <v>62</v>
       </c>
@@ -4079,7 +4084,7 @@
       <c r="W53" s="21"/>
       <c r="X53" s="10"/>
     </row>
-    <row r="54" spans="1:24" s="15" customFormat="1" ht="15.75" customHeight="1">
+    <row r="54" spans="1:24" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="18" t="s">
         <v>63</v>
       </c>
@@ -4113,7 +4118,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="15.75" customHeight="1">
+    <row r="55" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="16" t="s">
         <v>63</v>
       </c>
@@ -4156,7 +4161,7 @@
       <c r="V55" s="17"/>
       <c r="W55" s="17"/>
     </row>
-    <row r="56" spans="1:24" ht="15.75" customHeight="1">
+    <row r="56" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="16" t="s">
         <v>63</v>
       </c>
@@ -4187,7 +4192,7 @@
       <c r="V56" s="17"/>
       <c r="W56" s="17"/>
     </row>
-    <row r="57" spans="1:24" ht="15.75" customHeight="1">
+    <row r="57" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="16" t="s">
         <v>63</v>
       </c>
@@ -4218,7 +4223,7 @@
       <c r="V57" s="17"/>
       <c r="W57" s="17"/>
     </row>
-    <row r="58" spans="1:24" ht="15.75" customHeight="1">
+    <row r="58" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="16" t="s">
         <v>63</v>
       </c>
@@ -4249,7 +4254,7 @@
       <c r="V58" s="17"/>
       <c r="W58" s="17"/>
     </row>
-    <row r="59" spans="1:24" s="36" customFormat="1" ht="15.75" customHeight="1">
+    <row r="59" spans="1:24" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="16" t="s">
         <v>63</v>
       </c>
@@ -4280,7 +4285,7 @@
       <c r="V59" s="17"/>
       <c r="W59" s="17"/>
     </row>
-    <row r="60" spans="1:24" s="33" customFormat="1" ht="15.75" customHeight="1">
+    <row r="60" spans="1:24" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="16" t="s">
         <v>63</v>
       </c>
@@ -4311,7 +4316,7 @@
       <c r="V60" s="17"/>
       <c r="W60" s="17"/>
     </row>
-    <row r="61" spans="1:24" ht="15.75" customHeight="1">
+    <row r="61" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="16" t="s">
         <v>110</v>
       </c>
@@ -4342,7 +4347,7 @@
       <c r="V61" s="20"/>
       <c r="W61" s="20"/>
     </row>
-    <row r="62" spans="1:24" ht="15.75" customHeight="1">
+    <row r="62" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="16" t="s">
         <v>124</v>
       </c>
@@ -4396,11 +4401,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4412,7 +4412,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" customWidth="1"/>
@@ -4420,7 +4420,7 @@
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>70</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>73</v>
       </c>
@@ -4450,7 +4450,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="15">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>75</v>
       </c>
@@ -4463,7 +4463,7 @@
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="1:5" ht="15">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>77</v>
       </c>
@@ -4476,7 +4476,7 @@
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="1:5" ht="15">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>97</v>
       </c>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:5" ht="15">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>98</v>
       </c>
@@ -4506,7 +4506,7 @@
       </c>
       <c r="E6" s="24"/>
     </row>
-    <row r="7" spans="1:5" ht="15">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>99</v>
       </c>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:5" ht="15">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>100</v>
       </c>
@@ -4536,7 +4536,7 @@
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:5" ht="15">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>109</v>
       </c>
@@ -4549,7 +4549,7 @@
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
     </row>
-    <row r="10" spans="1:5" ht="15">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>108</v>
       </c>
@@ -4562,7 +4562,7 @@
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
     </row>
-    <row r="11" spans="1:5" ht="15">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>107</v>
       </c>
@@ -4575,7 +4575,7 @@
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
-    <row r="12" spans="1:5" ht="15">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>101</v>
       </c>
@@ -4590,7 +4590,7 @@
       </c>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:5" ht="15">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>106</v>
       </c>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:5" ht="15">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>102</v>
       </c>
@@ -4620,7 +4620,7 @@
       </c>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:5" ht="15">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>103</v>
       </c>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:5" ht="15">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>104</v>
       </c>
@@ -4650,7 +4650,7 @@
       </c>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="1:5" ht="15">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>127</v>
       </c>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="E17" s="24"/>
     </row>
-    <row r="18" spans="1:5" ht="15">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>12</v>
       </c>
@@ -4680,7 +4680,7 @@
       </c>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" ht="15">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>13</v>
       </c>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" ht="15">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>105</v>
       </c>
@@ -4710,7 +4710,7 @@
       </c>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" ht="15">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>117</v>
       </c>
@@ -4730,10 +4730,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -1159,10 +1159,10 @@
   <dimension ref="A1:X62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="17" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>136</v>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -1159,10 +1159,10 @@
   <dimension ref="A1:X62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="17" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>136</v>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarihan/Desktop/Harja/harja/resources/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="41500" windowHeight="24520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="49180" windowHeight="24520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -17,18 +12,18 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="150">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -475,9 +470,6 @@
   </si>
   <si>
     <t>R*,W,valmis</t>
-  </si>
-  <si>
-    <t>R*,W+,valmis+</t>
   </si>
   <si>
     <t>R*,W*,päätös*,asiatarkastus*</t>
@@ -597,8 +589,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -745,7 +741,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -784,6 +780,8 @@
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -822,6 +820,8 @@
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1159,13 +1159,13 @@
   <dimension ref="A1:X62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
@@ -1192,7 +1192,7 @@
     <col min="24" max="24" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1212,7 +1212,7 @@
       <c r="M1" s="38"/>
       <c r="N1" s="38"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="40" t="s">
@@ -1230,7 +1230,7 @@
       <c r="M2" s="38"/>
       <c r="N2" s="38"/>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -1245,10 +1245,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1">
       <c r="C5" s="39" t="s">
         <v>6</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>133</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K7" s="17" t="s">
         <v>136</v>
@@ -1414,7 +1414,7 @@
       <c r="W7" s="17"/>
       <c r="X7" s="10"/>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1">
       <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
@@ -1435,7 +1435,7 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K8" s="17" t="s">
         <v>136</v>
@@ -1468,7 +1468,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
@@ -1489,7 +1489,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>136</v>
@@ -1516,7 +1516,7 @@
       <c r="W9" s="17"/>
       <c r="X9" s="10"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
@@ -1537,7 +1537,7 @@
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>136</v>
@@ -1564,7 +1564,7 @@
       <c r="W10" s="17"/>
       <c r="X10" s="10"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>15</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>133</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K11" s="17" t="s">
         <v>136</v>
@@ -1626,7 +1626,7 @@
       <c r="W11" s="17"/>
       <c r="X11" s="10"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>133</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K12" s="17" t="s">
         <v>136</v>
@@ -1688,7 +1688,7 @@
       <c r="W12" s="17"/>
       <c r="X12" s="10"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1">
       <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
@@ -1709,7 +1709,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K13" s="17" t="s">
         <v>133</v>
@@ -1736,7 +1736,7 @@
       <c r="W13" s="17"/>
       <c r="X13" s="10"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="16" t="s">
         <v>15</v>
       </c>
@@ -1757,7 +1757,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K14" s="17" t="s">
         <v>133</v>
@@ -1784,7 +1784,7 @@
       <c r="W14" s="17"/>
       <c r="X14" s="10"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
@@ -1805,7 +1805,7 @@
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K15" s="17" t="s">
         <v>133</v>
@@ -1832,7 +1832,7 @@
       <c r="W15" s="17"/>
       <c r="X15" s="10"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>133</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K16" s="17" t="s">
         <v>133</v>
@@ -1894,7 +1894,7 @@
       <c r="W16" s="17"/>
       <c r="X16" s="10"/>
     </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>133</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K17" s="17" t="s">
         <v>133</v>
@@ -1956,7 +1956,7 @@
       <c r="W17" s="17"/>
       <c r="X17" s="10"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1">
       <c r="A18" s="16" t="s">
         <v>15</v>
       </c>
@@ -1977,7 +1977,7 @@
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K18" s="17" t="s">
         <v>136</v>
@@ -2004,7 +2004,7 @@
       <c r="W18" s="17"/>
       <c r="X18" s="10"/>
     </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1">
       <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>133</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K19" s="17" t="s">
         <v>133</v>
@@ -2066,7 +2066,7 @@
       <c r="W19" s="17"/>
       <c r="X19" s="10"/>
     </row>
-    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" ht="15.75" customHeight="1">
       <c r="A20" s="16" t="s">
         <v>15</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>133</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K20" s="17" t="s">
         <v>136</v>
@@ -2132,7 +2132,7 @@
       <c r="W20" s="17"/>
       <c r="X20" s="10"/>
     </row>
-    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" ht="15.75" customHeight="1">
       <c r="A21" s="26" t="s">
         <v>15</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>133</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K21" s="17" t="s">
         <v>136</v>
@@ -2200,7 +2200,7 @@
       <c r="W21" s="21"/>
       <c r="X21" s="10"/>
     </row>
-    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" ht="15.75" customHeight="1">
       <c r="A22" s="26" t="s">
         <v>15</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>133</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K22" s="21" t="s">
         <v>139</v>
@@ -2266,7 +2266,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24" ht="15.75" customHeight="1">
       <c r="A23" s="26" t="s">
         <v>15</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>133</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K23" s="21" t="s">
         <v>136</v>
@@ -2332,7 +2332,7 @@
       <c r="W23" s="21"/>
       <c r="X23" s="10"/>
     </row>
-    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" ht="15.75" customHeight="1">
       <c r="A24" s="26" t="s">
         <v>15</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>133</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K24" s="21" t="s">
         <v>148</v>
@@ -2396,7 +2396,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" ht="15.75" customHeight="1">
       <c r="A25" s="26" t="s">
         <v>15</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>132</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K25" s="21" t="s">
         <v>136</v>
@@ -2446,7 +2446,7 @@
       <c r="W25" s="21"/>
       <c r="X25" s="10"/>
     </row>
-    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" ht="15.75" customHeight="1">
       <c r="A26" s="26" t="s">
         <v>15</v>
       </c>
@@ -2467,7 +2467,7 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K26" s="21" t="s">
         <v>136</v>
@@ -2492,7 +2492,7 @@
       <c r="W26" s="21"/>
       <c r="X26" s="10"/>
     </row>
-    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" ht="15.75" customHeight="1">
       <c r="A27" s="26" t="s">
         <v>15</v>
       </c>
@@ -2511,7 +2511,7 @@
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K27" s="21" t="s">
         <v>136</v>
@@ -2532,7 +2532,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" ht="15.75" customHeight="1">
       <c r="A28" s="26" t="s">
         <v>15</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>133</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K28" s="21" t="s">
         <v>136</v>
@@ -2598,7 +2598,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" ht="15.75" customHeight="1">
       <c r="A29" s="26" t="s">
         <v>15</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>133</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K29" s="21" t="s">
         <v>136</v>
@@ -2656,7 +2656,7 @@
       <c r="W29" s="21"/>
       <c r="X29" s="10"/>
     </row>
-    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" ht="15.75" customHeight="1">
       <c r="A30" s="26" t="s">
         <v>15</v>
       </c>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>136</v>
@@ -2683,7 +2683,7 @@
         <v>133</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K30" s="21" t="s">
         <v>139</v>
@@ -2716,7 +2716,7 @@
       <c r="W30" s="21"/>
       <c r="X30" s="10"/>
     </row>
-    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" ht="15.75" customHeight="1">
       <c r="A31" s="26" t="s">
         <v>15</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>133</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K31" s="21" t="s">
         <v>136</v>
@@ -2774,7 +2774,7 @@
       <c r="W31" s="21"/>
       <c r="X31" s="10"/>
     </row>
-    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" ht="15.75" customHeight="1">
       <c r="A32" s="26" t="s">
         <v>15</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>133</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K32" s="21" t="s">
         <v>136</v>
@@ -2832,7 +2832,7 @@
       <c r="W32" s="21"/>
       <c r="X32" s="10"/>
     </row>
-    <row r="33" spans="1:24" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:24" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A33" s="26" t="s">
         <v>15</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>132</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K33" s="21" t="s">
         <v>139</v>
@@ -2900,7 +2900,7 @@
       <c r="W33" s="21"/>
       <c r="X33" s="12"/>
     </row>
-    <row r="34" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A34" s="26" t="s">
         <v>43</v>
       </c>
@@ -2946,7 +2946,7 @@
       <c r="W34" s="21"/>
       <c r="X34" s="31"/>
     </row>
-    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:24" ht="15.75" customHeight="1">
       <c r="A35" s="26" t="s">
         <v>43</v>
       </c>
@@ -2996,7 +2996,7 @@
       <c r="W35" s="21"/>
       <c r="X35" s="10"/>
     </row>
-    <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:24" ht="15.75" customHeight="1">
       <c r="A36" s="26" t="s">
         <v>43</v>
       </c>
@@ -3062,7 +3062,7 @@
       <c r="W36" s="21"/>
       <c r="X36" s="10"/>
     </row>
-    <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:24" ht="15.75" customHeight="1">
       <c r="A37" s="26" t="s">
         <v>43</v>
       </c>
@@ -3128,7 +3128,7 @@
       <c r="W37" s="21"/>
       <c r="X37" s="10"/>
     </row>
-    <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:24" ht="15.75" customHeight="1">
       <c r="A38" s="26" t="s">
         <v>43</v>
       </c>
@@ -3194,7 +3194,7 @@
       <c r="W38" s="21"/>
       <c r="X38" s="10"/>
     </row>
-    <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:24" ht="15.75" customHeight="1">
       <c r="A39" s="26" t="s">
         <v>43</v>
       </c>
@@ -3260,7 +3260,7 @@
       <c r="W39" s="21"/>
       <c r="X39" s="10"/>
     </row>
-    <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:24" ht="15.75" customHeight="1">
       <c r="A40" s="26" t="s">
         <v>43</v>
       </c>
@@ -3326,7 +3326,7 @@
       <c r="W40" s="21"/>
       <c r="X40" s="10"/>
     </row>
-    <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:24" ht="15.75" customHeight="1">
       <c r="A41" s="26" t="s">
         <v>43</v>
       </c>
@@ -3386,7 +3386,7 @@
       <c r="W41" s="21"/>
       <c r="X41" s="10"/>
     </row>
-    <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:24" ht="15.75" customHeight="1">
       <c r="A42" s="26" t="s">
         <v>43</v>
       </c>
@@ -3452,7 +3452,7 @@
       <c r="W42" s="21"/>
       <c r="X42" s="10"/>
     </row>
-    <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:24" ht="15.75" customHeight="1">
       <c r="A43" s="26" t="s">
         <v>43</v>
       </c>
@@ -3502,7 +3502,7 @@
       <c r="W43" s="21"/>
       <c r="X43" s="10"/>
     </row>
-    <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:24" ht="15.75" customHeight="1">
       <c r="A44" s="26" t="s">
         <v>43</v>
       </c>
@@ -3552,7 +3552,7 @@
       <c r="W44" s="21"/>
       <c r="X44" s="10"/>
     </row>
-    <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:24" ht="15.75" customHeight="1">
       <c r="A45" s="26" t="s">
         <v>43</v>
       </c>
@@ -3600,7 +3600,7 @@
       <c r="W45" s="21"/>
       <c r="X45" s="10"/>
     </row>
-    <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:24" ht="15.75" customHeight="1">
       <c r="A46" s="26" t="s">
         <v>43</v>
       </c>
@@ -3648,7 +3648,7 @@
       <c r="W46" s="21"/>
       <c r="X46" s="10"/>
     </row>
-    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:24" ht="15.75" customHeight="1">
       <c r="A47" s="26" t="s">
         <v>43</v>
       </c>
@@ -3696,7 +3696,7 @@
       <c r="W47" s="21"/>
       <c r="X47" s="10"/>
     </row>
-    <row r="48" spans="1:24" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:24" s="29" customFormat="1" ht="15.75" customHeight="1">
       <c r="A48" s="26" t="s">
         <v>43</v>
       </c>
@@ -3752,7 +3752,7 @@
       <c r="W48" s="21"/>
       <c r="X48" s="28"/>
     </row>
-    <row r="49" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:24" ht="15.75" customHeight="1">
       <c r="A49" s="26" t="s">
         <v>43</v>
       </c>
@@ -3818,7 +3818,7 @@
       <c r="W49" s="21"/>
       <c r="X49" s="10"/>
     </row>
-    <row r="50" spans="1:24" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:24" s="35" customFormat="1" ht="15.75" customHeight="1">
       <c r="A50" s="26" t="s">
         <v>43</v>
       </c>
@@ -3880,7 +3880,7 @@
       <c r="W50" s="21"/>
       <c r="X50" s="34"/>
     </row>
-    <row r="51" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:24" ht="15.75" customHeight="1">
       <c r="A51" s="26" t="s">
         <v>58</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:24" ht="15.75" customHeight="1">
       <c r="A52" s="26" t="s">
         <v>58</v>
       </c>
@@ -4018,7 +4018,7 @@
       <c r="W52" s="21"/>
       <c r="X52" s="38"/>
     </row>
-    <row r="53" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:24" ht="15.75" customHeight="1">
       <c r="A53" s="26" t="s">
         <v>62</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>133</v>
       </c>
       <c r="J53" s="21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K53" s="21" t="s">
         <v>136</v>
@@ -4084,7 +4084,7 @@
       <c r="W53" s="21"/>
       <c r="X53" s="10"/>
     </row>
-    <row r="54" spans="1:24" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:24" s="15" customFormat="1" ht="15.75" customHeight="1">
       <c r="A54" s="18" t="s">
         <v>63</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:24" ht="15.75" customHeight="1">
       <c r="A55" s="16" t="s">
         <v>63</v>
       </c>
@@ -4161,7 +4161,7 @@
       <c r="V55" s="17"/>
       <c r="W55" s="17"/>
     </row>
-    <row r="56" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:24" ht="15.75" customHeight="1">
       <c r="A56" s="16" t="s">
         <v>63</v>
       </c>
@@ -4192,7 +4192,7 @@
       <c r="V56" s="17"/>
       <c r="W56" s="17"/>
     </row>
-    <row r="57" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:24" ht="15.75" customHeight="1">
       <c r="A57" s="16" t="s">
         <v>63</v>
       </c>
@@ -4223,7 +4223,7 @@
       <c r="V57" s="17"/>
       <c r="W57" s="17"/>
     </row>
-    <row r="58" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:24" ht="15.75" customHeight="1">
       <c r="A58" s="16" t="s">
         <v>63</v>
       </c>
@@ -4254,7 +4254,7 @@
       <c r="V58" s="17"/>
       <c r="W58" s="17"/>
     </row>
-    <row r="59" spans="1:24" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:24" s="36" customFormat="1" ht="15.75" customHeight="1">
       <c r="A59" s="16" t="s">
         <v>63</v>
       </c>
@@ -4285,7 +4285,7 @@
       <c r="V59" s="17"/>
       <c r="W59" s="17"/>
     </row>
-    <row r="60" spans="1:24" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:24" s="33" customFormat="1" ht="15.75" customHeight="1">
       <c r="A60" s="16" t="s">
         <v>63</v>
       </c>
@@ -4316,7 +4316,7 @@
       <c r="V60" s="17"/>
       <c r="W60" s="17"/>
     </row>
-    <row r="61" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:24" ht="15.75" customHeight="1">
       <c r="A61" s="16" t="s">
         <v>110</v>
       </c>
@@ -4347,7 +4347,7 @@
       <c r="V61" s="20"/>
       <c r="W61" s="20"/>
     </row>
-    <row r="62" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:24" ht="15.75" customHeight="1">
       <c r="A62" s="16" t="s">
         <v>124</v>
       </c>
@@ -4401,6 +4401,11 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4412,7 +4417,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" customWidth="1"/>
@@ -4420,7 +4425,7 @@
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="22" t="s">
         <v>70</v>
       </c>
@@ -4437,7 +4442,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15">
       <c r="A2" s="23" t="s">
         <v>73</v>
       </c>
@@ -4450,7 +4455,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15">
       <c r="A3" s="23" t="s">
         <v>75</v>
       </c>
@@ -4463,7 +4468,7 @@
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15">
       <c r="A4" s="23" t="s">
         <v>77</v>
       </c>
@@ -4476,7 +4481,7 @@
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15">
       <c r="A5" s="23" t="s">
         <v>97</v>
       </c>
@@ -4491,7 +4496,7 @@
       </c>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15">
       <c r="A6" s="23" t="s">
         <v>98</v>
       </c>
@@ -4506,7 +4511,7 @@
       </c>
       <c r="E6" s="24"/>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15">
       <c r="A7" s="23" t="s">
         <v>99</v>
       </c>
@@ -4521,7 +4526,7 @@
       </c>
       <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15">
       <c r="A8" s="23" t="s">
         <v>100</v>
       </c>
@@ -4536,7 +4541,7 @@
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15">
       <c r="A9" s="23" t="s">
         <v>109</v>
       </c>
@@ -4549,7 +4554,7 @@
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15">
       <c r="A10" s="23" t="s">
         <v>108</v>
       </c>
@@ -4562,7 +4567,7 @@
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15">
       <c r="A11" s="23" t="s">
         <v>107</v>
       </c>
@@ -4575,7 +4580,7 @@
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15">
       <c r="A12" s="23" t="s">
         <v>101</v>
       </c>
@@ -4590,7 +4595,7 @@
       </c>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15">
       <c r="A13" s="23" t="s">
         <v>106</v>
       </c>
@@ -4605,7 +4610,7 @@
       </c>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15">
       <c r="A14" s="23" t="s">
         <v>102</v>
       </c>
@@ -4620,7 +4625,7 @@
       </c>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15">
       <c r="A15" s="23" t="s">
         <v>103</v>
       </c>
@@ -4635,7 +4640,7 @@
       </c>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15">
       <c r="A16" s="23" t="s">
         <v>104</v>
       </c>
@@ -4650,7 +4655,7 @@
       </c>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15">
       <c r="A17" s="23" t="s">
         <v>127</v>
       </c>
@@ -4665,7 +4670,7 @@
       </c>
       <c r="E17" s="24"/>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15">
       <c r="A18" s="23" t="s">
         <v>12</v>
       </c>
@@ -4680,7 +4685,7 @@
       </c>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15">
       <c r="A19" s="23" t="s">
         <v>13</v>
       </c>
@@ -4695,7 +4700,7 @@
       </c>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15">
       <c r="A20" s="23" t="s">
         <v>105</v>
       </c>
@@ -4710,7 +4715,7 @@
       </c>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15">
       <c r="A21" s="23" t="s">
         <v>117</v>
       </c>
@@ -4730,5 +4735,10 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="49180" windowHeight="24520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="49980" windowHeight="27800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="155">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -473,6 +473,21 @@
   </si>
   <si>
     <t>R*,W*,päätös*,asiatarkastus*</t>
+  </si>
+  <si>
+    <t>Toimenpidekilometrit</t>
+  </si>
+  <si>
+    <t>Toimenpidepäivät</t>
+  </si>
+  <si>
+    <t>Välitavoiteraportti</t>
+  </si>
+  <si>
+    <t>Siltatarkastusraportti</t>
+  </si>
+  <si>
+    <t>Indeksitarkistusraportti</t>
   </si>
 </sst>
 </file>
@@ -589,7 +604,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -671,8 +686,38 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -738,10 +783,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="111">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -782,6 +831,21 @@
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -822,6 +886,21 @@
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1156,13 +1235,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X62"/>
+  <dimension ref="A1:X67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1197,38 +1276,38 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
@@ -1249,30 +1328,30 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1">
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="J5" s="39" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="J5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="P5" s="39" t="s">
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="P5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
       <c r="X5" s="5" t="s">
         <v>14</v>
       </c>
@@ -3818,7 +3897,7 @@
       <c r="W49" s="21"/>
       <c r="X49" s="10"/>
     </row>
-    <row r="50" spans="1:24" s="35" customFormat="1" ht="15.75" customHeight="1">
+    <row r="50" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A50" s="26" t="s">
         <v>43</v>
       </c>
@@ -3878,14 +3957,14 @@
       <c r="U50" s="21"/>
       <c r="V50" s="21"/>
       <c r="W50" s="21"/>
-      <c r="X50" s="34"/>
-    </row>
-    <row r="51" spans="1:24" ht="15.75" customHeight="1">
+      <c r="X50" s="37"/>
+    </row>
+    <row r="51" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A51" s="26" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="C51" s="21"/>
       <c r="D51" s="21" t="s">
@@ -3936,26 +4015,18 @@
       <c r="S51" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T51" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="U51" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="V51" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="T51" s="21"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="21"/>
       <c r="W51" s="21"/>
-      <c r="X51" s="37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" ht="15.75" customHeight="1">
+      <c r="X51" s="37"/>
+    </row>
+    <row r="52" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A52" s="26" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="21" t="s">
@@ -4006,306 +4077,457 @@
       <c r="S52" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T52" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="U52" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="V52" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="T52" s="21"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
       <c r="W52" s="21"/>
-      <c r="X52" s="38"/>
-    </row>
-    <row r="53" spans="1:24" ht="15.75" customHeight="1">
+      <c r="X52" s="37"/>
+    </row>
+    <row r="53" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A53" s="26" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E53" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="I53" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="J53" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K53" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="L53" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="M53" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="N53" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="O53" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="P53" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q53" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R53" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="S53" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T53" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="U53" s="21"/>
+      <c r="V53" s="21"/>
+      <c r="W53" s="21"/>
+      <c r="X53" s="37"/>
+    </row>
+    <row r="54" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A54" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="I54" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="J54" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K54" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="L54" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="M54" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="N54" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="O54" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="P54" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q54" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R54" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="S54" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T54" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="U54" s="21"/>
+      <c r="V54" s="21"/>
+      <c r="W54" s="21"/>
+      <c r="X54" s="37"/>
+    </row>
+    <row r="55" spans="1:24" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A55" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K55" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q55" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="21"/>
+      <c r="W55" s="21"/>
+      <c r="X55" s="34"/>
+    </row>
+    <row r="56" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A56" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="I56" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="J56" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K56" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="L56" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="M56" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="N56" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="O56" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="P56" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q56" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R56" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="S56" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T56" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="U56" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V56" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="W56" s="21"/>
+      <c r="X56" s="39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A57" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G57" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H57" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="I57" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="J57" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K57" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="L57" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="M57" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="N57" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="O57" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="P57" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q57" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R57" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="S57" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T57" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="U57" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V57" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="W57" s="21"/>
+      <c r="X57" s="40"/>
+    </row>
+    <row r="58" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A58" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="F53" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="G53" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="H53" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="I53" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="J53" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="K53" s="21" t="s">
+      <c r="F58" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G58" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H58" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="I58" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="J58" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K58" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="L53" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="M53" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="N53" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="O53" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="P53" s="21" t="s">
+      <c r="L58" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="M58" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="N58" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="O58" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="P58" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="Q53" s="21" t="s">
+      <c r="Q58" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="R53" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="S53" s="21"/>
-      <c r="T53" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="U53" s="21" t="s">
+      <c r="R58" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="S58" s="21"/>
+      <c r="T58" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="U58" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="V53" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="W53" s="21"/>
-      <c r="X53" s="10"/>
-    </row>
-    <row r="54" spans="1:24" s="15" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A54" s="18" t="s">
+      <c r="V58" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="W58" s="21"/>
+      <c r="X58" s="10"/>
+    </row>
+    <row r="59" spans="1:24" s="15" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A59" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B59" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="19"/>
-      <c r="S54" s="19"/>
-      <c r="T54" s="19"/>
-      <c r="U54" s="19"/>
-      <c r="V54" s="19"/>
-      <c r="W54" s="19"/>
-      <c r="X54" s="14" t="s">
+      <c r="C59" s="19"/>
+      <c r="D59" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="19"/>
+      <c r="X59" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A55" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M55" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="N55" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="17"/>
-      <c r="T55" s="17"/>
-      <c r="U55" s="17"/>
-      <c r="V55" s="17"/>
-      <c r="W55" s="17"/>
-    </row>
-    <row r="56" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A56" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="17"/>
-      <c r="S56" s="17"/>
-      <c r="T56" s="17"/>
-      <c r="U56" s="17"/>
-      <c r="V56" s="17"/>
-      <c r="W56" s="17"/>
-    </row>
-    <row r="57" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A57" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" s="17"/>
-      <c r="D57" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
-      <c r="R57" s="17"/>
-      <c r="S57" s="17"/>
-      <c r="T57" s="17"/>
-      <c r="U57" s="17"/>
-      <c r="V57" s="17"/>
-      <c r="W57" s="17"/>
-    </row>
-    <row r="58" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A58" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="17"/>
-      <c r="T58" s="17"/>
-      <c r="U58" s="17"/>
-      <c r="V58" s="17"/>
-      <c r="W58" s="17"/>
-    </row>
-    <row r="59" spans="1:24" s="36" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A59" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
-      <c r="R59" s="17"/>
-      <c r="S59" s="17"/>
-      <c r="T59" s="17"/>
-      <c r="U59" s="17"/>
-      <c r="V59" s="17"/>
-      <c r="W59" s="17"/>
-    </row>
-    <row r="60" spans="1:24" s="33" customFormat="1" ht="15.75" customHeight="1">
+    <row r="60" spans="1:24" ht="15.75" customHeight="1">
       <c r="A60" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="C60" s="17"/>
       <c r="D60" s="21" t="s">
         <v>132</v>
       </c>
       <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
+      <c r="F60" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
+      <c r="L60" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M60" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N60" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="O60" s="17"/>
       <c r="P60" s="17"/>
       <c r="Q60" s="17"/>
@@ -4318,81 +4540,236 @@
     </row>
     <row r="61" spans="1:24" ht="15.75" customHeight="1">
       <c r="A61" s="16" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C61" s="20"/>
+        <v>67</v>
+      </c>
+      <c r="C61" s="17"/>
       <c r="D61" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="20"/>
-      <c r="P61" s="20"/>
-      <c r="Q61" s="20"/>
-      <c r="R61" s="20"/>
-      <c r="S61" s="20"/>
-      <c r="T61" s="20"/>
-      <c r="U61" s="20"/>
-      <c r="V61" s="20"/>
-      <c r="W61" s="20"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="17"/>
+      <c r="U61" s="17"/>
+      <c r="V61" s="17"/>
+      <c r="W61" s="17"/>
     </row>
     <row r="62" spans="1:24" ht="15.75" customHeight="1">
       <c r="A62" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="17"/>
+      <c r="D62" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="17"/>
+      <c r="U62" s="17"/>
+      <c r="V62" s="17"/>
+      <c r="W62" s="17"/>
+    </row>
+    <row r="63" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A63" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="17"/>
+      <c r="D63" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="17"/>
+      <c r="U63" s="17"/>
+      <c r="V63" s="17"/>
+      <c r="W63" s="17"/>
+    </row>
+    <row r="64" spans="1:24" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A64" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="17"/>
+      <c r="D64" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
+      <c r="R64" s="17"/>
+      <c r="S64" s="17"/>
+      <c r="T64" s="17"/>
+      <c r="U64" s="17"/>
+      <c r="V64" s="17"/>
+      <c r="W64" s="17"/>
+    </row>
+    <row r="65" spans="1:23" s="33" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A65" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="17"/>
+      <c r="D65" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
+      <c r="R65" s="17"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="17"/>
+      <c r="U65" s="17"/>
+      <c r="V65" s="17"/>
+      <c r="W65" s="17"/>
+    </row>
+    <row r="66" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A66" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" s="20"/>
+      <c r="D66" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="20"/>
+      <c r="T66" s="20"/>
+      <c r="U66" s="20"/>
+      <c r="V66" s="20"/>
+      <c r="W66" s="20"/>
+    </row>
+    <row r="67" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A67" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B67" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C62" s="20"/>
-      <c r="D62" s="21" t="s">
+      <c r="C67" s="20"/>
+      <c r="D67" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="E62" s="30" t="s">
+      <c r="E67" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30" t="s">
+      <c r="F67" s="30"/>
+      <c r="G67" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30" t="s">
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="K62" s="30" t="s">
+      <c r="K67" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="L62" s="30" t="s">
+      <c r="L67" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="M62" s="30" t="s">
+      <c r="M67" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="N62" s="30"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="30"/>
-      <c r="R62" s="30"/>
-      <c r="S62" s="30"/>
-      <c r="T62" s="30"/>
-      <c r="U62" s="30"/>
-      <c r="V62" s="30"/>
-      <c r="W62" s="30"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
+      <c r="Q67" s="30"/>
+      <c r="R67" s="30"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="30"/>
+      <c r="U67" s="30"/>
+      <c r="V67" s="30"/>
+      <c r="W67" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="X51:X52"/>
+    <mergeCell ref="X56:X57"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="J5:N5"/>
     <mergeCell ref="P5:V5"/>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="49980" windowHeight="27800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="49980" windowHeight="27880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="156">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -488,6 +488,9 @@
   </si>
   <si>
     <t>Indeksitarkistusraportti</t>
+  </si>
+  <si>
+    <t>Laaduntarkastusraportti</t>
   </si>
 </sst>
 </file>
@@ -604,8 +607,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="111">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -790,7 +797,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="111">
+  <cellStyles count="115">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -846,6 +853,8 @@
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -901,6 +910,8 @@
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1235,13 +1246,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X67"/>
+  <dimension ref="A1:X68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G52" sqref="G52"/>
+      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -3141,7 +3152,7 @@
       <c r="W36" s="21"/>
       <c r="X36" s="10"/>
     </row>
-    <row r="37" spans="1:24" ht="15.75" customHeight="1">
+    <row r="37" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A37" s="26" t="s">
         <v>43</v>
       </c>
@@ -3205,14 +3216,14 @@
         <v>17</v>
       </c>
       <c r="W37" s="21"/>
-      <c r="X37" s="10"/>
+      <c r="X37" s="37"/>
     </row>
     <row r="38" spans="1:24" ht="15.75" customHeight="1">
       <c r="A38" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="21" t="s">
@@ -3278,7 +3289,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="21" t="s">
@@ -3344,7 +3355,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="21"/>
       <c r="D40" s="21" t="s">
@@ -3410,7 +3421,7 @@
         <v>43</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="21"/>
       <c r="D41" s="21" t="s">
@@ -3443,8 +3454,12 @@
       <c r="M41" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
+      <c r="N41" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="O41" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="P41" s="21" t="s">
         <v>137</v>
       </c>
@@ -3454,7 +3469,9 @@
       <c r="R41" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="S41" s="21"/>
+      <c r="S41" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="T41" s="21" t="s">
         <v>137</v>
       </c>
@@ -3470,7 +3487,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="21" t="s">
@@ -3503,12 +3520,8 @@
       <c r="M42" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="N42" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="O42" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
       <c r="P42" s="21" t="s">
         <v>137</v>
       </c>
@@ -3518,9 +3531,7 @@
       <c r="R42" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="S42" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="S42" s="21"/>
       <c r="T42" s="21" t="s">
         <v>137</v>
       </c>
@@ -3536,7 +3547,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="21" t="s">
@@ -3545,9 +3556,15 @@
       <c r="E43" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
+      <c r="F43" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="I43" s="21" t="s">
         <v>133</v>
       </c>
@@ -3557,9 +3574,15 @@
       <c r="K43" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
+      <c r="L43" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="M43" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="N43" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="O43" s="21" t="s">
         <v>133</v>
       </c>
@@ -3569,8 +3592,12 @@
       <c r="Q43" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
+      <c r="R43" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="S43" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="T43" s="21" t="s">
         <v>137</v>
       </c>
@@ -3586,7 +3613,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="21" t="s">
@@ -3595,14 +3622,12 @@
       <c r="E44" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="F44" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="F44" s="21"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="J44" s="21" t="s">
         <v>133</v>
       </c>
@@ -3610,13 +3635,11 @@
         <v>133</v>
       </c>
       <c r="L44" s="21"/>
-      <c r="M44" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="N44" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="O44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="P44" s="21" t="s">
         <v>137</v>
       </c>
@@ -3625,9 +3648,13 @@
       </c>
       <c r="R44" s="21"/>
       <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
+      <c r="T44" s="21" t="s">
+        <v>137</v>
+      </c>
       <c r="U44" s="21"/>
-      <c r="V44" s="21"/>
+      <c r="V44" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="W44" s="21"/>
       <c r="X44" s="10"/>
     </row>
@@ -3636,7 +3663,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="21" t="s">
@@ -3649,7 +3676,9 @@
         <v>133</v>
       </c>
       <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
+      <c r="H45" s="21" t="s">
+        <v>19</v>
+      </c>
       <c r="I45" s="21"/>
       <c r="J45" s="21" t="s">
         <v>133</v>
@@ -3661,7 +3690,9 @@
       <c r="M45" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="N45" s="21"/>
+      <c r="N45" s="21" t="s">
+        <v>19</v>
+      </c>
       <c r="O45" s="21"/>
       <c r="P45" s="21" t="s">
         <v>137</v>
@@ -3671,9 +3702,7 @@
       </c>
       <c r="R45" s="21"/>
       <c r="S45" s="21"/>
-      <c r="T45" s="21" t="s">
-        <v>137</v>
-      </c>
+      <c r="T45" s="21"/>
       <c r="U45" s="21"/>
       <c r="V45" s="21"/>
       <c r="W45" s="21"/>
@@ -3684,7 +3713,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="21" t="s">
@@ -3732,7 +3761,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" s="21"/>
       <c r="D47" s="21" t="s">
@@ -3775,12 +3804,12 @@
       <c r="W47" s="21"/>
       <c r="X47" s="10"/>
     </row>
-    <row r="48" spans="1:24" s="29" customFormat="1" ht="15.75" customHeight="1">
+    <row r="48" spans="1:24" ht="15.75" customHeight="1">
       <c r="A48" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="21" t="s">
@@ -3793,12 +3822,8 @@
         <v>133</v>
       </c>
       <c r="G48" s="21"/>
-      <c r="H48" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="I48" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
       <c r="J48" s="21" t="s">
         <v>133</v>
       </c>
@@ -3817,26 +3842,22 @@
       <c r="Q48" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R48" s="21" t="s">
-        <v>137</v>
-      </c>
+      <c r="R48" s="21"/>
       <c r="S48" s="21"/>
       <c r="T48" s="21" t="s">
         <v>137</v>
       </c>
       <c r="U48" s="21"/>
-      <c r="V48" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="V48" s="21"/>
       <c r="W48" s="21"/>
-      <c r="X48" s="28"/>
-    </row>
-    <row r="49" spans="1:24" ht="15.75" customHeight="1">
+      <c r="X48" s="10"/>
+    </row>
+    <row r="49" spans="1:24" s="29" customFormat="1" ht="15.75" customHeight="1">
       <c r="A49" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="C49" s="21"/>
       <c r="D49" s="21" t="s">
@@ -3848,9 +3869,7 @@
       <c r="F49" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="G49" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="G49" s="21"/>
       <c r="H49" s="21" t="s">
         <v>133</v>
       </c>
@@ -3863,18 +3882,12 @@
       <c r="K49" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="L49" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="L49" s="21"/>
       <c r="M49" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="N49" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="O49" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
       <c r="P49" s="21" t="s">
         <v>137</v>
       </c>
@@ -3884,9 +3897,7 @@
       <c r="R49" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="S49" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="S49" s="21"/>
       <c r="T49" s="21" t="s">
         <v>137</v>
       </c>
@@ -3895,14 +3906,14 @@
         <v>17</v>
       </c>
       <c r="W49" s="21"/>
-      <c r="X49" s="10"/>
-    </row>
-    <row r="50" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1">
+      <c r="X49" s="28"/>
+    </row>
+    <row r="50" spans="1:24" ht="15.75" customHeight="1">
       <c r="A50" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="C50" s="21"/>
       <c r="D50" s="21" t="s">
@@ -3953,18 +3964,22 @@
       <c r="S50" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T50" s="21"/>
+      <c r="T50" s="21" t="s">
+        <v>137</v>
+      </c>
       <c r="U50" s="21"/>
-      <c r="V50" s="21"/>
+      <c r="V50" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="W50" s="21"/>
-      <c r="X50" s="37"/>
+      <c r="X50" s="10"/>
     </row>
     <row r="51" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A51" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C51" s="21"/>
       <c r="D51" s="21" t="s">
@@ -4026,7 +4041,7 @@
         <v>43</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="21" t="s">
@@ -4088,7 +4103,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="21" t="s">
@@ -4139,9 +4154,7 @@
       <c r="S53" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T53" s="21" t="s">
-        <v>137</v>
-      </c>
+      <c r="T53" s="21"/>
       <c r="U53" s="21"/>
       <c r="V53" s="21"/>
       <c r="W53" s="21"/>
@@ -4152,7 +4165,7 @@
         <v>43</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="21" t="s">
@@ -4211,128 +4224,122 @@
       <c r="W54" s="21"/>
       <c r="X54" s="37"/>
     </row>
-    <row r="55" spans="1:24" s="35" customFormat="1" ht="15.75" customHeight="1">
+    <row r="55" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A55" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C55" s="21"/>
-      <c r="D55" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E55" s="17" t="s">
+      <c r="D55" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E55" s="21" t="s">
         <v>133</v>
       </c>
       <c r="F55" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
+      <c r="G55" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H55" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="I55" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="J55" s="21" t="s">
         <v>133</v>
       </c>
       <c r="K55" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="L55" s="21"/>
+      <c r="L55" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="M55" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
+      <c r="N55" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="O55" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="P55" s="21" t="s">
         <v>137</v>
       </c>
       <c r="Q55" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R55" s="21"/>
-      <c r="S55" s="21"/>
-      <c r="T55" s="21"/>
+      <c r="R55" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="S55" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T55" s="21" t="s">
+        <v>137</v>
+      </c>
       <c r="U55" s="21"/>
       <c r="V55" s="21"/>
       <c r="W55" s="21"/>
-      <c r="X55" s="34"/>
-    </row>
-    <row r="56" spans="1:24" ht="15.75" customHeight="1">
+      <c r="X55" s="37"/>
+    </row>
+    <row r="56" spans="1:24" s="35" customFormat="1" ht="15.75" customHeight="1">
       <c r="A56" s="26" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="C56" s="21"/>
-      <c r="D56" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="E56" s="21" t="s">
+      <c r="D56" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E56" s="17" t="s">
         <v>133</v>
       </c>
       <c r="F56" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="G56" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="H56" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="I56" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
       <c r="J56" s="21" t="s">
         <v>133</v>
       </c>
       <c r="K56" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="L56" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="L56" s="21"/>
       <c r="M56" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="N56" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="O56" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
       <c r="P56" s="21" t="s">
         <v>137</v>
       </c>
       <c r="Q56" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R56" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="S56" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="T56" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="U56" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="V56" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="21"/>
       <c r="W56" s="21"/>
-      <c r="X56" s="39" t="s">
-        <v>60</v>
-      </c>
+      <c r="X56" s="34"/>
     </row>
     <row r="57" spans="1:24" ht="15.75" customHeight="1">
       <c r="A57" s="26" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C57" s="21"/>
       <c r="D57" s="21" t="s">
@@ -4393,172 +4400,211 @@
         <v>17</v>
       </c>
       <c r="W57" s="21"/>
-      <c r="X57" s="40"/>
+      <c r="X57" s="39" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="58" spans="1:24" ht="15.75" customHeight="1">
       <c r="A58" s="26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C58" s="21"/>
       <c r="D58" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E58" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G58" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H58" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="I58" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="J58" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K58" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="L58" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="M58" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="N58" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="O58" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="P58" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q58" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R58" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="S58" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T58" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="U58" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V58" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="W58" s="21"/>
+      <c r="X58" s="40"/>
+    </row>
+    <row r="59" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A59" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E59" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="F58" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="G58" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="H58" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="I58" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="J58" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="K58" s="21" t="s">
+      <c r="F59" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G59" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H59" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="I59" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="J59" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K59" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="L58" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="M58" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="N58" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="O58" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="P58" s="21" t="s">
+      <c r="L59" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="M59" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="N59" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="O59" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="P59" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="Q58" s="21" t="s">
+      <c r="Q59" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="R58" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="S58" s="21"/>
-      <c r="T58" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="U58" s="21" t="s">
+      <c r="R59" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="S59" s="21"/>
+      <c r="T59" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="U59" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="V58" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="W58" s="21"/>
-      <c r="X58" s="10"/>
-    </row>
-    <row r="59" spans="1:24" s="15" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A59" s="18" t="s">
+      <c r="V59" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="W59" s="21"/>
+      <c r="X59" s="10"/>
+    </row>
+    <row r="60" spans="1:24" s="15" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A60" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B60" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
-      <c r="S59" s="19"/>
-      <c r="T59" s="19"/>
-      <c r="U59" s="19"/>
-      <c r="V59" s="19"/>
-      <c r="W59" s="19"/>
-      <c r="X59" s="14" t="s">
+      <c r="C60" s="19"/>
+      <c r="D60" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="19"/>
+      <c r="V60" s="19"/>
+      <c r="W60" s="19"/>
+      <c r="X60" s="14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A60" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" s="17"/>
-      <c r="D60" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H60" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M60" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="N60" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
-      <c r="R60" s="17"/>
-      <c r="S60" s="17"/>
-      <c r="T60" s="17"/>
-      <c r="U60" s="17"/>
-      <c r="V60" s="17"/>
-      <c r="W60" s="17"/>
     </row>
     <row r="61" spans="1:24" ht="15.75" customHeight="1">
       <c r="A61" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" s="17"/>
       <c r="D61" s="21" t="s">
         <v>132</v>
       </c>
       <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
+      <c r="F61" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="I61" s="17"/>
       <c r="J61" s="17"/>
       <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
+      <c r="L61" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M61" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N61" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="O61" s="17"/>
       <c r="P61" s="17"/>
       <c r="Q61" s="17"/>
@@ -4574,7 +4620,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C62" s="17"/>
       <c r="D62" s="21" t="s">
@@ -4605,7 +4651,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C63" s="17"/>
       <c r="D63" s="21" t="s">
@@ -4631,12 +4677,12 @@
       <c r="V63" s="17"/>
       <c r="W63" s="17"/>
     </row>
-    <row r="64" spans="1:24" s="36" customFormat="1" ht="15.75" customHeight="1">
+    <row r="64" spans="1:24" ht="15.75" customHeight="1">
       <c r="A64" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C64" s="17"/>
       <c r="D64" s="21" t="s">
@@ -4662,12 +4708,12 @@
       <c r="V64" s="17"/>
       <c r="W64" s="17"/>
     </row>
-    <row r="65" spans="1:23" s="33" customFormat="1" ht="15.75" customHeight="1">
+    <row r="65" spans="1:23" s="36" customFormat="1" ht="15.75" customHeight="1">
       <c r="A65" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="21" t="s">
@@ -4693,83 +4739,114 @@
       <c r="V65" s="17"/>
       <c r="W65" s="17"/>
     </row>
-    <row r="66" spans="1:23" ht="15.75" customHeight="1">
+    <row r="66" spans="1:23" s="33" customFormat="1" ht="15.75" customHeight="1">
       <c r="A66" s="16" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C66" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="C66" s="17"/>
       <c r="D66" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="20"/>
-      <c r="O66" s="20"/>
-      <c r="P66" s="20"/>
-      <c r="Q66" s="20"/>
-      <c r="R66" s="20"/>
-      <c r="S66" s="20"/>
-      <c r="T66" s="20"/>
-      <c r="U66" s="20"/>
-      <c r="V66" s="20"/>
-      <c r="W66" s="20"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="17"/>
+      <c r="T66" s="17"/>
+      <c r="U66" s="17"/>
+      <c r="V66" s="17"/>
+      <c r="W66" s="17"/>
     </row>
     <row r="67" spans="1:23" ht="15.75" customHeight="1">
       <c r="A67" s="16" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C67" s="20"/>
       <c r="D67" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="20"/>
+      <c r="U67" s="20"/>
+      <c r="V67" s="20"/>
+      <c r="W67" s="20"/>
+    </row>
+    <row r="68" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A68" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="E67" s="30" t="s">
+      <c r="E68" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30" t="s">
+      <c r="F68" s="30"/>
+      <c r="G68" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30" t="s">
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="K67" s="30" t="s">
+      <c r="K68" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="L67" s="30" t="s">
+      <c r="L68" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="M67" s="30" t="s">
+      <c r="M68" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="N67" s="30"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="30"/>
-      <c r="S67" s="30"/>
-      <c r="T67" s="30"/>
-      <c r="U67" s="30"/>
-      <c r="V67" s="30"/>
-      <c r="W67" s="30"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="30"/>
+      <c r="P68" s="30"/>
+      <c r="Q68" s="30"/>
+      <c r="R68" s="30"/>
+      <c r="S68" s="30"/>
+      <c r="T68" s="30"/>
+      <c r="U68" s="30"/>
+      <c r="V68" s="30"/>
+      <c r="W68" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="X56:X57"/>
+    <mergeCell ref="X57:X58"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="J5:N5"/>
     <mergeCell ref="P5:V5"/>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="49980" windowHeight="27880" tabRatio="500"/>
+    <workbookView xWindow="1100" yWindow="20" windowWidth="34900" windowHeight="17900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
     <sheet name="Roolit" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="157">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -460,9 +463,6 @@
     <t>R+,valmis+</t>
   </si>
   <si>
-    <t>R,valmis</t>
-  </si>
-  <si>
     <t>valmis tarkoittaa välitavoitteen merkitsemistä valmiiksi</t>
   </si>
   <si>
@@ -491,6 +491,12 @@
   </si>
   <si>
     <t>Laaduntarkastusraportti</t>
+  </si>
+  <si>
+    <t>R+,W+,valmis+</t>
+  </si>
+  <si>
+    <t>R,W,valmis</t>
   </si>
 </sst>
 </file>
@@ -922,6 +928,74 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" diskRevisions="1" revisionId="3" version="2">
+  <header guid="{9913DD30-08DC-DF4C-B2D5-13B399C3569F}" dateTime="2016-09-06T09:10:23" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId1">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="1">
+    <oc r="P24" t="inlineStr">
+      <is>
+        <t>R+,valmis+</t>
+      </is>
+    </oc>
+    <nc r="P24" t="inlineStr">
+      <is>
+        <t>R+,W+,valmis+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2" sId="1">
+    <oc r="Q24" t="inlineStr">
+      <is>
+        <t>R,valmis</t>
+      </is>
+    </oc>
+    <nc r="Q24" t="inlineStr">
+      <is>
+        <t>R,W,valmis</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3" sId="1">
+    <oc r="S24" t="inlineStr">
+      <is>
+        <t>R,valmis</t>
+      </is>
+    </oc>
+    <nc r="S24" t="inlineStr">
+      <is>
+        <t>R,W,valmis</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" name="Tatu Tarvainen" id="-130145201" dateTime="2016-09-06T09:10:23"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1249,10 +1323,10 @@
   <dimension ref="A1:X68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="K16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomRight" activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2431,11 +2505,11 @@
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>148</v>
-      </c>
       <c r="F24" s="17" t="s">
         <v>133</v>
       </c>
@@ -2449,10 +2523,10 @@
         <v>133</v>
       </c>
       <c r="J24" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24" s="21" t="s">
         <v>147</v>
-      </c>
-      <c r="K24" s="21" t="s">
-        <v>148</v>
       </c>
       <c r="L24" s="21" t="s">
         <v>133</v>
@@ -2465,16 +2539,16 @@
       </c>
       <c r="O24" s="21"/>
       <c r="P24" s="21" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="Q24" s="21" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="R24" s="21" t="s">
         <v>144</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="T24" s="17" t="s">
         <v>137</v>
@@ -2483,7 +2557,7 @@
       <c r="V24" s="21"/>
       <c r="W24" s="21"/>
       <c r="X24" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.75" customHeight="1">
@@ -2755,7 +2829,7 @@
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>136</v>
@@ -3223,7 +3297,7 @@
         <v>43</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="21" t="s">
@@ -4041,7 +4115,7 @@
         <v>43</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="21" t="s">
@@ -4103,7 +4177,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="21" t="s">
@@ -4165,7 +4239,7 @@
         <v>43</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="21" t="s">
@@ -4229,7 +4303,7 @@
         <v>43</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="21" t="s">
@@ -4293,7 +4367,7 @@
         <v>43</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="17" t="s">
@@ -4845,6 +4919,13 @@
       <c r="W68" s="30"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
+      <pane xSplit="2" ySplit="6.0384615384615383" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="6">
     <mergeCell ref="X57:X58"/>
     <mergeCell ref="C5:H5"/>
@@ -5187,6 +5268,12 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
+      <selection activeCell="C7" sqref="C7"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="20" windowWidth="34900" windowHeight="17900" tabRatio="500"/>
+    <workbookView xWindow="1100" yWindow="20" windowWidth="39220" windowHeight="24820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" xWindow="55" yWindow="55" windowWidth="1961" windowHeight="1187" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
@@ -730,7 +731,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -802,6 +803,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="115">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -931,7 +938,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" diskRevisions="1" revisionId="3" version="2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" diskRevisions="1" revisionId="6" version="4">
   <header guid="{9913DD30-08DC-DF4C-B2D5-13B399C3569F}" dateTime="2016-09-06T09:10:23" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -939,6 +946,18 @@
     </sheetIdMap>
   </header>
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{771903DC-B093-EC43-82F7-AFD5957CF1ED}" dateTime="2016-09-06T13:03:01" maxSheetId="3" userName="Jarno Väyrynen" r:id="rId3" minRId="4">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" dateTime="2016-09-06T13:07:55" maxSheetId="3" userName="Jarno Väyrynen" r:id="rId4" minRId="5" maxRId="6">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -992,9 +1011,86 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="4" sId="1">
+    <oc r="Q18" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </oc>
+    <nc r="Q18" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="5" sId="1" odxf="1" dxf="1">
+    <nc r="O1" t="inlineStr">
+      <is>
+        <t>R = lukuoikeus, R,W = luku- ja kirjoitusoikeus, tyhjä = ei näe osiota, muut erikoisoikeuksia, * R/W perässä tarkoittaa kaikkiin urakoihin, + tarkoittaa oman organisaation urakoihin</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="6" sId="1" odxf="1" dxf="1">
+    <nc r="O1" t="inlineStr">
+      <is>
+        <t>R = lukuoikeus, R,W = luku- ja kirjoitusoikeus, tyhjä = ei näe osiota, muut erikoisoikeuksia, * R/W perässä tarkoittaa kaikkiin urakoihin, + tarkoittaa oman organisaation urakoihin</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="C1:N1">
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+  </rfmt>
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="delete"/>
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" name="Tatu Tarvainen" id="-130145201" dateTime="2016-09-06T09:10:23"/>
+  <userInfo guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" name="Jarno Väyrynen" id="-589116405" dateTime="2016-09-06T12:54:09"/>
 </users>
 </file>
 
@@ -1323,10 +1419,10 @@
   <dimension ref="A1:X68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="K16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="S24" sqref="S24"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1356,25 +1452,25 @@
     <col min="24" max="24" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1">
+    <row r="1" spans="1:24" ht="24" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
@@ -2156,7 +2252,7 @@
         <v>137</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
@@ -4920,6 +5016,11 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="170">
+      <pane xSplit="2" ySplit="6.0384615384615383" topLeftCell="C16" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
       <pane xSplit="2" ySplit="6.0384615384615383" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
@@ -5269,6 +5370,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
+      <selection activeCell="C7" sqref="C7"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
       <selection activeCell="C7" sqref="C7"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -1088,9 +1088,10 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="3">
   <userInfo guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" name="Tatu Tarvainen" id="-130145201" dateTime="2016-09-06T09:10:23"/>
   <userInfo guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" name="Jarno Väyrynen" id="-589116405" dateTime="2016-09-06T12:54:09"/>
+  <userInfo guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" name="Jarno Väyrynen" id="-589108428" dateTime="2016-09-08T15:33:24"/>
 </users>
 </file>
 

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="20" windowWidth="39220" windowHeight="24820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
-    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" xWindow="55" yWindow="55" windowWidth="1961" windowHeight="1187" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
+    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="157">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -614,8 +614,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="115">
+  <cellStyleXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -802,15 +810,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="115">
+  <cellStyles count="123">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -868,6 +876,10 @@
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -925,6 +937,10 @@
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -938,7 +954,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" diskRevisions="1" revisionId="6" version="4">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0407E191-78DA-F349-B5E5-8AE1BC03A29E}" diskRevisions="1" revisionId="57" version="5">
   <header guid="{9913DD30-08DC-DF4C-B2D5-13B399C3569F}" dateTime="2016-09-06T09:10:23" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -958,6 +974,12 @@
     </sheetIdMap>
   </header>
   <header guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" dateTime="2016-09-06T13:07:55" maxSheetId="3" userName="Jarno Väyrynen" r:id="rId4" minRId="5" maxRId="6">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0407E191-78DA-F349-B5E5-8AE1BC03A29E}" dateTime="2016-09-08T16:15:41" maxSheetId="3" userName="Jarno Väyrynen" r:id="rId5" minRId="7" maxRId="57">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1087,11 +1109,564 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="7" sId="1">
+    <oc r="E59" t="inlineStr">
+      <is>
+        <t>R*,W</t>
+      </is>
+    </oc>
+    <nc r="E59" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="8" sId="1">
+    <nc r="F44" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="9" sId="1" odxf="1" dxf="1">
+    <nc r="F25" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="10" sId="1">
+    <oc r="G20" t="inlineStr">
+      <is>
+        <t>R*,W*</t>
+      </is>
+    </oc>
+    <nc r="G20" t="inlineStr">
+      <is>
+        <t>R*,W+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="11" sId="1">
+    <oc r="G21" t="inlineStr">
+      <is>
+        <t>R*,W*</t>
+      </is>
+    </oc>
+    <nc r="G21" t="inlineStr">
+      <is>
+        <t>R*,W+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="12" sId="1">
+    <oc r="G33" t="inlineStr">
+      <is>
+        <t>R*,W*</t>
+      </is>
+    </oc>
+    <nc r="G33" t="inlineStr">
+      <is>
+        <t>R*,W+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="13" sId="1">
+    <nc r="G49" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="14" sId="1">
+    <oc r="J26" t="inlineStr">
+      <is>
+        <t>R*,W*</t>
+      </is>
+    </oc>
+    <nc r="J26" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="15" sId="1">
+    <oc r="K26" t="inlineStr">
+      <is>
+        <t>R*,W</t>
+      </is>
+    </oc>
+    <nc r="K26" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="16" sId="1">
+    <oc r="K59" t="inlineStr">
+      <is>
+        <t>R*,W</t>
+      </is>
+    </oc>
+    <nc r="K59" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="17" sId="1">
+    <nc r="M44" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="18" sId="1">
+    <nc r="M25" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="19" sId="1">
+    <nc r="O49" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="20" sId="1">
+    <nc r="O42" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="21" sId="1">
+    <nc r="R44" t="inlineStr">
+      <is>
+        <t>R+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="22" sId="1" odxf="1" dxf="1">
+    <nc r="T26" t="inlineStr">
+      <is>
+        <t>R+</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="23" sId="1">
+    <nc r="T34" t="inlineStr">
+      <is>
+        <t>R+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="24" sId="1">
+    <nc r="T51" t="inlineStr">
+      <is>
+        <t>R+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="25" sId="1">
+    <nc r="T52" t="inlineStr">
+      <is>
+        <t>R+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="26" sId="1">
+    <nc r="T53" t="inlineStr">
+      <is>
+        <t>R+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="27" sId="1">
+    <oc r="L7" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </oc>
+    <nc r="L7" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="28" sId="1">
+    <oc r="L11" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </oc>
+    <nc r="L11" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="29" sId="1">
+    <oc r="L12" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </oc>
+    <nc r="L12" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="30" sId="1">
+    <oc r="L16" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </oc>
+    <nc r="L16" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="31" sId="1">
+    <oc r="L17" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </oc>
+    <nc r="L17" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="32" sId="1">
+    <oc r="L19" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </oc>
+    <nc r="L19" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="33" sId="1">
+    <oc r="L20" t="inlineStr">
+      <is>
+        <t>R*,W+</t>
+      </is>
+    </oc>
+    <nc r="L20" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="34" sId="1">
+    <oc r="L21" t="inlineStr">
+      <is>
+        <t>R*,W+</t>
+      </is>
+    </oc>
+    <nc r="L21" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="35" sId="1">
+    <oc r="L22" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </oc>
+    <nc r="L22" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="36" sId="1">
+    <oc r="L23" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </oc>
+    <nc r="L23" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="37" sId="1">
+    <oc r="L24" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </oc>
+    <nc r="L24" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="38" sId="1">
+    <oc r="L28" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </oc>
+    <nc r="L28" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="39" sId="1">
+    <oc r="L33" t="inlineStr">
+      <is>
+        <t>R*,W+</t>
+      </is>
+    </oc>
+    <nc r="L33" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="40" sId="1">
+    <oc r="L36" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </oc>
+    <nc r="L36" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="41" sId="1">
+    <oc r="L37" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </oc>
+    <nc r="L37" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="42" sId="1">
+    <oc r="L38" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </oc>
+    <nc r="L38" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="43" sId="1">
+    <oc r="L39" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </oc>
+    <nc r="L39" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="44" sId="1">
+    <oc r="L40" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </oc>
+    <nc r="L40" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="45" sId="1">
+    <oc r="L41" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </oc>
+    <nc r="L41" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="46" sId="1">
+    <oc r="L42" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </oc>
+    <nc r="L42" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="47" sId="1">
+    <oc r="L43" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </oc>
+    <nc r="L43" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="48" sId="1">
+    <nc r="L49" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="49" sId="1">
+    <oc r="L50" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </oc>
+    <nc r="L50" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="50" sId="1">
+    <oc r="L51" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </oc>
+    <nc r="L51" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="51" sId="1">
+    <oc r="L52" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </oc>
+    <nc r="L52" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="52" sId="1">
+    <oc r="L53" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </oc>
+    <nc r="L53" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="53" sId="1">
+    <oc r="L54" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </oc>
+    <nc r="L54" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="54" sId="1">
+    <oc r="L55" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </oc>
+    <nc r="L55" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="55" sId="1">
+    <oc r="L57" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </oc>
+    <nc r="L57" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="56" sId="1">
+    <oc r="L58" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </oc>
+    <nc r="L58" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="57" sId="1">
+    <oc r="L59" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </oc>
+    <nc r="L59" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="delete"/>
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="3">
   <userInfo guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" name="Tatu Tarvainen" id="-130145201" dateTime="2016-09-06T09:10:23"/>
   <userInfo guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" name="Jarno Väyrynen" id="-589116405" dateTime="2016-09-06T12:54:09"/>
-  <userInfo guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" name="Jarno Väyrynen" id="-589108428" dateTime="2016-09-08T15:33:24"/>
+  <userInfo guid="{0407E191-78DA-F349-B5E5-8AE1BC03A29E}" name="Jarno Väyrynen" id="-589108428" dateTime="2016-09-08T15:33:24"/>
 </users>
 </file>
 
@@ -1419,11 +1994,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomRight" activeCell="L57" sqref="L57:L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1458,25 +2033,25 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="44" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="40"/>
@@ -1640,7 +2215,7 @@
         <v>136</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="M7" s="21" t="s">
         <v>133</v>
@@ -1858,7 +2433,7 @@
         <v>136</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="M11" s="21" t="s">
         <v>133</v>
@@ -1920,7 +2495,7 @@
         <v>136</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="M12" s="21" t="s">
         <v>133</v>
@@ -2126,7 +2701,7 @@
         <v>133</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="M16" s="21" t="s">
         <v>133</v>
@@ -2188,7 +2763,7 @@
         <v>133</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="M17" s="21" t="s">
         <v>133</v>
@@ -2298,7 +2873,7 @@
         <v>133</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="M19" s="21" t="s">
         <v>133</v>
@@ -2345,7 +2920,7 @@
         <v>133</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H20" s="17" t="s">
         <v>133</v>
@@ -2360,7 +2935,7 @@
         <v>136</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="M20" s="21" t="s">
         <v>133</v>
@@ -2411,7 +2986,7 @@
         <v>133</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H21" s="17" t="s">
         <v>133</v>
@@ -2426,7 +3001,7 @@
         <v>136</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="M21" s="21" t="s">
         <v>133</v>
@@ -2494,7 +3069,7 @@
         <v>139</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="M22" s="21" t="s">
         <v>133</v>
@@ -2560,7 +3135,7 @@
         <v>136</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="M23" s="21" t="s">
         <v>133</v>
@@ -2626,7 +3201,7 @@
         <v>147</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="M24" s="21" t="s">
         <v>133</v>
@@ -2671,7 +3246,9 @@
       <c r="E25" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="17" t="s">
+        <v>133</v>
+      </c>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21" t="s">
@@ -2684,7 +3261,9 @@
         <v>136</v>
       </c>
       <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
+      <c r="M25" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="N25" s="21"/>
       <c r="O25" s="21" t="s">
         <v>135</v>
@@ -2728,10 +3307,10 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L26" s="21"/>
       <c r="M26" s="21" t="s">
@@ -2747,7 +3326,9 @@
       </c>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
+      <c r="T26" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="U26" s="21"/>
       <c r="V26" s="21"/>
       <c r="W26" s="21"/>
@@ -2826,7 +3407,7 @@
         <v>136</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="M28" s="21" t="s">
         <v>133</v>
@@ -3111,7 +3692,7 @@
         <v>133</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H33" s="21" t="s">
         <v>133</v>
@@ -3126,7 +3707,7 @@
         <v>139</v>
       </c>
       <c r="L33" s="21" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="M33" s="21" t="s">
         <v>133</v>
@@ -3201,7 +3782,9 @@
       </c>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
+      <c r="T34" s="21" t="s">
+        <v>137</v>
+      </c>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
@@ -3290,7 +3873,7 @@
         <v>133</v>
       </c>
       <c r="L36" s="21" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="M36" s="21" t="s">
         <v>133</v>
@@ -3356,7 +3939,7 @@
         <v>133</v>
       </c>
       <c r="L37" s="21" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="M37" s="21" t="s">
         <v>133</v>
@@ -3422,7 +4005,7 @@
         <v>133</v>
       </c>
       <c r="L38" s="21" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="M38" s="21" t="s">
         <v>133</v>
@@ -3488,7 +4071,7 @@
         <v>133</v>
       </c>
       <c r="L39" s="21" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="M39" s="21" t="s">
         <v>133</v>
@@ -3554,7 +4137,7 @@
         <v>133</v>
       </c>
       <c r="L40" s="21" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="M40" s="21" t="s">
         <v>133</v>
@@ -3620,7 +4203,7 @@
         <v>133</v>
       </c>
       <c r="L41" s="21" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="M41" s="21" t="s">
         <v>133</v>
@@ -3686,13 +4269,15 @@
         <v>133</v>
       </c>
       <c r="L42" s="21" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="M42" s="21" t="s">
         <v>133</v>
       </c>
       <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
+      <c r="O42" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="P42" s="21" t="s">
         <v>137</v>
       </c>
@@ -3746,7 +4331,7 @@
         <v>133</v>
       </c>
       <c r="L43" s="21" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="M43" s="21" t="s">
         <v>133</v>
@@ -3793,7 +4378,9 @@
       <c r="E44" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="F44" s="21"/>
+      <c r="F44" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
       <c r="I44" s="21" t="s">
@@ -3806,7 +4393,9 @@
         <v>133</v>
       </c>
       <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
+      <c r="M44" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="N44" s="21"/>
       <c r="O44" s="21" t="s">
         <v>133</v>
@@ -3817,7 +4406,9 @@
       <c r="Q44" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R44" s="21"/>
+      <c r="R44" s="21" t="s">
+        <v>137</v>
+      </c>
       <c r="S44" s="21"/>
       <c r="T44" s="21" t="s">
         <v>137</v>
@@ -4040,7 +4631,9 @@
       <c r="F49" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="G49" s="21"/>
+      <c r="G49" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="H49" s="21" t="s">
         <v>133</v>
       </c>
@@ -4053,12 +4646,16 @@
       <c r="K49" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="L49" s="21"/>
+      <c r="L49" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="M49" s="21" t="s">
         <v>133</v>
       </c>
       <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
+      <c r="O49" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="P49" s="21" t="s">
         <v>137</v>
       </c>
@@ -4112,7 +4709,7 @@
         <v>133</v>
       </c>
       <c r="L50" s="21" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="M50" s="21" t="s">
         <v>133</v>
@@ -4178,7 +4775,7 @@
         <v>133</v>
       </c>
       <c r="L51" s="21" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="M51" s="21" t="s">
         <v>133</v>
@@ -4201,7 +4798,9 @@
       <c r="S51" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T51" s="21"/>
+      <c r="T51" s="21" t="s">
+        <v>137</v>
+      </c>
       <c r="U51" s="21"/>
       <c r="V51" s="21"/>
       <c r="W51" s="21"/>
@@ -4240,7 +4839,7 @@
         <v>133</v>
       </c>
       <c r="L52" s="21" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="M52" s="21" t="s">
         <v>133</v>
@@ -4263,7 +4862,9 @@
       <c r="S52" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T52" s="21"/>
+      <c r="T52" s="21" t="s">
+        <v>137</v>
+      </c>
       <c r="U52" s="21"/>
       <c r="V52" s="21"/>
       <c r="W52" s="21"/>
@@ -4302,7 +4903,7 @@
         <v>133</v>
       </c>
       <c r="L53" s="21" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="M53" s="21" t="s">
         <v>133</v>
@@ -4325,7 +4926,9 @@
       <c r="S53" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T53" s="21"/>
+      <c r="T53" s="21" t="s">
+        <v>137</v>
+      </c>
       <c r="U53" s="21"/>
       <c r="V53" s="21"/>
       <c r="W53" s="21"/>
@@ -4364,7 +4967,7 @@
         <v>133</v>
       </c>
       <c r="L54" s="21" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="M54" s="21" t="s">
         <v>133</v>
@@ -4428,7 +5031,7 @@
         <v>133</v>
       </c>
       <c r="L55" s="21" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="M55" s="21" t="s">
         <v>133</v>
@@ -4538,7 +5141,7 @@
         <v>133</v>
       </c>
       <c r="L57" s="21" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="M57" s="21" t="s">
         <v>133</v>
@@ -4608,7 +5211,7 @@
         <v>133</v>
       </c>
       <c r="L58" s="21" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="M58" s="21" t="s">
         <v>133</v>
@@ -4655,7 +5258,7 @@
         <v>132</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F59" s="21" t="s">
         <v>133</v>
@@ -4673,10 +5276,10 @@
         <v>132</v>
       </c>
       <c r="K59" s="21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L59" s="21" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="M59" s="21" t="s">
         <v>133</v>
@@ -5017,9 +5620,9 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="170">
-      <pane xSplit="2" ySplit="6.0384615384615383" topLeftCell="C16" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
+      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="E7" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="L57" sqref="L57:L59"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-900" windowWidth="38400" windowHeight="22040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,8 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -422,9 +422,6 @@
     <t>Toimenpiteiden ajoittuminen</t>
   </si>
   <si>
-    <t>R = lukuoikeus, R,W = luku- ja kirjoitusoikeus, tyhjä = ei näe osiota, muut erikoisoikeuksia, * R/W perässä tarkoittaa kaikkiin urakoihin, + tarkoittaa oman organisaation urakoihin</t>
-  </si>
-  <si>
     <t>R*,W*</t>
   </si>
   <si>
@@ -498,6 +495,9 @@
   </si>
   <si>
     <t>R,W,valmis</t>
+  </si>
+  <si>
+    <t>R = lukuoikeus nimettyihin urakoihin, R,W = luku- ja kirjoitusoikeus nimettyihin urakoihin, W+ kirjoitusoikeus oman organisaation urakoihin, W* kirjoitusoikeus kaikkiin urakoihin, tyhjä = ei näe osiota, muut erikoisoikeuksia</t>
   </si>
 </sst>
 </file>
@@ -954,7 +954,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0407E191-78DA-F349-B5E5-8AE1BC03A29E}" diskRevisions="1" revisionId="57" version="5">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{96A7966C-8B82-C646-99D9-18DB41B4F602}" diskRevisions="1" revisionId="59" version="7">
   <header guid="{9913DD30-08DC-DF4C-B2D5-13B399C3569F}" dateTime="2016-09-06T09:10:23" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -980,6 +980,18 @@
     </sheetIdMap>
   </header>
   <header guid="{0407E191-78DA-F349-B5E5-8AE1BC03A29E}" dateTime="2016-09-08T16:15:41" maxSheetId="3" userName="Jarno Väyrynen" r:id="rId5" minRId="7" maxRId="57">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D07D58BC-5E7F-DC46-951F-0230E428AE60}" dateTime="2016-09-20T12:16:13" maxSheetId="3" userName="Jarno Väyrynen" r:id="rId6" minRId="58">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{96A7966C-8B82-C646-99D9-18DB41B4F602}" dateTime="2016-09-20T12:17:28" maxSheetId="3" userName="Jarno Väyrynen" r:id="rId7" minRId="59">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1659,6 +1671,40 @@
   </rcc>
   <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="delete"/>
   <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="58" sId="1">
+    <oc r="C1" t="inlineStr">
+      <is>
+        <t>R = lukuoikeus, R,W = luku- ja kirjoitusoikeus, tyhjä = ei näe osiota, muut erikoisoikeuksia, * R/W perässä tarkoittaa kaikkiin urakoihin, + tarkoittaa oman organisaation urakoihin</t>
+      </is>
+    </oc>
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>R = lukuoikeus nimettyihin urakoihin, R,W = luku- ja kirjoitusoikeus nimettyihin urakoihin, tyhjä = ei näe osiota, muut erikoisoikeuksia, W+ kirjoitusoikeus oman organisaation urakoihin, W* kirjoitusoikeus kaikkiin urakoihin</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="59" sId="1">
+    <oc r="C1" t="inlineStr">
+      <is>
+        <t>R = lukuoikeus nimettyihin urakoihin, R,W = luku- ja kirjoitusoikeus nimettyihin urakoihin, tyhjä = ei näe osiota, muut erikoisoikeuksia, W+ kirjoitusoikeus oman organisaation urakoihin, W* kirjoitusoikeus kaikkiin urakoihin</t>
+      </is>
+    </oc>
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>R = lukuoikeus nimettyihin urakoihin, R,W = luku- ja kirjoitusoikeus nimettyihin urakoihin, W+ kirjoitusoikeus oman organisaation urakoihin, W* kirjoitusoikeus kaikkiin urakoihin, tyhjä = ei näe osiota, muut erikoisoikeuksia</t>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -1995,10 +2041,10 @@
   <dimension ref="A1:X68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C8" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L57" sqref="L57:L59"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2034,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="D1" s="43"/>
       <c r="E1" s="43"/>
@@ -2191,55 +2237,55 @@
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L7" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="17" t="s">
         <v>114</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S7" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U7" s="17" t="s">
         <v>17</v>
@@ -2259,31 +2305,31 @@
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N8" s="21"/>
       <c r="O8" s="17"/>
       <c r="P8" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="21" t="s">
         <v>17</v>
@@ -2291,7 +2337,7 @@
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
       <c r="T8" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U8" s="17" t="s">
         <v>19</v>
@@ -2313,31 +2359,31 @@
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L9" s="21"/>
       <c r="M9" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N9" s="21"/>
       <c r="O9" s="17"/>
       <c r="P9" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q9" s="21" t="s">
         <v>17</v>
@@ -2345,7 +2391,7 @@
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
       <c r="T9" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U9" s="17"/>
       <c r="V9" s="17"/>
@@ -2361,31 +2407,31 @@
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L10" s="21"/>
       <c r="M10" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N10" s="21"/>
       <c r="O10" s="17"/>
       <c r="P10" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q10" s="21" t="s">
         <v>17</v>
@@ -2393,7 +2439,7 @@
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
       <c r="T10" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U10" s="17"/>
       <c r="V10" s="17"/>
@@ -2409,53 +2455,53 @@
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L11" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O11" s="17"/>
       <c r="P11" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="17" t="s">
         <v>17</v>
       </c>
       <c r="R11" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S11" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U11" s="17"/>
       <c r="V11" s="17"/>
@@ -2471,53 +2517,53 @@
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L12" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O12" s="17"/>
       <c r="P12" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q12" s="17" t="s">
         <v>17</v>
       </c>
       <c r="R12" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S12" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U12" s="17"/>
       <c r="V12" s="17"/>
@@ -2533,31 +2579,31 @@
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N13" s="21"/>
       <c r="O13" s="17"/>
       <c r="P13" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q13" s="17" t="s">
         <v>114</v>
@@ -2565,7 +2611,7 @@
       <c r="R13" s="21"/>
       <c r="S13" s="17"/>
       <c r="T13" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U13" s="17"/>
       <c r="V13" s="17"/>
@@ -2581,31 +2627,31 @@
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L14" s="17"/>
       <c r="M14" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N14" s="21"/>
       <c r="O14" s="17"/>
       <c r="P14" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q14" s="17" t="s">
         <v>114</v>
@@ -2613,7 +2659,7 @@
       <c r="R14" s="21"/>
       <c r="S14" s="17"/>
       <c r="T14" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U14" s="17"/>
       <c r="V14" s="17"/>
@@ -2629,31 +2675,31 @@
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N15" s="21"/>
       <c r="O15" s="17"/>
       <c r="P15" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q15" s="17" t="s">
         <v>114</v>
@@ -2661,7 +2707,7 @@
       <c r="R15" s="21"/>
       <c r="S15" s="17"/>
       <c r="T15" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U15" s="17"/>
       <c r="V15" s="17"/>
@@ -2677,53 +2723,53 @@
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L16" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O16" s="17"/>
       <c r="P16" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q16" s="17" t="s">
         <v>114</v>
       </c>
       <c r="R16" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S16" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U16" s="17"/>
       <c r="V16" s="17"/>
@@ -2739,53 +2785,53 @@
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L17" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O17" s="17"/>
       <c r="P17" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q17" s="17" t="s">
         <v>114</v>
       </c>
       <c r="R17" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S17" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U17" s="17"/>
       <c r="V17" s="17"/>
@@ -2801,31 +2847,31 @@
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L18" s="17"/>
       <c r="M18" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N18" s="21"/>
       <c r="O18" s="17"/>
       <c r="P18" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q18" s="17" t="s">
         <v>114</v>
@@ -2833,7 +2879,7 @@
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
       <c r="T18" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U18" s="17"/>
       <c r="V18" s="17"/>
@@ -2849,53 +2895,53 @@
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L19" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O19" s="17"/>
       <c r="P19" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="17" t="s">
         <v>114</v>
       </c>
       <c r="R19" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S19" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U19" s="17"/>
       <c r="V19" s="17"/>
@@ -2911,55 +2957,55 @@
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G20" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" s="17" t="s">
         <v>135</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>136</v>
       </c>
       <c r="L20" s="21" t="s">
         <v>114</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O20" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P20" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="17" t="s">
         <v>114</v>
       </c>
       <c r="R20" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S20" s="21" t="s">
         <v>114</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U20" s="17"/>
       <c r="V20" s="21" t="s">
@@ -2977,55 +3023,55 @@
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G21" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" s="17" t="s">
         <v>135</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>136</v>
       </c>
       <c r="L21" s="21" t="s">
         <v>114</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P21" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q21" s="21" t="s">
         <v>114</v>
       </c>
       <c r="R21" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S21" s="21" t="s">
         <v>114</v>
       </c>
       <c r="T21" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U21" s="21" t="s">
         <v>17</v>
@@ -3045,53 +3091,53 @@
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L22" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P22" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q22" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R22" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S22" s="21"/>
       <c r="T22" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U22" s="21"/>
       <c r="V22" s="21" t="s">
@@ -3111,55 +3157,55 @@
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L23" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P23" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="21" t="s">
         <v>114</v>
       </c>
       <c r="R23" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S23" s="21" t="s">
         <v>114</v>
       </c>
       <c r="T23" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U23" s="21"/>
       <c r="V23" s="21" t="s">
@@ -3177,59 +3223,59 @@
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>147</v>
-      </c>
       <c r="F24" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J24" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K24" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="K24" s="21" t="s">
-        <v>147</v>
-      </c>
       <c r="L24" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O24" s="21"/>
       <c r="P24" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q24" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="Q24" s="21" t="s">
-        <v>156</v>
-      </c>
       <c r="R24" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T24" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U24" s="21"/>
       <c r="V24" s="21"/>
       <c r="W24" s="21"/>
       <c r="X24" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.75" customHeight="1">
@@ -3241,41 +3287,41 @@
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L25" s="21"/>
       <c r="M25" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N25" s="21"/>
       <c r="O25" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P25" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q25" s="21" t="s">
         <v>114</v>
       </c>
       <c r="R25" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S25" s="27"/>
       <c r="T25" s="21"/>
@@ -3295,31 +3341,31 @@
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L26" s="21"/>
       <c r="M26" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q26" s="21" t="s">
         <v>17</v>
@@ -3327,7 +3373,7 @@
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
       <c r="T26" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U26" s="21"/>
       <c r="V26" s="21"/>
@@ -3343,20 +3389,20 @@
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K27" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
@@ -3383,53 +3429,53 @@
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K28" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L28" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N28" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O28" s="21"/>
       <c r="P28" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q28" s="21" t="s">
         <v>114</v>
       </c>
       <c r="R28" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S28" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T28" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
@@ -3449,49 +3495,49 @@
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G29" s="21"/>
       <c r="H29" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K29" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L29" s="21"/>
       <c r="M29" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O29" s="21"/>
       <c r="P29" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q29" s="21" t="s">
         <v>114</v>
       </c>
       <c r="R29" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S29" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T29" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
@@ -3507,51 +3553,51 @@
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K30" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L30" s="21"/>
       <c r="M30" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N30" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O30" s="21"/>
       <c r="P30" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q30" s="21" t="s">
         <v>114</v>
       </c>
       <c r="R30" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S30" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T30" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
@@ -3567,49 +3613,49 @@
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G31" s="21"/>
       <c r="H31" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K31" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L31" s="21"/>
       <c r="M31" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N31" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O31" s="21"/>
       <c r="P31" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q31" s="21" t="s">
         <v>114</v>
       </c>
       <c r="R31" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S31" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T31" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
@@ -3625,49 +3671,49 @@
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G32" s="21"/>
       <c r="H32" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K32" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L32" s="21"/>
       <c r="M32" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N32" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O32" s="21"/>
       <c r="P32" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q32" s="21" t="s">
         <v>114</v>
       </c>
       <c r="R32" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S32" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T32" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U32" s="21"/>
       <c r="V32" s="21"/>
@@ -3683,55 +3729,55 @@
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K33" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L33" s="21" t="s">
         <v>114</v>
       </c>
       <c r="M33" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N33" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O33" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P33" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q33" s="21" t="s">
         <v>114</v>
       </c>
       <c r="R33" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S33" s="21" t="s">
         <v>114</v>
       </c>
       <c r="T33" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U33" s="21" t="s">
         <v>17</v>
@@ -3751,31 +3797,31 @@
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K34" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L34" s="21"/>
       <c r="M34" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
       <c r="P34" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q34" s="21" t="s">
         <v>17</v>
@@ -3783,7 +3829,7 @@
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
       <c r="T34" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
@@ -3799,13 +3845,13 @@
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G35" s="21" t="s">
         <v>19</v>
@@ -3813,19 +3859,19 @@
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K35" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L35" s="21"/>
       <c r="M35" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="P35" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q35" s="21" t="s">
         <v>17</v>
@@ -3833,7 +3879,7 @@
       <c r="R35" s="21"/>
       <c r="S35" s="21"/>
       <c r="T35" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
@@ -3849,55 +3895,55 @@
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J36" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K36" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L36" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M36" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N36" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O36" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P36" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q36" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R36" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S36" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T36" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U36" s="21"/>
       <c r="V36" s="21" t="s">
@@ -3915,55 +3961,55 @@
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J37" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K37" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L37" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M37" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N37" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O37" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P37" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q37" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R37" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S37" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T37" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U37" s="21"/>
       <c r="V37" s="21" t="s">
@@ -3977,59 +4023,59 @@
         <v>43</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I38" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J38" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K38" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L38" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M38" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N38" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P38" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q38" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R38" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S38" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T38" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U38" s="21"/>
       <c r="V38" s="21" t="s">
@@ -4047,55 +4093,55 @@
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J39" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K39" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L39" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M39" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N39" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P39" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q39" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R39" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S39" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T39" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U39" s="21"/>
       <c r="V39" s="21" t="s">
@@ -4113,55 +4159,55 @@
       </c>
       <c r="C40" s="21"/>
       <c r="D40" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J40" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K40" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L40" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M40" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N40" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P40" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q40" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R40" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S40" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T40" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U40" s="21"/>
       <c r="V40" s="21" t="s">
@@ -4179,55 +4225,55 @@
       </c>
       <c r="C41" s="21"/>
       <c r="D41" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J41" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K41" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L41" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M41" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N41" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P41" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q41" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R41" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S41" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T41" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U41" s="21"/>
       <c r="V41" s="21" t="s">
@@ -4245,51 +4291,51 @@
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I42" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J42" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K42" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L42" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M42" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N42" s="21"/>
       <c r="O42" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P42" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q42" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R42" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S42" s="21"/>
       <c r="T42" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U42" s="21"/>
       <c r="V42" s="21" t="s">
@@ -4307,55 +4353,55 @@
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I43" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J43" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K43" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L43" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M43" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N43" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P43" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q43" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R43" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S43" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T43" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U43" s="21"/>
       <c r="V43" s="21" t="s">
@@ -4373,45 +4419,45 @@
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
       <c r="I44" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J44" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K44" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L44" s="21"/>
       <c r="M44" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N44" s="21"/>
       <c r="O44" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P44" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q44" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R44" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S44" s="21"/>
       <c r="T44" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U44" s="21"/>
       <c r="V44" s="21" t="s">
@@ -4429,13 +4475,13 @@
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G45" s="21"/>
       <c r="H45" s="21" t="s">
@@ -4443,21 +4489,21 @@
       </c>
       <c r="I45" s="21"/>
       <c r="J45" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K45" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L45" s="21"/>
       <c r="M45" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N45" s="21" t="s">
         <v>19</v>
       </c>
       <c r="O45" s="21"/>
       <c r="P45" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q45" s="21" t="s">
         <v>17</v>
@@ -4479,31 +4525,31 @@
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K46" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L46" s="21"/>
       <c r="M46" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N46" s="21"/>
       <c r="O46" s="21"/>
       <c r="P46" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q46" s="21" t="s">
         <v>17</v>
@@ -4511,7 +4557,7 @@
       <c r="R46" s="21"/>
       <c r="S46" s="21"/>
       <c r="T46" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U46" s="21"/>
       <c r="V46" s="21"/>
@@ -4527,31 +4573,31 @@
       </c>
       <c r="C47" s="21"/>
       <c r="D47" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K47" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L47" s="21"/>
       <c r="M47" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q47" s="21" t="s">
         <v>17</v>
@@ -4559,7 +4605,7 @@
       <c r="R47" s="21"/>
       <c r="S47" s="21"/>
       <c r="T47" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U47" s="21"/>
       <c r="V47" s="21"/>
@@ -4575,31 +4621,31 @@
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
       <c r="J48" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K48" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L48" s="21"/>
       <c r="M48" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N48" s="21"/>
       <c r="O48" s="21"/>
       <c r="P48" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q48" s="21" t="s">
         <v>17</v>
@@ -4607,7 +4653,7 @@
       <c r="R48" s="21"/>
       <c r="S48" s="21"/>
       <c r="T48" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U48" s="21"/>
       <c r="V48" s="21"/>
@@ -4623,51 +4669,51 @@
       </c>
       <c r="C49" s="21"/>
       <c r="D49" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I49" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J49" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K49" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L49" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M49" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N49" s="21"/>
       <c r="O49" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P49" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q49" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R49" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S49" s="21"/>
       <c r="T49" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U49" s="21"/>
       <c r="V49" s="21" t="s">
@@ -4685,55 +4731,55 @@
       </c>
       <c r="C50" s="21"/>
       <c r="D50" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J50" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K50" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L50" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M50" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N50" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O50" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P50" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q50" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R50" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S50" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T50" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U50" s="21"/>
       <c r="V50" s="21" t="s">
@@ -4751,55 +4797,55 @@
       </c>
       <c r="C51" s="21"/>
       <c r="D51" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J51" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K51" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L51" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M51" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N51" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P51" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q51" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R51" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S51" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T51" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U51" s="21"/>
       <c r="V51" s="21"/>
@@ -4811,59 +4857,59 @@
         <v>43</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I52" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J52" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K52" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L52" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M52" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N52" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O52" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P52" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q52" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R52" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S52" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T52" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U52" s="21"/>
       <c r="V52" s="21"/>
@@ -4875,59 +4921,59 @@
         <v>43</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I53" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J53" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K53" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L53" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M53" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N53" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O53" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P53" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q53" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R53" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S53" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T53" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U53" s="21"/>
       <c r="V53" s="21"/>
@@ -4939,59 +4985,59 @@
         <v>43</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I54" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J54" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K54" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L54" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M54" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N54" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O54" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P54" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q54" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R54" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S54" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T54" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U54" s="21"/>
       <c r="V54" s="21"/>
@@ -5003,59 +5049,59 @@
         <v>43</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I55" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J55" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K55" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L55" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M55" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N55" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O55" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P55" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q55" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R55" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S55" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T55" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U55" s="21"/>
       <c r="V55" s="21"/>
@@ -5067,35 +5113,35 @@
         <v>43</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
       <c r="J56" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K56" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L56" s="21"/>
       <c r="M56" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N56" s="21"/>
       <c r="O56" s="21"/>
       <c r="P56" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q56" s="21" t="s">
         <v>17</v>
@@ -5117,55 +5163,55 @@
       </c>
       <c r="C57" s="21"/>
       <c r="D57" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G57" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I57" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J57" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K57" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L57" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M57" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N57" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O57" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P57" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q57" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R57" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S57" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T57" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U57" s="21" t="s">
         <v>17</v>
@@ -5187,55 +5233,55 @@
       </c>
       <c r="C58" s="21"/>
       <c r="D58" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I58" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J58" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K58" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L58" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M58" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N58" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O58" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P58" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q58" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R58" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S58" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T58" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U58" s="21" t="s">
         <v>17</v>
@@ -5255,53 +5301,53 @@
       </c>
       <c r="C59" s="21"/>
       <c r="D59" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G59" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I59" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J59" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K59" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L59" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M59" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N59" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O59" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P59" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q59" s="21" t="s">
         <v>114</v>
       </c>
       <c r="R59" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S59" s="21"/>
       <c r="T59" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U59" s="21" t="s">
         <v>114</v>
@@ -5321,7 +5367,7 @@
       </c>
       <c r="C60" s="19"/>
       <c r="D60" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E60" s="19"/>
       <c r="F60" s="19"/>
@@ -5355,7 +5401,7 @@
       </c>
       <c r="C61" s="17"/>
       <c r="D61" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E61" s="17"/>
       <c r="F61" s="17" t="s">
@@ -5398,7 +5444,7 @@
       </c>
       <c r="C62" s="17"/>
       <c r="D62" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E62" s="17"/>
       <c r="F62" s="17"/>
@@ -5429,7 +5475,7 @@
       </c>
       <c r="C63" s="17"/>
       <c r="D63" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E63" s="17"/>
       <c r="F63" s="17"/>
@@ -5460,7 +5506,7 @@
       </c>
       <c r="C64" s="17"/>
       <c r="D64" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E64" s="17"/>
       <c r="F64" s="17"/>
@@ -5491,7 +5537,7 @@
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E65" s="17"/>
       <c r="F65" s="17"/>
@@ -5522,7 +5568,7 @@
       </c>
       <c r="C66" s="17"/>
       <c r="D66" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
@@ -5553,7 +5599,7 @@
       </c>
       <c r="C67" s="20"/>
       <c r="D67" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
@@ -5584,28 +5630,28 @@
       </c>
       <c r="C68" s="20"/>
       <c r="D68" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F68" s="30"/>
       <c r="G68" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H68" s="30"/>
       <c r="I68" s="30"/>
       <c r="J68" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K68" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L68" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M68" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N68" s="30"/>
       <c r="O68" s="30"/>
@@ -5620,14 +5666,14 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
+      <pane xSplit="2" ySplit="6.0384615384615383" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
     <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
       <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="E7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="L57" sqref="L57:L59"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
-      <pane xSplit="2" ySplit="6.0384615384615383" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
@@ -5974,11 +6020,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
+    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
       <selection activeCell="C7" sqref="C7"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
       <selection activeCell="C7" sqref="C7"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-900" windowWidth="38400" windowHeight="22040" tabRatio="500"/>
+    <workbookView xWindow="25640" yWindow="80" windowWidth="25540" windowHeight="28700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,8 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="157">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -614,8 +614,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="123">
+  <cellStyleXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -818,7 +820,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="123">
+  <cellStyles count="125">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -880,6 +882,7 @@
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -941,6 +944,7 @@
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -954,7 +958,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{96A7966C-8B82-C646-99D9-18DB41B4F602}" diskRevisions="1" revisionId="59" version="7">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F8907045-3B30-0A43-A905-F167D27F9989}" diskRevisions="1" revisionId="63" version="8">
   <header guid="{9913DD30-08DC-DF4C-B2D5-13B399C3569F}" dateTime="2016-09-06T09:10:23" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -997,6 +1001,12 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{F8907045-3B30-0A43-A905-F167D27F9989}" dateTime="2016-09-27T15:32:39" maxSheetId="3" userName="Jarno Väyrynen" r:id="rId8" minRId="60" maxRId="63">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -1708,11 +1718,45 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="60" sId="1">
+    <nc r="U20" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="61" sId="1">
+    <nc r="T25" t="inlineStr">
+      <is>
+        <t>R+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="62" sId="1">
+    <nc r="T45" t="inlineStr">
+      <is>
+        <t>R+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="63" sId="1">
+    <nc r="U37" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="3">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="4">
   <userInfo guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" name="Tatu Tarvainen" id="-130145201" dateTime="2016-09-06T09:10:23"/>
   <userInfo guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" name="Jarno Väyrynen" id="-589116405" dateTime="2016-09-06T12:54:09"/>
   <userInfo guid="{0407E191-78DA-F349-B5E5-8AE1BC03A29E}" name="Jarno Väyrynen" id="-589108428" dateTime="2016-09-08T15:33:24"/>
+  <userInfo guid="{F8907045-3B30-0A43-A905-F167D27F9989}" name="Jarno Väyrynen" id="-589157736" dateTime="2016-09-27T15:27:41"/>
 </users>
 </file>
 
@@ -2041,10 +2085,10 @@
   <dimension ref="A1:X68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C8" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="O8" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomRight" activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -3007,7 +3051,9 @@
       <c r="T20" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="U20" s="17"/>
+      <c r="U20" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="V20" s="21" t="s">
         <v>17</v>
       </c>
@@ -3324,7 +3370,9 @@
         <v>136</v>
       </c>
       <c r="S25" s="27"/>
-      <c r="T25" s="21"/>
+      <c r="T25" s="21" t="s">
+        <v>136</v>
+      </c>
       <c r="U25" s="21"/>
       <c r="V25" s="21" t="s">
         <v>114</v>
@@ -4011,7 +4059,9 @@
       <c r="T37" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="U37" s="21"/>
+      <c r="U37" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="V37" s="21" t="s">
         <v>17</v>
       </c>
@@ -4510,7 +4560,9 @@
       </c>
       <c r="R45" s="21"/>
       <c r="S45" s="21"/>
-      <c r="T45" s="21"/>
+      <c r="T45" s="21" t="s">
+        <v>136</v>
+      </c>
       <c r="U45" s="21"/>
       <c r="V45" s="21"/>
       <c r="W45" s="21"/>
@@ -5666,14 +5718,14 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
+      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="E7" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="L57" sqref="L57:L59"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
       <pane xSplit="2" ySplit="6.0384615384615383" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
-      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="E7" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="L57" sqref="L57:L59"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
@@ -6020,11 +6072,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
       <selection activeCell="C7" sqref="C7"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
+    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
       <selection activeCell="C7" sqref="C7"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarihan/Desktop/Harja/harja/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25640" yWindow="80" windowWidth="25540" windowHeight="28700" tabRatio="500"/>
+    <workbookView xWindow="25640" yWindow="460" windowWidth="25540" windowHeight="27200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -12,22 +17,23 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="1277" windowHeight="1187" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="158">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -498,6 +504,9 @@
   </si>
   <si>
     <t>R = lukuoikeus nimettyihin urakoihin, R,W = luku- ja kirjoitusoikeus nimettyihin urakoihin, W+ kirjoitusoikeus oman organisaation urakoihin, W* kirjoitusoikeus kaikkiin urakoihin, tyhjä = ei näe osiota, muut erikoisoikeuksia</t>
+  </si>
+  <si>
+    <t>R*,W*,TM-valmis</t>
   </si>
 </sst>
 </file>
@@ -958,13 +967,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F8907045-3B30-0A43-A905-F167D27F9989}" diskRevisions="1" revisionId="63" version="8">
-  <header guid="{9913DD30-08DC-DF4C-B2D5-13B399C3569F}" dateTime="2016-09-06T09:10:23" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId1">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FC69AAD3-0412-1847-89C5-E3EAD8A67C1F}" diskRevisions="1" revisionId="64" version="9">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1007,11 +1010,13 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{FC69AAD3-0412-1847-89C5-E3EAD8A67C1F}" dateTime="2016-10-11T11:52:42" maxSheetId="3" userName="Microsoft Office User" r:id="rId9" minRId="64">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1751,7 +1756,25 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="64" sId="1">
+    <oc r="D28" t="inlineStr">
+      <is>
+        <t>R*,W*</t>
+      </is>
+    </oc>
+    <nc r="D28" t="inlineStr">
+      <is>
+        <t>R*,W*,TM-valmis</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="4">
   <userInfo guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" name="Tatu Tarvainen" id="-130145201" dateTime="2016-09-06T09:10:23"/>
   <userInfo guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" name="Jarno Väyrynen" id="-589116405" dateTime="2016-09-06T12:54:09"/>
@@ -2084,14 +2107,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="O8" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C12" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="U37" sqref="U37"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
@@ -2118,7 +2141,7 @@
     <col min="24" max="24" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="24" customHeight="1">
+    <row r="1" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2138,7 +2161,7 @@
       <c r="M1" s="43"/>
       <c r="N1" s="43"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="44" t="s">
@@ -2156,7 +2179,7 @@
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -2171,10 +2194,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="41" t="s">
         <v>6</v>
       </c>
@@ -2203,7 +2226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -2272,7 +2295,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
@@ -2340,7 +2363,7 @@
       <c r="W7" s="17"/>
       <c r="X7" s="10"/>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
@@ -2394,7 +2417,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
@@ -2442,7 +2465,7 @@
       <c r="W9" s="17"/>
       <c r="X9" s="10"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
@@ -2490,7 +2513,7 @@
       <c r="W10" s="17"/>
       <c r="X10" s="10"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>15</v>
       </c>
@@ -2552,7 +2575,7 @@
       <c r="W11" s="17"/>
       <c r="X11" s="10"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -2614,7 +2637,7 @@
       <c r="W12" s="17"/>
       <c r="X12" s="10"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
@@ -2662,7 +2685,7 @@
       <c r="W13" s="17"/>
       <c r="X13" s="10"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
         <v>15</v>
       </c>
@@ -2710,7 +2733,7 @@
       <c r="W14" s="17"/>
       <c r="X14" s="10"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
@@ -2758,7 +2781,7 @@
       <c r="W15" s="17"/>
       <c r="X15" s="10"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
@@ -2820,7 +2843,7 @@
       <c r="W16" s="17"/>
       <c r="X16" s="10"/>
     </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -2882,7 +2905,7 @@
       <c r="W17" s="17"/>
       <c r="X17" s="10"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>15</v>
       </c>
@@ -2930,7 +2953,7 @@
       <c r="W18" s="17"/>
       <c r="X18" s="10"/>
     </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
@@ -2992,7 +3015,7 @@
       <c r="W19" s="17"/>
       <c r="X19" s="10"/>
     </row>
-    <row r="20" spans="1:24" ht="15.75" customHeight="1">
+    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>15</v>
       </c>
@@ -3060,7 +3083,7 @@
       <c r="W20" s="17"/>
       <c r="X20" s="10"/>
     </row>
-    <row r="21" spans="1:24" ht="15.75" customHeight="1">
+    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="26" t="s">
         <v>15</v>
       </c>
@@ -3128,7 +3151,7 @@
       <c r="W21" s="21"/>
       <c r="X21" s="10"/>
     </row>
-    <row r="22" spans="1:24" ht="15.75" customHeight="1">
+    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="26" t="s">
         <v>15</v>
       </c>
@@ -3194,7 +3217,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15.75" customHeight="1">
+    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="26" t="s">
         <v>15</v>
       </c>
@@ -3260,7 +3283,7 @@
       <c r="W23" s="21"/>
       <c r="X23" s="10"/>
     </row>
-    <row r="24" spans="1:24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="26" t="s">
         <v>15</v>
       </c>
@@ -3324,7 +3347,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15.75" customHeight="1">
+    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="26" t="s">
         <v>15</v>
       </c>
@@ -3380,7 +3403,7 @@
       <c r="W25" s="21"/>
       <c r="X25" s="10"/>
     </row>
-    <row r="26" spans="1:24" ht="15.75" customHeight="1">
+    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="26" t="s">
         <v>15</v>
       </c>
@@ -3428,7 +3451,7 @@
       <c r="W26" s="21"/>
       <c r="X26" s="10"/>
     </row>
-    <row r="27" spans="1:24" ht="15.75" customHeight="1">
+    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="26" t="s">
         <v>15</v>
       </c>
@@ -3468,7 +3491,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="15.75" customHeight="1">
+    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="26" t="s">
         <v>15</v>
       </c>
@@ -3477,7 +3500,7 @@
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="17" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>135</v>
@@ -3534,7 +3557,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="15.75" customHeight="1">
+    <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="26" t="s">
         <v>15</v>
       </c>
@@ -3592,7 +3615,7 @@
       <c r="W29" s="21"/>
       <c r="X29" s="10"/>
     </row>
-    <row r="30" spans="1:24" ht="15.75" customHeight="1">
+    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="26" t="s">
         <v>15</v>
       </c>
@@ -3652,7 +3675,7 @@
       <c r="W30" s="21"/>
       <c r="X30" s="10"/>
     </row>
-    <row r="31" spans="1:24" ht="15.75" customHeight="1">
+    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="26" t="s">
         <v>15</v>
       </c>
@@ -3710,7 +3733,7 @@
       <c r="W31" s="21"/>
       <c r="X31" s="10"/>
     </row>
-    <row r="32" spans="1:24" ht="15.75" customHeight="1">
+    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="26" t="s">
         <v>15</v>
       </c>
@@ -3768,7 +3791,7 @@
       <c r="W32" s="21"/>
       <c r="X32" s="10"/>
     </row>
-    <row r="33" spans="1:24" s="13" customFormat="1" ht="15.75" customHeight="1">
+    <row r="33" spans="1:24" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="26" t="s">
         <v>15</v>
       </c>
@@ -3836,7 +3859,7 @@
       <c r="W33" s="21"/>
       <c r="X33" s="12"/>
     </row>
-    <row r="34" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1">
+    <row r="34" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="26" t="s">
         <v>43</v>
       </c>
@@ -3884,7 +3907,7 @@
       <c r="W34" s="21"/>
       <c r="X34" s="31"/>
     </row>
-    <row r="35" spans="1:24" ht="15.75" customHeight="1">
+    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="26" t="s">
         <v>43</v>
       </c>
@@ -3934,7 +3957,7 @@
       <c r="W35" s="21"/>
       <c r="X35" s="10"/>
     </row>
-    <row r="36" spans="1:24" ht="15.75" customHeight="1">
+    <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="26" t="s">
         <v>43</v>
       </c>
@@ -4000,7 +4023,7 @@
       <c r="W36" s="21"/>
       <c r="X36" s="10"/>
     </row>
-    <row r="37" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="26" t="s">
         <v>43</v>
       </c>
@@ -4068,7 +4091,7 @@
       <c r="W37" s="21"/>
       <c r="X37" s="37"/>
     </row>
-    <row r="38" spans="1:24" ht="15.75" customHeight="1">
+    <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="26" t="s">
         <v>43</v>
       </c>
@@ -4134,7 +4157,7 @@
       <c r="W38" s="21"/>
       <c r="X38" s="10"/>
     </row>
-    <row r="39" spans="1:24" ht="15.75" customHeight="1">
+    <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="26" t="s">
         <v>43</v>
       </c>
@@ -4200,7 +4223,7 @@
       <c r="W39" s="21"/>
       <c r="X39" s="10"/>
     </row>
-    <row r="40" spans="1:24" ht="15.75" customHeight="1">
+    <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="26" t="s">
         <v>43</v>
       </c>
@@ -4266,7 +4289,7 @@
       <c r="W40" s="21"/>
       <c r="X40" s="10"/>
     </row>
-    <row r="41" spans="1:24" ht="15.75" customHeight="1">
+    <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="26" t="s">
         <v>43</v>
       </c>
@@ -4332,7 +4355,7 @@
       <c r="W41" s="21"/>
       <c r="X41" s="10"/>
     </row>
-    <row r="42" spans="1:24" ht="15.75" customHeight="1">
+    <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="26" t="s">
         <v>43</v>
       </c>
@@ -4394,7 +4417,7 @@
       <c r="W42" s="21"/>
       <c r="X42" s="10"/>
     </row>
-    <row r="43" spans="1:24" ht="15.75" customHeight="1">
+    <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26" t="s">
         <v>43</v>
       </c>
@@ -4460,7 +4483,7 @@
       <c r="W43" s="21"/>
       <c r="X43" s="10"/>
     </row>
-    <row r="44" spans="1:24" ht="15.75" customHeight="1">
+    <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="26" t="s">
         <v>43</v>
       </c>
@@ -4516,7 +4539,7 @@
       <c r="W44" s="21"/>
       <c r="X44" s="10"/>
     </row>
-    <row r="45" spans="1:24" ht="15.75" customHeight="1">
+    <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="26" t="s">
         <v>43</v>
       </c>
@@ -4568,7 +4591,7 @@
       <c r="W45" s="21"/>
       <c r="X45" s="10"/>
     </row>
-    <row r="46" spans="1:24" ht="15.75" customHeight="1">
+    <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="26" t="s">
         <v>43</v>
       </c>
@@ -4616,7 +4639,7 @@
       <c r="W46" s="21"/>
       <c r="X46" s="10"/>
     </row>
-    <row r="47" spans="1:24" ht="15.75" customHeight="1">
+    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="26" t="s">
         <v>43</v>
       </c>
@@ -4664,7 +4687,7 @@
       <c r="W47" s="21"/>
       <c r="X47" s="10"/>
     </row>
-    <row r="48" spans="1:24" ht="15.75" customHeight="1">
+    <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="26" t="s">
         <v>43</v>
       </c>
@@ -4712,7 +4735,7 @@
       <c r="W48" s="21"/>
       <c r="X48" s="10"/>
     </row>
-    <row r="49" spans="1:24" s="29" customFormat="1" ht="15.75" customHeight="1">
+    <row r="49" spans="1:24" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="26" t="s">
         <v>43</v>
       </c>
@@ -4774,7 +4797,7 @@
       <c r="W49" s="21"/>
       <c r="X49" s="28"/>
     </row>
-    <row r="50" spans="1:24" ht="15.75" customHeight="1">
+    <row r="50" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="26" t="s">
         <v>43</v>
       </c>
@@ -4840,7 +4863,7 @@
       <c r="W50" s="21"/>
       <c r="X50" s="10"/>
     </row>
-    <row r="51" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="51" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="26" t="s">
         <v>43</v>
       </c>
@@ -4904,7 +4927,7 @@
       <c r="W51" s="21"/>
       <c r="X51" s="37"/>
     </row>
-    <row r="52" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="52" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="26" t="s">
         <v>43</v>
       </c>
@@ -4968,7 +4991,7 @@
       <c r="W52" s="21"/>
       <c r="X52" s="37"/>
     </row>
-    <row r="53" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="53" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="26" t="s">
         <v>43</v>
       </c>
@@ -5032,7 +5055,7 @@
       <c r="W53" s="21"/>
       <c r="X53" s="37"/>
     </row>
-    <row r="54" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="54" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="26" t="s">
         <v>43</v>
       </c>
@@ -5096,7 +5119,7 @@
       <c r="W54" s="21"/>
       <c r="X54" s="37"/>
     </row>
-    <row r="55" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="55" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="26" t="s">
         <v>43</v>
       </c>
@@ -5160,7 +5183,7 @@
       <c r="W55" s="21"/>
       <c r="X55" s="37"/>
     </row>
-    <row r="56" spans="1:24" s="35" customFormat="1" ht="15.75" customHeight="1">
+    <row r="56" spans="1:24" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="26" t="s">
         <v>43</v>
       </c>
@@ -5206,7 +5229,7 @@
       <c r="W56" s="21"/>
       <c r="X56" s="34"/>
     </row>
-    <row r="57" spans="1:24" ht="15.75" customHeight="1">
+    <row r="57" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="26" t="s">
         <v>58</v>
       </c>
@@ -5276,7 +5299,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="15.75" customHeight="1">
+    <row r="58" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="26" t="s">
         <v>58</v>
       </c>
@@ -5344,7 +5367,7 @@
       <c r="W58" s="21"/>
       <c r="X58" s="40"/>
     </row>
-    <row r="59" spans="1:24" ht="15.75" customHeight="1">
+    <row r="59" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="26" t="s">
         <v>62</v>
       </c>
@@ -5410,7 +5433,7 @@
       <c r="W59" s="21"/>
       <c r="X59" s="10"/>
     </row>
-    <row r="60" spans="1:24" s="15" customFormat="1" ht="15.75" customHeight="1">
+    <row r="60" spans="1:24" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="18" t="s">
         <v>63</v>
       </c>
@@ -5444,7 +5467,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="15.75" customHeight="1">
+    <row r="61" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="16" t="s">
         <v>63</v>
       </c>
@@ -5487,7 +5510,7 @@
       <c r="V61" s="17"/>
       <c r="W61" s="17"/>
     </row>
-    <row r="62" spans="1:24" ht="15.75" customHeight="1">
+    <row r="62" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="16" t="s">
         <v>63</v>
       </c>
@@ -5518,7 +5541,7 @@
       <c r="V62" s="17"/>
       <c r="W62" s="17"/>
     </row>
-    <row r="63" spans="1:24" ht="15.75" customHeight="1">
+    <row r="63" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="16" t="s">
         <v>63</v>
       </c>
@@ -5549,7 +5572,7 @@
       <c r="V63" s="17"/>
       <c r="W63" s="17"/>
     </row>
-    <row r="64" spans="1:24" ht="15.75" customHeight="1">
+    <row r="64" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="16" t="s">
         <v>63</v>
       </c>
@@ -5580,7 +5603,7 @@
       <c r="V64" s="17"/>
       <c r="W64" s="17"/>
     </row>
-    <row r="65" spans="1:23" s="36" customFormat="1" ht="15.75" customHeight="1">
+    <row r="65" spans="1:23" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="16" t="s">
         <v>63</v>
       </c>
@@ -5611,7 +5634,7 @@
       <c r="V65" s="17"/>
       <c r="W65" s="17"/>
     </row>
-    <row r="66" spans="1:23" s="33" customFormat="1" ht="15.75" customHeight="1">
+    <row r="66" spans="1:23" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="16" t="s">
         <v>63</v>
       </c>
@@ -5642,7 +5665,7 @@
       <c r="V66" s="17"/>
       <c r="W66" s="17"/>
     </row>
-    <row r="67" spans="1:23" ht="15.75" customHeight="1">
+    <row r="67" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="16" t="s">
         <v>110</v>
       </c>
@@ -5673,7 +5696,7 @@
       <c r="V67" s="20"/>
       <c r="W67" s="20"/>
     </row>
-    <row r="68" spans="1:23" ht="15.75" customHeight="1">
+    <row r="68" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="16" t="s">
         <v>124</v>
       </c>
@@ -5718,14 +5741,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
-      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="E7" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="L57" sqref="L57:L59"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="140">
+      <pane xSplit="2" ySplit="6" topLeftCell="C12" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
       <pane xSplit="2" ySplit="6.0384615384615383" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
+      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="E7" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="L57" sqref="L57:L59"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
@@ -5739,11 +5770,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5755,7 +5781,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" customWidth="1"/>
@@ -5763,7 +5789,7 @@
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>70</v>
       </c>
@@ -5780,7 +5806,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>73</v>
       </c>
@@ -5793,7 +5819,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="15">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>75</v>
       </c>
@@ -5806,7 +5832,7 @@
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="1:5" ht="15">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>77</v>
       </c>
@@ -5819,7 +5845,7 @@
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="1:5" ht="15">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>97</v>
       </c>
@@ -5834,7 +5860,7 @@
       </c>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:5" ht="15">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>98</v>
       </c>
@@ -5849,7 +5875,7 @@
       </c>
       <c r="E6" s="24"/>
     </row>
-    <row r="7" spans="1:5" ht="15">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>99</v>
       </c>
@@ -5864,7 +5890,7 @@
       </c>
       <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:5" ht="15">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>100</v>
       </c>
@@ -5879,7 +5905,7 @@
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:5" ht="15">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>109</v>
       </c>
@@ -5892,7 +5918,7 @@
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
     </row>
-    <row r="10" spans="1:5" ht="15">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>108</v>
       </c>
@@ -5905,7 +5931,7 @@
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
     </row>
-    <row r="11" spans="1:5" ht="15">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>107</v>
       </c>
@@ -5918,7 +5944,7 @@
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
-    <row r="12" spans="1:5" ht="15">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>101</v>
       </c>
@@ -5933,7 +5959,7 @@
       </c>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:5" ht="15">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>106</v>
       </c>
@@ -5948,7 +5974,7 @@
       </c>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:5" ht="15">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>102</v>
       </c>
@@ -5963,7 +5989,7 @@
       </c>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:5" ht="15">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>103</v>
       </c>
@@ -5978,7 +6004,7 @@
       </c>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:5" ht="15">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>104</v>
       </c>
@@ -5993,7 +6019,7 @@
       </c>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="1:5" ht="15">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>127</v>
       </c>
@@ -6008,7 +6034,7 @@
       </c>
       <c r="E17" s="24"/>
     </row>
-    <row r="18" spans="1:5" ht="15">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>12</v>
       </c>
@@ -6023,7 +6049,7 @@
       </c>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" ht="15">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>13</v>
       </c>
@@ -6038,7 +6064,7 @@
       </c>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" ht="15">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>105</v>
       </c>
@@ -6053,7 +6079,7 @@
       </c>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" ht="15">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>117</v>
       </c>
@@ -6072,21 +6098,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
       <selection activeCell="C7" sqref="C7"/>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
       <selection activeCell="C7" sqref="C7"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
+      <selection activeCell="C7" sqref="C7"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25640" yWindow="460" windowWidth="25540" windowHeight="27200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38260" windowHeight="25060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,9 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="1277" windowHeight="1187" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="1913" windowHeight="1080" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="159">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -506,7 +506,10 @@
     <t>R = lukuoikeus nimettyihin urakoihin, R,W = luku- ja kirjoitusoikeus nimettyihin urakoihin, W+ kirjoitusoikeus oman organisaation urakoihin, W* kirjoitusoikeus kaikkiin urakoihin, tyhjä = ei näe osiota, muut erikoisoikeuksia</t>
   </si>
   <si>
-    <t>R*,W*,TM-valmis</t>
+    <t>R*,W*,TM-valmis,TM-takaraja</t>
+  </si>
+  <si>
+    <t>R*,W,TM-takaraja</t>
   </si>
 </sst>
 </file>
@@ -967,7 +970,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FC69AAD3-0412-1847-89C5-E3EAD8A67C1F}" diskRevisions="1" revisionId="64" version="9">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{3B00597B-4E8C-8B4F-BA72-B62F7DB2FF8A}" diskRevisions="1" revisionId="67" version="10">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1016,7 +1019,56 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{3B00597B-4E8C-8B4F-BA72-B62F7DB2FF8A}" dateTime="2016-10-11T12:14:04" maxSheetId="3" userName="Microsoft Office User" r:id="rId10" minRId="65" maxRId="67">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="65" sId="1">
+    <oc r="D28" t="inlineStr">
+      <is>
+        <t>R*,W*,TM-valmis</t>
+      </is>
+    </oc>
+    <nc r="D28" t="inlineStr">
+      <is>
+        <t>R*,W*,TM-valmis,TM-takaraja</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="66" sId="1">
+    <oc r="K28" t="inlineStr">
+      <is>
+        <t>R*,W</t>
+      </is>
+    </oc>
+    <nc r="K28" t="inlineStr">
+      <is>
+        <t>R*,W,TM-takaraja</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="67" sId="1">
+    <oc r="E28" t="inlineStr">
+      <is>
+        <t>R*,W</t>
+      </is>
+    </oc>
+    <nc r="E28" t="inlineStr">
+      <is>
+        <t>R*,W,TM-takaraja</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="delete"/>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="add"/>
+</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1774,12 +1826,13 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="4">
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="5">
   <userInfo guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" name="Tatu Tarvainen" id="-130145201" dateTime="2016-09-06T09:10:23"/>
   <userInfo guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" name="Jarno Väyrynen" id="-589116405" dateTime="2016-09-06T12:54:09"/>
   <userInfo guid="{0407E191-78DA-F349-B5E5-8AE1BC03A29E}" name="Jarno Väyrynen" id="-589108428" dateTime="2016-09-08T15:33:24"/>
   <userInfo guid="{F8907045-3B30-0A43-A905-F167D27F9989}" name="Jarno Väyrynen" id="-589157736" dateTime="2016-09-27T15:27:41"/>
+  <userInfo guid="{3B00597B-4E8C-8B4F-BA72-B62F7DB2FF8A}" name="Microsoft Office User" id="-296969744" dateTime="2016-10-11T12:12:42"/>
 </users>
 </file>
 
@@ -2111,7 +2164,7 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C12" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3503,7 +3556,7 @@
         <v>157</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="F28" s="21" t="s">
         <v>132</v>
@@ -3521,7 +3574,7 @@
         <v>131</v>
       </c>
       <c r="K28" s="21" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="L28" s="21" t="s">
         <v>17</v>
@@ -5743,19 +5796,19 @@
   <customSheetViews>
     <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="140">
       <pane xSplit="2" ySplit="6" topLeftCell="C12" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
+      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="E7" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="L57" sqref="L57:L59"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
       <pane xSplit="2" ySplit="6.0384615384615383" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
-      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="E7" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="L57" sqref="L57:L59"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
@@ -6103,12 +6156,12 @@
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
       <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
+    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
       <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38260" windowHeight="25060" tabRatio="500"/>
+    <workbookView xWindow="5000" yWindow="1900" windowWidth="38260" windowHeight="23140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,9 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="1913" windowHeight="1080" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="1913" windowHeight="984" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -506,10 +506,10 @@
     <t>R = lukuoikeus nimettyihin urakoihin, R,W = luku- ja kirjoitusoikeus nimettyihin urakoihin, W+ kirjoitusoikeus oman organisaation urakoihin, W* kirjoitusoikeus kaikkiin urakoihin, tyhjä = ei näe osiota, muut erikoisoikeuksia</t>
   </si>
   <si>
-    <t>R*,W*,TM-valmis,TM-takaraja</t>
-  </si>
-  <si>
     <t>R*,W,TM-takaraja</t>
+  </si>
+  <si>
+    <t>R*,W*,TM-valmis*,TM-takaraja*</t>
   </si>
 </sst>
 </file>
@@ -970,7 +970,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{3B00597B-4E8C-8B4F-BA72-B62F7DB2FF8A}" diskRevisions="1" revisionId="67" version="10">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{65E12868-01B4-8F43-907A-C749CC5006A6}" diskRevisions="1" revisionId="68" version="11">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1025,6 +1025,12 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{65E12868-01B4-8F43-907A-C749CC5006A6}" dateTime="2016-10-11T12:52:46" maxSheetId="3" userName="Microsoft Office User" r:id="rId11" minRId="68">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -1063,6 +1069,25 @@
     <nc r="E28" t="inlineStr">
       <is>
         <t>R*,W,TM-takaraja</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="delete"/>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="68" sId="1">
+    <oc r="D28" t="inlineStr">
+      <is>
+        <t>R*,W*,TM-valmis,TM-takaraja</t>
+      </is>
+    </oc>
+    <nc r="D28" t="inlineStr">
+      <is>
+        <t>R*,W*,TM-valmis*,TM-takaraja*</t>
       </is>
     </nc>
   </rcc>
@@ -1826,13 +1851,12 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="5">
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="4">
   <userInfo guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" name="Tatu Tarvainen" id="-130145201" dateTime="2016-09-06T09:10:23"/>
   <userInfo guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" name="Jarno Väyrynen" id="-589116405" dateTime="2016-09-06T12:54:09"/>
   <userInfo guid="{0407E191-78DA-F349-B5E5-8AE1BC03A29E}" name="Jarno Väyrynen" id="-589108428" dateTime="2016-09-08T15:33:24"/>
   <userInfo guid="{F8907045-3B30-0A43-A905-F167D27F9989}" name="Jarno Väyrynen" id="-589157736" dateTime="2016-09-27T15:27:41"/>
-  <userInfo guid="{3B00597B-4E8C-8B4F-BA72-B62F7DB2FF8A}" name="Microsoft Office User" id="-296969744" dateTime="2016-10-11T12:12:42"/>
 </users>
 </file>
 
@@ -2160,11 +2184,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C12" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3553,10 +3577,10 @@
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="17" t="s">
         <v>157</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>158</v>
       </c>
       <c r="F28" s="21" t="s">
         <v>132</v>
@@ -3574,7 +3598,7 @@
         <v>131</v>
       </c>
       <c r="K28" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L28" s="21" t="s">
         <v>17</v>
@@ -5794,21 +5818,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="140">
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
       <pane xSplit="2" ySplit="6" topLeftCell="C12" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
+      <pane xSplit="2" ySplit="6.0384615384615383" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
       <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="E7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="L57" sqref="L57:L59"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
-      <pane xSplit="2" ySplit="6.0384615384615383" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
@@ -6156,12 +6180,12 @@
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
+    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
       <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
       <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5000" yWindow="1900" windowWidth="38260" windowHeight="23140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1260" windowWidth="32960" windowHeight="13960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="1913" windowHeight="984" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="1648" windowHeight="525" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
   </customWorkbookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="162">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -510,6 +510,15 @@
   </si>
   <si>
     <t>R*,W*,TM-valmis*,TM-takaraja*</t>
+  </si>
+  <si>
+    <t>Toteutus / Kokonaishintaiset työt</t>
+  </si>
+  <si>
+    <t>Toteutus / Yksikköhintaiset työt</t>
+  </si>
+  <si>
+    <t>Toteutus / Muut työt</t>
   </si>
 </sst>
 </file>
@@ -753,7 +762,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -814,6 +823,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -970,7 +983,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{65E12868-01B4-8F43-907A-C749CC5006A6}" diskRevisions="1" revisionId="68" version="11">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{570602AA-71A9-F341-BC7B-B09F7DB93788}" diskRevisions="1" revisionId="87" version="13">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1031,6 +1044,18 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{38B11935-7ACB-8242-839C-AF964FC8C260}" dateTime="2016-10-25T13:53:22" maxSheetId="3" userName="Microsoft Office User" r:id="rId12" minRId="69" maxRId="87">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{570602AA-71A9-F341-BC7B-B09F7DB93788}" dateTime="2016-10-25T13:55:26" maxSheetId="3" userName="Microsoft Office User" r:id="rId13">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -1091,6 +1116,222 @@
       </is>
     </nc>
   </rcc>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="delete"/>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="69" sId="1" ref="A33:XFD35" action="insertRow"/>
+  <rcc rId="70" sId="1">
+    <nc r="A33" t="inlineStr">
+      <is>
+        <t>Urakat</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="71" sId="1">
+    <nc r="B33" t="inlineStr">
+      <is>
+        <t>Toteutus / Kokonaishintaiset työt</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="72" sId="1">
+    <nc r="J33" t="inlineStr">
+      <is>
+        <t>R*,W*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="73" sId="1">
+    <nc r="K33" t="inlineStr">
+      <is>
+        <t>R*,W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="O33" start="0" length="0">
+    <dxf/>
+  </rfmt>
+  <rcc rId="74" sId="1">
+    <nc r="P33" t="inlineStr">
+      <is>
+        <t>R+,W+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="75" sId="1">
+    <nc r="Q33" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="W33" start="0" length="0">
+    <dxf>
+      <alignment horizontal="general" vertical="center" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="X33" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="76" sId="1">
+    <nc r="A34" t="inlineStr">
+      <is>
+        <t>Urakat</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="77" sId="1">
+    <nc r="B34" t="inlineStr">
+      <is>
+        <t>Toteutus / Yksikköhintaiset työt</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="78" sId="1">
+    <nc r="J34" t="inlineStr">
+      <is>
+        <t>R*,W*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="79" sId="1">
+    <nc r="K34" t="inlineStr">
+      <is>
+        <t>R*,W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="O34" start="0" length="0">
+    <dxf/>
+  </rfmt>
+  <rcc rId="80" sId="1">
+    <nc r="P34" t="inlineStr">
+      <is>
+        <t>R+,W+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="81" sId="1">
+    <nc r="Q34" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="W34" start="0" length="0">
+    <dxf>
+      <alignment horizontal="general" vertical="center" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="X34" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="82" sId="1">
+    <nc r="A35" t="inlineStr">
+      <is>
+        <t>Urakat</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="83" sId="1">
+    <nc r="B35" t="inlineStr">
+      <is>
+        <t>Toteutus / Muut työt</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="84" sId="1">
+    <nc r="J35" t="inlineStr">
+      <is>
+        <t>R*,W*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="85" sId="1">
+    <nc r="K35" t="inlineStr">
+      <is>
+        <t>R*,W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="O35" start="0" length="0">
+    <dxf/>
+  </rfmt>
+  <rcc rId="86" sId="1">
+    <nc r="P35" t="inlineStr">
+      <is>
+        <t>R+,W+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="87" sId="1">
+    <nc r="Q35" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="W35" start="0" length="0">
+    <dxf>
+      <alignment horizontal="general" vertical="center" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="X35" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="delete"/>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="delete"/>
   <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="add"/>
 </revisions>
@@ -1851,7 +2092,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="4">
   <userInfo guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" name="Tatu Tarvainen" id="-130145201" dateTime="2016-09-06T09:10:23"/>
   <userInfo guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" name="Jarno Väyrynen" id="-589116405" dateTime="2016-09-06T12:54:09"/>
@@ -2182,20 +2423,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X68"/>
+  <dimension ref="A1:X71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C12" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C29" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="10.1640625" customWidth="1"/>
@@ -2223,38 +2464,38 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
@@ -2275,30 +2516,30 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="J5" s="41" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="J5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="P5" s="41" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="P5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
       <c r="X5" s="5" t="s">
         <v>14</v>
       </c>
@@ -3868,312 +4109,239 @@
       <c r="W32" s="21"/>
       <c r="X32" s="10"/>
     </row>
-    <row r="33" spans="1:24" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:24" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C33" s="21"/>
-      <c r="D33" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="I33" s="21" t="s">
-        <v>131</v>
-      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
       <c r="J33" s="17" t="s">
         <v>131</v>
       </c>
       <c r="K33" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="L33" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="M33" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="N33" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="O33" s="17" t="s">
-        <v>132</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
       <c r="P33" s="21" t="s">
         <v>137</v>
       </c>
       <c r="Q33" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="R33" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="S33" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="T33" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="U33" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="V33" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="W33" s="21"/>
-      <c r="X33" s="12"/>
-    </row>
-    <row r="34" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="39"/>
+    </row>
+    <row r="34" spans="1:24" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="26" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="C34" s="21"/>
-      <c r="D34" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>132</v>
-      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="21"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
-      <c r="J34" s="21" t="s">
-        <v>132</v>
+      <c r="J34" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="K34" s="21" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L34" s="21"/>
-      <c r="M34" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
       <c r="P34" s="21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q34" s="21" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
-      <c r="T34" s="21" t="s">
-        <v>136</v>
-      </c>
+      <c r="T34" s="17"/>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="31"/>
-    </row>
-    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W34" s="39"/>
+    </row>
+    <row r="35" spans="1:24" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="26" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="C35" s="21"/>
-      <c r="D35" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>19</v>
-      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
-      <c r="J35" s="21" t="s">
-        <v>132</v>
+      <c r="J35" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="K35" s="21" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L35" s="21"/>
-      <c r="M35" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
       <c r="P35" s="21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q35" s="21" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="R35" s="21"/>
       <c r="S35" s="21"/>
-      <c r="T35" s="21" t="s">
-        <v>136</v>
-      </c>
+      <c r="T35" s="17"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="10"/>
-    </row>
-    <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W35" s="39"/>
+    </row>
+    <row r="36" spans="1:24" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="26" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="C36" s="21"/>
-      <c r="D36" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>132</v>
+      <c r="D36" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>135</v>
       </c>
       <c r="F36" s="21" t="s">
         <v>132</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H36" s="21" t="s">
         <v>132</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="J36" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="J36" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="K36" s="21" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L36" s="21" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="M36" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="N36" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="O36" s="21" t="s">
+      <c r="N36" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="O36" s="17" t="s">
         <v>132</v>
       </c>
       <c r="P36" s="21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q36" s="21" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="R36" s="21" t="s">
         <v>136</v>
       </c>
       <c r="S36" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="T36" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="U36" s="21"/>
+        <v>114</v>
+      </c>
+      <c r="T36" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="U36" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="V36" s="21" t="s">
         <v>17</v>
       </c>
       <c r="W36" s="21"/>
-      <c r="X36" s="10"/>
-    </row>
-    <row r="37" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X36" s="12"/>
+    </row>
+    <row r="37" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="C37" s="21"/>
-      <c r="D37" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" s="21" t="s">
+      <c r="D37" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="17" t="s">
         <v>132</v>
       </c>
       <c r="F37" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="G37" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="I37" s="21" t="s">
-        <v>132</v>
-      </c>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
       <c r="J37" s="21" t="s">
         <v>132</v>
       </c>
       <c r="K37" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="L37" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="L37" s="21"/>
       <c r="M37" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="N37" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="O37" s="21" t="s">
-        <v>132</v>
-      </c>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
       <c r="P37" s="21" t="s">
         <v>136</v>
       </c>
       <c r="Q37" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R37" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="S37" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
       <c r="T37" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="U37" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="V37" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
       <c r="W37" s="21"/>
-      <c r="X37" s="37"/>
+      <c r="X37" s="31"/>
     </row>
     <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="21" t="s">
@@ -4186,51 +4354,35 @@
         <v>132</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="I38" s="21" t="s">
-        <v>132</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
       <c r="J38" s="21" t="s">
         <v>132</v>
       </c>
       <c r="K38" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="L38" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="L38" s="21"/>
       <c r="M38" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="N38" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="O38" s="21" t="s">
-        <v>132</v>
-      </c>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
       <c r="P38" s="21" t="s">
         <v>136</v>
       </c>
       <c r="Q38" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R38" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="S38" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
       <c r="T38" s="21" t="s">
         <v>136</v>
       </c>
       <c r="U38" s="21"/>
-      <c r="V38" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="V38" s="21"/>
       <c r="W38" s="21"/>
       <c r="X38" s="10"/>
     </row>
@@ -4239,7 +4391,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="21" t="s">
@@ -4300,12 +4452,12 @@
       <c r="W39" s="21"/>
       <c r="X39" s="10"/>
     </row>
-    <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C40" s="21"/>
       <c r="D40" s="21" t="s">
@@ -4359,19 +4511,21 @@
       <c r="T40" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="U40" s="21"/>
+      <c r="U40" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="V40" s="21" t="s">
         <v>17</v>
       </c>
       <c r="W40" s="21"/>
-      <c r="X40" s="10"/>
+      <c r="X40" s="37"/>
     </row>
     <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="C41" s="21"/>
       <c r="D41" s="21" t="s">
@@ -4437,7 +4591,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="21" t="s">
@@ -4470,7 +4624,9 @@
       <c r="M42" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="N42" s="21"/>
+      <c r="N42" s="21" t="s">
+        <v>132</v>
+      </c>
       <c r="O42" s="21" t="s">
         <v>132</v>
       </c>
@@ -4483,7 +4639,9 @@
       <c r="R42" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="S42" s="21"/>
+      <c r="S42" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="T42" s="21" t="s">
         <v>136</v>
       </c>
@@ -4499,7 +4657,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="21" t="s">
@@ -4565,7 +4723,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="21" t="s">
@@ -4577,8 +4735,12 @@
       <c r="F44" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
+      <c r="G44" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>132</v>
+      </c>
       <c r="I44" s="21" t="s">
         <v>132</v>
       </c>
@@ -4588,11 +4750,15 @@
       <c r="K44" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="L44" s="21"/>
+      <c r="L44" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="M44" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="N44" s="21"/>
+      <c r="N44" s="21" t="s">
+        <v>132</v>
+      </c>
       <c r="O44" s="21" t="s">
         <v>132</v>
       </c>
@@ -4605,7 +4771,9 @@
       <c r="R44" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="S44" s="21"/>
+      <c r="S44" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="T44" s="21" t="s">
         <v>136</v>
       </c>
@@ -4621,7 +4789,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="21" t="s">
@@ -4633,38 +4801,48 @@
       <c r="F45" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="G45" s="21"/>
+      <c r="G45" s="21" t="s">
+        <v>132</v>
+      </c>
       <c r="H45" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I45" s="21"/>
+        <v>132</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>132</v>
+      </c>
       <c r="J45" s="21" t="s">
         <v>132</v>
       </c>
       <c r="K45" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="L45" s="21"/>
+      <c r="L45" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="M45" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="N45" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="O45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21" t="s">
+        <v>132</v>
+      </c>
       <c r="P45" s="21" t="s">
         <v>136</v>
       </c>
       <c r="Q45" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R45" s="21"/>
+      <c r="R45" s="21" t="s">
+        <v>136</v>
+      </c>
       <c r="S45" s="21"/>
       <c r="T45" s="21" t="s">
         <v>136</v>
       </c>
       <c r="U45" s="21"/>
-      <c r="V45" s="21"/>
+      <c r="V45" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="W45" s="21"/>
       <c r="X45" s="10"/>
     </row>
@@ -4673,7 +4851,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="21" t="s">
@@ -4685,34 +4863,52 @@
       <c r="F46" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
+      <c r="G46" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>132</v>
+      </c>
       <c r="J46" s="21" t="s">
         <v>132</v>
       </c>
       <c r="K46" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="L46" s="21"/>
+      <c r="L46" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="M46" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
+      <c r="N46" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="O46" s="21" t="s">
+        <v>132</v>
+      </c>
       <c r="P46" s="21" t="s">
         <v>136</v>
       </c>
       <c r="Q46" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R46" s="21"/>
-      <c r="S46" s="21"/>
+      <c r="R46" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="S46" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="T46" s="21" t="s">
         <v>136</v>
       </c>
       <c r="U46" s="21"/>
-      <c r="V46" s="21"/>
+      <c r="V46" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="W46" s="21"/>
       <c r="X46" s="10"/>
     </row>
@@ -4721,7 +4917,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C47" s="21"/>
       <c r="D47" s="21" t="s">
@@ -4735,7 +4931,9 @@
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
+      <c r="I47" s="21" t="s">
+        <v>132</v>
+      </c>
       <c r="J47" s="21" t="s">
         <v>132</v>
       </c>
@@ -4747,20 +4945,26 @@
         <v>132</v>
       </c>
       <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
+      <c r="O47" s="21" t="s">
+        <v>132</v>
+      </c>
       <c r="P47" s="21" t="s">
         <v>136</v>
       </c>
       <c r="Q47" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R47" s="21"/>
+      <c r="R47" s="21" t="s">
+        <v>136</v>
+      </c>
       <c r="S47" s="21"/>
       <c r="T47" s="21" t="s">
         <v>136</v>
       </c>
       <c r="U47" s="21"/>
-      <c r="V47" s="21"/>
+      <c r="V47" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="W47" s="21"/>
       <c r="X47" s="10"/>
     </row>
@@ -4769,7 +4973,7 @@
         <v>43</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="21" t="s">
@@ -4782,7 +4986,9 @@
         <v>132</v>
       </c>
       <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
+      <c r="H48" s="21" t="s">
+        <v>19</v>
+      </c>
       <c r="I48" s="21"/>
       <c r="J48" s="21" t="s">
         <v>132</v>
@@ -4794,7 +5000,9 @@
       <c r="M48" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="N48" s="21"/>
+      <c r="N48" s="21" t="s">
+        <v>19</v>
+      </c>
       <c r="O48" s="21"/>
       <c r="P48" s="21" t="s">
         <v>136</v>
@@ -4812,12 +5020,12 @@
       <c r="W48" s="21"/>
       <c r="X48" s="10"/>
     </row>
-    <row r="49" spans="1:24" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="C49" s="21"/>
       <c r="D49" s="21" t="s">
@@ -4829,57 +5037,43 @@
       <c r="F49" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="G49" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="H49" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="I49" s="21" t="s">
-        <v>132</v>
-      </c>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
       <c r="J49" s="21" t="s">
         <v>132</v>
       </c>
       <c r="K49" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="L49" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="L49" s="21"/>
       <c r="M49" s="21" t="s">
         <v>132</v>
       </c>
       <c r="N49" s="21"/>
-      <c r="O49" s="21" t="s">
-        <v>132</v>
-      </c>
+      <c r="O49" s="21"/>
       <c r="P49" s="21" t="s">
         <v>136</v>
       </c>
       <c r="Q49" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R49" s="21" t="s">
-        <v>136</v>
-      </c>
+      <c r="R49" s="21"/>
       <c r="S49" s="21"/>
       <c r="T49" s="21" t="s">
         <v>136</v>
       </c>
       <c r="U49" s="21"/>
-      <c r="V49" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="V49" s="21"/>
       <c r="W49" s="21"/>
-      <c r="X49" s="28"/>
+      <c r="X49" s="10"/>
     </row>
     <row r="50" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" s="21"/>
       <c r="D50" s="21" t="s">
@@ -4891,61 +5085,43 @@
       <c r="F50" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="G50" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="H50" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="I50" s="21" t="s">
-        <v>132</v>
-      </c>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
       <c r="J50" s="21" t="s">
         <v>132</v>
       </c>
       <c r="K50" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="L50" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="L50" s="21"/>
       <c r="M50" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="N50" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="O50" s="21" t="s">
-        <v>132</v>
-      </c>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
       <c r="P50" s="21" t="s">
         <v>136</v>
       </c>
       <c r="Q50" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R50" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="S50" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
       <c r="T50" s="21" t="s">
         <v>136</v>
       </c>
       <c r="U50" s="21"/>
-      <c r="V50" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="V50" s="21"/>
       <c r="W50" s="21"/>
       <c r="X50" s="10"/>
     </row>
-    <row r="51" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="C51" s="21"/>
       <c r="D51" s="21" t="s">
@@ -4957,59 +5133,43 @@
       <c r="F51" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="G51" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="H51" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="I51" s="21" t="s">
-        <v>132</v>
-      </c>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
       <c r="J51" s="21" t="s">
         <v>132</v>
       </c>
       <c r="K51" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="L51" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="L51" s="21"/>
       <c r="M51" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="N51" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="O51" s="21" t="s">
-        <v>132</v>
-      </c>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
       <c r="P51" s="21" t="s">
         <v>136</v>
       </c>
       <c r="Q51" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R51" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="S51" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
       <c r="T51" s="21" t="s">
         <v>136</v>
       </c>
       <c r="U51" s="21"/>
       <c r="V51" s="21"/>
       <c r="W51" s="21"/>
-      <c r="X51" s="37"/>
-    </row>
-    <row r="52" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X51" s="10"/>
+    </row>
+    <row r="52" spans="1:24" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="21" t="s">
@@ -5042,9 +5202,7 @@
       <c r="M52" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="N52" s="21" t="s">
-        <v>132</v>
-      </c>
+      <c r="N52" s="21"/>
       <c r="O52" s="21" t="s">
         <v>132</v>
       </c>
@@ -5057,23 +5215,23 @@
       <c r="R52" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="S52" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="S52" s="21"/>
       <c r="T52" s="21" t="s">
         <v>136</v>
       </c>
       <c r="U52" s="21"/>
-      <c r="V52" s="21"/>
+      <c r="V52" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="W52" s="21"/>
-      <c r="X52" s="37"/>
-    </row>
-    <row r="53" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X52" s="28"/>
+    </row>
+    <row r="53" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="21" t="s">
@@ -5128,16 +5286,18 @@
         <v>136</v>
       </c>
       <c r="U53" s="21"/>
-      <c r="V53" s="21"/>
+      <c r="V53" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="W53" s="21"/>
-      <c r="X53" s="37"/>
+      <c r="X53" s="10"/>
     </row>
     <row r="54" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="21" t="s">
@@ -5201,7 +5361,7 @@
         <v>43</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="21" t="s">
@@ -5260,58 +5420,76 @@
       <c r="W55" s="21"/>
       <c r="X55" s="37"/>
     </row>
-    <row r="56" spans="1:24" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C56" s="21"/>
-      <c r="D56" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E56" s="17" t="s">
+      <c r="D56" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56" s="21" t="s">
         <v>132</v>
       </c>
       <c r="F56" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
+      <c r="G56" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="I56" s="21" t="s">
+        <v>132</v>
+      </c>
       <c r="J56" s="21" t="s">
         <v>132</v>
       </c>
       <c r="K56" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="L56" s="21"/>
+      <c r="L56" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="M56" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
+      <c r="N56" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="O56" s="21" t="s">
+        <v>132</v>
+      </c>
       <c r="P56" s="21" t="s">
         <v>136</v>
       </c>
       <c r="Q56" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="21"/>
+      <c r="R56" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="S56" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T56" s="21" t="s">
+        <v>136</v>
+      </c>
       <c r="U56" s="21"/>
       <c r="V56" s="21"/>
       <c r="W56" s="21"/>
-      <c r="X56" s="34"/>
-    </row>
-    <row r="57" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X56" s="37"/>
+    </row>
+    <row r="57" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="26" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="C57" s="21"/>
       <c r="D57" s="21" t="s">
@@ -5365,23 +5543,17 @@
       <c r="T57" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="U57" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="V57" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="U57" s="21"/>
+      <c r="V57" s="21"/>
       <c r="W57" s="21"/>
-      <c r="X57" s="39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X57" s="37"/>
+    </row>
+    <row r="58" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="26" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="C58" s="21"/>
       <c r="D58" s="21" t="s">
@@ -5435,241 +5607,328 @@
       <c r="T58" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="U58" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="V58" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="U58" s="21"/>
+      <c r="V58" s="21"/>
       <c r="W58" s="21"/>
-      <c r="X58" s="40"/>
-    </row>
-    <row r="59" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X58" s="37"/>
+    </row>
+    <row r="59" spans="1:24" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="21"/>
+      <c r="D59" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K59" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q59" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R59" s="21"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="21"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="21"/>
+      <c r="W59" s="21"/>
+      <c r="X59" s="34"/>
+    </row>
+    <row r="60" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G60" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="I60" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J60" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K60" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="L60" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M60" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="N60" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="O60" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="P60" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q60" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R60" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="S60" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T60" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="U60" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V60" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="W60" s="21"/>
+      <c r="X60" s="41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="H61" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="I61" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J61" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K61" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="L61" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M61" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="N61" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="O61" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="P61" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q61" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R61" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="S61" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T61" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="U61" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V61" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="W61" s="21"/>
+      <c r="X61" s="42"/>
+    </row>
+    <row r="62" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B62" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F59" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="G59" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="H59" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="I59" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="J59" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="K59" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="L59" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="M59" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="N59" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="O59" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="P59" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q59" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="R59" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="S59" s="21"/>
-      <c r="T59" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="U59" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="V59" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="W59" s="21"/>
-      <c r="X59" s="10"/>
-    </row>
-    <row r="60" spans="1:24" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="19"/>
-      <c r="S60" s="19"/>
-      <c r="T60" s="19"/>
-      <c r="U60" s="19"/>
-      <c r="V60" s="19"/>
-      <c r="W60" s="19"/>
-      <c r="X60" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" s="17"/>
-      <c r="D61" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M61" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="N61" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
-      <c r="R61" s="17"/>
-      <c r="S61" s="17"/>
-      <c r="T61" s="17"/>
-      <c r="U61" s="17"/>
-      <c r="V61" s="17"/>
-      <c r="W61" s="17"/>
-    </row>
-    <row r="62" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C62" s="17"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
-      <c r="R62" s="17"/>
-      <c r="S62" s="17"/>
-      <c r="T62" s="17"/>
-      <c r="U62" s="17"/>
-      <c r="V62" s="17"/>
-      <c r="W62" s="17"/>
-    </row>
-    <row r="63" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="16" t="s">
+      <c r="E62" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G62" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="H62" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="I62" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J62" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="K62" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="L62" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M62" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="N62" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="O62" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="P62" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q62" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="R62" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="S62" s="21"/>
+      <c r="T62" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="U62" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="V62" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="W62" s="21"/>
+      <c r="X62" s="10"/>
+    </row>
+    <row r="63" spans="1:24" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="17"/>
+      <c r="B63" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="19"/>
       <c r="D63" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
-      <c r="R63" s="17"/>
-      <c r="S63" s="17"/>
-      <c r="T63" s="17"/>
-      <c r="U63" s="17"/>
-      <c r="V63" s="17"/>
-      <c r="W63" s="17"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="19"/>
+      <c r="U63" s="19"/>
+      <c r="V63" s="19"/>
+      <c r="W63" s="19"/>
+      <c r="X63" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="64" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C64" s="17"/>
       <c r="D64" s="21" t="s">
         <v>131</v>
       </c>
       <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
+      <c r="F64" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="I64" s="17"/>
       <c r="J64" s="17"/>
       <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
+      <c r="L64" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M64" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N64" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="O64" s="17"/>
       <c r="P64" s="17"/>
       <c r="Q64" s="17"/>
@@ -5680,12 +5939,12 @@
       <c r="V64" s="17"/>
       <c r="W64" s="17"/>
     </row>
-    <row r="65" spans="1:23" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="21" t="s">
@@ -5711,12 +5970,12 @@
       <c r="V65" s="17"/>
       <c r="W65" s="17"/>
     </row>
-    <row r="66" spans="1:23" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="C66" s="17"/>
       <c r="D66" s="21" t="s">
@@ -5744,83 +6003,176 @@
     </row>
     <row r="67" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="16" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C67" s="20"/>
+        <v>69</v>
+      </c>
+      <c r="C67" s="17"/>
       <c r="D67" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="20"/>
-      <c r="N67" s="20"/>
-      <c r="O67" s="20"/>
-      <c r="P67" s="20"/>
-      <c r="Q67" s="20"/>
-      <c r="R67" s="20"/>
-      <c r="S67" s="20"/>
-      <c r="T67" s="20"/>
-      <c r="U67" s="20"/>
-      <c r="V67" s="20"/>
-      <c r="W67" s="20"/>
-    </row>
-    <row r="68" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="17"/>
+      <c r="U67" s="17"/>
+      <c r="V67" s="17"/>
+      <c r="W67" s="17"/>
+    </row>
+    <row r="68" spans="1:23" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" s="17"/>
+      <c r="D68" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
+      <c r="R68" s="17"/>
+      <c r="S68" s="17"/>
+      <c r="T68" s="17"/>
+      <c r="U68" s="17"/>
+      <c r="V68" s="17"/>
+      <c r="W68" s="17"/>
+    </row>
+    <row r="69" spans="1:23" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" s="17"/>
+      <c r="D69" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="17"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="17"/>
+      <c r="U69" s="17"/>
+      <c r="V69" s="17"/>
+      <c r="W69" s="17"/>
+    </row>
+    <row r="70" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="20"/>
+      <c r="D70" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="20"/>
+      <c r="O70" s="20"/>
+      <c r="P70" s="20"/>
+      <c r="Q70" s="20"/>
+      <c r="R70" s="20"/>
+      <c r="S70" s="20"/>
+      <c r="T70" s="20"/>
+      <c r="U70" s="20"/>
+      <c r="V70" s="20"/>
+      <c r="W70" s="20"/>
+    </row>
+    <row r="71" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B71" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21" t="s">
+      <c r="C71" s="20"/>
+      <c r="D71" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="E68" s="30" t="s">
+      <c r="E71" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30" t="s">
+      <c r="F71" s="30"/>
+      <c r="G71" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30" t="s">
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="K68" s="30" t="s">
+      <c r="K71" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="L68" s="30" t="s">
+      <c r="L71" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="M68" s="30" t="s">
+      <c r="M71" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="N68" s="30"/>
-      <c r="O68" s="30"/>
-      <c r="P68" s="30"/>
-      <c r="Q68" s="30"/>
-      <c r="R68" s="30"/>
-      <c r="S68" s="30"/>
-      <c r="T68" s="30"/>
-      <c r="U68" s="30"/>
-      <c r="V68" s="30"/>
-      <c r="W68" s="30"/>
+      <c r="N71" s="30"/>
+      <c r="O71" s="30"/>
+      <c r="P71" s="30"/>
+      <c r="Q71" s="30"/>
+      <c r="R71" s="30"/>
+      <c r="S71" s="30"/>
+      <c r="T71" s="30"/>
+      <c r="U71" s="30"/>
+      <c r="V71" s="30"/>
+      <c r="W71" s="30"/>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
-      <pane xSplit="2" ySplit="6" topLeftCell="C12" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C29" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="W33" sqref="W33"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
@@ -5838,7 +6190,7 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="6">
-    <mergeCell ref="X57:X58"/>
+    <mergeCell ref="X60:X61"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="J5:N5"/>
     <mergeCell ref="P5:V5"/>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1260" windowWidth="32960" windowHeight="13960" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="32960" windowHeight="12040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,9 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="1648" windowHeight="525" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="1648" windowHeight="429" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="158">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -381,18 +381,6 @@
   </si>
   <si>
     <t>Huomiot</t>
-  </si>
-  <si>
-    <t>synteettinen rooli</t>
-  </si>
-  <si>
-    <t>Tiemerkitsija</t>
-  </si>
-  <si>
-    <t>Tiemerkitsijä</t>
-  </si>
-  <si>
-    <t>R,TM-valmis</t>
   </si>
   <si>
     <t>Sallitaanko urakoitsijalle hintojen syöttö?</t>
@@ -762,7 +750,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -828,9 +816,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -983,7 +968,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{570602AA-71A9-F341-BC7B-B09F7DB93788}" diskRevisions="1" revisionId="87" version="13">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{BF824A78-D4D3-104B-A2EF-6CDB88CD119F}" diskRevisions="1" revisionId="89" version="14">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1056,6 +1041,12 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{BF824A78-D4D3-104B-A2EF-6CDB88CD119F}" dateTime="2016-10-25T14:25:59" maxSheetId="3" userName="Microsoft Office User" r:id="rId14" minRId="88" maxRId="89">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -1332,6 +1323,1768 @@
 
 <file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="delete"/>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="88" sId="1" ref="W1:W1048576" action="deleteCol">
+    <rfmt sheetId="1" xfDxf="1" sqref="W1:W1048576" start="0" length="0"/>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="W6" t="inlineStr">
+        <is>
+          <t>Tiemerkitsijä</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="8"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <fill>
+          <patternFill patternType="solid">
+            <fgColor rgb="FFCC4125"/>
+            <bgColor rgb="FFCC4125"/>
+          </patternFill>
+        </fill>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="1" sqref="W7" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W8" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W9" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W10" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W11" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W12" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W13" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W14" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W15" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W16" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W17" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W18" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W19" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W20" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W21" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W22" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W23" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W24" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W25" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W26" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W27" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="W28" t="inlineStr">
+        <is>
+          <t>R,TM-valmis</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="1" sqref="W29" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W30" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W31" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W32" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W33" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment vertical="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W34" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment vertical="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W35" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment vertical="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W36" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W37" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W38" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W39" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W40" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W41" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W42" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W43" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W44" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W45" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W46" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W47" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W48" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W49" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W50" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W51" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W52" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W53" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W54" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W55" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W56" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W57" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W58" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W59" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W60" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W61" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W62" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W63" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="0" tint="-0.249977111117893"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W64" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W65" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W66" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W67" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W68" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W69" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W70" start="0" length="0">
+      <dxf>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="W71" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rrc rId="89" sId="2" ref="A21:XFD21" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A21:XFD21" start="0" length="0"/>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="A21" t="inlineStr">
+        <is>
+          <t>Tiemerkitsija</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="12"/>
+          <color theme="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment vertical="center" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="B21" t="inlineStr">
+        <is>
+          <t>Tiemerkitsijä</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="12"/>
+          <color theme="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment vertical="center" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="C21" t="inlineStr">
+        <is>
+          <t>Urakoitsija</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="12"/>
+          <color theme="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment vertical="center" wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="D21" t="inlineStr">
+        <is>
+          <t>urakka</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="12"/>
+          <color rgb="FF000000"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="E21" t="inlineStr">
+        <is>
+          <t>synteettinen rooli</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="12"/>
+          <color rgb="FF000000"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <border outline="0">
+          <left style="thin">
+            <color auto="1"/>
+          </left>
+          <right style="thin">
+            <color auto="1"/>
+          </right>
+          <top style="thin">
+            <color auto="1"/>
+          </top>
+          <bottom style="thin">
+            <color auto="1"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+  </rrc>
   <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="delete"/>
   <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="add"/>
 </revisions>
@@ -2423,13 +4176,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X71"/>
+  <dimension ref="A1:W71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C29" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="S33" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="W33" sqref="W33"/>
+      <selection pane="bottomRight" activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2455,49 +4208,48 @@
     <col min="20" max="20" width="11.5" customWidth="1"/>
     <col min="21" max="21" width="10.6640625" customWidth="1"/>
     <col min="22" max="22" width="11.1640625" customWidth="1"/>
-    <col min="23" max="23" width="11.1640625" style="13" customWidth="1"/>
-    <col min="24" max="24" width="39" customWidth="1"/>
+    <col min="23" max="23" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-    </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-    </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -2512,39 +4264,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="43" t="s">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="J5" s="43" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="J5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="P5" s="43" t="s">
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="P5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="X5" s="5" t="s">
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -2609,11 +4361,8 @@
       <c r="V6" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
@@ -2622,55 +4371,55 @@
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>135</v>
-      </c>
       <c r="F7" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J7" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="K7" s="17" t="s">
-        <v>135</v>
-      </c>
       <c r="L7" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="17" t="s">
         <v>114</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S7" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U7" s="17" t="s">
         <v>17</v>
@@ -2678,10 +4427,9 @@
       <c r="V7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="W7" s="17"/>
-      <c r="X7" s="10"/>
-    </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W7" s="10"/>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
@@ -2690,31 +4438,31 @@
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>135</v>
-      </c>
       <c r="F8" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>135</v>
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N8" s="21"/>
       <c r="O8" s="17"/>
       <c r="P8" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="21" t="s">
         <v>17</v>
@@ -2722,7 +4470,7 @@
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
       <c r="T8" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U8" s="17" t="s">
         <v>19</v>
@@ -2730,12 +4478,11 @@
       <c r="V8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="W8" s="17"/>
-      <c r="X8" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W8" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
@@ -2744,31 +4491,31 @@
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>135</v>
-      </c>
       <c r="F9" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>135</v>
       </c>
       <c r="L9" s="21"/>
       <c r="M9" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N9" s="21"/>
       <c r="O9" s="17"/>
       <c r="P9" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q9" s="21" t="s">
         <v>17</v>
@@ -2776,14 +4523,13 @@
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
       <c r="T9" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U9" s="17"/>
       <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="10"/>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W9" s="10"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
@@ -2792,31 +4538,31 @@
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>135</v>
-      </c>
       <c r="F10" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>135</v>
       </c>
       <c r="L10" s="21"/>
       <c r="M10" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N10" s="21"/>
       <c r="O10" s="17"/>
       <c r="P10" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="21" t="s">
         <v>17</v>
@@ -2824,14 +4570,13 @@
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
       <c r="T10" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U10" s="17"/>
       <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="10"/>
-    </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W10" s="10"/>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>15</v>
       </c>
@@ -2840,60 +4585,59 @@
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>135</v>
-      </c>
       <c r="F11" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J11" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="K11" s="17" t="s">
-        <v>135</v>
-      </c>
       <c r="L11" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O11" s="17"/>
       <c r="P11" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q11" s="17" t="s">
         <v>17</v>
       </c>
       <c r="R11" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S11" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U11" s="17"/>
       <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="10"/>
-    </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W11" s="10"/>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -2902,60 +4646,59 @@
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>135</v>
-      </c>
       <c r="F12" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J12" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="K12" s="17" t="s">
-        <v>135</v>
-      </c>
       <c r="L12" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O12" s="17"/>
       <c r="P12" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q12" s="17" t="s">
         <v>17</v>
       </c>
       <c r="R12" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S12" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U12" s="17"/>
       <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="10"/>
-    </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W12" s="10"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
@@ -2964,31 +4707,31 @@
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N13" s="21"/>
       <c r="O13" s="17"/>
       <c r="P13" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="17" t="s">
         <v>114</v>
@@ -2996,14 +4739,13 @@
       <c r="R13" s="21"/>
       <c r="S13" s="17"/>
       <c r="T13" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U13" s="17"/>
       <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="10"/>
-    </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W13" s="10"/>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
         <v>15</v>
       </c>
@@ -3012,31 +4754,31 @@
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L14" s="17"/>
       <c r="M14" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N14" s="21"/>
       <c r="O14" s="17"/>
       <c r="P14" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q14" s="17" t="s">
         <v>114</v>
@@ -3044,14 +4786,13 @@
       <c r="R14" s="21"/>
       <c r="S14" s="17"/>
       <c r="T14" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U14" s="17"/>
       <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="10"/>
-    </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W14" s="10"/>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
@@ -3060,31 +4801,31 @@
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N15" s="21"/>
       <c r="O15" s="17"/>
       <c r="P15" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q15" s="17" t="s">
         <v>114</v>
@@ -3092,14 +4833,13 @@
       <c r="R15" s="21"/>
       <c r="S15" s="17"/>
       <c r="T15" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U15" s="17"/>
       <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="10"/>
-    </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W15" s="10"/>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
@@ -3108,60 +4848,59 @@
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L16" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O16" s="17"/>
       <c r="P16" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q16" s="17" t="s">
         <v>114</v>
       </c>
       <c r="R16" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S16" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U16" s="17"/>
       <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="10"/>
-    </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W16" s="10"/>
+    </row>
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -3170,60 +4909,59 @@
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L17" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O17" s="17"/>
       <c r="P17" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q17" s="17" t="s">
         <v>114</v>
       </c>
       <c r="R17" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S17" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U17" s="17"/>
       <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="10"/>
-    </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W17" s="10"/>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>15</v>
       </c>
@@ -3232,31 +4970,31 @@
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="K18" s="17" t="s">
-        <v>135</v>
       </c>
       <c r="L18" s="17"/>
       <c r="M18" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N18" s="21"/>
       <c r="O18" s="17"/>
       <c r="P18" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="17" t="s">
         <v>114</v>
@@ -3264,14 +5002,13 @@
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
       <c r="T18" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U18" s="17"/>
       <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="10"/>
-    </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W18" s="10"/>
+    </row>
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
@@ -3280,60 +5017,59 @@
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L19" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O19" s="17"/>
       <c r="P19" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="17" t="s">
         <v>114</v>
       </c>
       <c r="R19" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S19" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U19" s="17"/>
       <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="10"/>
-    </row>
-    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W19" s="10"/>
+    </row>
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>15</v>
       </c>
@@ -3342,55 +5078,55 @@
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>135</v>
-      </c>
       <c r="F20" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J20" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>135</v>
       </c>
       <c r="L20" s="21" t="s">
         <v>114</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O20" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P20" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="17" t="s">
         <v>114</v>
       </c>
       <c r="R20" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S20" s="21" t="s">
         <v>114</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U20" s="17" t="s">
         <v>17</v>
@@ -3398,10 +5134,9 @@
       <c r="V20" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W20" s="17"/>
-      <c r="X20" s="10"/>
-    </row>
-    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W20" s="10"/>
+    </row>
+    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="26" t="s">
         <v>15</v>
       </c>
@@ -3410,55 +5145,55 @@
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>135</v>
-      </c>
       <c r="F21" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J21" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K21" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>135</v>
       </c>
       <c r="L21" s="21" t="s">
         <v>114</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P21" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q21" s="21" t="s">
         <v>114</v>
       </c>
       <c r="R21" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S21" s="21" t="s">
         <v>114</v>
       </c>
       <c r="T21" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U21" s="21" t="s">
         <v>17</v>
@@ -3466,10 +5201,9 @@
       <c r="V21" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W21" s="21"/>
-      <c r="X21" s="10"/>
-    </row>
-    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W21" s="10"/>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="26" t="s">
         <v>15</v>
       </c>
@@ -3478,64 +5212,63 @@
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L22" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P22" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R22" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S22" s="21"/>
       <c r="T22" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U22" s="21"/>
       <c r="V22" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W22" s="21"/>
-      <c r="X22" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W22" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="26" t="s">
         <v>15</v>
       </c>
@@ -3544,64 +5277,63 @@
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>135</v>
-      </c>
       <c r="F23" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J23" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K23" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="K23" s="21" t="s">
-        <v>135</v>
-      </c>
       <c r="L23" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P23" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q23" s="21" t="s">
         <v>114</v>
       </c>
       <c r="R23" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S23" s="21" t="s">
         <v>114</v>
       </c>
       <c r="T23" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U23" s="21"/>
       <c r="V23" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W23" s="21"/>
-      <c r="X23" s="10"/>
-    </row>
-    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W23" s="10"/>
+    </row>
+    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="26" t="s">
         <v>15</v>
       </c>
@@ -3610,62 +5342,61 @@
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="17" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L24" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O24" s="21"/>
       <c r="P24" s="21" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q24" s="21" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="R24" s="21" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="T24" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U24" s="21"/>
       <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W24" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="26" t="s">
         <v>15</v>
       </c>
@@ -3674,54 +5405,53 @@
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>135</v>
-      </c>
       <c r="F25" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25" s="21" t="s">
         <v>131</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="K25" s="21" t="s">
-        <v>135</v>
       </c>
       <c r="L25" s="21"/>
       <c r="M25" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N25" s="21"/>
       <c r="O25" s="21" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P25" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q25" s="21" t="s">
         <v>114</v>
       </c>
       <c r="R25" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S25" s="27"/>
       <c r="T25" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U25" s="21"/>
       <c r="V25" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="W25" s="21"/>
-      <c r="X25" s="10"/>
-    </row>
-    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W25" s="10"/>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="26" t="s">
         <v>15</v>
       </c>
@@ -3730,31 +5460,31 @@
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L26" s="21"/>
       <c r="M26" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q26" s="21" t="s">
         <v>17</v>
@@ -3762,14 +5492,13 @@
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
       <c r="T26" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U26" s="21"/>
       <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="10"/>
-    </row>
-    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W26" s="10"/>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="26" t="s">
         <v>15</v>
       </c>
@@ -3778,20 +5507,20 @@
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>135</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K27" s="21" t="s">
         <v>131</v>
-      </c>
-      <c r="K27" s="21" t="s">
-        <v>135</v>
       </c>
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
@@ -3804,12 +5533,11 @@
       <c r="T27" s="21"/>
       <c r="U27" s="21"/>
       <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="11" t="s">
+      <c r="W27" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="26" t="s">
         <v>15</v>
       </c>
@@ -3818,64 +5546,61 @@
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K28" s="21" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L28" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N28" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O28" s="21"/>
       <c r="P28" s="21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q28" s="21" t="s">
         <v>114</v>
       </c>
       <c r="R28" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S28" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T28" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
-      <c r="W28" s="21" t="s">
+      <c r="W28" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="X28" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="26" t="s">
         <v>15</v>
       </c>
@@ -3884,56 +5609,55 @@
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="21" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G29" s="21"/>
       <c r="H29" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J29" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K29" s="21" t="s">
         <v>131</v>
-      </c>
-      <c r="K29" s="21" t="s">
-        <v>135</v>
       </c>
       <c r="L29" s="21"/>
       <c r="M29" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O29" s="21"/>
       <c r="P29" s="21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q29" s="21" t="s">
         <v>114</v>
       </c>
       <c r="R29" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S29" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T29" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="10"/>
-    </row>
-    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W29" s="10"/>
+    </row>
+    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="26" t="s">
         <v>15</v>
       </c>
@@ -3942,58 +5666,57 @@
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="17" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K30" s="21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L30" s="21"/>
       <c r="M30" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N30" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O30" s="21"/>
       <c r="P30" s="21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q30" s="21" t="s">
         <v>114</v>
       </c>
       <c r="R30" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S30" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T30" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="10"/>
-    </row>
-    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W30" s="10"/>
+    </row>
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="26" t="s">
         <v>15</v>
       </c>
@@ -4002,56 +5725,55 @@
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G31" s="21"/>
       <c r="H31" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J31" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K31" s="21" t="s">
         <v>131</v>
-      </c>
-      <c r="K31" s="21" t="s">
-        <v>135</v>
       </c>
       <c r="L31" s="21"/>
       <c r="M31" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N31" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O31" s="21"/>
       <c r="P31" s="21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q31" s="21" t="s">
         <v>114</v>
       </c>
       <c r="R31" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S31" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T31" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="10"/>
-    </row>
-    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W31" s="10"/>
+    </row>
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="26" t="s">
         <v>15</v>
       </c>
@@ -4060,61 +5782,60 @@
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G32" s="21"/>
       <c r="H32" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J32" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K32" s="21" t="s">
         <v>131</v>
-      </c>
-      <c r="K32" s="21" t="s">
-        <v>135</v>
       </c>
       <c r="L32" s="21"/>
       <c r="M32" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N32" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O32" s="21"/>
       <c r="P32" s="21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q32" s="21" t="s">
         <v>114</v>
       </c>
       <c r="R32" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S32" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T32" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U32" s="21"/>
       <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="10"/>
-    </row>
-    <row r="33" spans="1:24" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W32" s="10"/>
+    </row>
+    <row r="33" spans="1:23" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="17"/>
@@ -4124,17 +5845,17 @@
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K33" s="21" t="s">
         <v>131</v>
-      </c>
-      <c r="K33" s="21" t="s">
-        <v>135</v>
       </c>
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
       <c r="N33" s="17"/>
       <c r="O33" s="17"/>
       <c r="P33" s="21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q33" s="21" t="s">
         <v>114</v>
@@ -4144,14 +5865,13 @@
       <c r="T33" s="17"/>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
-      <c r="W33" s="39"/>
-    </row>
-    <row r="34" spans="1:24" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:23" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="17"/>
@@ -4161,17 +5881,17 @@
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K34" s="21" t="s">
         <v>131</v>
-      </c>
-      <c r="K34" s="21" t="s">
-        <v>135</v>
       </c>
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
       <c r="N34" s="17"/>
       <c r="O34" s="17"/>
       <c r="P34" s="21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q34" s="21" t="s">
         <v>114</v>
@@ -4181,14 +5901,13 @@
       <c r="T34" s="17"/>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
-      <c r="W34" s="39"/>
-    </row>
-    <row r="35" spans="1:24" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:23" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="17"/>
@@ -4198,17 +5917,17 @@
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K35" s="21" t="s">
         <v>131</v>
-      </c>
-      <c r="K35" s="21" t="s">
-        <v>135</v>
       </c>
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
       <c r="N35" s="17"/>
       <c r="O35" s="17"/>
       <c r="P35" s="21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q35" s="21" t="s">
         <v>114</v>
@@ -4218,66 +5937,65 @@
       <c r="T35" s="17"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
-      <c r="W35" s="39"/>
-    </row>
-    <row r="36" spans="1:24" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:23" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E36" s="17" t="s">
-        <v>135</v>
-      </c>
       <c r="F36" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G36" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="J36" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K36" s="21" t="s">
         <v>134</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="I36" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="J36" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="K36" s="21" t="s">
-        <v>138</v>
       </c>
       <c r="L36" s="21" t="s">
         <v>114</v>
       </c>
       <c r="M36" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N36" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P36" s="21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q36" s="21" t="s">
         <v>114</v>
       </c>
       <c r="R36" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S36" s="21" t="s">
         <v>114</v>
       </c>
       <c r="T36" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U36" s="21" t="s">
         <v>17</v>
@@ -4285,43 +6003,42 @@
       <c r="V36" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W36" s="21"/>
-      <c r="X36" s="12"/>
-    </row>
-    <row r="37" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W36" s="12"/>
+    </row>
+    <row r="37" spans="1:23" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K37" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L37" s="21"/>
       <c r="M37" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N37" s="21"/>
       <c r="O37" s="21"/>
       <c r="P37" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q37" s="21" t="s">
         <v>17</v>
@@ -4329,14 +6046,13 @@
       <c r="R37" s="21"/>
       <c r="S37" s="21"/>
       <c r="T37" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U37" s="21"/>
       <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="31"/>
-    </row>
-    <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W37" s="31"/>
+    </row>
+    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="26" t="s">
         <v>43</v>
       </c>
@@ -4345,13 +6061,13 @@
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>19</v>
@@ -4359,19 +6075,19 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K38" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L38" s="21"/>
       <c r="M38" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N38" s="21"/>
       <c r="O38" s="21"/>
       <c r="P38" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q38" s="21" t="s">
         <v>17</v>
@@ -4379,14 +6095,13 @@
       <c r="R38" s="21"/>
       <c r="S38" s="21"/>
       <c r="T38" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U38" s="21"/>
       <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="10"/>
-    </row>
-    <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W38" s="10"/>
+    </row>
+    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="26" t="s">
         <v>43</v>
       </c>
@@ -4395,64 +6110,63 @@
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J39" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K39" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L39" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M39" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N39" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P39" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q39" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R39" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S39" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T39" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U39" s="21"/>
       <c r="V39" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W39" s="21"/>
-      <c r="X39" s="10"/>
-    </row>
-    <row r="40" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W39" s="10"/>
+    </row>
+    <row r="40" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="26" t="s">
         <v>43</v>
       </c>
@@ -4461,55 +6175,55 @@
       </c>
       <c r="C40" s="21"/>
       <c r="D40" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J40" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K40" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L40" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M40" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N40" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P40" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q40" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R40" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S40" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T40" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U40" s="21" t="s">
         <v>17</v>
@@ -4517,76 +6231,74 @@
       <c r="V40" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W40" s="21"/>
-      <c r="X40" s="37"/>
-    </row>
-    <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W40" s="37"/>
+    </row>
+    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C41" s="21"/>
       <c r="D41" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J41" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K41" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L41" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M41" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N41" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P41" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q41" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R41" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S41" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T41" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U41" s="21"/>
       <c r="V41" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W41" s="21"/>
-      <c r="X41" s="10"/>
-    </row>
-    <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W41" s="10"/>
+    </row>
+    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="26" t="s">
         <v>43</v>
       </c>
@@ -4595,64 +6307,63 @@
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I42" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J42" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K42" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L42" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M42" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N42" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P42" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q42" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R42" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S42" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T42" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U42" s="21"/>
       <c r="V42" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W42" s="21"/>
-      <c r="X42" s="10"/>
-    </row>
-    <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W42" s="10"/>
+    </row>
+    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26" t="s">
         <v>43</v>
       </c>
@@ -4661,64 +6372,63 @@
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I43" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J43" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K43" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L43" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M43" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N43" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O43" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P43" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q43" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R43" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S43" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T43" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U43" s="21"/>
       <c r="V43" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W43" s="21"/>
-      <c r="X43" s="10"/>
-    </row>
-    <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W43" s="10"/>
+    </row>
+    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="26" t="s">
         <v>43</v>
       </c>
@@ -4727,64 +6437,63 @@
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I44" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J44" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K44" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L44" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M44" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N44" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O44" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P44" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q44" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R44" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S44" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T44" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U44" s="21"/>
       <c r="V44" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W44" s="21"/>
-      <c r="X44" s="10"/>
-    </row>
-    <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W44" s="10"/>
+    </row>
+    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="26" t="s">
         <v>43</v>
       </c>
@@ -4793,60 +6502,59 @@
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J45" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K45" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L45" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M45" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N45" s="21"/>
       <c r="O45" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P45" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q45" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R45" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S45" s="21"/>
       <c r="T45" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U45" s="21"/>
       <c r="V45" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W45" s="21"/>
-      <c r="X45" s="10"/>
-    </row>
-    <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W45" s="10"/>
+    </row>
+    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="26" t="s">
         <v>43</v>
       </c>
@@ -4855,64 +6563,63 @@
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I46" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J46" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K46" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L46" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M46" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N46" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O46" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P46" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q46" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R46" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S46" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T46" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U46" s="21"/>
       <c r="V46" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W46" s="21"/>
-      <c r="X46" s="10"/>
-    </row>
-    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W46" s="10"/>
+    </row>
+    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="26" t="s">
         <v>43</v>
       </c>
@@ -4921,54 +6628,53 @@
       </c>
       <c r="C47" s="21"/>
       <c r="D47" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
       <c r="I47" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J47" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K47" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L47" s="21"/>
       <c r="M47" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N47" s="21"/>
       <c r="O47" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P47" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q47" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R47" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S47" s="21"/>
       <c r="T47" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U47" s="21"/>
       <c r="V47" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W47" s="21"/>
-      <c r="X47" s="10"/>
-    </row>
-    <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W47" s="10"/>
+    </row>
+    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="26" t="s">
         <v>43</v>
       </c>
@@ -4977,13 +6683,13 @@
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G48" s="21"/>
       <c r="H48" s="21" t="s">
@@ -4991,21 +6697,21 @@
       </c>
       <c r="I48" s="21"/>
       <c r="J48" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K48" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L48" s="21"/>
       <c r="M48" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N48" s="21" t="s">
         <v>19</v>
       </c>
       <c r="O48" s="21"/>
       <c r="P48" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q48" s="21" t="s">
         <v>17</v>
@@ -5013,14 +6719,13 @@
       <c r="R48" s="21"/>
       <c r="S48" s="21"/>
       <c r="T48" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U48" s="21"/>
       <c r="V48" s="21"/>
-      <c r="W48" s="21"/>
-      <c r="X48" s="10"/>
-    </row>
-    <row r="49" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W48" s="10"/>
+    </row>
+    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="26" t="s">
         <v>43</v>
       </c>
@@ -5029,31 +6734,31 @@
       </c>
       <c r="C49" s="21"/>
       <c r="D49" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
       <c r="J49" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K49" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L49" s="21"/>
       <c r="M49" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N49" s="21"/>
       <c r="O49" s="21"/>
       <c r="P49" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q49" s="21" t="s">
         <v>17</v>
@@ -5061,14 +6766,13 @@
       <c r="R49" s="21"/>
       <c r="S49" s="21"/>
       <c r="T49" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U49" s="21"/>
       <c r="V49" s="21"/>
-      <c r="W49" s="21"/>
-      <c r="X49" s="10"/>
-    </row>
-    <row r="50" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W49" s="10"/>
+    </row>
+    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="26" t="s">
         <v>43</v>
       </c>
@@ -5077,31 +6781,31 @@
       </c>
       <c r="C50" s="21"/>
       <c r="D50" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
       <c r="J50" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K50" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L50" s="21"/>
       <c r="M50" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N50" s="21"/>
       <c r="O50" s="21"/>
       <c r="P50" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q50" s="21" t="s">
         <v>17</v>
@@ -5109,14 +6813,13 @@
       <c r="R50" s="21"/>
       <c r="S50" s="21"/>
       <c r="T50" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U50" s="21"/>
       <c r="V50" s="21"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="10"/>
-    </row>
-    <row r="51" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W50" s="10"/>
+    </row>
+    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="26" t="s">
         <v>43</v>
       </c>
@@ -5125,31 +6828,31 @@
       </c>
       <c r="C51" s="21"/>
       <c r="D51" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
       <c r="J51" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K51" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L51" s="21"/>
       <c r="M51" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N51" s="21"/>
       <c r="O51" s="21"/>
       <c r="P51" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q51" s="21" t="s">
         <v>17</v>
@@ -5157,76 +6860,74 @@
       <c r="R51" s="21"/>
       <c r="S51" s="21"/>
       <c r="T51" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U51" s="21"/>
       <c r="V51" s="21"/>
-      <c r="W51" s="21"/>
-      <c r="X51" s="10"/>
-    </row>
-    <row r="52" spans="1:24" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W51" s="10"/>
+    </row>
+    <row r="52" spans="1:23" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I52" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J52" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K52" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L52" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M52" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N52" s="21"/>
       <c r="O52" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P52" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q52" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R52" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S52" s="21"/>
       <c r="T52" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U52" s="21"/>
       <c r="V52" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W52" s="21"/>
-      <c r="X52" s="28"/>
-    </row>
-    <row r="53" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W52" s="28"/>
+    </row>
+    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="26" t="s">
         <v>43</v>
       </c>
@@ -5235,417 +6936,411 @@
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I53" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J53" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K53" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L53" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M53" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N53" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O53" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P53" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q53" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R53" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S53" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T53" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U53" s="21"/>
       <c r="V53" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W53" s="21"/>
-      <c r="X53" s="10"/>
-    </row>
-    <row r="54" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W53" s="10"/>
+    </row>
+    <row r="54" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I54" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J54" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K54" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L54" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M54" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N54" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O54" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P54" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q54" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R54" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S54" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T54" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U54" s="21"/>
       <c r="V54" s="21"/>
-      <c r="W54" s="21"/>
-      <c r="X54" s="37"/>
-    </row>
-    <row r="55" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W54" s="37"/>
+    </row>
+    <row r="55" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I55" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J55" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K55" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L55" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M55" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N55" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O55" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P55" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q55" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R55" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S55" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T55" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U55" s="21"/>
       <c r="V55" s="21"/>
-      <c r="W55" s="21"/>
-      <c r="X55" s="37"/>
-    </row>
-    <row r="56" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W55" s="37"/>
+    </row>
+    <row r="56" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G56" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I56" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J56" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K56" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L56" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M56" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N56" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O56" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P56" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q56" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R56" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S56" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T56" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U56" s="21"/>
       <c r="V56" s="21"/>
-      <c r="W56" s="21"/>
-      <c r="X56" s="37"/>
-    </row>
-    <row r="57" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W56" s="37"/>
+    </row>
+    <row r="57" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C57" s="21"/>
       <c r="D57" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G57" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I57" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J57" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K57" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L57" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M57" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N57" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O57" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P57" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q57" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R57" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S57" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T57" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U57" s="21"/>
       <c r="V57" s="21"/>
-      <c r="W57" s="21"/>
-      <c r="X57" s="37"/>
-    </row>
-    <row r="58" spans="1:24" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W57" s="37"/>
+    </row>
+    <row r="58" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C58" s="21"/>
       <c r="D58" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I58" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J58" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K58" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L58" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M58" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N58" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O58" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P58" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q58" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R58" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S58" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T58" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U58" s="21"/>
       <c r="V58" s="21"/>
-      <c r="W58" s="21"/>
-      <c r="X58" s="37"/>
-    </row>
-    <row r="59" spans="1:24" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W58" s="37"/>
+    </row>
+    <row r="59" spans="1:23" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C59" s="21"/>
       <c r="D59" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
       <c r="J59" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K59" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L59" s="21"/>
       <c r="M59" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N59" s="21"/>
       <c r="O59" s="21"/>
       <c r="P59" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q59" s="21" t="s">
         <v>17</v>
@@ -5655,10 +7350,9 @@
       <c r="T59" s="21"/>
       <c r="U59" s="21"/>
       <c r="V59" s="21"/>
-      <c r="W59" s="21"/>
-      <c r="X59" s="34"/>
-    </row>
-    <row r="60" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W59" s="34"/>
+    </row>
+    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="26" t="s">
         <v>58</v>
       </c>
@@ -5667,55 +7361,55 @@
       </c>
       <c r="C60" s="21"/>
       <c r="D60" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G60" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I60" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J60" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K60" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L60" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M60" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N60" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O60" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P60" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q60" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R60" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S60" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T60" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U60" s="21" t="s">
         <v>17</v>
@@ -5723,12 +7417,11 @@
       <c r="V60" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W60" s="21"/>
-      <c r="X60" s="41" t="s">
+      <c r="W60" s="40" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="26" t="s">
         <v>58</v>
       </c>
@@ -5737,55 +7430,55 @@
       </c>
       <c r="C61" s="21"/>
       <c r="D61" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G61" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H61" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I61" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J61" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K61" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L61" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M61" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N61" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O61" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P61" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q61" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R61" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S61" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T61" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U61" s="21" t="s">
         <v>17</v>
@@ -5793,10 +7486,9 @@
       <c r="V61" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W61" s="21"/>
-      <c r="X61" s="42"/>
-    </row>
-    <row r="62" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W61" s="41"/>
+    </row>
+    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="26" t="s">
         <v>62</v>
       </c>
@@ -5805,53 +7497,53 @@
       </c>
       <c r="C62" s="21"/>
       <c r="D62" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G62" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H62" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I62" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J62" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K62" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L62" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M62" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N62" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O62" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P62" s="21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q62" s="21" t="s">
         <v>114</v>
       </c>
       <c r="R62" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S62" s="21"/>
       <c r="T62" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U62" s="21" t="s">
         <v>114</v>
@@ -5859,10 +7551,9 @@
       <c r="V62" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W62" s="21"/>
-      <c r="X62" s="10"/>
-    </row>
-    <row r="63" spans="1:24" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W62" s="10"/>
+    </row>
+    <row r="63" spans="1:23" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="18" t="s">
         <v>63</v>
       </c>
@@ -5871,7 +7562,7 @@
       </c>
       <c r="C63" s="19"/>
       <c r="D63" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E63" s="19"/>
       <c r="F63" s="19"/>
@@ -5891,12 +7582,11 @@
       <c r="T63" s="19"/>
       <c r="U63" s="19"/>
       <c r="V63" s="19"/>
-      <c r="W63" s="19"/>
-      <c r="X63" s="14" t="s">
+      <c r="W63" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="16" t="s">
         <v>63</v>
       </c>
@@ -5905,7 +7595,7 @@
       </c>
       <c r="C64" s="17"/>
       <c r="D64" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E64" s="17"/>
       <c r="F64" s="17" t="s">
@@ -5937,9 +7627,8 @@
       <c r="T64" s="17"/>
       <c r="U64" s="17"/>
       <c r="V64" s="17"/>
-      <c r="W64" s="17"/>
-    </row>
-    <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="16" t="s">
         <v>63</v>
       </c>
@@ -5948,7 +7637,7 @@
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E65" s="17"/>
       <c r="F65" s="17"/>
@@ -5968,9 +7657,8 @@
       <c r="T65" s="17"/>
       <c r="U65" s="17"/>
       <c r="V65" s="17"/>
-      <c r="W65" s="17"/>
-    </row>
-    <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="16" t="s">
         <v>63</v>
       </c>
@@ -5979,7 +7667,7 @@
       </c>
       <c r="C66" s="17"/>
       <c r="D66" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
@@ -5999,9 +7687,8 @@
       <c r="T66" s="17"/>
       <c r="U66" s="17"/>
       <c r="V66" s="17"/>
-      <c r="W66" s="17"/>
-    </row>
-    <row r="67" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="16" t="s">
         <v>63</v>
       </c>
@@ -6010,7 +7697,7 @@
       </c>
       <c r="C67" s="17"/>
       <c r="D67" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E67" s="17"/>
       <c r="F67" s="17"/>
@@ -6030,9 +7717,8 @@
       <c r="T67" s="17"/>
       <c r="U67" s="17"/>
       <c r="V67" s="17"/>
-      <c r="W67" s="17"/>
-    </row>
-    <row r="68" spans="1:23" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:22" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="16" t="s">
         <v>63</v>
       </c>
@@ -6041,7 +7727,7 @@
       </c>
       <c r="C68" s="17"/>
       <c r="D68" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
@@ -6061,18 +7747,17 @@
       <c r="T68" s="17"/>
       <c r="U68" s="17"/>
       <c r="V68" s="17"/>
-      <c r="W68" s="17"/>
-    </row>
-    <row r="69" spans="1:23" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:22" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C69" s="17"/>
       <c r="D69" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
@@ -6092,9 +7777,8 @@
       <c r="T69" s="17"/>
       <c r="U69" s="17"/>
       <c r="V69" s="17"/>
-      <c r="W69" s="17"/>
-    </row>
-    <row r="70" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="16" t="s">
         <v>110</v>
       </c>
@@ -6103,7 +7787,7 @@
       </c>
       <c r="C70" s="20"/>
       <c r="D70" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E70" s="20"/>
       <c r="F70" s="20"/>
@@ -6123,39 +7807,38 @@
       <c r="T70" s="20"/>
       <c r="U70" s="20"/>
       <c r="V70" s="20"/>
-      <c r="W70" s="20"/>
-    </row>
-    <row r="71" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="16" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C71" s="20"/>
       <c r="D71" s="21" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F71" s="30"/>
       <c r="G71" s="30" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H71" s="30"/>
       <c r="I71" s="30"/>
       <c r="J71" s="30" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K71" s="30" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L71" s="30" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M71" s="30" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="N71" s="30"/>
       <c r="O71" s="30"/>
@@ -6166,14 +7849,19 @@
       <c r="T71" s="30"/>
       <c r="U71" s="30"/>
       <c r="V71" s="30"/>
-      <c r="W71" s="30"/>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
-      <pane xSplit="2" ySplit="6" topLeftCell="C29" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="W33" sqref="W33"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="S33" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="W1" sqref="W1:W1048576"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
+      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="E7" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="L57" sqref="L57:L59"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
@@ -6182,15 +7870,9 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
-      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="E7" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="L57" sqref="L57:L59"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
   </customSheetViews>
   <mergeCells count="6">
-    <mergeCell ref="X60:X61"/>
+    <mergeCell ref="W60:W61"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="J5:N5"/>
     <mergeCell ref="P5:V5"/>
@@ -6204,10 +7886,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6450,7 +8132,7 @@
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>11</v>
@@ -6508,36 +8190,19 @@
       </c>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>116</v>
-      </c>
-    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
       <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
+    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
       <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="32960" windowHeight="12040" tabRatio="500"/>
+    <workbookView xWindow="7420" yWindow="5600" windowWidth="38660" windowHeight="21040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,9 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="1648" windowHeight="429" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="1933" windowHeight="879" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="158">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{BF824A78-D4D3-104B-A2EF-6CDB88CD119F}" diskRevisions="1" revisionId="89" version="14">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7E57EE25-C312-2947-AB26-89F9CE326DBC}" diskRevisions="1" revisionId="92" version="15">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1047,6 +1047,12 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{7E57EE25-C312-2947-AB26-89F9CE326DBC}" dateTime="2016-10-26T11:00:39" maxSheetId="3" userName="Microsoft Office User" r:id="rId15" minRId="90" maxRId="92">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -3085,6 +3091,34 @@
       </ndxf>
     </rcc>
   </rrc>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="delete"/>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="90" sId="1">
+    <nc r="D33" t="inlineStr">
+      <is>
+        <t>R*,W*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="91" sId="1">
+    <nc r="D34" t="inlineStr">
+      <is>
+        <t>R*,W*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="92" sId="1">
+    <nc r="D35" t="inlineStr">
+      <is>
+        <t>R*,W*</t>
+      </is>
+    </nc>
+  </rcc>
   <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="delete"/>
   <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="add"/>
 </revisions>
@@ -4179,10 +4213,10 @@
   <dimension ref="A1:W71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="S33" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C22" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="W1" sqref="W1:W1048576"/>
+      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5838,7 +5872,9 @@
         <v>155</v>
       </c>
       <c r="C33" s="21"/>
-      <c r="D33" s="17"/>
+      <c r="D33" s="17" t="s">
+        <v>127</v>
+      </c>
       <c r="E33" s="17"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
@@ -5874,7 +5910,9 @@
         <v>156</v>
       </c>
       <c r="C34" s="21"/>
-      <c r="D34" s="17"/>
+      <c r="D34" s="17" t="s">
+        <v>127</v>
+      </c>
       <c r="E34" s="17"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
@@ -5910,7 +5948,9 @@
         <v>157</v>
       </c>
       <c r="C35" s="21"/>
-      <c r="D35" s="17"/>
+      <c r="D35" s="17" t="s">
+        <v>127</v>
+      </c>
       <c r="E35" s="17"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
@@ -7853,20 +7893,20 @@
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
-      <pane xSplit="2" ySplit="6" topLeftCell="S33" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="W1" sqref="W1:W1048576"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C22" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
+      <pane xSplit="2" ySplit="6.0384615384615383" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
       <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="E7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="L57" sqref="L57:L59"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
-      <pane xSplit="2" ySplit="6.0384615384615383" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
@@ -8197,12 +8237,12 @@
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
+    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
       <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
       <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarihan/Desktop/Harja/harja/resources/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7420" yWindow="5600" windowWidth="38660" windowHeight="21040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-900" windowWidth="47580" windowHeight="26980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -17,23 +12,23 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="2379" windowHeight="1295" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
+    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="1933" windowHeight="879" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
   </customWorkbookViews>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="159">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -507,6 +502,9 @@
   </si>
   <si>
     <t>Toteutus / Muut työt</t>
+  </si>
+  <si>
+    <t>Muutos- ja lisätyöt</t>
   </si>
 </sst>
 </file>
@@ -623,7 +621,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="125">
+  <cellStyleXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -749,8 +747,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -821,6 +841,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -830,7 +854,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="125">
+  <cellStyles count="147">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -893,6 +917,17 @@
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -955,6 +990,17 @@
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -968,7 +1014,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7E57EE25-C312-2947-AB26-89F9CE326DBC}" diskRevisions="1" revisionId="92" version="15">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C606B059-99AC-3B47-8437-66D15B4E3D4B}" diskRevisions="1" revisionId="141" version="18">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1053,6 +1099,24 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{2CE52D2A-1823-3948-9783-B30824F1800B}" dateTime="2016-10-27T09:36:14" maxSheetId="3" userName="Jarno Väyrynen" r:id="rId16" minRId="93" maxRId="119">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7A420D3A-E414-F648-B986-850F97011CC0}" dateTime="2016-10-27T09:37:30" maxSheetId="3" userName="Jarno Väyrynen" r:id="rId17" minRId="120" maxRId="141">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C606B059-99AC-3B47-8437-66D15B4E3D4B}" dateTime="2016-10-27T09:57:11" maxSheetId="3" userName="Jarno Väyrynen" r:id="rId18">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -3124,6 +3188,358 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="93" sId="1">
+    <nc r="E33" t="inlineStr">
+      <is>
+        <t>R*,W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="94" sId="1">
+    <nc r="E34" t="inlineStr">
+      <is>
+        <t>R*,W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="95" sId="1">
+    <nc r="E35" t="inlineStr">
+      <is>
+        <t>R*,W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="96" sId="1">
+    <nc r="F33" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="97" sId="1">
+    <nc r="F34" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="98" sId="1">
+    <nc r="F35" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="99" sId="1">
+    <nc r="H33" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="100" sId="1">
+    <nc r="H34" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="101" sId="1">
+    <nc r="H35" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="102" sId="1">
+    <nc r="I33" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="103" sId="1">
+    <nc r="I34" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="104" sId="1">
+    <nc r="I35" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="105" sId="1">
+    <nc r="M33" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="106" sId="1">
+    <nc r="M34" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="107" sId="1">
+    <nc r="M35" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="108" sId="1">
+    <nc r="N33" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="109" sId="1">
+    <nc r="N34" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="110" sId="1">
+    <nc r="N35" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="111" sId="1">
+    <nc r="R33" t="inlineStr">
+      <is>
+        <t>R+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="112" sId="1">
+    <nc r="R34" t="inlineStr">
+      <is>
+        <t>R+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="113" sId="1">
+    <nc r="R35" t="inlineStr">
+      <is>
+        <t>R+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="114" sId="1">
+    <nc r="S33" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="115" sId="1">
+    <nc r="S34" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="116" sId="1">
+    <nc r="S35" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="117" sId="1">
+    <nc r="T33" t="inlineStr">
+      <is>
+        <t>R+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="118" sId="1">
+    <nc r="T34" t="inlineStr">
+      <is>
+        <t>R+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="119" sId="1">
+    <nc r="T35" t="inlineStr">
+      <is>
+        <t>R+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="delete"/>
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="120" sId="1" ref="A43:XFD43" action="insertRow"/>
+  <rrc rId="121" sId="1" ref="A44:XFD44" action="insertRow"/>
+  <rcc rId="122" sId="1">
+    <nc r="A44" t="inlineStr">
+      <is>
+        <t>Raportit</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="123" sId="1">
+    <nc r="B44" t="inlineStr">
+      <is>
+        <t>Muutos- ja lisätyöt</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="124" sId="1">
+    <nc r="D44" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="125" sId="1">
+    <nc r="E44" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="126" sId="1">
+    <nc r="F44" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="127" sId="1">
+    <nc r="G44" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="128" sId="1">
+    <nc r="H44" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="129" sId="1">
+    <nc r="I44" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="130" sId="1">
+    <nc r="J44" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="131" sId="1">
+    <nc r="K44" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="132" sId="1">
+    <nc r="L44" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="133" sId="1">
+    <nc r="M44" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="134" sId="1">
+    <nc r="N44" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="135" sId="1">
+    <nc r="O44" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="136" sId="1">
+    <nc r="P44" t="inlineStr">
+      <is>
+        <t>R+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="137" sId="1">
+    <nc r="Q44" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="138" sId="1">
+    <nc r="R44" t="inlineStr">
+      <is>
+        <t>R+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="139" sId="1">
+    <nc r="S44" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="140" sId="1">
+    <nc r="T44" t="inlineStr">
+      <is>
+        <t>R+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="141" sId="1">
+    <nc r="V44" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="delete"/>
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="delete"/>
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="1" sId="1">
@@ -3880,11 +4296,12 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="4">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="5">
   <userInfo guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" name="Tatu Tarvainen" id="-130145201" dateTime="2016-09-06T09:10:23"/>
   <userInfo guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" name="Jarno Väyrynen" id="-589116405" dateTime="2016-09-06T12:54:09"/>
   <userInfo guid="{0407E191-78DA-F349-B5E5-8AE1BC03A29E}" name="Jarno Väyrynen" id="-589108428" dateTime="2016-09-08T15:33:24"/>
   <userInfo guid="{F8907045-3B30-0A43-A905-F167D27F9989}" name="Jarno Väyrynen" id="-589157736" dateTime="2016-09-27T15:27:41"/>
+  <userInfo guid="{C606B059-99AC-3B47-8437-66D15B4E3D4B}" name="Jarno Väyrynen" id="-589137240" dateTime="2016-10-27T09:33:01"/>
 </users>
 </file>
 
@@ -4210,16 +4627,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W71"/>
+  <dimension ref="A1:W72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C22" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
@@ -4245,45 +4662,45 @@
     <col min="23" max="23" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" ht="24" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-    </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -4298,39 +4715,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1">
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="42" t="s">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1">
+      <c r="C5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="J5" s="42" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="J5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="P5" s="42" t="s">
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="P5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
       <c r="W5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -4396,7 +4813,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
@@ -4463,7 +4880,7 @@
       </c>
       <c r="W7" s="10"/>
     </row>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1">
       <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
@@ -4516,7 +4933,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
@@ -4563,7 +4980,7 @@
       <c r="V9" s="17"/>
       <c r="W9" s="10"/>
     </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
@@ -4610,7 +5027,7 @@
       <c r="V10" s="17"/>
       <c r="W10" s="10"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>15</v>
       </c>
@@ -4671,7 +5088,7 @@
       <c r="V11" s="17"/>
       <c r="W11" s="10"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -4732,7 +5149,7 @@
       <c r="V12" s="17"/>
       <c r="W12" s="10"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1">
       <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
@@ -4779,7 +5196,7 @@
       <c r="V13" s="17"/>
       <c r="W13" s="10"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1">
       <c r="A14" s="16" t="s">
         <v>15</v>
       </c>
@@ -4826,7 +5243,7 @@
       <c r="V14" s="17"/>
       <c r="W14" s="10"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1">
       <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
@@ -4873,7 +5290,7 @@
       <c r="V15" s="17"/>
       <c r="W15" s="10"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1">
       <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
@@ -4934,7 +5351,7 @@
       <c r="V16" s="17"/>
       <c r="W16" s="10"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -4995,7 +5412,7 @@
       <c r="V17" s="17"/>
       <c r="W17" s="10"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1">
       <c r="A18" s="16" t="s">
         <v>15</v>
       </c>
@@ -5042,7 +5459,7 @@
       <c r="V18" s="17"/>
       <c r="W18" s="10"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1">
       <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
@@ -5103,7 +5520,7 @@
       <c r="V19" s="17"/>
       <c r="W19" s="10"/>
     </row>
-    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1">
       <c r="A20" s="16" t="s">
         <v>15</v>
       </c>
@@ -5170,7 +5587,7 @@
       </c>
       <c r="W20" s="10"/>
     </row>
-    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1">
       <c r="A21" s="26" t="s">
         <v>15</v>
       </c>
@@ -5237,7 +5654,7 @@
       </c>
       <c r="W21" s="10"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1">
       <c r="A22" s="26" t="s">
         <v>15</v>
       </c>
@@ -5302,7 +5719,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1">
       <c r="A23" s="26" t="s">
         <v>15</v>
       </c>
@@ -5367,7 +5784,7 @@
       </c>
       <c r="W23" s="10"/>
     </row>
-    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="15.75" customHeight="1">
       <c r="A24" s="26" t="s">
         <v>15</v>
       </c>
@@ -5430,7 +5847,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="15.75" customHeight="1">
       <c r="A25" s="26" t="s">
         <v>15</v>
       </c>
@@ -5485,7 +5902,7 @@
       </c>
       <c r="W25" s="10"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" ht="15.75" customHeight="1">
       <c r="A26" s="26" t="s">
         <v>15</v>
       </c>
@@ -5532,7 +5949,7 @@
       <c r="V26" s="21"/>
       <c r="W26" s="10"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1">
       <c r="A27" s="26" t="s">
         <v>15</v>
       </c>
@@ -5571,7 +5988,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1">
       <c r="A28" s="26" t="s">
         <v>15</v>
       </c>
@@ -5634,7 +6051,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1">
       <c r="A29" s="26" t="s">
         <v>15</v>
       </c>
@@ -5691,7 +6108,7 @@
       <c r="V29" s="21"/>
       <c r="W29" s="10"/>
     </row>
-    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1">
       <c r="A30" s="26" t="s">
         <v>15</v>
       </c>
@@ -5750,7 +6167,7 @@
       <c r="V30" s="21"/>
       <c r="W30" s="10"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1">
       <c r="A31" s="26" t="s">
         <v>15</v>
       </c>
@@ -5807,7 +6224,7 @@
       <c r="V31" s="21"/>
       <c r="W31" s="10"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1">
       <c r="A32" s="26" t="s">
         <v>15</v>
       </c>
@@ -5864,7 +6281,7 @@
       <c r="V32" s="21"/>
       <c r="W32" s="10"/>
     </row>
-    <row r="33" spans="1:23" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" s="39" customFormat="1" ht="15.75" customHeight="1">
       <c r="A33" s="26" t="s">
         <v>15</v>
       </c>
@@ -5875,11 +6292,19 @@
       <c r="D33" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="21"/>
+      <c r="E33" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>128</v>
+      </c>
       <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
+      <c r="H33" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>128</v>
+      </c>
       <c r="J33" s="17" t="s">
         <v>127</v>
       </c>
@@ -5887,8 +6312,12 @@
         <v>131</v>
       </c>
       <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="17"/>
+      <c r="M33" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="N33" s="17" t="s">
+        <v>128</v>
+      </c>
       <c r="O33" s="17"/>
       <c r="P33" s="21" t="s">
         <v>133</v>
@@ -5896,13 +6325,19 @@
       <c r="Q33" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="17"/>
+      <c r="R33" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="S33" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T33" s="17" t="s">
+        <v>132</v>
+      </c>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
     </row>
-    <row r="34" spans="1:23" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" s="39" customFormat="1" ht="15.75" customHeight="1">
       <c r="A34" s="26" t="s">
         <v>15</v>
       </c>
@@ -5913,11 +6348,19 @@
       <c r="D34" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="21"/>
+      <c r="E34" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>128</v>
+      </c>
       <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
+      <c r="H34" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>128</v>
+      </c>
       <c r="J34" s="17" t="s">
         <v>127</v>
       </c>
@@ -5925,8 +6368,12 @@
         <v>131</v>
       </c>
       <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="17"/>
+      <c r="M34" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="N34" s="17" t="s">
+        <v>128</v>
+      </c>
       <c r="O34" s="17"/>
       <c r="P34" s="21" t="s">
         <v>133</v>
@@ -5934,13 +6381,19 @@
       <c r="Q34" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="17"/>
+      <c r="R34" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="S34" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T34" s="17" t="s">
+        <v>132</v>
+      </c>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
     </row>
-    <row r="35" spans="1:23" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" s="39" customFormat="1" ht="15.75" customHeight="1">
       <c r="A35" s="26" t="s">
         <v>15</v>
       </c>
@@ -5951,11 +6404,19 @@
       <c r="D35" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="21"/>
+      <c r="E35" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>128</v>
+      </c>
       <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
+      <c r="H35" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>128</v>
+      </c>
       <c r="J35" s="17" t="s">
         <v>127</v>
       </c>
@@ -5963,8 +6424,12 @@
         <v>131</v>
       </c>
       <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="17"/>
+      <c r="M35" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>128</v>
+      </c>
       <c r="O35" s="17"/>
       <c r="P35" s="21" t="s">
         <v>133</v>
@@ -5972,13 +6437,19 @@
       <c r="Q35" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="17"/>
+      <c r="R35" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="S35" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T35" s="17" t="s">
+        <v>132</v>
+      </c>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
     </row>
-    <row r="36" spans="1:23" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A36" s="26" t="s">
         <v>15</v>
       </c>
@@ -6045,7 +6516,7 @@
       </c>
       <c r="W36" s="12"/>
     </row>
-    <row r="37" spans="1:23" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A37" s="26" t="s">
         <v>43</v>
       </c>
@@ -6092,7 +6563,7 @@
       <c r="V37" s="21"/>
       <c r="W37" s="31"/>
     </row>
-    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="15.75" customHeight="1">
       <c r="A38" s="26" t="s">
         <v>43</v>
       </c>
@@ -6141,7 +6612,7 @@
       <c r="V38" s="21"/>
       <c r="W38" s="10"/>
     </row>
-    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="15.75" customHeight="1">
       <c r="A39" s="26" t="s">
         <v>43</v>
       </c>
@@ -6206,7 +6677,7 @@
       </c>
       <c r="W39" s="10"/>
     </row>
-    <row r="40" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A40" s="26" t="s">
         <v>43</v>
       </c>
@@ -6273,7 +6744,7 @@
       </c>
       <c r="W40" s="37"/>
     </row>
-    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="15.75" customHeight="1">
       <c r="A41" s="26" t="s">
         <v>43</v>
       </c>
@@ -6338,7 +6809,7 @@
       </c>
       <c r="W41" s="10"/>
     </row>
-    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="15.75" customHeight="1">
       <c r="A42" s="26" t="s">
         <v>43</v>
       </c>
@@ -6403,7 +6874,7 @@
       </c>
       <c r="W42" s="10"/>
     </row>
-    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="15.75" customHeight="1">
       <c r="A43" s="26" t="s">
         <v>43</v>
       </c>
@@ -6468,12 +6939,12 @@
       </c>
       <c r="W43" s="10"/>
     </row>
-    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" s="41" customFormat="1" ht="15.75" customHeight="1">
       <c r="A44" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="21" t="s">
@@ -6531,14 +7002,14 @@
       <c r="V44" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W44" s="10"/>
-    </row>
-    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W44" s="40"/>
+    </row>
+    <row r="45" spans="1:23" ht="15.75" customHeight="1">
       <c r="A45" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="21" t="s">
@@ -6571,7 +7042,9 @@
       <c r="M45" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="N45" s="21"/>
+      <c r="N45" s="21" t="s">
+        <v>128</v>
+      </c>
       <c r="O45" s="21" t="s">
         <v>128</v>
       </c>
@@ -6584,7 +7057,9 @@
       <c r="R45" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="S45" s="21"/>
+      <c r="S45" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="T45" s="21" t="s">
         <v>132</v>
       </c>
@@ -6594,12 +7069,12 @@
       </c>
       <c r="W45" s="10"/>
     </row>
-    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="15.75" customHeight="1">
       <c r="A46" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="21" t="s">
@@ -6632,9 +7107,7 @@
       <c r="M46" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="N46" s="21" t="s">
-        <v>128</v>
-      </c>
+      <c r="N46" s="21"/>
       <c r="O46" s="21" t="s">
         <v>128</v>
       </c>
@@ -6647,9 +7120,7 @@
       <c r="R46" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="S46" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="S46" s="21"/>
       <c r="T46" s="21" t="s">
         <v>132</v>
       </c>
@@ -6659,12 +7130,12 @@
       </c>
       <c r="W46" s="10"/>
     </row>
-    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="15.75" customHeight="1">
       <c r="A47" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" s="21"/>
       <c r="D47" s="21" t="s">
@@ -6676,8 +7147,12 @@
       <c r="F47" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
+      <c r="G47" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>128</v>
+      </c>
       <c r="I47" s="21" t="s">
         <v>128</v>
       </c>
@@ -6687,11 +7162,15 @@
       <c r="K47" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="L47" s="21"/>
+      <c r="L47" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="M47" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="N47" s="21"/>
+      <c r="N47" s="21" t="s">
+        <v>128</v>
+      </c>
       <c r="O47" s="21" t="s">
         <v>128</v>
       </c>
@@ -6704,7 +7183,9 @@
       <c r="R47" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="S47" s="21"/>
+      <c r="S47" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="T47" s="21" t="s">
         <v>132</v>
       </c>
@@ -6714,12 +7195,12 @@
       </c>
       <c r="W47" s="10"/>
     </row>
-    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="15.75" customHeight="1">
       <c r="A48" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="21" t="s">
@@ -6732,10 +7213,10 @@
         <v>128</v>
       </c>
       <c r="G48" s="21"/>
-      <c r="H48" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21" t="s">
+        <v>128</v>
+      </c>
       <c r="J48" s="21" t="s">
         <v>128</v>
       </c>
@@ -6746,31 +7227,35 @@
       <c r="M48" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="N48" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="O48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21" t="s">
+        <v>128</v>
+      </c>
       <c r="P48" s="21" t="s">
         <v>132</v>
       </c>
       <c r="Q48" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R48" s="21"/>
+      <c r="R48" s="21" t="s">
+        <v>132</v>
+      </c>
       <c r="S48" s="21"/>
       <c r="T48" s="21" t="s">
         <v>132</v>
       </c>
       <c r="U48" s="21"/>
-      <c r="V48" s="21"/>
+      <c r="V48" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="W48" s="10"/>
     </row>
-    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="15.75" customHeight="1">
       <c r="A49" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" s="21"/>
       <c r="D49" s="21" t="s">
@@ -6783,7 +7268,9 @@
         <v>128</v>
       </c>
       <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
+      <c r="H49" s="21" t="s">
+        <v>19</v>
+      </c>
       <c r="I49" s="21"/>
       <c r="J49" s="21" t="s">
         <v>128</v>
@@ -6795,7 +7282,9 @@
       <c r="M49" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="N49" s="21"/>
+      <c r="N49" s="21" t="s">
+        <v>19</v>
+      </c>
       <c r="O49" s="21"/>
       <c r="P49" s="21" t="s">
         <v>132</v>
@@ -6812,12 +7301,12 @@
       <c r="V49" s="21"/>
       <c r="W49" s="10"/>
     </row>
-    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="15.75" customHeight="1">
       <c r="A50" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" s="21"/>
       <c r="D50" s="21" t="s">
@@ -6859,12 +7348,12 @@
       <c r="V50" s="21"/>
       <c r="W50" s="10"/>
     </row>
-    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="15.75" customHeight="1">
       <c r="A51" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" s="21"/>
       <c r="D51" s="21" t="s">
@@ -6906,12 +7395,12 @@
       <c r="V51" s="21"/>
       <c r="W51" s="10"/>
     </row>
-    <row r="52" spans="1:23" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="15.75" customHeight="1">
       <c r="A52" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="21" t="s">
@@ -6923,56 +7412,42 @@
       <c r="F52" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G52" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="H52" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="I52" s="21" t="s">
-        <v>128</v>
-      </c>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
       <c r="J52" s="21" t="s">
         <v>128</v>
       </c>
       <c r="K52" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="L52" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="L52" s="21"/>
       <c r="M52" s="21" t="s">
         <v>128</v>
       </c>
       <c r="N52" s="21"/>
-      <c r="O52" s="21" t="s">
-        <v>128</v>
-      </c>
+      <c r="O52" s="21"/>
       <c r="P52" s="21" t="s">
         <v>132</v>
       </c>
       <c r="Q52" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R52" s="21" t="s">
-        <v>132</v>
-      </c>
+      <c r="R52" s="21"/>
       <c r="S52" s="21"/>
       <c r="T52" s="21" t="s">
         <v>132</v>
       </c>
       <c r="U52" s="21"/>
-      <c r="V52" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="W52" s="28"/>
-    </row>
-    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V52" s="21"/>
+      <c r="W52" s="10"/>
+    </row>
+    <row r="53" spans="1:23" s="29" customFormat="1" ht="15.75" customHeight="1">
       <c r="A53" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="21" t="s">
@@ -7005,9 +7480,7 @@
       <c r="M53" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="N53" s="21" t="s">
-        <v>128</v>
-      </c>
+      <c r="N53" s="21"/>
       <c r="O53" s="21" t="s">
         <v>128</v>
       </c>
@@ -7020,9 +7493,7 @@
       <c r="R53" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="S53" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="S53" s="21"/>
       <c r="T53" s="21" t="s">
         <v>132</v>
       </c>
@@ -7030,14 +7501,14 @@
       <c r="V53" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W53" s="10"/>
-    </row>
-    <row r="54" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W53" s="28"/>
+    </row>
+    <row r="54" spans="1:23" ht="15.75" customHeight="1">
       <c r="A54" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="21" t="s">
@@ -7092,15 +7563,17 @@
         <v>132</v>
       </c>
       <c r="U54" s="21"/>
-      <c r="V54" s="21"/>
-      <c r="W54" s="37"/>
-    </row>
-    <row r="55" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V54" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="W54" s="10"/>
+    </row>
+    <row r="55" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A55" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="21" t="s">
@@ -7158,12 +7631,12 @@
       <c r="V55" s="21"/>
       <c r="W55" s="37"/>
     </row>
-    <row r="56" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A56" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="21" t="s">
@@ -7221,12 +7694,12 @@
       <c r="V56" s="21"/>
       <c r="W56" s="37"/>
     </row>
-    <row r="57" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A57" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C57" s="21"/>
       <c r="D57" s="21" t="s">
@@ -7284,12 +7757,12 @@
       <c r="V57" s="21"/>
       <c r="W57" s="37"/>
     </row>
-    <row r="58" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A58" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C58" s="21"/>
       <c r="D58" s="21" t="s">
@@ -7347,126 +7820,120 @@
       <c r="V58" s="21"/>
       <c r="W58" s="37"/>
     </row>
-    <row r="59" spans="1:23" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A59" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C59" s="21"/>
-      <c r="D59" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E59" s="17" t="s">
+      <c r="D59" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" s="21" t="s">
         <v>128</v>
       </c>
       <c r="F59" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
+      <c r="G59" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H59" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="I59" s="21" t="s">
+        <v>128</v>
+      </c>
       <c r="J59" s="21" t="s">
         <v>128</v>
       </c>
       <c r="K59" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="L59" s="21"/>
+      <c r="L59" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="M59" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="N59" s="21"/>
-      <c r="O59" s="21"/>
+      <c r="N59" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="O59" s="21" t="s">
+        <v>128</v>
+      </c>
       <c r="P59" s="21" t="s">
         <v>132</v>
       </c>
       <c r="Q59" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R59" s="21"/>
-      <c r="S59" s="21"/>
-      <c r="T59" s="21"/>
+      <c r="R59" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="S59" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T59" s="21" t="s">
+        <v>132</v>
+      </c>
       <c r="U59" s="21"/>
       <c r="V59" s="21"/>
-      <c r="W59" s="34"/>
-    </row>
-    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W59" s="37"/>
+    </row>
+    <row r="60" spans="1:23" s="35" customFormat="1" ht="15.75" customHeight="1">
       <c r="A60" s="26" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="C60" s="21"/>
-      <c r="D60" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="E60" s="21" t="s">
+      <c r="D60" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" s="17" t="s">
         <v>128</v>
       </c>
       <c r="F60" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G60" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="H60" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="I60" s="21" t="s">
-        <v>128</v>
-      </c>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
       <c r="J60" s="21" t="s">
         <v>128</v>
       </c>
       <c r="K60" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="L60" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="L60" s="21"/>
       <c r="M60" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="N60" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="O60" s="21" t="s">
-        <v>128</v>
-      </c>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
       <c r="P60" s="21" t="s">
         <v>132</v>
       </c>
       <c r="Q60" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R60" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="S60" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="T60" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="U60" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="V60" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="W60" s="40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="21"/>
+      <c r="W60" s="34"/>
+    </row>
+    <row r="61" spans="1:23" ht="15.75" customHeight="1">
       <c r="A61" s="26" t="s">
         <v>58</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C61" s="21"/>
       <c r="D61" s="21" t="s">
@@ -7526,20 +7993,22 @@
       <c r="V61" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W61" s="41"/>
-    </row>
-    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W61" s="42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="15.75" customHeight="1">
       <c r="A62" s="26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" s="21"/>
       <c r="D62" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E62" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" s="21" t="s">
         <v>128</v>
       </c>
       <c r="F62" s="21" t="s">
@@ -7555,7 +8024,7 @@
         <v>128</v>
       </c>
       <c r="J62" s="21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K62" s="21" t="s">
         <v>128</v>
@@ -7573,122 +8042,159 @@
         <v>128</v>
       </c>
       <c r="P62" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q62" s="21" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="R62" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="S62" s="21"/>
+      <c r="S62" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="T62" s="21" t="s">
         <v>132</v>
       </c>
       <c r="U62" s="21" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="V62" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W62" s="10"/>
-    </row>
-    <row r="63" spans="1:23" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63" s="19"/>
+      <c r="W62" s="43"/>
+    </row>
+    <row r="63" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A63" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="21"/>
       <c r="D63" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="19"/>
-      <c r="P63" s="19"/>
-      <c r="Q63" s="19"/>
-      <c r="R63" s="19"/>
-      <c r="S63" s="19"/>
-      <c r="T63" s="19"/>
-      <c r="U63" s="19"/>
-      <c r="V63" s="19"/>
-      <c r="W63" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="16" t="s">
+      <c r="E63" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H63" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="I63" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="J63" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="K63" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="L63" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M63" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="N63" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="O63" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="P63" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q63" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="R63" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="S63" s="21"/>
+      <c r="T63" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="U63" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="V63" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="W63" s="10"/>
+    </row>
+    <row r="64" spans="1:23" s="15" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A64" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C64" s="17"/>
+      <c r="B64" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="19"/>
       <c r="D64" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M64" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="N64" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
-      <c r="R64" s="17"/>
-      <c r="S64" s="17"/>
-      <c r="T64" s="17"/>
-      <c r="U64" s="17"/>
-      <c r="V64" s="17"/>
-    </row>
-    <row r="65" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="19"/>
+      <c r="R64" s="19"/>
+      <c r="S64" s="19"/>
+      <c r="T64" s="19"/>
+      <c r="U64" s="19"/>
+      <c r="V64" s="19"/>
+      <c r="W64" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" ht="15.75" customHeight="1">
       <c r="A65" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="21" t="s">
         <v>127</v>
       </c>
       <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
+      <c r="F65" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="I65" s="17"/>
       <c r="J65" s="17"/>
       <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
+      <c r="L65" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M65" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N65" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="O65" s="17"/>
       <c r="P65" s="17"/>
       <c r="Q65" s="17"/>
@@ -7698,12 +8204,12 @@
       <c r="U65" s="17"/>
       <c r="V65" s="17"/>
     </row>
-    <row r="66" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:22" ht="15.75" customHeight="1">
       <c r="A66" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="17"/>
       <c r="D66" s="21" t="s">
@@ -7728,12 +8234,12 @@
       <c r="U66" s="17"/>
       <c r="V66" s="17"/>
     </row>
-    <row r="67" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:22" ht="15.75" customHeight="1">
       <c r="A67" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C67" s="17"/>
       <c r="D67" s="21" t="s">
@@ -7758,12 +8264,12 @@
       <c r="U67" s="17"/>
       <c r="V67" s="17"/>
     </row>
-    <row r="68" spans="1:22" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:22" ht="15.75" customHeight="1">
       <c r="A68" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C68" s="17"/>
       <c r="D68" s="21" t="s">
@@ -7788,12 +8294,12 @@
       <c r="U68" s="17"/>
       <c r="V68" s="17"/>
     </row>
-    <row r="69" spans="1:22" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:22" s="36" customFormat="1" ht="15.75" customHeight="1">
       <c r="A69" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="C69" s="17"/>
       <c r="D69" s="21" t="s">
@@ -7818,109 +8324,141 @@
       <c r="U69" s="17"/>
       <c r="V69" s="17"/>
     </row>
-    <row r="70" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:22" s="33" customFormat="1" ht="15.75" customHeight="1">
       <c r="A70" s="16" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C70" s="20"/>
+        <v>125</v>
+      </c>
+      <c r="C70" s="17"/>
       <c r="D70" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="20"/>
-      <c r="L70" s="20"/>
-      <c r="M70" s="20"/>
-      <c r="N70" s="20"/>
-      <c r="O70" s="20"/>
-      <c r="P70" s="20"/>
-      <c r="Q70" s="20"/>
-      <c r="R70" s="20"/>
-      <c r="S70" s="20"/>
-      <c r="T70" s="20"/>
-      <c r="U70" s="20"/>
-      <c r="V70" s="20"/>
-    </row>
-    <row r="71" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
+      <c r="R70" s="17"/>
+      <c r="S70" s="17"/>
+      <c r="T70" s="17"/>
+      <c r="U70" s="17"/>
+      <c r="V70" s="17"/>
+    </row>
+    <row r="71" spans="1:22" ht="15.75" customHeight="1">
       <c r="A71" s="16" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C71" s="20"/>
       <c r="D71" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="20"/>
+      <c r="O71" s="20"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="20"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="20"/>
+      <c r="T71" s="20"/>
+      <c r="U71" s="20"/>
+      <c r="V71" s="20"/>
+    </row>
+    <row r="72" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A72" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="20"/>
+      <c r="D72" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="E71" s="30" t="s">
+      <c r="E72" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30" t="s">
+      <c r="F72" s="30"/>
+      <c r="G72" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="H71" s="30"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30" t="s">
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="K71" s="30" t="s">
+      <c r="K72" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="L71" s="30" t="s">
+      <c r="L72" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="M71" s="30" t="s">
+      <c r="M72" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="N71" s="30"/>
-      <c r="O71" s="30"/>
-      <c r="P71" s="30"/>
-      <c r="Q71" s="30"/>
-      <c r="R71" s="30"/>
-      <c r="S71" s="30"/>
-      <c r="T71" s="30"/>
-      <c r="U71" s="30"/>
-      <c r="V71" s="30"/>
+      <c r="N72" s="30"/>
+      <c r="O72" s="30"/>
+      <c r="P72" s="30"/>
+      <c r="Q72" s="30"/>
+      <c r="R72" s="30"/>
+      <c r="S72" s="30"/>
+      <c r="T72" s="30"/>
+      <c r="U72" s="30"/>
+      <c r="V72" s="30"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
-      <pane xSplit="2" ySplit="6" topLeftCell="C22" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
+      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
       <pane xSplit="2" ySplit="6.0384615384615383" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
-      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="E7" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="L57" sqref="L57:L59"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
+      <pane xSplit="2" ySplit="6" topLeftCell="C22" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="6">
-    <mergeCell ref="W60:W61"/>
+    <mergeCell ref="W61:W62"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="J5:N5"/>
     <mergeCell ref="P5:V5"/>
     <mergeCell ref="C1:N1"/>
     <mergeCell ref="C2:N2"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7929,10 +8467,10 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" customWidth="1"/>
@@ -7940,7 +8478,7 @@
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="22" t="s">
         <v>70</v>
       </c>
@@ -7957,7 +8495,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15">
       <c r="A2" s="23" t="s">
         <v>73</v>
       </c>
@@ -7970,7 +8508,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15">
       <c r="A3" s="23" t="s">
         <v>75</v>
       </c>
@@ -7983,7 +8521,7 @@
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15">
       <c r="A4" s="23" t="s">
         <v>77</v>
       </c>
@@ -7996,7 +8534,7 @@
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15">
       <c r="A5" s="23" t="s">
         <v>97</v>
       </c>
@@ -8011,7 +8549,7 @@
       </c>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15">
       <c r="A6" s="23" t="s">
         <v>98</v>
       </c>
@@ -8026,7 +8564,7 @@
       </c>
       <c r="E6" s="24"/>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15">
       <c r="A7" s="23" t="s">
         <v>99</v>
       </c>
@@ -8041,7 +8579,7 @@
       </c>
       <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15">
       <c r="A8" s="23" t="s">
         <v>100</v>
       </c>
@@ -8056,7 +8594,7 @@
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15">
       <c r="A9" s="23" t="s">
         <v>109</v>
       </c>
@@ -8069,7 +8607,7 @@
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15">
       <c r="A10" s="23" t="s">
         <v>108</v>
       </c>
@@ -8082,7 +8620,7 @@
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15">
       <c r="A11" s="23" t="s">
         <v>107</v>
       </c>
@@ -8095,7 +8633,7 @@
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15">
       <c r="A12" s="23" t="s">
         <v>101</v>
       </c>
@@ -8110,7 +8648,7 @@
       </c>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15">
       <c r="A13" s="23" t="s">
         <v>106</v>
       </c>
@@ -8125,7 +8663,7 @@
       </c>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15">
       <c r="A14" s="23" t="s">
         <v>102</v>
       </c>
@@ -8140,7 +8678,7 @@
       </c>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15">
       <c r="A15" s="23" t="s">
         <v>103</v>
       </c>
@@ -8155,7 +8693,7 @@
       </c>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15">
       <c r="A16" s="23" t="s">
         <v>104</v>
       </c>
@@ -8170,7 +8708,7 @@
       </c>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15">
       <c r="A17" s="23" t="s">
         <v>123</v>
       </c>
@@ -8185,7 +8723,7 @@
       </c>
       <c r="E17" s="24"/>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15">
       <c r="A18" s="23" t="s">
         <v>12</v>
       </c>
@@ -8200,7 +8738,7 @@
       </c>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15">
       <c r="A19" s="23" t="s">
         <v>13</v>
       </c>
@@ -8215,7 +8753,7 @@
       </c>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15">
       <c r="A20" s="23" t="s">
         <v>105</v>
       </c>
@@ -8232,23 +8770,25 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
+      <selection activeCell="C7" sqref="C7"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
       <selection activeCell="C7" sqref="C7"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
-      <selection activeCell="C7" sqref="C7"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarihan/Desktop/Harja/harja/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-900" windowWidth="47580" windowHeight="26980" tabRatio="500"/>
+    <workbookView xWindow="-1340" yWindow="2560" windowWidth="41260" windowHeight="21380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -12,23 +17,23 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="1933" windowHeight="783" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="2379" windowHeight="1295" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="1933" windowHeight="879" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="160">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -505,6 +510,9 @@
   </si>
   <si>
     <t>Muutos- ja lisätyöt</t>
+  </si>
+  <si>
+    <t>Kelikeskus</t>
   </si>
 </sst>
 </file>
@@ -770,7 +778,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -814,7 +822,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1014,7 +1021,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C606B059-99AC-3B47-8437-66D15B4E3D4B}" diskRevisions="1" revisionId="141" version="18">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C0D8A1BF-1D13-2C41-BEFB-54E54F9CD4DD}" diskRevisions="1" revisionId="162" version="21">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1117,6 +1124,24 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{10512BAD-3156-C24F-8776-86D565B99C8B}" dateTime="2016-10-28T10:40:25" maxSheetId="3" userName="Microsoft Office User" r:id="rId19" minRId="142" maxRId="156">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{35DE1F50-A040-2C4B-BA4C-69E94B44BD31}" dateTime="2016-10-28T10:44:36" maxSheetId="3" userName="Microsoft Office User" r:id="rId20" minRId="157">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C0D8A1BF-1D13-2C41-BEFB-54E54F9CD4DD}" dateTime="2016-10-28T10:47:16" maxSheetId="3" userName="Microsoft Office User" r:id="rId21" minRId="158" maxRId="162">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -3540,6 +3565,212 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="142" sId="1" odxf="1" dxf="1">
+    <nc r="S25" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="143" sId="1">
+    <oc r="V6" t="inlineStr">
+      <is>
+        <t>Urakan turvallisuusvastaava</t>
+      </is>
+    </oc>
+    <nc r="V6" t="inlineStr">
+      <is>
+        <t>Kelikeskus</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="144" sId="1">
+    <oc r="S7" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </oc>
+    <nc r="S7" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="145" sId="1" odxf="1" dxf="1">
+    <nc r="S13" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="146" sId="1" odxf="1" dxf="1">
+    <nc r="S14" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="147" sId="1" odxf="1" dxf="1">
+    <nc r="S15" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="148" sId="1">
+    <oc r="S16" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </oc>
+    <nc r="S16" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="149" sId="1">
+    <oc r="S17" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </oc>
+    <nc r="S17" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="150" sId="1">
+    <nc r="S18" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="151" sId="1">
+    <oc r="S19" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </oc>
+    <nc r="S19" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="152" sId="1">
+    <nc r="S22" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="153" sId="1">
+    <oc r="V7" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </oc>
+    <nc r="V7" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="154" sId="1">
+    <oc r="V25" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </oc>
+    <nc r="V25"/>
+  </rcc>
+  <rcc rId="155" sId="1">
+    <oc r="V23" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </oc>
+    <nc r="V23"/>
+  </rcc>
+  <rcc rId="156" sId="1">
+    <oc r="V22" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </oc>
+    <nc r="V22"/>
+  </rcc>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="delete"/>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="157" sId="1">
+    <oc r="S22" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </oc>
+    <nc r="S22" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="1" sId="1">
@@ -3575,6 +3806,46 @@
     <nc r="S24" t="inlineStr">
       <is>
         <t>R,W,valmis</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog20.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="158" sId="1">
+    <nc r="S63" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="159" sId="1">
+    <nc r="S53" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="160" sId="1">
+    <nc r="S48" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="161" sId="1">
+    <nc r="S46" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="162" sId="1">
+    <nc r="S46" t="inlineStr">
+      <is>
+        <t>R</t>
       </is>
     </nc>
   </rcc>
@@ -4629,14 +4900,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="M40" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
+      <selection pane="bottomRight" activeCell="S55" sqref="S55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
@@ -4662,45 +4933,45 @@
     <col min="23" max="23" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="24" customHeight="1">
+    <row r="1" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-    </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1">
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -4715,39 +4986,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1">
-      <c r="C5" s="44" t="s">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="J5" s="44" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="J5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="P5" s="44" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="P5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
       <c r="W5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -4810,10 +5081,10 @@
         <v>93</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="15.75" customHeight="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
@@ -4867,7 +5138,7 @@
         <v>132</v>
       </c>
       <c r="S7" s="21" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="T7" s="17" t="s">
         <v>132</v>
@@ -4876,11 +5147,11 @@
         <v>17</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="W7" s="10"/>
     </row>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
@@ -4933,7 +5204,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15.75" customHeight="1">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
@@ -4980,7 +5251,7 @@
       <c r="V9" s="17"/>
       <c r="W9" s="10"/>
     </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
@@ -5027,7 +5298,7 @@
       <c r="V10" s="17"/>
       <c r="W10" s="10"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" customHeight="1">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>15</v>
       </c>
@@ -5088,7 +5359,7 @@
       <c r="V11" s="17"/>
       <c r="W11" s="10"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -5149,7 +5420,7 @@
       <c r="V12" s="17"/>
       <c r="W12" s="10"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
@@ -5188,7 +5459,9 @@
         <v>114</v>
       </c>
       <c r="R13" s="21"/>
-      <c r="S13" s="17"/>
+      <c r="S13" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="T13" s="17" t="s">
         <v>132</v>
       </c>
@@ -5196,7 +5469,7 @@
       <c r="V13" s="17"/>
       <c r="W13" s="10"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
         <v>15</v>
       </c>
@@ -5235,7 +5508,9 @@
         <v>114</v>
       </c>
       <c r="R14" s="21"/>
-      <c r="S14" s="17"/>
+      <c r="S14" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="T14" s="17" t="s">
         <v>132</v>
       </c>
@@ -5243,7 +5518,7 @@
       <c r="V14" s="17"/>
       <c r="W14" s="10"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
@@ -5282,7 +5557,9 @@
         <v>114</v>
       </c>
       <c r="R15" s="21"/>
-      <c r="S15" s="17"/>
+      <c r="S15" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="T15" s="17" t="s">
         <v>132</v>
       </c>
@@ -5290,7 +5567,7 @@
       <c r="V15" s="17"/>
       <c r="W15" s="10"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
@@ -5342,7 +5619,7 @@
         <v>132</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="T16" s="17" t="s">
         <v>132</v>
@@ -5351,7 +5628,7 @@
       <c r="V16" s="17"/>
       <c r="W16" s="10"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -5403,7 +5680,7 @@
         <v>132</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="T17" s="17" t="s">
         <v>132</v>
@@ -5412,7 +5689,7 @@
       <c r="V17" s="17"/>
       <c r="W17" s="10"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>15</v>
       </c>
@@ -5451,7 +5728,9 @@
         <v>114</v>
       </c>
       <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
+      <c r="S18" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="T18" s="17" t="s">
         <v>132</v>
       </c>
@@ -5459,7 +5738,7 @@
       <c r="V18" s="17"/>
       <c r="W18" s="10"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
@@ -5511,7 +5790,7 @@
         <v>132</v>
       </c>
       <c r="S19" s="21" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="T19" s="17" t="s">
         <v>132</v>
@@ -5520,7 +5799,7 @@
       <c r="V19" s="17"/>
       <c r="W19" s="10"/>
     </row>
-    <row r="20" spans="1:23" ht="15.75" customHeight="1">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>15</v>
       </c>
@@ -5587,7 +5866,7 @@
       </c>
       <c r="W20" s="10"/>
     </row>
-    <row r="21" spans="1:23" ht="15.75" customHeight="1">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="26" t="s">
         <v>15</v>
       </c>
@@ -5654,7 +5933,7 @@
       </c>
       <c r="W21" s="10"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" customHeight="1">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="26" t="s">
         <v>15</v>
       </c>
@@ -5707,19 +5986,19 @@
       <c r="R22" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="S22" s="21"/>
+      <c r="S22" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="T22" s="17" t="s">
         <v>132</v>
       </c>
       <c r="U22" s="21"/>
-      <c r="V22" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="V22" s="21"/>
       <c r="W22" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="26" t="s">
         <v>15</v>
       </c>
@@ -5779,12 +6058,10 @@
         <v>132</v>
       </c>
       <c r="U23" s="21"/>
-      <c r="V23" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="V23" s="21"/>
       <c r="W23" s="10"/>
     </row>
-    <row r="24" spans="1:23" ht="15.75" customHeight="1">
+    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="26" t="s">
         <v>15</v>
       </c>
@@ -5847,7 +6124,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15.75" customHeight="1">
+    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="26" t="s">
         <v>15</v>
       </c>
@@ -5892,17 +6169,17 @@
       <c r="R25" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="S25" s="27"/>
+      <c r="S25" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="T25" s="21" t="s">
         <v>132</v>
       </c>
       <c r="U25" s="21"/>
-      <c r="V25" s="21" t="s">
-        <v>114</v>
-      </c>
+      <c r="V25" s="21"/>
       <c r="W25" s="10"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" customHeight="1">
+    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="26" t="s">
         <v>15</v>
       </c>
@@ -5949,7 +6226,7 @@
       <c r="V26" s="21"/>
       <c r="W26" s="10"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" customHeight="1">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="26" t="s">
         <v>15</v>
       </c>
@@ -5988,7 +6265,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15.75" customHeight="1">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="26" t="s">
         <v>15</v>
       </c>
@@ -6051,7 +6328,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15.75" customHeight="1">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="26" t="s">
         <v>15</v>
       </c>
@@ -6108,7 +6385,7 @@
       <c r="V29" s="21"/>
       <c r="W29" s="10"/>
     </row>
-    <row r="30" spans="1:23" ht="15.75" customHeight="1">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="26" t="s">
         <v>15</v>
       </c>
@@ -6167,7 +6444,7 @@
       <c r="V30" s="21"/>
       <c r="W30" s="10"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" customHeight="1">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="26" t="s">
         <v>15</v>
       </c>
@@ -6224,7 +6501,7 @@
       <c r="V31" s="21"/>
       <c r="W31" s="10"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" customHeight="1">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="26" t="s">
         <v>15</v>
       </c>
@@ -6281,7 +6558,7 @@
       <c r="V32" s="21"/>
       <c r="W32" s="10"/>
     </row>
-    <row r="33" spans="1:23" s="39" customFormat="1" ht="15.75" customHeight="1">
+    <row r="33" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="26" t="s">
         <v>15</v>
       </c>
@@ -6337,7 +6614,7 @@
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
     </row>
-    <row r="34" spans="1:23" s="39" customFormat="1" ht="15.75" customHeight="1">
+    <row r="34" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="26" t="s">
         <v>15</v>
       </c>
@@ -6393,7 +6670,7 @@
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
     </row>
-    <row r="35" spans="1:23" s="39" customFormat="1" ht="15.75" customHeight="1">
+    <row r="35" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="26" t="s">
         <v>15</v>
       </c>
@@ -6449,7 +6726,7 @@
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
     </row>
-    <row r="36" spans="1:23" s="13" customFormat="1" ht="15.75" customHeight="1">
+    <row r="36" spans="1:23" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="26" t="s">
         <v>15</v>
       </c>
@@ -6516,7 +6793,7 @@
       </c>
       <c r="W36" s="12"/>
     </row>
-    <row r="37" spans="1:23" s="32" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="26" t="s">
         <v>43</v>
       </c>
@@ -6561,9 +6838,9 @@
       </c>
       <c r="U37" s="21"/>
       <c r="V37" s="21"/>
-      <c r="W37" s="31"/>
-    </row>
-    <row r="38" spans="1:23" ht="15.75" customHeight="1">
+      <c r="W37" s="30"/>
+    </row>
+    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="26" t="s">
         <v>43</v>
       </c>
@@ -6612,7 +6889,7 @@
       <c r="V38" s="21"/>
       <c r="W38" s="10"/>
     </row>
-    <row r="39" spans="1:23" ht="15.75" customHeight="1">
+    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="26" t="s">
         <v>43</v>
       </c>
@@ -6677,7 +6954,7 @@
       </c>
       <c r="W39" s="10"/>
     </row>
-    <row r="40" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="40" spans="1:23" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="26" t="s">
         <v>43</v>
       </c>
@@ -6742,9 +7019,9 @@
       <c r="V40" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W40" s="37"/>
-    </row>
-    <row r="41" spans="1:23" ht="15.75" customHeight="1">
+      <c r="W40" s="36"/>
+    </row>
+    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="26" t="s">
         <v>43</v>
       </c>
@@ -6809,7 +7086,7 @@
       </c>
       <c r="W41" s="10"/>
     </row>
-    <row r="42" spans="1:23" ht="15.75" customHeight="1">
+    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="26" t="s">
         <v>43</v>
       </c>
@@ -6874,7 +7151,7 @@
       </c>
       <c r="W42" s="10"/>
     </row>
-    <row r="43" spans="1:23" ht="15.75" customHeight="1">
+    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26" t="s">
         <v>43</v>
       </c>
@@ -6939,7 +7216,7 @@
       </c>
       <c r="W43" s="10"/>
     </row>
-    <row r="44" spans="1:23" s="41" customFormat="1" ht="15.75" customHeight="1">
+    <row r="44" spans="1:23" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="26" t="s">
         <v>43</v>
       </c>
@@ -7002,9 +7279,9 @@
       <c r="V44" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W44" s="40"/>
-    </row>
-    <row r="45" spans="1:23" ht="15.75" customHeight="1">
+      <c r="W44" s="39"/>
+    </row>
+    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="26" t="s">
         <v>43</v>
       </c>
@@ -7069,7 +7346,7 @@
       </c>
       <c r="W45" s="10"/>
     </row>
-    <row r="46" spans="1:23" ht="15.75" customHeight="1">
+    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="26" t="s">
         <v>43</v>
       </c>
@@ -7120,7 +7397,9 @@
       <c r="R46" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="S46" s="21"/>
+      <c r="S46" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="T46" s="21" t="s">
         <v>132</v>
       </c>
@@ -7130,7 +7409,7 @@
       </c>
       <c r="W46" s="10"/>
     </row>
-    <row r="47" spans="1:23" ht="15.75" customHeight="1">
+    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="26" t="s">
         <v>43</v>
       </c>
@@ -7195,7 +7474,7 @@
       </c>
       <c r="W47" s="10"/>
     </row>
-    <row r="48" spans="1:23" ht="15.75" customHeight="1">
+    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="26" t="s">
         <v>43</v>
       </c>
@@ -7240,7 +7519,9 @@
       <c r="R48" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="S48" s="21"/>
+      <c r="S48" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="T48" s="21" t="s">
         <v>132</v>
       </c>
@@ -7250,7 +7531,7 @@
       </c>
       <c r="W48" s="10"/>
     </row>
-    <row r="49" spans="1:23" ht="15.75" customHeight="1">
+    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="26" t="s">
         <v>43</v>
       </c>
@@ -7301,7 +7582,7 @@
       <c r="V49" s="21"/>
       <c r="W49" s="10"/>
     </row>
-    <row r="50" spans="1:23" ht="15.75" customHeight="1">
+    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="26" t="s">
         <v>43</v>
       </c>
@@ -7348,7 +7629,7 @@
       <c r="V50" s="21"/>
       <c r="W50" s="10"/>
     </row>
-    <row r="51" spans="1:23" ht="15.75" customHeight="1">
+    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="26" t="s">
         <v>43</v>
       </c>
@@ -7395,7 +7676,7 @@
       <c r="V51" s="21"/>
       <c r="W51" s="10"/>
     </row>
-    <row r="52" spans="1:23" ht="15.75" customHeight="1">
+    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="26" t="s">
         <v>43</v>
       </c>
@@ -7442,7 +7723,7 @@
       <c r="V52" s="21"/>
       <c r="W52" s="10"/>
     </row>
-    <row r="53" spans="1:23" s="29" customFormat="1" ht="15.75" customHeight="1">
+    <row r="53" spans="1:23" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="26" t="s">
         <v>43</v>
       </c>
@@ -7493,7 +7774,9 @@
       <c r="R53" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="S53" s="21"/>
+      <c r="S53" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="T53" s="21" t="s">
         <v>132</v>
       </c>
@@ -7501,9 +7784,9 @@
       <c r="V53" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W53" s="28"/>
-    </row>
-    <row r="54" spans="1:23" ht="15.75" customHeight="1">
+      <c r="W53" s="27"/>
+    </row>
+    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="26" t="s">
         <v>43</v>
       </c>
@@ -7568,7 +7851,7 @@
       </c>
       <c r="W54" s="10"/>
     </row>
-    <row r="55" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="55" spans="1:23" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="26" t="s">
         <v>43</v>
       </c>
@@ -7629,9 +7912,9 @@
       </c>
       <c r="U55" s="21"/>
       <c r="V55" s="21"/>
-      <c r="W55" s="37"/>
-    </row>
-    <row r="56" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1">
+      <c r="W55" s="36"/>
+    </row>
+    <row r="56" spans="1:23" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="26" t="s">
         <v>43</v>
       </c>
@@ -7692,9 +7975,9 @@
       </c>
       <c r="U56" s="21"/>
       <c r="V56" s="21"/>
-      <c r="W56" s="37"/>
-    </row>
-    <row r="57" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1">
+      <c r="W56" s="36"/>
+    </row>
+    <row r="57" spans="1:23" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="26" t="s">
         <v>43</v>
       </c>
@@ -7755,9 +8038,9 @@
       </c>
       <c r="U57" s="21"/>
       <c r="V57" s="21"/>
-      <c r="W57" s="37"/>
-    </row>
-    <row r="58" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1">
+      <c r="W57" s="36"/>
+    </row>
+    <row r="58" spans="1:23" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="26" t="s">
         <v>43</v>
       </c>
@@ -7818,9 +8101,9 @@
       </c>
       <c r="U58" s="21"/>
       <c r="V58" s="21"/>
-      <c r="W58" s="37"/>
-    </row>
-    <row r="59" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1">
+      <c r="W58" s="36"/>
+    </row>
+    <row r="59" spans="1:23" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="26" t="s">
         <v>43</v>
       </c>
@@ -7881,9 +8164,9 @@
       </c>
       <c r="U59" s="21"/>
       <c r="V59" s="21"/>
-      <c r="W59" s="37"/>
-    </row>
-    <row r="60" spans="1:23" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="W59" s="36"/>
+    </row>
+    <row r="60" spans="1:23" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="26" t="s">
         <v>43</v>
       </c>
@@ -7926,9 +8209,9 @@
       <c r="T60" s="21"/>
       <c r="U60" s="21"/>
       <c r="V60" s="21"/>
-      <c r="W60" s="34"/>
-    </row>
-    <row r="61" spans="1:23" ht="15.75" customHeight="1">
+      <c r="W60" s="33"/>
+    </row>
+    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="26" t="s">
         <v>58</v>
       </c>
@@ -7993,11 +8276,11 @@
       <c r="V61" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W61" s="42" t="s">
+      <c r="W61" s="41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="15.75" customHeight="1">
+    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="26" t="s">
         <v>58</v>
       </c>
@@ -8062,9 +8345,9 @@
       <c r="V62" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W62" s="43"/>
-    </row>
-    <row r="63" spans="1:23" ht="15.75" customHeight="1">
+      <c r="W62" s="42"/>
+    </row>
+    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="26" t="s">
         <v>62</v>
       </c>
@@ -8117,7 +8400,9 @@
       <c r="R63" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="S63" s="21"/>
+      <c r="S63" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="T63" s="21" t="s">
         <v>132</v>
       </c>
@@ -8129,7 +8414,7 @@
       </c>
       <c r="W63" s="10"/>
     </row>
-    <row r="64" spans="1:23" s="15" customFormat="1" ht="15.75" customHeight="1">
+    <row r="64" spans="1:23" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="18" t="s">
         <v>63</v>
       </c>
@@ -8162,7 +8447,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="15.75" customHeight="1">
+    <row r="65" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="16" t="s">
         <v>63</v>
       </c>
@@ -8204,7 +8489,7 @@
       <c r="U65" s="17"/>
       <c r="V65" s="17"/>
     </row>
-    <row r="66" spans="1:22" ht="15.75" customHeight="1">
+    <row r="66" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="16" t="s">
         <v>63</v>
       </c>
@@ -8234,7 +8519,7 @@
       <c r="U66" s="17"/>
       <c r="V66" s="17"/>
     </row>
-    <row r="67" spans="1:22" ht="15.75" customHeight="1">
+    <row r="67" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="16" t="s">
         <v>63</v>
       </c>
@@ -8264,7 +8549,7 @@
       <c r="U67" s="17"/>
       <c r="V67" s="17"/>
     </row>
-    <row r="68" spans="1:22" ht="15.75" customHeight="1">
+    <row r="68" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="16" t="s">
         <v>63</v>
       </c>
@@ -8294,7 +8579,7 @@
       <c r="U68" s="17"/>
       <c r="V68" s="17"/>
     </row>
-    <row r="69" spans="1:22" s="36" customFormat="1" ht="15.75" customHeight="1">
+    <row r="69" spans="1:22" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="16" t="s">
         <v>63</v>
       </c>
@@ -8324,7 +8609,7 @@
       <c r="U69" s="17"/>
       <c r="V69" s="17"/>
     </row>
-    <row r="70" spans="1:22" s="33" customFormat="1" ht="15.75" customHeight="1">
+    <row r="70" spans="1:22" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="16" t="s">
         <v>63</v>
       </c>
@@ -8354,7 +8639,7 @@
       <c r="U70" s="17"/>
       <c r="V70" s="17"/>
     </row>
-    <row r="71" spans="1:22" ht="15.75" customHeight="1">
+    <row r="71" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="16" t="s">
         <v>110</v>
       </c>
@@ -8384,7 +8669,7 @@
       <c r="U71" s="20"/>
       <c r="V71" s="20"/>
     </row>
-    <row r="72" spans="1:22" ht="15.75" customHeight="1">
+    <row r="72" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="16" t="s">
         <v>120</v>
       </c>
@@ -8395,52 +8680,55 @@
       <c r="D72" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="E72" s="30" t="s">
+      <c r="E72" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="F72" s="30"/>
-      <c r="G72" s="30" t="s">
+      <c r="F72" s="29"/>
+      <c r="G72" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="H72" s="30"/>
-      <c r="I72" s="30"/>
-      <c r="J72" s="30" t="s">
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="K72" s="30" t="s">
+      <c r="K72" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="L72" s="30" t="s">
+      <c r="L72" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="M72" s="30" t="s">
+      <c r="M72" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="N72" s="30"/>
-      <c r="O72" s="30"/>
-      <c r="P72" s="30"/>
-      <c r="Q72" s="30"/>
-      <c r="R72" s="30"/>
-      <c r="S72" s="30"/>
-      <c r="T72" s="30"/>
-      <c r="U72" s="30"/>
-      <c r="V72" s="30"/>
+      <c r="N72" s="29"/>
+      <c r="O72" s="29"/>
+      <c r="P72" s="29"/>
+      <c r="Q72" s="29"/>
+      <c r="R72" s="29"/>
+      <c r="S72" s="29"/>
+      <c r="T72" s="29"/>
+      <c r="U72" s="29"/>
+      <c r="V72" s="29"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
-      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
+      <pane xSplit="2" ySplit="6" topLeftCell="M10" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="T19" sqref="T19"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
       <pane xSplit="2" ySplit="6.0384615384615383" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
-      <pane xSplit="2" ySplit="6" topLeftCell="C22" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
+      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
@@ -8454,11 +8742,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8467,10 +8750,10 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" customWidth="1"/>
@@ -8478,7 +8761,7 @@
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>70</v>
       </c>
@@ -8495,7 +8778,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>73</v>
       </c>
@@ -8508,7 +8791,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="15">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>75</v>
       </c>
@@ -8521,7 +8804,7 @@
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="1:5" ht="15">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>77</v>
       </c>
@@ -8534,7 +8817,7 @@
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="1:5" ht="15">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>97</v>
       </c>
@@ -8549,7 +8832,7 @@
       </c>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:5" ht="15">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>98</v>
       </c>
@@ -8564,7 +8847,7 @@
       </c>
       <c r="E6" s="24"/>
     </row>
-    <row r="7" spans="1:5" ht="15">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>99</v>
       </c>
@@ -8579,7 +8862,7 @@
       </c>
       <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:5" ht="15">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>100</v>
       </c>
@@ -8594,7 +8877,7 @@
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:5" ht="15">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>109</v>
       </c>
@@ -8607,7 +8890,7 @@
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
     </row>
-    <row r="10" spans="1:5" ht="15">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>108</v>
       </c>
@@ -8620,7 +8903,7 @@
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
     </row>
-    <row r="11" spans="1:5" ht="15">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>107</v>
       </c>
@@ -8633,7 +8916,7 @@
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
-    <row r="12" spans="1:5" ht="15">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>101</v>
       </c>
@@ -8648,7 +8931,7 @@
       </c>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:5" ht="15">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>106</v>
       </c>
@@ -8663,7 +8946,7 @@
       </c>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:5" ht="15">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>102</v>
       </c>
@@ -8678,7 +8961,7 @@
       </c>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:5" ht="15">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>103</v>
       </c>
@@ -8693,7 +8976,7 @@
       </c>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:5" ht="15">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>104</v>
       </c>
@@ -8708,7 +8991,7 @@
       </c>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="1:5" ht="15">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>123</v>
       </c>
@@ -8723,7 +9006,7 @@
       </c>
       <c r="E17" s="24"/>
     </row>
-    <row r="18" spans="1:5" ht="15">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>12</v>
       </c>
@@ -8738,7 +9021,7 @@
       </c>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" ht="15">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>13</v>
       </c>
@@ -8753,7 +9036,7 @@
       </c>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" ht="15">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>105</v>
       </c>
@@ -8770,25 +9053,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
-      <selection activeCell="C7" sqref="C7"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
       <selection activeCell="C7" sqref="C7"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
+      <selection activeCell="C7" sqref="C7"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-1340" yWindow="2560" windowWidth="41260" windowHeight="21380" tabRatio="500"/>
+    <workbookView xWindow="3360" yWindow="2020" windowWidth="43600" windowHeight="23700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,9 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="1933" windowHeight="783" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="2180" windowHeight="1012" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="2379" windowHeight="1295" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="2379" windowHeight="1295" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -494,9 +494,6 @@
     <t>R = lukuoikeus nimettyihin urakoihin, R,W = luku- ja kirjoitusoikeus nimettyihin urakoihin, W+ kirjoitusoikeus oman organisaation urakoihin, W* kirjoitusoikeus kaikkiin urakoihin, tyhjä = ei näe osiota, muut erikoisoikeuksia</t>
   </si>
   <si>
-    <t>R*,W,TM-takaraja</t>
-  </si>
-  <si>
     <t>R*,W*,TM-valmis*,TM-takaraja*</t>
   </si>
   <si>
@@ -513,6 +510,9 @@
   </si>
   <si>
     <t>Kelikeskus</t>
+  </si>
+  <si>
+    <t>R*,W,TM-takaraja,TM-valmis</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C0D8A1BF-1D13-2C41-BEFB-54E54F9CD4DD}" diskRevisions="1" revisionId="162" version="21">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{01C5CE6A-1AD5-8F40-B383-3FF2F2AC20C5}" diskRevisions="1" revisionId="164" version="22">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1142,6 +1142,12 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{01C5CE6A-1AD5-8F40-B383-3FF2F2AC20C5}" dateTime="2016-11-01T08:45:04" maxSheetId="3" userName="Microsoft Office User" r:id="rId22" minRId="163" maxRId="164">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -3852,6 +3858,37 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog21.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="163" sId="1">
+    <oc r="E28" t="inlineStr">
+      <is>
+        <t>R*,W,TM-takaraja</t>
+      </is>
+    </oc>
+    <nc r="E28" t="inlineStr">
+      <is>
+        <t>R*,W,TM-takaraja,TM-valmis</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="164" sId="1">
+    <oc r="K28" t="inlineStr">
+      <is>
+        <t>R*,W,TM-takaraja</t>
+      </is>
+    </oc>
+    <nc r="K28" t="inlineStr">
+      <is>
+        <t>R*,W,TM-takaraja,TM-valmis</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="delete"/>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="4" sId="1">
@@ -4566,7 +4603,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="5">
   <userInfo guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" name="Tatu Tarvainen" id="-130145201" dateTime="2016-09-06T09:10:23"/>
   <userInfo guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" name="Jarno Väyrynen" id="-589116405" dateTime="2016-09-06T12:54:09"/>
@@ -4901,10 +4938,10 @@
   <dimension ref="A1:W72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="M40" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="G10" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="S55" sqref="S55"/>
+      <selection pane="bottomRight" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5081,7 +5118,7 @@
         <v>93</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6274,10 +6311,10 @@
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F28" s="21" t="s">
         <v>128</v>
@@ -6295,7 +6332,7 @@
         <v>127</v>
       </c>
       <c r="K28" s="21" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="L28" s="21" t="s">
         <v>17</v>
@@ -6563,7 +6600,7 @@
         <v>15</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="17" t="s">
@@ -6619,7 +6656,7 @@
         <v>15</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="17" t="s">
@@ -6675,7 +6712,7 @@
         <v>15</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="17" t="s">
@@ -7221,7 +7258,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="21" t="s">
@@ -8714,20 +8751,20 @@
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
-      <pane xSplit="2" ySplit="6" topLeftCell="M10" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="T19" sqref="T19"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="G10" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="K28" sqref="K28"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
+      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
       <pane xSplit="2" ySplit="6.0384615384615383" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
-      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
@@ -9058,12 +9095,12 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
       <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
+    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
       <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2020" windowWidth="43600" windowHeight="23700" tabRatio="500"/>
+    <workbookView xWindow="14160" yWindow="3960" windowWidth="43600" windowHeight="21780" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,9 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="2180" windowHeight="1012" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="2180" windowHeight="916" tabRatio="500" activeSheetId="2"/>
+    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="2379" windowHeight="1295" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="159">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -279,9 +279,6 @@
   </si>
   <si>
     <t>Tilaajan turvallisuusvastaava</t>
-  </si>
-  <si>
-    <t>Urakan turvallisuusvastaava</t>
   </si>
   <si>
     <t>Yrityksen pääkäyttäjä</t>
@@ -1021,7 +1018,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{01C5CE6A-1AD5-8F40-B383-3FF2F2AC20C5}" diskRevisions="1" revisionId="164" version="22">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C430F4B0-E87C-E742-803B-AF70E849AC88}" diskRevisions="1" revisionId="165" version="23">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1148,6 +1145,12 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{C430F4B0-E87C-E742-803B-AF70E849AC88}" dateTime="2016-11-03T12:59:47" maxSheetId="3" userName="Microsoft Office User" r:id="rId23" minRId="165">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -3883,6 +3886,46 @@
         <t>R*,W,TM-takaraja,TM-valmis</t>
       </is>
     </nc>
+  </rcc>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="delete"/>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog22.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="165" sId="2" xfDxf="1" dxf="1">
+    <oc r="B19" t="inlineStr">
+      <is>
+        <t>Urakan turvallisuusvastaava</t>
+      </is>
+    </oc>
+    <nc r="B19" t="inlineStr">
+      <is>
+        <t>Kelikeskus</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+      </font>
+      <alignment vertical="center" wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </ndxf>
   </rcc>
   <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="delete"/>
   <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="add"/>
@@ -4937,11 +4980,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="G10" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="M10" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K28" sqref="K28"/>
+      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4976,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
@@ -5082,43 +5125,43 @@
         <v>81</v>
       </c>
       <c r="J6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="L6" s="8" t="s">
+      <c r="N6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="P6" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="R6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="T6" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="U6" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="T6" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="V6" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5130,61 +5173,61 @@
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L7" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S7" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U7" s="17" t="s">
         <v>17</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="W7" s="10"/>
     </row>
@@ -5197,31 +5240,31 @@
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N8" s="21"/>
       <c r="O8" s="17"/>
       <c r="P8" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q8" s="21" t="s">
         <v>17</v>
@@ -5229,7 +5272,7 @@
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
       <c r="T8" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U8" s="17" t="s">
         <v>19</v>
@@ -5238,7 +5281,7 @@
         <v>19</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5250,31 +5293,31 @@
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L9" s="21"/>
       <c r="M9" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N9" s="21"/>
       <c r="O9" s="17"/>
       <c r="P9" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q9" s="21" t="s">
         <v>17</v>
@@ -5282,7 +5325,7 @@
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
       <c r="T9" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U9" s="17"/>
       <c r="V9" s="17"/>
@@ -5293,35 +5336,35 @@
         <v>15</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L10" s="21"/>
       <c r="M10" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N10" s="21"/>
       <c r="O10" s="17"/>
       <c r="P10" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="21" t="s">
         <v>17</v>
@@ -5329,7 +5372,7 @@
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
       <c r="T10" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U10" s="17"/>
       <c r="V10" s="17"/>
@@ -5344,53 +5387,53 @@
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L11" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O11" s="17"/>
       <c r="P11" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="17" t="s">
         <v>17</v>
       </c>
       <c r="R11" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S11" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U11" s="17"/>
       <c r="V11" s="17"/>
@@ -5405,53 +5448,53 @@
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L12" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O12" s="17"/>
       <c r="P12" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q12" s="17" t="s">
         <v>17</v>
       </c>
       <c r="R12" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S12" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U12" s="17"/>
       <c r="V12" s="17"/>
@@ -5466,41 +5509,41 @@
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N13" s="21"/>
       <c r="O13" s="17"/>
       <c r="P13" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R13" s="21"/>
       <c r="S13" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T13" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U13" s="17"/>
       <c r="V13" s="17"/>
@@ -5515,41 +5558,41 @@
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L14" s="17"/>
       <c r="M14" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N14" s="21"/>
       <c r="O14" s="17"/>
       <c r="P14" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R14" s="21"/>
       <c r="S14" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U14" s="17"/>
       <c r="V14" s="17"/>
@@ -5560,45 +5603,45 @@
         <v>15</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N15" s="21"/>
       <c r="O15" s="17"/>
       <c r="P15" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R15" s="21"/>
       <c r="S15" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T15" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U15" s="17"/>
       <c r="V15" s="17"/>
@@ -5613,53 +5656,53 @@
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L16" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O16" s="17"/>
       <c r="P16" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R16" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U16" s="17"/>
       <c r="V16" s="17"/>
@@ -5674,53 +5717,53 @@
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L17" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O17" s="17"/>
       <c r="P17" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R17" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U17" s="17"/>
       <c r="V17" s="17"/>
@@ -5735,41 +5778,41 @@
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L18" s="17"/>
       <c r="M18" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N18" s="21"/>
       <c r="O18" s="17"/>
       <c r="P18" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R18" s="21"/>
       <c r="S18" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U18" s="17"/>
       <c r="V18" s="17"/>
@@ -5784,53 +5827,53 @@
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L19" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O19" s="17"/>
       <c r="P19" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R19" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S19" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U19" s="17"/>
       <c r="V19" s="17"/>
@@ -5845,55 +5888,55 @@
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G20" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>131</v>
-      </c>
       <c r="L20" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O20" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P20" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R20" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S20" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U20" s="17" t="s">
         <v>17</v>
@@ -5912,55 +5955,55 @@
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G21" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="K21" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>131</v>
-      </c>
       <c r="L21" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P21" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q21" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R21" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S21" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T21" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U21" s="21" t="s">
         <v>17</v>
@@ -5979,60 +6022,60 @@
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L22" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P22" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R22" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S22" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T22" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U22" s="21"/>
       <c r="V22" s="21"/>
       <c r="W22" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6044,55 +6087,55 @@
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L23" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P23" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q23" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R23" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S23" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T23" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
@@ -6107,58 +6150,58 @@
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>142</v>
-      </c>
       <c r="F24" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J24" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="K24" s="21" t="s">
-        <v>142</v>
-      </c>
       <c r="L24" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O24" s="21"/>
       <c r="P24" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q24" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="Q24" s="21" t="s">
-        <v>151</v>
-      </c>
       <c r="R24" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T24" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U24" s="21"/>
       <c r="V24" s="21"/>
       <c r="W24" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6170,47 +6213,47 @@
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L25" s="21"/>
       <c r="M25" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N25" s="21"/>
       <c r="O25" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P25" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q25" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R25" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S25" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T25" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U25" s="21"/>
       <c r="V25" s="21"/>
@@ -6225,31 +6268,31 @@
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L26" s="21"/>
       <c r="M26" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q26" s="21" t="s">
         <v>17</v>
@@ -6257,7 +6300,7 @@
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
       <c r="T26" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U26" s="21"/>
       <c r="V26" s="21"/>
@@ -6272,20 +6315,20 @@
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K27" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
@@ -6311,58 +6354,58 @@
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K28" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L28" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N28" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O28" s="21"/>
       <c r="P28" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q28" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R28" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S28" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T28" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
       <c r="W28" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6374,49 +6417,49 @@
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G29" s="21"/>
       <c r="H29" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K29" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L29" s="21"/>
       <c r="M29" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O29" s="21"/>
       <c r="P29" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q29" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R29" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S29" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T29" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
@@ -6431,51 +6474,51 @@
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K30" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L30" s="21"/>
       <c r="M30" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N30" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O30" s="21"/>
       <c r="P30" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q30" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R30" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S30" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T30" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
@@ -6490,49 +6533,49 @@
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G31" s="21"/>
       <c r="H31" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K31" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L31" s="21"/>
       <c r="M31" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N31" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O31" s="21"/>
       <c r="P31" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q31" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R31" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S31" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T31" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
@@ -6547,49 +6590,49 @@
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G32" s="21"/>
       <c r="H32" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K32" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L32" s="21"/>
       <c r="M32" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N32" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O32" s="21"/>
       <c r="P32" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q32" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R32" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S32" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T32" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U32" s="21"/>
       <c r="V32" s="21"/>
@@ -6600,53 +6643,53 @@
         <v>15</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K33" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L33" s="21"/>
       <c r="M33" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N33" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O33" s="17"/>
       <c r="P33" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q33" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R33" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S33" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T33" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
@@ -6656,53 +6699,53 @@
         <v>15</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G34" s="21"/>
       <c r="H34" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K34" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L34" s="21"/>
       <c r="M34" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N34" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O34" s="17"/>
       <c r="P34" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q34" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R34" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S34" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T34" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
@@ -6712,53 +6755,53 @@
         <v>15</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G35" s="21"/>
       <c r="H35" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K35" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L35" s="21"/>
       <c r="M35" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O35" s="17"/>
       <c r="P35" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q35" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R35" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S35" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T35" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
@@ -6768,59 +6811,59 @@
         <v>15</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K36" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L36" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M36" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N36" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P36" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q36" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R36" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S36" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T36" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U36" s="21" t="s">
         <v>17</v>
@@ -6835,35 +6878,35 @@
         <v>43</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K37" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L37" s="21"/>
       <c r="M37" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N37" s="21"/>
       <c r="O37" s="21"/>
       <c r="P37" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q37" s="21" t="s">
         <v>17</v>
@@ -6871,7 +6914,7 @@
       <c r="R37" s="21"/>
       <c r="S37" s="21"/>
       <c r="T37" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U37" s="21"/>
       <c r="V37" s="21"/>
@@ -6886,13 +6929,13 @@
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>19</v>
@@ -6900,19 +6943,19 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K38" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L38" s="21"/>
       <c r="M38" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N38" s="21"/>
       <c r="O38" s="21"/>
       <c r="P38" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q38" s="21" t="s">
         <v>17</v>
@@ -6920,7 +6963,7 @@
       <c r="R38" s="21"/>
       <c r="S38" s="21"/>
       <c r="T38" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U38" s="21"/>
       <c r="V38" s="21"/>
@@ -6935,55 +6978,55 @@
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J39" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K39" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L39" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M39" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N39" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P39" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q39" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R39" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S39" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T39" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U39" s="21"/>
       <c r="V39" s="21" t="s">
@@ -7000,55 +7043,55 @@
       </c>
       <c r="C40" s="21"/>
       <c r="D40" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J40" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K40" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L40" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M40" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N40" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P40" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q40" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R40" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S40" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T40" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U40" s="21" t="s">
         <v>17</v>
@@ -7063,59 +7106,59 @@
         <v>43</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C41" s="21"/>
       <c r="D41" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J41" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K41" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L41" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M41" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N41" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P41" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q41" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R41" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S41" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T41" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U41" s="21"/>
       <c r="V41" s="21" t="s">
@@ -7132,55 +7175,55 @@
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I42" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J42" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K42" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L42" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M42" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N42" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P42" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q42" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R42" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S42" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T42" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U42" s="21"/>
       <c r="V42" s="21" t="s">
@@ -7197,55 +7240,55 @@
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I43" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J43" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K43" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L43" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M43" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N43" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O43" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P43" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q43" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R43" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S43" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T43" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U43" s="21"/>
       <c r="V43" s="21" t="s">
@@ -7258,59 +7301,59 @@
         <v>43</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I44" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J44" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K44" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L44" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M44" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N44" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O44" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P44" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q44" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R44" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S44" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T44" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U44" s="21"/>
       <c r="V44" s="21" t="s">
@@ -7327,55 +7370,55 @@
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J45" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K45" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L45" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M45" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N45" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O45" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P45" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q45" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R45" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S45" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T45" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U45" s="21"/>
       <c r="V45" s="21" t="s">
@@ -7392,53 +7435,53 @@
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I46" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J46" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K46" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L46" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M46" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N46" s="21"/>
       <c r="O46" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P46" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q46" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R46" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S46" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T46" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U46" s="21"/>
       <c r="V46" s="21" t="s">
@@ -7455,55 +7498,55 @@
       </c>
       <c r="C47" s="21"/>
       <c r="D47" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I47" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J47" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K47" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L47" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M47" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N47" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O47" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P47" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q47" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R47" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S47" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T47" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U47" s="21"/>
       <c r="V47" s="21" t="s">
@@ -7520,47 +7563,47 @@
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
       <c r="I48" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J48" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K48" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L48" s="21"/>
       <c r="M48" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N48" s="21"/>
       <c r="O48" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P48" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q48" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R48" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S48" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T48" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U48" s="21"/>
       <c r="V48" s="21" t="s">
@@ -7577,13 +7620,13 @@
       </c>
       <c r="C49" s="21"/>
       <c r="D49" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G49" s="21"/>
       <c r="H49" s="21" t="s">
@@ -7591,21 +7634,21 @@
       </c>
       <c r="I49" s="21"/>
       <c r="J49" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K49" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L49" s="21"/>
       <c r="M49" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N49" s="21" t="s">
         <v>19</v>
       </c>
       <c r="O49" s="21"/>
       <c r="P49" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q49" s="21" t="s">
         <v>17</v>
@@ -7613,7 +7656,7 @@
       <c r="R49" s="21"/>
       <c r="S49" s="21"/>
       <c r="T49" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U49" s="21"/>
       <c r="V49" s="21"/>
@@ -7628,31 +7671,31 @@
       </c>
       <c r="C50" s="21"/>
       <c r="D50" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
       <c r="J50" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K50" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L50" s="21"/>
       <c r="M50" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N50" s="21"/>
       <c r="O50" s="21"/>
       <c r="P50" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q50" s="21" t="s">
         <v>17</v>
@@ -7660,7 +7703,7 @@
       <c r="R50" s="21"/>
       <c r="S50" s="21"/>
       <c r="T50" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U50" s="21"/>
       <c r="V50" s="21"/>
@@ -7675,31 +7718,31 @@
       </c>
       <c r="C51" s="21"/>
       <c r="D51" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
       <c r="J51" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K51" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L51" s="21"/>
       <c r="M51" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N51" s="21"/>
       <c r="O51" s="21"/>
       <c r="P51" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q51" s="21" t="s">
         <v>17</v>
@@ -7707,7 +7750,7 @@
       <c r="R51" s="21"/>
       <c r="S51" s="21"/>
       <c r="T51" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U51" s="21"/>
       <c r="V51" s="21"/>
@@ -7722,31 +7765,31 @@
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
       <c r="J52" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K52" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L52" s="21"/>
       <c r="M52" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N52" s="21"/>
       <c r="O52" s="21"/>
       <c r="P52" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q52" s="21" t="s">
         <v>17</v>
@@ -7754,7 +7797,7 @@
       <c r="R52" s="21"/>
       <c r="S52" s="21"/>
       <c r="T52" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U52" s="21"/>
       <c r="V52" s="21"/>
@@ -7765,57 +7808,57 @@
         <v>43</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I53" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J53" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K53" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L53" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M53" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N53" s="21"/>
       <c r="O53" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P53" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q53" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R53" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S53" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T53" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U53" s="21"/>
       <c r="V53" s="21" t="s">
@@ -7832,55 +7875,55 @@
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I54" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J54" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K54" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L54" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M54" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N54" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O54" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P54" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q54" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R54" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S54" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T54" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U54" s="21"/>
       <c r="V54" s="21" t="s">
@@ -7893,59 +7936,59 @@
         <v>43</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I55" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J55" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K55" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L55" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M55" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N55" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O55" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P55" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q55" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R55" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S55" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T55" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U55" s="21"/>
       <c r="V55" s="21"/>
@@ -7956,59 +7999,59 @@
         <v>43</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G56" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I56" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J56" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K56" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L56" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M56" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N56" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O56" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P56" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q56" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R56" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S56" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T56" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U56" s="21"/>
       <c r="V56" s="21"/>
@@ -8019,59 +8062,59 @@
         <v>43</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C57" s="21"/>
       <c r="D57" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G57" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I57" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J57" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K57" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L57" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M57" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N57" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O57" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P57" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q57" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R57" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S57" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T57" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U57" s="21"/>
       <c r="V57" s="21"/>
@@ -8082,59 +8125,59 @@
         <v>43</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C58" s="21"/>
       <c r="D58" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I58" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J58" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K58" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L58" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M58" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N58" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O58" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P58" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q58" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R58" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S58" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T58" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U58" s="21"/>
       <c r="V58" s="21"/>
@@ -8145,59 +8188,59 @@
         <v>43</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C59" s="21"/>
       <c r="D59" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G59" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I59" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J59" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K59" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L59" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M59" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N59" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O59" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P59" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q59" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R59" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S59" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T59" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U59" s="21"/>
       <c r="V59" s="21"/>
@@ -8208,35 +8251,35 @@
         <v>43</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C60" s="21"/>
       <c r="D60" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
       <c r="J60" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K60" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L60" s="21"/>
       <c r="M60" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N60" s="21"/>
       <c r="O60" s="21"/>
       <c r="P60" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q60" s="21" t="s">
         <v>17</v>
@@ -8257,55 +8300,55 @@
       </c>
       <c r="C61" s="21"/>
       <c r="D61" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G61" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H61" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I61" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J61" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K61" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L61" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M61" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N61" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O61" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P61" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q61" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R61" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S61" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T61" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U61" s="21" t="s">
         <v>17</v>
@@ -8326,55 +8369,55 @@
       </c>
       <c r="C62" s="21"/>
       <c r="D62" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G62" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H62" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I62" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J62" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K62" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L62" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M62" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N62" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O62" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P62" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q62" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R62" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S62" s="21" t="s">
         <v>17</v>
       </c>
       <c r="T62" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U62" s="21" t="s">
         <v>17</v>
@@ -8393,58 +8436,58 @@
       </c>
       <c r="C63" s="21"/>
       <c r="D63" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G63" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H63" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I63" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J63" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K63" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L63" s="21" t="s">
         <v>17</v>
       </c>
       <c r="M63" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N63" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O63" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P63" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q63" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R63" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S63" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T63" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U63" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V63" s="21" t="s">
         <v>17</v>
@@ -8460,7 +8503,7 @@
       </c>
       <c r="C64" s="19"/>
       <c r="D64" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E64" s="19"/>
       <c r="F64" s="19"/>
@@ -8493,7 +8536,7 @@
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E65" s="17"/>
       <c r="F65" s="17" t="s">
@@ -8535,7 +8578,7 @@
       </c>
       <c r="C66" s="17"/>
       <c r="D66" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
@@ -8565,7 +8608,7 @@
       </c>
       <c r="C67" s="17"/>
       <c r="D67" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E67" s="17"/>
       <c r="F67" s="17"/>
@@ -8595,7 +8638,7 @@
       </c>
       <c r="C68" s="17"/>
       <c r="D68" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
@@ -8625,7 +8668,7 @@
       </c>
       <c r="C69" s="17"/>
       <c r="D69" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
@@ -8651,11 +8694,11 @@
         <v>63</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C70" s="17"/>
       <c r="D70" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
@@ -8678,14 +8721,14 @@
     </row>
     <row r="71" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" s="16" t="s">
         <v>110</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>111</v>
       </c>
       <c r="C71" s="20"/>
       <c r="D71" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E71" s="20"/>
       <c r="F71" s="20"/>
@@ -8708,35 +8751,35 @@
     </row>
     <row r="72" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" s="16" t="s">
         <v>120</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>121</v>
       </c>
       <c r="C72" s="20"/>
       <c r="D72" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F72" s="29"/>
       <c r="G72" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H72" s="29"/>
       <c r="I72" s="29"/>
       <c r="J72" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K72" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L72" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M72" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N72" s="29"/>
       <c r="O72" s="29"/>
@@ -8751,20 +8794,20 @@
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
-      <pane xSplit="2" ySplit="6" topLeftCell="G10" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="K28" sqref="K28"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="M10" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
+      <pane xSplit="2" ySplit="6.0384615384615383" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
       <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
-      <pane xSplit="2" ySplit="6.0384615384615383" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
@@ -8786,8 +8829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8809,10 +8852,10 @@
         <v>72</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -8856,7 +8899,7 @@
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>79</v>
@@ -8865,13 +8908,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>80</v>
@@ -8880,13 +8923,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>81</v>
@@ -8895,31 +8938,31 @@
         <v>3</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="24"/>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>5</v>
@@ -8929,10 +8972,10 @@
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>5</v>
@@ -8942,10 +8985,10 @@
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>5</v>
@@ -8955,82 +8998,82 @@
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="24"/>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" s="24"/>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" s="24"/>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" s="24"/>
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>11</v>
@@ -9039,7 +9082,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17" s="24"/>
     </row>
@@ -9048,13 +9091,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E18" s="24"/>
     </row>
@@ -9063,44 +9106,44 @@
         <v>13</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E19" s="24"/>
     </row>
     <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E20" s="24"/>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="B19" sqref="B19"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
+      <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
-      <selection activeCell="C7" sqref="C7"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
       <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarihan/Desktop/Harja/harja/resources/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="3960" windowWidth="43600" windowHeight="21780" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="760" yWindow="0" windowWidth="50440" windowHeight="23560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -17,16 +12,16 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="2379" windowHeight="1295" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
+    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="2180" windowHeight="916" tabRatio="500" activeSheetId="2"/>
-    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="2379" windowHeight="1295" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
   </customWorkbookViews>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -1018,7 +1013,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C430F4B0-E87C-E742-803B-AF70E849AC88}" diskRevisions="1" revisionId="165" version="23">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C0B302B3-5097-3546-81CC-979DBA1FB813}" diskRevisions="1" revisionId="166" version="24">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1151,6 +1146,12 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{C0B302B3-5097-3546-81CC-979DBA1FB813}" dateTime="2016-11-24T13:21:58" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId24" minRId="166">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -3932,6 +3933,23 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="166" sId="1">
+    <oc r="V63" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </oc>
+    <nc r="V63" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="4" sId="1">
@@ -4646,7 +4664,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="5">
   <userInfo guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" name="Tatu Tarvainen" id="-130145201" dateTime="2016-09-06T09:10:23"/>
   <userInfo guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" name="Jarno Väyrynen" id="-589116405" dateTime="2016-09-06T12:54:09"/>
@@ -4980,14 +4998,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W72"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="M10" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="M51" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
+      <selection pane="bottomRight" activeCell="V64" sqref="V64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
@@ -5013,7 +5031,7 @@
     <col min="23" max="23" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" ht="24" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5033,7 +5051,7 @@
       <c r="M1" s="45"/>
       <c r="N1" s="45"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="46" t="s">
@@ -5051,7 +5069,7 @@
       <c r="M2" s="42"/>
       <c r="N2" s="42"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -5066,10 +5084,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1">
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1">
       <c r="C5" s="43" t="s">
         <v>6</v>
       </c>
@@ -5098,7 +5116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -5164,7 +5182,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
@@ -5231,7 +5249,7 @@
       </c>
       <c r="W7" s="10"/>
     </row>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1">
       <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
@@ -5284,7 +5302,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
@@ -5331,7 +5349,7 @@
       <c r="V9" s="17"/>
       <c r="W9" s="10"/>
     </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
@@ -5378,7 +5396,7 @@
       <c r="V10" s="17"/>
       <c r="W10" s="10"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>15</v>
       </c>
@@ -5439,7 +5457,7 @@
       <c r="V11" s="17"/>
       <c r="W11" s="10"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -5500,7 +5518,7 @@
       <c r="V12" s="17"/>
       <c r="W12" s="10"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1">
       <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
@@ -5549,7 +5567,7 @@
       <c r="V13" s="17"/>
       <c r="W13" s="10"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1">
       <c r="A14" s="16" t="s">
         <v>15</v>
       </c>
@@ -5598,7 +5616,7 @@
       <c r="V14" s="17"/>
       <c r="W14" s="10"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1">
       <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
@@ -5647,7 +5665,7 @@
       <c r="V15" s="17"/>
       <c r="W15" s="10"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1">
       <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
@@ -5708,7 +5726,7 @@
       <c r="V16" s="17"/>
       <c r="W16" s="10"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -5769,7 +5787,7 @@
       <c r="V17" s="17"/>
       <c r="W17" s="10"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1">
       <c r="A18" s="16" t="s">
         <v>15</v>
       </c>
@@ -5818,7 +5836,7 @@
       <c r="V18" s="17"/>
       <c r="W18" s="10"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1">
       <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
@@ -5879,7 +5897,7 @@
       <c r="V19" s="17"/>
       <c r="W19" s="10"/>
     </row>
-    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1">
       <c r="A20" s="16" t="s">
         <v>15</v>
       </c>
@@ -5946,7 +5964,7 @@
       </c>
       <c r="W20" s="10"/>
     </row>
-    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1">
       <c r="A21" s="26" t="s">
         <v>15</v>
       </c>
@@ -6013,7 +6031,7 @@
       </c>
       <c r="W21" s="10"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1">
       <c r="A22" s="26" t="s">
         <v>15</v>
       </c>
@@ -6078,7 +6096,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1">
       <c r="A23" s="26" t="s">
         <v>15</v>
       </c>
@@ -6141,7 +6159,7 @@
       <c r="V23" s="21"/>
       <c r="W23" s="10"/>
     </row>
-    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="15.75" customHeight="1">
       <c r="A24" s="26" t="s">
         <v>15</v>
       </c>
@@ -6204,7 +6222,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="15.75" customHeight="1">
       <c r="A25" s="26" t="s">
         <v>15</v>
       </c>
@@ -6259,7 +6277,7 @@
       <c r="V25" s="21"/>
       <c r="W25" s="10"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" ht="15.75" customHeight="1">
       <c r="A26" s="26" t="s">
         <v>15</v>
       </c>
@@ -6306,7 +6324,7 @@
       <c r="V26" s="21"/>
       <c r="W26" s="10"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1">
       <c r="A27" s="26" t="s">
         <v>15</v>
       </c>
@@ -6345,7 +6363,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1">
       <c r="A28" s="26" t="s">
         <v>15</v>
       </c>
@@ -6408,7 +6426,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1">
       <c r="A29" s="26" t="s">
         <v>15</v>
       </c>
@@ -6465,7 +6483,7 @@
       <c r="V29" s="21"/>
       <c r="W29" s="10"/>
     </row>
-    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1">
       <c r="A30" s="26" t="s">
         <v>15</v>
       </c>
@@ -6524,7 +6542,7 @@
       <c r="V30" s="21"/>
       <c r="W30" s="10"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1">
       <c r="A31" s="26" t="s">
         <v>15</v>
       </c>
@@ -6581,7 +6599,7 @@
       <c r="V31" s="21"/>
       <c r="W31" s="10"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1">
       <c r="A32" s="26" t="s">
         <v>15</v>
       </c>
@@ -6638,7 +6656,7 @@
       <c r="V32" s="21"/>
       <c r="W32" s="10"/>
     </row>
-    <row r="33" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A33" s="26" t="s">
         <v>15</v>
       </c>
@@ -6694,7 +6712,7 @@
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
     </row>
-    <row r="34" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A34" s="26" t="s">
         <v>15</v>
       </c>
@@ -6750,7 +6768,7 @@
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
     </row>
-    <row r="35" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A35" s="26" t="s">
         <v>15</v>
       </c>
@@ -6806,7 +6824,7 @@
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
     </row>
-    <row r="36" spans="1:23" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A36" s="26" t="s">
         <v>15</v>
       </c>
@@ -6873,7 +6891,7 @@
       </c>
       <c r="W36" s="12"/>
     </row>
-    <row r="37" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A37" s="26" t="s">
         <v>43</v>
       </c>
@@ -6920,7 +6938,7 @@
       <c r="V37" s="21"/>
       <c r="W37" s="30"/>
     </row>
-    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="15.75" customHeight="1">
       <c r="A38" s="26" t="s">
         <v>43</v>
       </c>
@@ -6969,7 +6987,7 @@
       <c r="V38" s="21"/>
       <c r="W38" s="10"/>
     </row>
-    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="15.75" customHeight="1">
       <c r="A39" s="26" t="s">
         <v>43</v>
       </c>
@@ -7034,7 +7052,7 @@
       </c>
       <c r="W39" s="10"/>
     </row>
-    <row r="40" spans="1:23" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A40" s="26" t="s">
         <v>43</v>
       </c>
@@ -7101,7 +7119,7 @@
       </c>
       <c r="W40" s="36"/>
     </row>
-    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="15.75" customHeight="1">
       <c r="A41" s="26" t="s">
         <v>43</v>
       </c>
@@ -7166,7 +7184,7 @@
       </c>
       <c r="W41" s="10"/>
     </row>
-    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="15.75" customHeight="1">
       <c r="A42" s="26" t="s">
         <v>43</v>
       </c>
@@ -7231,7 +7249,7 @@
       </c>
       <c r="W42" s="10"/>
     </row>
-    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="15.75" customHeight="1">
       <c r="A43" s="26" t="s">
         <v>43</v>
       </c>
@@ -7296,7 +7314,7 @@
       </c>
       <c r="W43" s="10"/>
     </row>
-    <row r="44" spans="1:23" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" s="40" customFormat="1" ht="15.75" customHeight="1">
       <c r="A44" s="26" t="s">
         <v>43</v>
       </c>
@@ -7361,7 +7379,7 @@
       </c>
       <c r="W44" s="39"/>
     </row>
-    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="15.75" customHeight="1">
       <c r="A45" s="26" t="s">
         <v>43</v>
       </c>
@@ -7426,7 +7444,7 @@
       </c>
       <c r="W45" s="10"/>
     </row>
-    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="15.75" customHeight="1">
       <c r="A46" s="26" t="s">
         <v>43</v>
       </c>
@@ -7489,7 +7507,7 @@
       </c>
       <c r="W46" s="10"/>
     </row>
-    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="15.75" customHeight="1">
       <c r="A47" s="26" t="s">
         <v>43</v>
       </c>
@@ -7554,7 +7572,7 @@
       </c>
       <c r="W47" s="10"/>
     </row>
-    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="15.75" customHeight="1">
       <c r="A48" s="26" t="s">
         <v>43</v>
       </c>
@@ -7611,7 +7629,7 @@
       </c>
       <c r="W48" s="10"/>
     </row>
-    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="15.75" customHeight="1">
       <c r="A49" s="26" t="s">
         <v>43</v>
       </c>
@@ -7662,7 +7680,7 @@
       <c r="V49" s="21"/>
       <c r="W49" s="10"/>
     </row>
-    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="15.75" customHeight="1">
       <c r="A50" s="26" t="s">
         <v>43</v>
       </c>
@@ -7709,7 +7727,7 @@
       <c r="V50" s="21"/>
       <c r="W50" s="10"/>
     </row>
-    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="15.75" customHeight="1">
       <c r="A51" s="26" t="s">
         <v>43</v>
       </c>
@@ -7756,7 +7774,7 @@
       <c r="V51" s="21"/>
       <c r="W51" s="10"/>
     </row>
-    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="15.75" customHeight="1">
       <c r="A52" s="26" t="s">
         <v>43</v>
       </c>
@@ -7803,7 +7821,7 @@
       <c r="V52" s="21"/>
       <c r="W52" s="10"/>
     </row>
-    <row r="53" spans="1:23" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" s="28" customFormat="1" ht="15.75" customHeight="1">
       <c r="A53" s="26" t="s">
         <v>43</v>
       </c>
@@ -7866,7 +7884,7 @@
       </c>
       <c r="W53" s="27"/>
     </row>
-    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="15.75" customHeight="1">
       <c r="A54" s="26" t="s">
         <v>43</v>
       </c>
@@ -7931,7 +7949,7 @@
       </c>
       <c r="W54" s="10"/>
     </row>
-    <row r="55" spans="1:23" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A55" s="26" t="s">
         <v>43</v>
       </c>
@@ -7994,7 +8012,7 @@
       <c r="V55" s="21"/>
       <c r="W55" s="36"/>
     </row>
-    <row r="56" spans="1:23" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A56" s="26" t="s">
         <v>43</v>
       </c>
@@ -8057,7 +8075,7 @@
       <c r="V56" s="21"/>
       <c r="W56" s="36"/>
     </row>
-    <row r="57" spans="1:23" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A57" s="26" t="s">
         <v>43</v>
       </c>
@@ -8120,7 +8138,7 @@
       <c r="V57" s="21"/>
       <c r="W57" s="36"/>
     </row>
-    <row r="58" spans="1:23" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A58" s="26" t="s">
         <v>43</v>
       </c>
@@ -8183,7 +8201,7 @@
       <c r="V58" s="21"/>
       <c r="W58" s="36"/>
     </row>
-    <row r="59" spans="1:23" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A59" s="26" t="s">
         <v>43</v>
       </c>
@@ -8246,7 +8264,7 @@
       <c r="V59" s="21"/>
       <c r="W59" s="36"/>
     </row>
-    <row r="60" spans="1:23" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" s="34" customFormat="1" ht="15.75" customHeight="1">
       <c r="A60" s="26" t="s">
         <v>43</v>
       </c>
@@ -8291,7 +8309,7 @@
       <c r="V60" s="21"/>
       <c r="W60" s="33"/>
     </row>
-    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="15.75" customHeight="1">
       <c r="A61" s="26" t="s">
         <v>58</v>
       </c>
@@ -8360,7 +8378,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="15.75" customHeight="1">
       <c r="A62" s="26" t="s">
         <v>58</v>
       </c>
@@ -8427,7 +8445,7 @@
       </c>
       <c r="W62" s="42"/>
     </row>
-    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" ht="15.75" customHeight="1">
       <c r="A63" s="26" t="s">
         <v>62</v>
       </c>
@@ -8490,11 +8508,11 @@
         <v>113</v>
       </c>
       <c r="V63" s="21" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="W63" s="10"/>
     </row>
-    <row r="64" spans="1:23" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" s="15" customFormat="1" ht="15.75" customHeight="1">
       <c r="A64" s="18" t="s">
         <v>63</v>
       </c>
@@ -8527,7 +8545,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:22" ht="15.75" customHeight="1">
       <c r="A65" s="16" t="s">
         <v>63</v>
       </c>
@@ -8569,7 +8587,7 @@
       <c r="U65" s="17"/>
       <c r="V65" s="17"/>
     </row>
-    <row r="66" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:22" ht="15.75" customHeight="1">
       <c r="A66" s="16" t="s">
         <v>63</v>
       </c>
@@ -8599,7 +8617,7 @@
       <c r="U66" s="17"/>
       <c r="V66" s="17"/>
     </row>
-    <row r="67" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:22" ht="15.75" customHeight="1">
       <c r="A67" s="16" t="s">
         <v>63</v>
       </c>
@@ -8629,7 +8647,7 @@
       <c r="U67" s="17"/>
       <c r="V67" s="17"/>
     </row>
-    <row r="68" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:22" ht="15.75" customHeight="1">
       <c r="A68" s="16" t="s">
         <v>63</v>
       </c>
@@ -8659,7 +8677,7 @@
       <c r="U68" s="17"/>
       <c r="V68" s="17"/>
     </row>
-    <row r="69" spans="1:22" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:22" s="35" customFormat="1" ht="15.75" customHeight="1">
       <c r="A69" s="16" t="s">
         <v>63</v>
       </c>
@@ -8689,7 +8707,7 @@
       <c r="U69" s="17"/>
       <c r="V69" s="17"/>
     </row>
-    <row r="70" spans="1:22" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:22" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A70" s="16" t="s">
         <v>63</v>
       </c>
@@ -8719,7 +8737,7 @@
       <c r="U70" s="17"/>
       <c r="V70" s="17"/>
     </row>
-    <row r="71" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:22" ht="15.75" customHeight="1">
       <c r="A71" s="16" t="s">
         <v>109</v>
       </c>
@@ -8749,7 +8767,7 @@
       <c r="U71" s="20"/>
       <c r="V71" s="20"/>
     </row>
-    <row r="72" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:22" ht="15.75" customHeight="1">
       <c r="A72" s="16" t="s">
         <v>119</v>
       </c>
@@ -8793,22 +8811,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
-      <pane xSplit="2" ySplit="6" topLeftCell="M10" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
+      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
       <pane xSplit="2" ySplit="6.0384615384615383" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
-      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
+      <pane xSplit="2" ySplit="6" topLeftCell="M10" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
@@ -8822,6 +8837,11 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8829,11 +8849,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" customWidth="1"/>
@@ -8841,7 +8861,7 @@
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="22" t="s">
         <v>70</v>
       </c>
@@ -8858,7 +8878,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15">
       <c r="A2" s="23" t="s">
         <v>73</v>
       </c>
@@ -8871,7 +8891,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15">
       <c r="A3" s="23" t="s">
         <v>75</v>
       </c>
@@ -8884,7 +8904,7 @@
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15">
       <c r="A4" s="23" t="s">
         <v>77</v>
       </c>
@@ -8897,7 +8917,7 @@
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15">
       <c r="A5" s="23" t="s">
         <v>96</v>
       </c>
@@ -8912,7 +8932,7 @@
       </c>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15">
       <c r="A6" s="23" t="s">
         <v>97</v>
       </c>
@@ -8927,7 +8947,7 @@
       </c>
       <c r="E6" s="24"/>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15">
       <c r="A7" s="23" t="s">
         <v>98</v>
       </c>
@@ -8942,7 +8962,7 @@
       </c>
       <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15">
       <c r="A8" s="23" t="s">
         <v>99</v>
       </c>
@@ -8957,7 +8977,7 @@
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15">
       <c r="A9" s="23" t="s">
         <v>108</v>
       </c>
@@ -8970,7 +8990,7 @@
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15">
       <c r="A10" s="23" t="s">
         <v>107</v>
       </c>
@@ -8983,7 +9003,7 @@
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15">
       <c r="A11" s="23" t="s">
         <v>106</v>
       </c>
@@ -8996,7 +9016,7 @@
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15">
       <c r="A12" s="23" t="s">
         <v>100</v>
       </c>
@@ -9011,7 +9031,7 @@
       </c>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15">
       <c r="A13" s="23" t="s">
         <v>105</v>
       </c>
@@ -9026,7 +9046,7 @@
       </c>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15">
       <c r="A14" s="23" t="s">
         <v>101</v>
       </c>
@@ -9041,7 +9061,7 @@
       </c>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15">
       <c r="A15" s="23" t="s">
         <v>102</v>
       </c>
@@ -9056,7 +9076,7 @@
       </c>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15">
       <c r="A16" s="23" t="s">
         <v>103</v>
       </c>
@@ -9071,7 +9091,7 @@
       </c>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15">
       <c r="A17" s="23" t="s">
         <v>122</v>
       </c>
@@ -9086,7 +9106,7 @@
       </c>
       <c r="E17" s="24"/>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15">
       <c r="A18" s="23" t="s">
         <v>12</v>
       </c>
@@ -9101,7 +9121,7 @@
       </c>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15">
       <c r="A19" s="23" t="s">
         <v>13</v>
       </c>
@@ -9116,7 +9136,7 @@
       </c>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15">
       <c r="A20" s="23" t="s">
         <v>104</v>
       </c>
@@ -9133,23 +9153,25 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
-      <selection activeCell="B19" sqref="B19"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
+      <selection activeCell="C7" sqref="C7"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
       <selection activeCell="C7" sqref="C7"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
-      <selection activeCell="C7" sqref="C7"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
+      <selection activeCell="B19" sqref="B19"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="0" windowWidth="50440" windowHeight="23560" tabRatio="500"/>
+    <workbookView xWindow="760" yWindow="0" windowWidth="49640" windowHeight="24840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,9 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="2180" windowHeight="916" tabRatio="500" activeSheetId="2"/>
+    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="2379" windowHeight="1295" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="2180" windowHeight="916" tabRatio="500" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -27,8 +27,41 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Tatu Tarvainen</author>
+  </authors>
+  <commentList>
+    <comment ref="M27" authorId="0" guid="{DB5603A0-3291-7849-94B2-B86D15FBE193}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Tatu Tarvainen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">
+29.11.2016 Lisätty ELY käyttäjälle maksueriin oikeus
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="159">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -511,7 +544,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -556,6 +589,17 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1013,7 +1057,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C0B302B3-5097-3546-81CC-979DBA1FB813}" diskRevisions="1" revisionId="166" version="24">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B839B1D8-5356-624C-BB5E-17AF711C2B4C}" diskRevisions="1" revisionId="167" version="26">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1152,6 +1196,18 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{C41E3471-0097-0441-97BD-2D3A7ED3036F}" dateTime="2016-11-29T16:12:11" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId25" minRId="167">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B839B1D8-5356-624C-BB5E-17AF711C2B4C}" dateTime="2016-11-29T16:12:48" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId26">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -3947,6 +4003,24 @@
       </is>
     </nc>
   </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog24.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="167" sId="1">
+    <nc r="M27" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog25.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcmt sheetId="1" cell="M27" guid="{DB5603A0-3291-7849-94B2-B86D15FBE193}" author="Tatu Tarvainen" newLength="69"/>
 </revisions>
 </file>
 
@@ -4995,14 +5069,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="M51" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="V64" sqref="V64"/>
+      <selection pane="bottomRight" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -6349,7 +6423,9 @@
         <v>130</v>
       </c>
       <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
+      <c r="M27" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
@@ -8811,9 +8887,9 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
-      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
+      <pane xSplit="2" ySplit="6" topLeftCell="M10" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
@@ -8821,9 +8897,9 @@
       <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
-      <pane xSplit="2" ySplit="6" topLeftCell="M10" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
+      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
@@ -8835,8 +8911,9 @@
     <mergeCell ref="C1:N1"/>
     <mergeCell ref="C2:N2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9153,20 +9230,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
-      <selection activeCell="C7" sqref="C7"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
+      <selection activeCell="B19" sqref="B19"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
       <selection activeCell="C7" sqref="C7"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
-      <selection activeCell="B19" sqref="B19"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
+      <selection activeCell="C7" sqref="C7"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="0" windowWidth="49640" windowHeight="24840" tabRatio="500"/>
+    <workbookView xWindow="-60" yWindow="0" windowWidth="47580" windowHeight="26980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,9 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" xWindow="-3" yWindow="54" windowWidth="2379" windowHeight="1295" tabRatio="500" activeSheetId="2" showStatusbar="0"/>
+    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="2180" windowHeight="916" tabRatio="500" activeSheetId="2"/>
-    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="2379" windowHeight="1295" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -33,7 +33,7 @@
     <author>Tatu Tarvainen</author>
   </authors>
   <commentList>
-    <comment ref="M27" authorId="0" guid="{DB5603A0-3291-7849-94B2-B86D15FBE193}">
+    <comment ref="N27" authorId="0" guid="{DB5603A0-3291-7849-94B2-B86D15FBE193}">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="166">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -538,13 +538,34 @@
   </si>
   <si>
     <t>R*,W,TM-takaraja,TM-valmis</t>
+  </si>
+  <si>
+    <t>R,W,päätös</t>
+  </si>
+  <si>
+    <t>R,W,TM-takaraja,TM-valmis</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Rakennuttajakonsultti</t>
+  </si>
+  <si>
+    <t>Tilaajan_Rakennuttajakonsultti</t>
+  </si>
+  <si>
+    <t>Tilaajan rakennuttajakonsultti</t>
+  </si>
+  <si>
+    <t>ELY rakennuttajakonsultti</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -600,6 +621,11 @@
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -665,7 +691,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="147">
+  <cellStyleXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -813,8 +839,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -884,6 +922,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -896,8 +935,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="147">
+  <cellStyles count="159">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -971,6 +1017,12 @@
     <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1044,6 +1096,12 @@
     <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1057,7 +1115,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B839B1D8-5356-624C-BB5E-17AF711C2B4C}" diskRevisions="1" revisionId="167" version="26">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{181E8EC1-A181-2D44-895D-D640E4B6F248}" diskRevisions="1" revisionId="304" version="35">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1208,6 +1266,60 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{B163AE14-A85C-B64C-B7FC-649FD9F8B0F2}" dateTime="2017-01-04T13:37:14" maxSheetId="3" userName="Jarno Väyrynen" r:id="rId27" minRId="168" maxRId="288">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{42741D5D-5538-0D49-9DCA-FAD6DA2C22CE}" dateTime="2017-01-04T13:37:21" maxSheetId="3" userName="Jarno Väyrynen" r:id="rId28">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8EA2E895-A88B-9044-89A6-B117F283EDE2}" dateTime="2017-01-04T13:39:14" maxSheetId="3" userName="Jarno Väyrynen" r:id="rId29" minRId="289" maxRId="299">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{16663F77-2E7C-4B49-AA7E-F87C6B1E5162}" dateTime="2017-01-04T13:40:22" maxSheetId="3" userName="Jarno Väyrynen" r:id="rId30" minRId="300">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E3F44B7A-61A4-9D4F-9082-1AB71D85093B}" dateTime="2017-01-04T13:40:33" maxSheetId="3" userName="Jarno Väyrynen" r:id="rId31">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E553F6BE-6742-CC48-AD18-EAC2F5F332AB}" dateTime="2017-01-04T13:40:59" maxSheetId="3" userName="Jarno Väyrynen" r:id="rId32" minRId="301">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DF700D11-D82F-0944-9E6F-5983B9880EF7}" dateTime="2017-01-04T13:41:20" maxSheetId="3" userName="Jarno Väyrynen" r:id="rId33" minRId="302" maxRId="303">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B991A59C-1BD4-754B-95D1-F2080C21E584}" dateTime="2017-01-04T13:41:31" maxSheetId="3" userName="Jarno Väyrynen" r:id="rId34" minRId="304">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{181E8EC1-A181-2D44-895D-D640E4B6F248}" dateTime="2017-01-04T13:41:37" maxSheetId="3" userName="Jarno Väyrynen" r:id="rId35">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -4024,6 +4136,2934 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog26.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="168" sId="1" ref="J1:J1048576" action="insertCol"/>
+  <rm rId="169" sheetId="1" source="J3" destination="J6" sourceSheetId="1">
+    <rfmt sheetId="1" sqref="J6" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="8"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <fill>
+          <patternFill patternType="solid">
+            <fgColor rgb="FF6FA8DC"/>
+            <bgColor rgb="FF6FA8DC"/>
+          </patternFill>
+        </fill>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rcc rId="170" sId="1" odxf="1" dxf="1">
+    <nc r="J6" t="inlineStr">
+      <is>
+        <t>Tilaajan Rakennuttajakonsultti</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6FA8DC"/>
+          <bgColor rgb="FF6FA8DC"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="171" sId="1" odxf="1" dxf="1">
+    <nc r="J7" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="172" sId="1" odxf="1" dxf="1">
+    <nc r="J8" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="173" sId="1" odxf="1" dxf="1">
+    <nc r="J9" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="174" sId="1" odxf="1" dxf="1">
+    <nc r="J10" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="175" sId="1" odxf="1" dxf="1">
+    <nc r="J11" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="176" sId="1" odxf="1" dxf="1">
+    <nc r="J12" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="177" sId="1" odxf="1" dxf="1">
+    <nc r="J13" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="178" sId="1" odxf="1" dxf="1">
+    <nc r="J14" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="179" sId="1" odxf="1" dxf="1">
+    <nc r="J15" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="180" sId="1" odxf="1" dxf="1">
+    <nc r="J16" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="181" sId="1" odxf="1" dxf="1">
+    <nc r="J17" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="182" sId="1" odxf="1" dxf="1">
+    <nc r="J18" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="183" sId="1" odxf="1" dxf="1">
+    <nc r="J19" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="184" sId="1" odxf="1" dxf="1">
+    <nc r="J20" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="185" sId="1" odxf="1" dxf="1">
+    <nc r="J21" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="186" sId="1" odxf="1" dxf="1">
+    <nc r="J22" t="inlineStr">
+      <is>
+        <t>R,W,päätös</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="187" sId="1" odxf="1" dxf="1">
+    <nc r="J23" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="188" sId="1" odxf="1" dxf="1">
+    <nc r="J24" t="inlineStr">
+      <is>
+        <t>R,W,valmis</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="189" sId="1" odxf="1" dxf="1">
+    <nc r="J25" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="190" sId="1" odxf="1" dxf="1">
+    <nc r="J26" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="191" sId="1" odxf="1" dxf="1">
+    <nc r="J27" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="192" sId="1" odxf="1" dxf="1">
+    <nc r="J28" t="inlineStr">
+      <is>
+        <t>R,W,TM-takaraja,TM-valmis</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="193" sId="1" odxf="1" dxf="1">
+    <nc r="J29" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="194" sId="1" odxf="1" dxf="1">
+    <nc r="J30" t="inlineStr">
+      <is>
+        <t>R,W,päätös</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="195" sId="1" odxf="1" dxf="1">
+    <nc r="J31" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="196" sId="1" odxf="1" dxf="1">
+    <nc r="J32" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="197" sId="1" odxf="1" dxf="1">
+    <nc r="J33" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="198" sId="1" odxf="1" dxf="1">
+    <nc r="J34" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="199" sId="1" odxf="1" dxf="1">
+    <nc r="J35" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="200" sId="1" odxf="1" dxf="1">
+    <nc r="J36" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="201" sId="1" odxf="1" dxf="1">
+    <nc r="J37" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="202" sId="1" odxf="1" dxf="1">
+    <nc r="J38" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="203" sId="1" odxf="1" dxf="1">
+    <nc r="J39" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="204" sId="1" odxf="1" dxf="1">
+    <nc r="J40" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="205" sId="1" odxf="1" dxf="1">
+    <nc r="J41" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="206" sId="1" odxf="1" dxf="1">
+    <nc r="J42" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="207" sId="1" odxf="1" dxf="1">
+    <nc r="J43" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="208" sId="1" odxf="1" dxf="1">
+    <nc r="J44" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="209" sId="1" odxf="1" dxf="1">
+    <nc r="J45" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="210" sId="1" odxf="1" dxf="1">
+    <nc r="J46" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="211" sId="1" odxf="1" dxf="1">
+    <nc r="J47" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="212" sId="1" odxf="1" dxf="1">
+    <nc r="J48" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="213" sId="1" odxf="1" dxf="1">
+    <nc r="J49" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="214" sId="1" odxf="1" dxf="1">
+    <nc r="J50" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="215" sId="1" odxf="1" dxf="1">
+    <nc r="J51" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="216" sId="1" odxf="1" dxf="1">
+    <nc r="J52" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="217" sId="1" odxf="1" dxf="1">
+    <nc r="J53" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="218" sId="1" odxf="1" dxf="1">
+    <nc r="J54" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="219" sId="1" odxf="1" dxf="1">
+    <nc r="J55" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="220" sId="1" odxf="1" dxf="1">
+    <nc r="J56" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="221" sId="1" odxf="1" dxf="1">
+    <nc r="J57" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="222" sId="1" odxf="1" dxf="1">
+    <nc r="J58" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="223" sId="1" odxf="1" dxf="1">
+    <nc r="J59" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="224" sId="1" odxf="1" dxf="1">
+    <nc r="J60" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="225" sId="1" odxf="1" dxf="1">
+    <nc r="J61" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="226" sId="1" odxf="1" dxf="1">
+    <nc r="J62" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="227" sId="1" odxf="1" dxf="1">
+    <nc r="J63" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="J64" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J65" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J66" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J67" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J68" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J69" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J70" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J71" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="228" sId="1" odxf="1" dxf="1">
+    <nc r="J72" t="inlineStr">
+      <is>
+        <t>W</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="J7:J72">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J7:J72">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rrc rId="229" sId="1" ref="Q1:Q1048576" action="insertCol"/>
+  <rfmt sheetId="1" sqref="Q6" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF6FA8DC"/>
+          <bgColor rgb="FF6FA8DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="230" sId="1" odxf="1" dxf="1">
+    <nc r="Q6" t="inlineStr">
+      <is>
+        <t>ELY Rakennuttajakonsultti</t>
+      </is>
+    </nc>
+    <ndxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="231" sId="1" odxf="1" dxf="1">
+    <nc r="Q7" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="232" sId="1" odxf="1" dxf="1">
+    <nc r="Q8" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="233" sId="1" odxf="1" dxf="1">
+    <nc r="Q9" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="234" sId="1" odxf="1" dxf="1">
+    <nc r="Q10" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="235" sId="1" odxf="1" dxf="1">
+    <nc r="Q11" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="236" sId="1" odxf="1" dxf="1">
+    <nc r="Q12" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="237" sId="1" odxf="1" dxf="1">
+    <nc r="Q13" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="238" sId="1" odxf="1" dxf="1">
+    <nc r="Q14" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="239" sId="1" odxf="1" dxf="1">
+    <nc r="Q15" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="240" sId="1" odxf="1" dxf="1">
+    <nc r="Q16" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="241" sId="1" odxf="1" dxf="1">
+    <nc r="Q17" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="242" sId="1" odxf="1" dxf="1">
+    <nc r="Q18" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="243" sId="1" odxf="1" dxf="1">
+    <nc r="Q19" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="244" sId="1" odxf="1" dxf="1">
+    <nc r="Q20" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="245" sId="1" odxf="1" dxf="1">
+    <nc r="Q21" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="246" sId="1" odxf="1" dxf="1">
+    <nc r="Q22" t="inlineStr">
+      <is>
+        <t>R,W,päätös</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="247" sId="1" odxf="1" dxf="1">
+    <nc r="Q23" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="248" sId="1" odxf="1" dxf="1">
+    <nc r="Q24" t="inlineStr">
+      <is>
+        <t>R,W,valmis</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="249" sId="1" odxf="1" dxf="1">
+    <nc r="Q25" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="250" sId="1" odxf="1" dxf="1">
+    <nc r="Q26" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="251" sId="1" odxf="1" dxf="1">
+    <nc r="Q27" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="252" sId="1" odxf="1" dxf="1">
+    <nc r="Q28" t="inlineStr">
+      <is>
+        <t>R,W,TM-takaraja,TM-valmis</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="253" sId="1" odxf="1" dxf="1">
+    <nc r="Q29" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="254" sId="1" odxf="1" dxf="1">
+    <nc r="Q30" t="inlineStr">
+      <is>
+        <t>R,W,päätös</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="255" sId="1" odxf="1" dxf="1">
+    <nc r="Q31" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="256" sId="1" odxf="1" dxf="1">
+    <nc r="Q32" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="257" sId="1" odxf="1" dxf="1">
+    <nc r="Q33" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="258" sId="1" odxf="1" dxf="1">
+    <nc r="Q34" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="259" sId="1" odxf="1" dxf="1">
+    <nc r="Q35" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="260" sId="1" odxf="1" dxf="1">
+    <nc r="Q36" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="261" sId="1" odxf="1" dxf="1">
+    <nc r="Q37" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="262" sId="1" odxf="1" dxf="1">
+    <nc r="Q38" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="263" sId="1" odxf="1" dxf="1">
+    <nc r="Q39" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="264" sId="1" odxf="1" dxf="1">
+    <nc r="Q40" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="265" sId="1" odxf="1" dxf="1">
+    <nc r="Q41" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="266" sId="1" odxf="1" dxf="1">
+    <nc r="Q42" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="267" sId="1" odxf="1" dxf="1">
+    <nc r="Q43" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="268" sId="1" odxf="1" dxf="1">
+    <nc r="Q44" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="269" sId="1" odxf="1" dxf="1">
+    <nc r="Q45" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="270" sId="1" odxf="1" dxf="1">
+    <nc r="Q46" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="271" sId="1" odxf="1" dxf="1">
+    <nc r="Q47" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="272" sId="1" odxf="1" dxf="1">
+    <nc r="Q48" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="273" sId="1" odxf="1" dxf="1">
+    <nc r="Q49" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="274" sId="1" odxf="1" dxf="1">
+    <nc r="Q50" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="275" sId="1" odxf="1" dxf="1">
+    <nc r="Q51" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="276" sId="1" odxf="1" dxf="1">
+    <nc r="Q52" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="277" sId="1" odxf="1" dxf="1">
+    <nc r="Q53" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="278" sId="1" odxf="1" dxf="1">
+    <nc r="Q54" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="279" sId="1" odxf="1" dxf="1">
+    <nc r="Q55" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="280" sId="1" odxf="1" dxf="1">
+    <nc r="Q56" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="281" sId="1" odxf="1" dxf="1">
+    <nc r="Q57" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="282" sId="1" odxf="1" dxf="1">
+    <nc r="Q58" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="283" sId="1" odxf="1" dxf="1">
+    <nc r="Q59" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="284" sId="1" odxf="1" dxf="1">
+    <nc r="Q60" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="285" sId="1" odxf="1" dxf="1">
+    <nc r="Q61" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="286" sId="1" odxf="1" dxf="1">
+    <nc r="Q62" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="287" sId="1" odxf="1" dxf="1">
+    <nc r="Q63" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="Q64" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="Q65" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="Q66" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="Q67" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="Q68" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="Q69" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="Q70" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="Q71" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="288" sId="1" odxf="1" dxf="1">
+    <nc r="Q72" t="inlineStr">
+      <is>
+        <t>W</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="Q7:Q72">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="Q7:Q72">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="delete"/>
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog27.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="J64" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="Q64" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="delete"/>
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog28.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="289" sId="2" ref="A15:XFD15" action="insertRow"/>
+  <rcc rId="290" sId="2">
+    <nc r="A15" t="inlineStr">
+      <is>
+        <t>Rakennuttajakonsultti</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="B15" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="top" wrapText="0" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" xfDxf="1" sqref="B15" start="0" length="0">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="291" sId="2" odxf="1" dxf="1">
+    <nc r="B15" t="inlineStr">
+      <is>
+        <t>ELY Rakennuttajakonsultti</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="8"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="top" wrapText="0" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="292" sId="2">
+    <nc r="B15" t="inlineStr">
+      <is>
+        <t>ELY Rakennuttajakonsultti</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="293" sId="2">
+    <nc r="C15" t="inlineStr">
+      <is>
+        <t>ELY</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="294" sId="2">
+    <nc r="D15" t="inlineStr">
+      <is>
+        <t>urakka</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="295" sId="2" ref="A8:XFD8" action="insertRow"/>
+  <rcc rId="296" sId="2">
+    <nc r="A8" t="inlineStr">
+      <is>
+        <t>Tilaajan_Rakennuttajakonsultti</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="297" sId="2">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t>Tilaajan rakennuttajakonsultti</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="298" sId="2">
+    <nc r="C8" t="inlineStr">
+      <is>
+        <t>Liikennevirasto</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="299" sId="2">
+    <nc r="D8" t="inlineStr">
+      <is>
+        <t>urakka</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="delete"/>
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog29.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="300" sId="2">
+    <oc r="A8" t="inlineStr">
+      <is>
+        <t>Tilaajan_Rakennuttajakonsultti</t>
+      </is>
+    </oc>
+    <nc r="A8" t="inlineStr">
+      <is>
+        <t>Rakennuttajakonsultti</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="delete"/>
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="4" sId="1">
@@ -4038,6 +7078,89 @@
       </is>
     </nc>
   </rcc>
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog30.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="delete"/>
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog31.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="301" sId="2">
+    <oc r="A8" t="inlineStr">
+      <is>
+        <t>Rakennuttajakonsultti</t>
+      </is>
+    </oc>
+    <nc r="A8" t="inlineStr">
+      <is>
+        <t>Tilaajan_Rakennuttajakonsultti</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="delete"/>
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog32.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="302" sId="1">
+    <oc r="J6" t="inlineStr">
+      <is>
+        <t>Tilaajan Rakennuttajakonsultti</t>
+      </is>
+    </oc>
+    <nc r="J6" t="inlineStr">
+      <is>
+        <t>Tilaajan rakennuttajakonsultti</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="303" sId="1">
+    <oc r="Q6" t="inlineStr">
+      <is>
+        <t>ELY Rakennuttajakonsultti</t>
+      </is>
+    </oc>
+    <nc r="Q6" t="inlineStr">
+      <is>
+        <t>ELY rakennuttajakonsultti</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="delete"/>
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog33.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="304" sId="2">
+    <oc r="B16" t="inlineStr">
+      <is>
+        <t>ELY Rakennuttajakonsultti</t>
+      </is>
+    </oc>
+    <nc r="B16" t="inlineStr">
+      <is>
+        <t>ELY rakennuttajakonsultti</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="delete"/>
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog34.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="delete"/>
   <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="add"/>
 </revisions>
 </file>
@@ -4739,12 +7862,13 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="5">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="6">
   <userInfo guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" name="Tatu Tarvainen" id="-130145201" dateTime="2016-09-06T09:10:23"/>
   <userInfo guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" name="Jarno Väyrynen" id="-589116405" dateTime="2016-09-06T12:54:09"/>
   <userInfo guid="{0407E191-78DA-F349-B5E5-8AE1BC03A29E}" name="Jarno Väyrynen" id="-589108428" dateTime="2016-09-08T15:33:24"/>
   <userInfo guid="{F8907045-3B30-0A43-A905-F167D27F9989}" name="Jarno Väyrynen" id="-589157736" dateTime="2016-09-27T15:27:41"/>
   <userInfo guid="{C606B059-99AC-3B47-8437-66D15B4E3D4B}" name="Jarno Väyrynen" id="-589137240" dateTime="2016-10-27T09:33:01"/>
+  <userInfo guid="{181E8EC1-A181-2D44-895D-D640E4B6F248}" name="Jarno Väyrynen" id="-589137904" dateTime="2017-01-04T13:30:56"/>
 </users>
 </file>
 
@@ -5070,13 +8194,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W72"/>
+  <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M27" sqref="M27"/>
+      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -5090,60 +8214,64 @@
     <col min="7" max="7" width="9.83203125" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" style="13" customWidth="1"/>
-    <col min="10" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" customWidth="1"/>
-    <col min="14" max="14" width="12.5" customWidth="1"/>
-    <col min="15" max="15" width="12.5" style="13" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" customWidth="1"/>
-    <col min="18" max="18" width="12.5" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" style="25" customWidth="1"/>
-    <col min="20" max="20" width="11.5" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" customWidth="1"/>
-    <col min="22" max="22" width="11.1640625" customWidth="1"/>
-    <col min="23" max="23" width="39" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" style="41" customWidth="1"/>
+    <col min="11" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" customWidth="1"/>
+    <col min="15" max="15" width="12.5" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="13" customWidth="1"/>
+    <col min="17" max="17" width="12.5" style="41" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" customWidth="1"/>
+    <col min="20" max="20" width="12.5" customWidth="1"/>
+    <col min="21" max="21" width="17.6640625" style="25" customWidth="1"/>
+    <col min="22" max="22" width="11.5" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" customWidth="1"/>
+    <col min="24" max="24" width="11.1640625" customWidth="1"/>
+    <col min="25" max="25" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="24" customHeight="1">
+    <row r="1" spans="1:25" ht="24" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -5158,39 +8286,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1">
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1">
-      <c r="C5" s="43" t="s">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1">
+      <c r="C5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="J5" s="43" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="K5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="P5" s="43" t="s">
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="R5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="5" t="s">
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -5216,47 +8344,53 @@
       <c r="I6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="L6" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="M6" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="N6" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="O6" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="P6" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="Q6" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="R6" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="S6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="T6" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="U6" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="V6" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="W6" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="X6" s="9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15.75" customHeight="1">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
@@ -5282,17 +8416,17 @@
       <c r="I7" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="L7" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="L7" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>127</v>
+      <c r="M7" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="N7" s="21" t="s">
         <v>127</v>
@@ -5300,30 +8434,36 @@
       <c r="O7" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="R7" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="Q7" s="17" t="s">
+      <c r="S7" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="R7" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="S7" s="21" t="s">
+      <c r="T7" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U7" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="T7" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="U7" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="V7" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="X7" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="W7" s="10"/>
+      <c r="Y7" s="10"/>
     </row>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1">
       <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
@@ -5343,40 +8483,46 @@
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="L8" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="21" t="s">
-        <v>131</v>
-      </c>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O8" s="21"/>
+      <c r="P8" s="17"/>
       <c r="Q8" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="U8" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="V8" s="17" t="s">
+      <c r="X8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="W8" s="10" t="s">
+      <c r="Y8" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15.75" customHeight="1">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
@@ -5396,34 +8542,40 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="L9" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="21" t="s">
-        <v>131</v>
-      </c>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O9" s="21"/>
+      <c r="P9" s="17"/>
       <c r="Q9" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17" t="s">
-        <v>131</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9" s="17"/>
       <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="10"/>
+      <c r="V9" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="10"/>
     </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
@@ -5443,34 +8595,40 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="L10" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N10" s="21"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="21" t="s">
-        <v>131</v>
-      </c>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O10" s="21"/>
+      <c r="P10" s="17"/>
       <c r="Q10" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17" t="s">
-        <v>131</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="S10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T10" s="17"/>
       <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="10"/>
+      <c r="V10" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="10"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" customHeight="1">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>15</v>
       </c>
@@ -5496,42 +8654,48 @@
       <c r="I11" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="L11" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="L11" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="21" t="s">
-        <v>127</v>
+      <c r="M11" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="N11" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q11" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="R11" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="S11" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="T11" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="10"/>
+      <c r="O11" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="R11" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="S11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="T11" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V11" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="10"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -5557,42 +8721,48 @@
       <c r="I12" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="L12" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="L12" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="21" t="s">
-        <v>127</v>
+      <c r="M12" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="N12" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q12" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="R12" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="S12" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="T12" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="10"/>
+      <c r="O12" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="S12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="T12" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V12" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="10"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1">
       <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
@@ -5612,36 +8782,42 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K13" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17" t="s">
+      <c r="L13" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" s="17"/>
+      <c r="N13" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" s="21"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="Q13" s="17" t="s">
+      <c r="S13" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21" t="s">
+      <c r="T13" s="21"/>
+      <c r="U13" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="T13" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="10"/>
+      <c r="V13" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="10"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1">
       <c r="A14" s="16" t="s">
         <v>15</v>
       </c>
@@ -5661,36 +8837,42 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K14" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N14" s="21"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17" t="s">
+      <c r="L14" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" s="17"/>
+      <c r="N14" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O14" s="21"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R14" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="Q14" s="17" t="s">
+      <c r="S14" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21" t="s">
+      <c r="T14" s="21"/>
+      <c r="U14" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="T14" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="10"/>
+      <c r="V14" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="10"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1">
       <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
@@ -5710,36 +8892,42 @@
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K15" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N15" s="21"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17" t="s">
+      <c r="L15" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" s="17"/>
+      <c r="N15" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O15" s="21"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="Q15" s="17" t="s">
+      <c r="S15" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21" t="s">
+      <c r="T15" s="21"/>
+      <c r="U15" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="T15" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="10"/>
+      <c r="V15" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="10"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1">
       <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
@@ -5765,42 +8953,48 @@
       <c r="I16" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K16" s="17" t="s">
-        <v>127</v>
-      </c>
       <c r="L16" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16" s="21" t="s">
-        <v>127</v>
+        <v>127</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="N16" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17" t="s">
+      <c r="O16" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R16" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="Q16" s="17" t="s">
+      <c r="S16" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="R16" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="S16" s="21" t="s">
+      <c r="T16" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U16" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="T16" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="10"/>
+      <c r="V16" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="10"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1">
+    <row r="17" spans="1:25" ht="15.75" customHeight="1">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -5826,42 +9020,48 @@
       <c r="I17" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K17" s="17" t="s">
-        <v>127</v>
-      </c>
       <c r="L17" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="21" t="s">
-        <v>127</v>
+        <v>127</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="N17" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17" t="s">
+      <c r="O17" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R17" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="Q17" s="17" t="s">
+      <c r="S17" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="R17" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="S17" s="21" t="s">
+      <c r="T17" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U17" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="T17" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="10"/>
+      <c r="V17" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="10"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1">
+    <row r="18" spans="1:25" ht="15.75" customHeight="1">
       <c r="A18" s="16" t="s">
         <v>15</v>
       </c>
@@ -5881,36 +9081,42 @@
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="L18" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N18" s="21"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q18" s="17" t="s">
+      <c r="M18" s="17"/>
+      <c r="N18" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O18" s="21"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21" t="s">
+      <c r="R18" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="S18" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="T18" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="10"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="V18" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="10"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1">
+    <row r="19" spans="1:25" ht="15.75" customHeight="1">
       <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
@@ -5936,42 +9142,48 @@
       <c r="I19" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K19" s="17" t="s">
-        <v>127</v>
-      </c>
       <c r="L19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M19" s="21" t="s">
-        <v>127</v>
+        <v>127</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="N19" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17" t="s">
+      <c r="O19" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R19" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="Q19" s="17" t="s">
+      <c r="S19" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="R19" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="S19" s="21" t="s">
+      <c r="T19" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U19" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="T19" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="10"/>
+      <c r="V19" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="10"/>
     </row>
-    <row r="20" spans="1:23" ht="15.75" customHeight="1">
+    <row r="20" spans="1:25" ht="15.75" customHeight="1">
       <c r="A20" s="16" t="s">
         <v>15</v>
       </c>
@@ -5997,48 +9209,54 @@
       <c r="I20" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="L20" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="L20" s="21" t="s">
+      <c r="M20" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="M20" s="21" t="s">
-        <v>127</v>
-      </c>
       <c r="N20" s="21" t="s">
         <v>127</v>
       </c>
       <c r="O20" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="P20" s="17" t="s">
+      <c r="P20" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="R20" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="Q20" s="17" t="s">
+      <c r="S20" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="R20" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="S20" s="21" t="s">
+      <c r="T20" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U20" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="T20" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="U20" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="V20" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="W20" s="10"/>
+      <c r="V20" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W20" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="X20" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y20" s="10"/>
     </row>
-    <row r="21" spans="1:23" ht="15.75" customHeight="1">
+    <row r="21" spans="1:25" ht="15.75" customHeight="1">
       <c r="A21" s="26" t="s">
         <v>15</v>
       </c>
@@ -6064,48 +9282,54 @@
       <c r="I21" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K21" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="L21" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="L21" s="21" t="s">
+      <c r="M21" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="M21" s="21" t="s">
-        <v>127</v>
-      </c>
       <c r="N21" s="21" t="s">
         <v>127</v>
       </c>
       <c r="O21" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="P21" s="17" t="s">
-        <v>132</v>
+      <c r="P21" s="21" t="s">
+        <v>127</v>
       </c>
       <c r="Q21" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="R21" s="21" t="s">
-        <v>131</v>
+      <c r="R21" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="S21" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="T21" s="17" t="s">
+      <c r="T21" s="21" t="s">
         <v>131</v>
       </c>
       <c r="U21" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="V21" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="W21" s="10"/>
+        <v>113</v>
+      </c>
+      <c r="V21" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W21" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="X21" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y21" s="10"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" customHeight="1">
+    <row r="22" spans="1:25" ht="15.75" customHeight="1">
       <c r="A22" s="26" t="s">
         <v>15</v>
       </c>
@@ -6131,17 +9355,17 @@
       <c r="I22" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="K22" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K22" s="21" t="s">
+      <c r="L22" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="L22" s="21" t="s">
-        <v>17</v>
-      </c>
       <c r="M22" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="N22" s="21" t="s">
         <v>127</v>
@@ -6150,10 +9374,10 @@
         <v>127</v>
       </c>
       <c r="P22" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="21" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="R22" s="21" t="s">
         <v>131</v>
@@ -6161,16 +9385,22 @@
       <c r="S22" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T22" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="10" t="s">
+      <c r="T22" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U22" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V22" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:25" ht="15.75" customHeight="1">
       <c r="A23" s="26" t="s">
         <v>15</v>
       </c>
@@ -6196,17 +9426,17 @@
       <c r="I23" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="J23" s="17" t="s">
+      <c r="J23" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K23" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K23" s="21" t="s">
+      <c r="L23" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="L23" s="21" t="s">
-        <v>17</v>
-      </c>
       <c r="M23" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="N23" s="21" t="s">
         <v>127</v>
@@ -6214,26 +9444,32 @@
       <c r="O23" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="P23" s="17" t="s">
-        <v>132</v>
+      <c r="P23" s="21" t="s">
+        <v>127</v>
       </c>
       <c r="Q23" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="R23" s="21" t="s">
-        <v>131</v>
+      <c r="R23" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="S23" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="T23" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="10"/>
+      <c r="T23" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U23" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="V23" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="10"/>
     </row>
-    <row r="24" spans="1:23" ht="15.75" customHeight="1">
+    <row r="24" spans="1:25" ht="15.75" customHeight="1">
       <c r="A24" s="26" t="s">
         <v>15</v>
       </c>
@@ -6259,44 +9495,50 @@
       <c r="I24" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="K24" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="K24" s="21" t="s">
+      <c r="L24" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="L24" s="21" t="s">
-        <v>17</v>
-      </c>
       <c r="M24" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="N24" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21" t="s">
-        <v>149</v>
-      </c>
+      <c r="O24" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="P24" s="21"/>
       <c r="Q24" s="21" t="s">
         <v>150</v>
       </c>
       <c r="R24" s="21" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="S24" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="T24" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="10" t="s">
+      <c r="T24" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="U24" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="V24" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15.75" customHeight="1">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1">
       <c r="A25" s="26" t="s">
         <v>15</v>
       </c>
@@ -6318,28 +9560,28 @@
       <c r="I25" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="J25" s="17" t="s">
+      <c r="J25" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K25" s="21" t="s">
+      <c r="L25" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21" t="s">
+      <c r="M25" s="21"/>
+      <c r="N25" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21" t="s">
         <v>129</v>
-      </c>
-      <c r="P25" s="17" t="s">
-        <v>132</v>
       </c>
       <c r="Q25" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="R25" s="21" t="s">
-        <v>131</v>
+      <c r="R25" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="S25" s="21" t="s">
         <v>113</v>
@@ -6347,11 +9589,17 @@
       <c r="T25" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="10"/>
+      <c r="U25" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="V25" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="10"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" customHeight="1">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1">
       <c r="A26" s="26" t="s">
         <v>15</v>
       </c>
@@ -6371,34 +9619,40 @@
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
-      <c r="J26" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="K26" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N26" s="21"/>
+      <c r="J26" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="O26" s="21"/>
-      <c r="P26" s="21" t="s">
-        <v>131</v>
-      </c>
+      <c r="P26" s="21"/>
       <c r="Q26" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="17" t="s">
-        <v>131</v>
-      </c>
+      <c r="R26" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="S26" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T26" s="21"/>
       <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="10"/>
+      <c r="V26" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="10"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" customHeight="1">
+    <row r="27" spans="1:25" ht="15.75" customHeight="1">
       <c r="A27" s="26" t="s">
         <v>15</v>
       </c>
@@ -6416,30 +9670,36 @@
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
-      <c r="J27" s="17" t="s">
+      <c r="J27" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K27" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K27" s="21" t="s">
+      <c r="L27" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
+      <c r="Q27" s="21" t="s">
+        <v>113</v>
+      </c>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
       <c r="T27" s="21"/>
       <c r="U27" s="21"/>
       <c r="V27" s="21"/>
-      <c r="W27" s="11" t="s">
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15.75" customHeight="1">
+    <row r="28" spans="1:25" ht="15.75" customHeight="1">
       <c r="A28" s="26" t="s">
         <v>15</v>
       </c>
@@ -6465,44 +9725,50 @@
       <c r="I28" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="J28" s="17" t="s">
+      <c r="J28" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="K28" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K28" s="21" t="s">
+      <c r="L28" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="L28" s="21" t="s">
-        <v>17</v>
-      </c>
       <c r="M28" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N28" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O28" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="R28" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="Q28" s="21" t="s">
+      <c r="S28" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="R28" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="S28" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="T28" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="10" t="s">
+      <c r="T28" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U28" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V28" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15.75" customHeight="1">
+    <row r="29" spans="1:25" ht="15.75" customHeight="1">
       <c r="A29" s="26" t="s">
         <v>15</v>
       </c>
@@ -6526,40 +9792,46 @@
       <c r="I29" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="J29" s="17" t="s">
+      <c r="J29" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K29" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K29" s="21" t="s">
+      <c r="L29" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N29" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21" t="s">
-        <v>132</v>
-      </c>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O29" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="P29" s="21"/>
       <c r="Q29" s="21" t="s">
         <v>113</v>
       </c>
       <c r="R29" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S29" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="T29" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="10"/>
+        <v>113</v>
+      </c>
+      <c r="T29" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U29" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V29" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="10"/>
     </row>
-    <row r="30" spans="1:23" ht="15.75" customHeight="1">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1">
       <c r="A30" s="26" t="s">
         <v>15</v>
       </c>
@@ -6585,40 +9857,46 @@
       <c r="I30" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="J30" s="17" t="s">
+      <c r="J30" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="K30" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K30" s="21" t="s">
+      <c r="L30" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N30" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21" t="s">
+      <c r="M30" s="21"/>
+      <c r="N30" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O30" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="R30" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="Q30" s="21" t="s">
+      <c r="S30" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="R30" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="S30" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="T30" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="10"/>
+      <c r="T30" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U30" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V30" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="10"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" customHeight="1">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1">
       <c r="A31" s="26" t="s">
         <v>15</v>
       </c>
@@ -6642,40 +9920,46 @@
       <c r="I31" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="J31" s="17" t="s">
+      <c r="J31" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K31" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K31" s="21" t="s">
+      <c r="L31" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N31" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21" t="s">
-        <v>132</v>
-      </c>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O31" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="P31" s="21"/>
       <c r="Q31" s="21" t="s">
         <v>113</v>
       </c>
       <c r="R31" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S31" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="T31" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="10"/>
+        <v>113</v>
+      </c>
+      <c r="T31" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U31" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V31" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="10"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" customHeight="1">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1">
       <c r="A32" s="26" t="s">
         <v>15</v>
       </c>
@@ -6699,40 +9983,46 @@
       <c r="I32" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="J32" s="17" t="s">
+      <c r="J32" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K32" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K32" s="21" t="s">
+      <c r="L32" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N32" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21" t="s">
-        <v>132</v>
-      </c>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O32" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="P32" s="21"/>
       <c r="Q32" s="21" t="s">
         <v>113</v>
       </c>
       <c r="R32" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S32" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="T32" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="10"/>
+        <v>113</v>
+      </c>
+      <c r="T32" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U32" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V32" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="10"/>
     </row>
-    <row r="33" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="33" spans="1:25" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A33" s="26" t="s">
         <v>15</v>
       </c>
@@ -6756,39 +10046,45 @@
       <c r="I33" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="J33" s="17" t="s">
+      <c r="J33" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K33" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K33" s="21" t="s">
+      <c r="L33" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N33" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="O33" s="17"/>
-      <c r="P33" s="21" t="s">
-        <v>132</v>
-      </c>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O33" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="P33" s="17"/>
       <c r="Q33" s="21" t="s">
         <v>113</v>
       </c>
       <c r="R33" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S33" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="T33" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
+        <v>113</v>
+      </c>
+      <c r="T33" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U33" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V33" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
     </row>
-    <row r="34" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="34" spans="1:25" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A34" s="26" t="s">
         <v>15</v>
       </c>
@@ -6812,39 +10108,45 @@
       <c r="I34" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="J34" s="17" t="s">
+      <c r="J34" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K34" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K34" s="21" t="s">
+      <c r="L34" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N34" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="O34" s="17"/>
-      <c r="P34" s="21" t="s">
-        <v>132</v>
-      </c>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O34" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="P34" s="17"/>
       <c r="Q34" s="21" t="s">
         <v>113</v>
       </c>
       <c r="R34" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S34" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="T34" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21"/>
+        <v>113</v>
+      </c>
+      <c r="T34" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U34" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V34" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
     </row>
-    <row r="35" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="35" spans="1:25" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A35" s="26" t="s">
         <v>15</v>
       </c>
@@ -6868,39 +10170,45 @@
       <c r="I35" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="J35" s="17" t="s">
+      <c r="J35" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K35" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K35" s="21" t="s">
+      <c r="L35" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N35" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="O35" s="17"/>
-      <c r="P35" s="21" t="s">
-        <v>132</v>
-      </c>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O35" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="P35" s="17"/>
       <c r="Q35" s="21" t="s">
         <v>113</v>
       </c>
       <c r="R35" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S35" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="T35" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
+        <v>113</v>
+      </c>
+      <c r="T35" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U35" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V35" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
     </row>
-    <row r="36" spans="1:23" s="13" customFormat="1" ht="15.75" customHeight="1">
+    <row r="36" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A36" s="26" t="s">
         <v>15</v>
       </c>
@@ -6926,48 +10234,54 @@
       <c r="I36" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="J36" s="17" t="s">
+      <c r="J36" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K36" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K36" s="21" t="s">
+      <c r="L36" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="L36" s="21" t="s">
+      <c r="M36" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="M36" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N36" s="17" t="s">
+      <c r="N36" s="21" t="s">
         <v>127</v>
       </c>
       <c r="O36" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="P36" s="21" t="s">
-        <v>132</v>
+      <c r="P36" s="17" t="s">
+        <v>127</v>
       </c>
       <c r="Q36" s="21" t="s">
         <v>113</v>
       </c>
       <c r="R36" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S36" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="T36" s="17" t="s">
+      <c r="T36" s="21" t="s">
         <v>131</v>
       </c>
       <c r="U36" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="V36" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="W36" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="V36" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W36" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="X36" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y36" s="12"/>
     </row>
-    <row r="37" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:25" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A37" s="26" t="s">
         <v>43</v>
       </c>
@@ -6988,33 +10302,39 @@
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="K37" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N37" s="21"/>
+      <c r="L37" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="O37" s="21"/>
-      <c r="P37" s="21" t="s">
-        <v>131</v>
-      </c>
+      <c r="P37" s="21"/>
       <c r="Q37" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21" t="s">
-        <v>131</v>
-      </c>
+      <c r="R37" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="S37" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T37" s="21"/>
       <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="30"/>
+      <c r="V37" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="30"/>
     </row>
-    <row r="38" spans="1:23" ht="15.75" customHeight="1">
+    <row r="38" spans="1:25" ht="15.75" customHeight="1">
       <c r="A38" s="26" t="s">
         <v>43</v>
       </c>
@@ -7037,33 +10357,39 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="K38" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N38" s="21"/>
+      <c r="L38" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="O38" s="21"/>
-      <c r="P38" s="21" t="s">
-        <v>131</v>
-      </c>
+      <c r="P38" s="21"/>
       <c r="Q38" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21" t="s">
-        <v>131</v>
-      </c>
+      <c r="R38" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="S38" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T38" s="21"/>
       <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="10"/>
+      <c r="V38" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="10"/>
     </row>
-    <row r="39" spans="1:23" ht="15.75" customHeight="1">
+    <row r="39" spans="1:25" ht="15.75" customHeight="1">
       <c r="A39" s="26" t="s">
         <v>43</v>
       </c>
@@ -7090,16 +10416,16 @@
         <v>127</v>
       </c>
       <c r="J39" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="K39" s="21" t="s">
         <v>127</v>
       </c>
       <c r="L39" s="21" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="M39" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="N39" s="21" t="s">
         <v>127</v>
@@ -7108,7 +10434,7 @@
         <v>127</v>
       </c>
       <c r="P39" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q39" s="21" t="s">
         <v>17</v>
@@ -7122,13 +10448,19 @@
       <c r="T39" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="U39" s="21"/>
+      <c r="U39" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="V39" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="W39" s="10"/>
+        <v>131</v>
+      </c>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y39" s="10"/>
     </row>
-    <row r="40" spans="1:23" s="37" customFormat="1" ht="15.75" customHeight="1">
+    <row r="40" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A40" s="26" t="s">
         <v>43</v>
       </c>
@@ -7155,16 +10487,16 @@
         <v>127</v>
       </c>
       <c r="J40" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="K40" s="21" t="s">
         <v>127</v>
       </c>
       <c r="L40" s="21" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="M40" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="N40" s="21" t="s">
         <v>127</v>
@@ -7173,7 +10505,7 @@
         <v>127</v>
       </c>
       <c r="P40" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q40" s="21" t="s">
         <v>17</v>
@@ -7191,11 +10523,17 @@
         <v>17</v>
       </c>
       <c r="V40" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="W40" s="36"/>
+        <v>131</v>
+      </c>
+      <c r="W40" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="X40" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y40" s="36"/>
     </row>
-    <row r="41" spans="1:23" ht="15.75" customHeight="1">
+    <row r="41" spans="1:25" ht="15.75" customHeight="1">
       <c r="A41" s="26" t="s">
         <v>43</v>
       </c>
@@ -7222,16 +10560,16 @@
         <v>127</v>
       </c>
       <c r="J41" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="K41" s="21" t="s">
         <v>127</v>
       </c>
       <c r="L41" s="21" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="M41" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="N41" s="21" t="s">
         <v>127</v>
@@ -7240,7 +10578,7 @@
         <v>127</v>
       </c>
       <c r="P41" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q41" s="21" t="s">
         <v>17</v>
@@ -7254,13 +10592,19 @@
       <c r="T41" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="U41" s="21"/>
+      <c r="U41" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="V41" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="W41" s="10"/>
+        <v>131</v>
+      </c>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y41" s="10"/>
     </row>
-    <row r="42" spans="1:23" ht="15.75" customHeight="1">
+    <row r="42" spans="1:25" ht="15.75" customHeight="1">
       <c r="A42" s="26" t="s">
         <v>43</v>
       </c>
@@ -7287,16 +10631,16 @@
         <v>127</v>
       </c>
       <c r="J42" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="K42" s="21" t="s">
         <v>127</v>
       </c>
       <c r="L42" s="21" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="M42" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="N42" s="21" t="s">
         <v>127</v>
@@ -7305,7 +10649,7 @@
         <v>127</v>
       </c>
       <c r="P42" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q42" s="21" t="s">
         <v>17</v>
@@ -7319,13 +10663,19 @@
       <c r="T42" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="U42" s="21"/>
+      <c r="U42" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="V42" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="W42" s="10"/>
+        <v>131</v>
+      </c>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y42" s="10"/>
     </row>
-    <row r="43" spans="1:23" ht="15.75" customHeight="1">
+    <row r="43" spans="1:25" ht="15.75" customHeight="1">
       <c r="A43" s="26" t="s">
         <v>43</v>
       </c>
@@ -7352,16 +10702,16 @@
         <v>127</v>
       </c>
       <c r="J43" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="K43" s="21" t="s">
         <v>127</v>
       </c>
       <c r="L43" s="21" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="M43" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="N43" s="21" t="s">
         <v>127</v>
@@ -7370,7 +10720,7 @@
         <v>127</v>
       </c>
       <c r="P43" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q43" s="21" t="s">
         <v>17</v>
@@ -7384,13 +10734,19 @@
       <c r="T43" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="U43" s="21"/>
+      <c r="U43" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="V43" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="W43" s="10"/>
+        <v>131</v>
+      </c>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y43" s="10"/>
     </row>
-    <row r="44" spans="1:23" s="40" customFormat="1" ht="15.75" customHeight="1">
+    <row r="44" spans="1:25" s="40" customFormat="1" ht="15.75" customHeight="1">
       <c r="A44" s="26" t="s">
         <v>43</v>
       </c>
@@ -7417,16 +10773,16 @@
         <v>127</v>
       </c>
       <c r="J44" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="K44" s="21" t="s">
         <v>127</v>
       </c>
       <c r="L44" s="21" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="M44" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="N44" s="21" t="s">
         <v>127</v>
@@ -7435,7 +10791,7 @@
         <v>127</v>
       </c>
       <c r="P44" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q44" s="21" t="s">
         <v>17</v>
@@ -7449,13 +10805,19 @@
       <c r="T44" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="U44" s="21"/>
+      <c r="U44" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="V44" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="W44" s="39"/>
+        <v>131</v>
+      </c>
+      <c r="W44" s="21"/>
+      <c r="X44" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y44" s="39"/>
     </row>
-    <row r="45" spans="1:23" ht="15.75" customHeight="1">
+    <row r="45" spans="1:25" ht="15.75" customHeight="1">
       <c r="A45" s="26" t="s">
         <v>43</v>
       </c>
@@ -7482,16 +10844,16 @@
         <v>127</v>
       </c>
       <c r="J45" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="K45" s="21" t="s">
         <v>127</v>
       </c>
       <c r="L45" s="21" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="M45" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="N45" s="21" t="s">
         <v>127</v>
@@ -7500,7 +10862,7 @@
         <v>127</v>
       </c>
       <c r="P45" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q45" s="21" t="s">
         <v>17</v>
@@ -7514,13 +10876,19 @@
       <c r="T45" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="U45" s="21"/>
+      <c r="U45" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="V45" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="W45" s="10"/>
+        <v>131</v>
+      </c>
+      <c r="W45" s="21"/>
+      <c r="X45" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y45" s="10"/>
     </row>
-    <row r="46" spans="1:23" ht="15.75" customHeight="1">
+    <row r="46" spans="1:25" ht="15.75" customHeight="1">
       <c r="A46" s="26" t="s">
         <v>43</v>
       </c>
@@ -7547,23 +10915,23 @@
         <v>127</v>
       </c>
       <c r="J46" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="K46" s="21" t="s">
         <v>127</v>
       </c>
       <c r="L46" s="21" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="M46" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21" t="s">
-        <v>127</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="N46" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O46" s="21"/>
       <c r="P46" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q46" s="21" t="s">
         <v>17</v>
@@ -7577,13 +10945,19 @@
       <c r="T46" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="U46" s="21"/>
+      <c r="U46" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="V46" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="W46" s="10"/>
+        <v>131</v>
+      </c>
+      <c r="W46" s="21"/>
+      <c r="X46" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y46" s="10"/>
     </row>
-    <row r="47" spans="1:23" ht="15.75" customHeight="1">
+    <row r="47" spans="1:25" ht="15.75" customHeight="1">
       <c r="A47" s="26" t="s">
         <v>43</v>
       </c>
@@ -7610,16 +10984,16 @@
         <v>127</v>
       </c>
       <c r="J47" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="K47" s="21" t="s">
         <v>127</v>
       </c>
       <c r="L47" s="21" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="M47" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="N47" s="21" t="s">
         <v>127</v>
@@ -7628,7 +11002,7 @@
         <v>127</v>
       </c>
       <c r="P47" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q47" s="21" t="s">
         <v>17</v>
@@ -7642,13 +11016,19 @@
       <c r="T47" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="U47" s="21"/>
+      <c r="U47" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="V47" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="W47" s="10"/>
+        <v>131</v>
+      </c>
+      <c r="W47" s="21"/>
+      <c r="X47" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y47" s="10"/>
     </row>
-    <row r="48" spans="1:23" ht="15.75" customHeight="1">
+    <row r="48" spans="1:25" ht="15.75" customHeight="1">
       <c r="A48" s="26" t="s">
         <v>43</v>
       </c>
@@ -7671,21 +11051,21 @@
         <v>127</v>
       </c>
       <c r="J48" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="K48" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="L48" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O48" s="21"/>
       <c r="P48" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q48" s="21" t="s">
         <v>17</v>
@@ -7699,13 +11079,19 @@
       <c r="T48" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="U48" s="21"/>
+      <c r="U48" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="V48" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="W48" s="10"/>
+        <v>131</v>
+      </c>
+      <c r="W48" s="21"/>
+      <c r="X48" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y48" s="10"/>
     </row>
-    <row r="49" spans="1:23" ht="15.75" customHeight="1">
+    <row r="49" spans="1:25" ht="15.75" customHeight="1">
       <c r="A49" s="26" t="s">
         <v>43</v>
       </c>
@@ -7728,35 +11114,41 @@
       </c>
       <c r="I49" s="21"/>
       <c r="J49" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="K49" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="L49" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="M49" s="21"/>
       <c r="N49" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O49" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21" t="s">
-        <v>131</v>
-      </c>
+      <c r="P49" s="21"/>
       <c r="Q49" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R49" s="21"/>
-      <c r="S49" s="21"/>
-      <c r="T49" s="21" t="s">
-        <v>131</v>
-      </c>
+      <c r="R49" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="S49" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T49" s="21"/>
       <c r="U49" s="21"/>
-      <c r="V49" s="21"/>
-      <c r="W49" s="10"/>
+      <c r="V49" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="W49" s="21"/>
+      <c r="X49" s="21"/>
+      <c r="Y49" s="10"/>
     </row>
-    <row r="50" spans="1:23" ht="15.75" customHeight="1">
+    <row r="50" spans="1:25" ht="15.75" customHeight="1">
       <c r="A50" s="26" t="s">
         <v>43</v>
       </c>
@@ -7777,33 +11169,39 @@
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
       <c r="J50" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="K50" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N50" s="21"/>
+      <c r="L50" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="O50" s="21"/>
-      <c r="P50" s="21" t="s">
-        <v>131</v>
-      </c>
+      <c r="P50" s="21"/>
       <c r="Q50" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21" t="s">
-        <v>131</v>
-      </c>
+      <c r="R50" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="S50" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T50" s="21"/>
       <c r="U50" s="21"/>
-      <c r="V50" s="21"/>
-      <c r="W50" s="10"/>
+      <c r="V50" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="W50" s="21"/>
+      <c r="X50" s="21"/>
+      <c r="Y50" s="10"/>
     </row>
-    <row r="51" spans="1:23" ht="15.75" customHeight="1">
+    <row r="51" spans="1:25" ht="15.75" customHeight="1">
       <c r="A51" s="26" t="s">
         <v>43</v>
       </c>
@@ -7824,33 +11222,39 @@
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
       <c r="J51" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="K51" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N51" s="21"/>
+      <c r="L51" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="O51" s="21"/>
-      <c r="P51" s="21" t="s">
-        <v>131</v>
-      </c>
+      <c r="P51" s="21"/>
       <c r="Q51" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21" t="s">
-        <v>131</v>
-      </c>
+      <c r="R51" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="S51" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T51" s="21"/>
       <c r="U51" s="21"/>
-      <c r="V51" s="21"/>
-      <c r="W51" s="10"/>
+      <c r="V51" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="W51" s="21"/>
+      <c r="X51" s="21"/>
+      <c r="Y51" s="10"/>
     </row>
-    <row r="52" spans="1:23" ht="15.75" customHeight="1">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1">
       <c r="A52" s="26" t="s">
         <v>43</v>
       </c>
@@ -7871,33 +11275,39 @@
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
       <c r="J52" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="K52" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N52" s="21"/>
+      <c r="L52" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="O52" s="21"/>
-      <c r="P52" s="21" t="s">
-        <v>131</v>
-      </c>
+      <c r="P52" s="21"/>
       <c r="Q52" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R52" s="21"/>
-      <c r="S52" s="21"/>
-      <c r="T52" s="21" t="s">
-        <v>131</v>
-      </c>
+      <c r="R52" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="S52" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T52" s="21"/>
       <c r="U52" s="21"/>
-      <c r="V52" s="21"/>
-      <c r="W52" s="10"/>
+      <c r="V52" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="W52" s="21"/>
+      <c r="X52" s="21"/>
+      <c r="Y52" s="10"/>
     </row>
-    <row r="53" spans="1:23" s="28" customFormat="1" ht="15.75" customHeight="1">
+    <row r="53" spans="1:25" s="28" customFormat="1" ht="15.75" customHeight="1">
       <c r="A53" s="26" t="s">
         <v>43</v>
       </c>
@@ -7924,23 +11334,23 @@
         <v>127</v>
       </c>
       <c r="J53" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="K53" s="21" t="s">
         <v>127</v>
       </c>
       <c r="L53" s="21" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="M53" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21" t="s">
-        <v>127</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="N53" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O53" s="21"/>
       <c r="P53" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q53" s="21" t="s">
         <v>17</v>
@@ -7954,13 +11364,19 @@
       <c r="T53" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="U53" s="21"/>
+      <c r="U53" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="V53" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="W53" s="27"/>
+        <v>131</v>
+      </c>
+      <c r="W53" s="21"/>
+      <c r="X53" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y53" s="27"/>
     </row>
-    <row r="54" spans="1:23" ht="15.75" customHeight="1">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1">
       <c r="A54" s="26" t="s">
         <v>43</v>
       </c>
@@ -7987,16 +11403,16 @@
         <v>127</v>
       </c>
       <c r="J54" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="K54" s="21" t="s">
         <v>127</v>
       </c>
       <c r="L54" s="21" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="M54" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="N54" s="21" t="s">
         <v>127</v>
@@ -8005,7 +11421,7 @@
         <v>127</v>
       </c>
       <c r="P54" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q54" s="21" t="s">
         <v>17</v>
@@ -8019,13 +11435,19 @@
       <c r="T54" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="U54" s="21"/>
+      <c r="U54" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="V54" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="W54" s="10"/>
+        <v>131</v>
+      </c>
+      <c r="W54" s="21"/>
+      <c r="X54" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y54" s="10"/>
     </row>
-    <row r="55" spans="1:23" s="37" customFormat="1" ht="15.75" customHeight="1">
+    <row r="55" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A55" s="26" t="s">
         <v>43</v>
       </c>
@@ -8052,16 +11474,16 @@
         <v>127</v>
       </c>
       <c r="J55" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="K55" s="21" t="s">
         <v>127</v>
       </c>
       <c r="L55" s="21" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="M55" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="N55" s="21" t="s">
         <v>127</v>
@@ -8070,7 +11492,7 @@
         <v>127</v>
       </c>
       <c r="P55" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q55" s="21" t="s">
         <v>17</v>
@@ -8084,11 +11506,17 @@
       <c r="T55" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="U55" s="21"/>
-      <c r="V55" s="21"/>
-      <c r="W55" s="36"/>
+      <c r="U55" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V55" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="W55" s="21"/>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="36"/>
     </row>
-    <row r="56" spans="1:23" s="37" customFormat="1" ht="15.75" customHeight="1">
+    <row r="56" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A56" s="26" t="s">
         <v>43</v>
       </c>
@@ -8115,16 +11543,16 @@
         <v>127</v>
       </c>
       <c r="J56" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="K56" s="21" t="s">
         <v>127</v>
       </c>
       <c r="L56" s="21" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="M56" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="N56" s="21" t="s">
         <v>127</v>
@@ -8133,7 +11561,7 @@
         <v>127</v>
       </c>
       <c r="P56" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q56" s="21" t="s">
         <v>17</v>
@@ -8147,11 +11575,17 @@
       <c r="T56" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="U56" s="21"/>
-      <c r="V56" s="21"/>
-      <c r="W56" s="36"/>
+      <c r="U56" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V56" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="W56" s="21"/>
+      <c r="X56" s="21"/>
+      <c r="Y56" s="36"/>
     </row>
-    <row r="57" spans="1:23" s="37" customFormat="1" ht="15.75" customHeight="1">
+    <row r="57" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A57" s="26" t="s">
         <v>43</v>
       </c>
@@ -8178,16 +11612,16 @@
         <v>127</v>
       </c>
       <c r="J57" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="K57" s="21" t="s">
         <v>127</v>
       </c>
       <c r="L57" s="21" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="M57" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="N57" s="21" t="s">
         <v>127</v>
@@ -8196,7 +11630,7 @@
         <v>127</v>
       </c>
       <c r="P57" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q57" s="21" t="s">
         <v>17</v>
@@ -8210,11 +11644,17 @@
       <c r="T57" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="U57" s="21"/>
-      <c r="V57" s="21"/>
-      <c r="W57" s="36"/>
+      <c r="U57" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V57" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="W57" s="21"/>
+      <c r="X57" s="21"/>
+      <c r="Y57" s="36"/>
     </row>
-    <row r="58" spans="1:23" s="37" customFormat="1" ht="15.75" customHeight="1">
+    <row r="58" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A58" s="26" t="s">
         <v>43</v>
       </c>
@@ -8241,16 +11681,16 @@
         <v>127</v>
       </c>
       <c r="J58" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="K58" s="21" t="s">
         <v>127</v>
       </c>
       <c r="L58" s="21" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="M58" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="N58" s="21" t="s">
         <v>127</v>
@@ -8259,7 +11699,7 @@
         <v>127</v>
       </c>
       <c r="P58" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q58" s="21" t="s">
         <v>17</v>
@@ -8273,11 +11713,17 @@
       <c r="T58" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="U58" s="21"/>
-      <c r="V58" s="21"/>
-      <c r="W58" s="36"/>
+      <c r="U58" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V58" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="W58" s="21"/>
+      <c r="X58" s="21"/>
+      <c r="Y58" s="36"/>
     </row>
-    <row r="59" spans="1:23" s="37" customFormat="1" ht="15.75" customHeight="1">
+    <row r="59" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A59" s="26" t="s">
         <v>43</v>
       </c>
@@ -8304,16 +11750,16 @@
         <v>127</v>
       </c>
       <c r="J59" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="K59" s="21" t="s">
         <v>127</v>
       </c>
       <c r="L59" s="21" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="M59" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="N59" s="21" t="s">
         <v>127</v>
@@ -8322,7 +11768,7 @@
         <v>127</v>
       </c>
       <c r="P59" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q59" s="21" t="s">
         <v>17</v>
@@ -8336,11 +11782,17 @@
       <c r="T59" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="U59" s="21"/>
-      <c r="V59" s="21"/>
-      <c r="W59" s="36"/>
+      <c r="U59" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V59" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="W59" s="21"/>
+      <c r="X59" s="21"/>
+      <c r="Y59" s="36"/>
     </row>
-    <row r="60" spans="1:23" s="34" customFormat="1" ht="15.75" customHeight="1">
+    <row r="60" spans="1:25" s="34" customFormat="1" ht="15.75" customHeight="1">
       <c r="A60" s="26" t="s">
         <v>43</v>
       </c>
@@ -8361,31 +11813,37 @@
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
       <c r="J60" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="K60" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N60" s="21"/>
+      <c r="L60" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="O60" s="21"/>
-      <c r="P60" s="21" t="s">
-        <v>131</v>
-      </c>
+      <c r="P60" s="21"/>
       <c r="Q60" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R60" s="21"/>
-      <c r="S60" s="21"/>
+      <c r="R60" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="S60" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="T60" s="21"/>
       <c r="U60" s="21"/>
       <c r="V60" s="21"/>
-      <c r="W60" s="33"/>
+      <c r="W60" s="21"/>
+      <c r="X60" s="21"/>
+      <c r="Y60" s="33"/>
     </row>
-    <row r="61" spans="1:23" ht="15.75" customHeight="1">
+    <row r="61" spans="1:25" ht="15.75" customHeight="1">
       <c r="A61" s="26" t="s">
         <v>58</v>
       </c>
@@ -8412,16 +11870,16 @@
         <v>127</v>
       </c>
       <c r="J61" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="K61" s="21" t="s">
         <v>127</v>
       </c>
       <c r="L61" s="21" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="M61" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="N61" s="21" t="s">
         <v>127</v>
@@ -8430,7 +11888,7 @@
         <v>127</v>
       </c>
       <c r="P61" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q61" s="21" t="s">
         <v>17</v>
@@ -8448,13 +11906,19 @@
         <v>17</v>
       </c>
       <c r="V61" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="W61" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="W61" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="X61" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y61" s="42" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="15.75" customHeight="1">
+    <row r="62" spans="1:25" ht="15.75" customHeight="1">
       <c r="A62" s="26" t="s">
         <v>58</v>
       </c>
@@ -8481,16 +11945,16 @@
         <v>127</v>
       </c>
       <c r="J62" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="K62" s="21" t="s">
         <v>127</v>
       </c>
       <c r="L62" s="21" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="M62" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="N62" s="21" t="s">
         <v>127</v>
@@ -8499,7 +11963,7 @@
         <v>127</v>
       </c>
       <c r="P62" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q62" s="21" t="s">
         <v>17</v>
@@ -8517,11 +11981,17 @@
         <v>17</v>
       </c>
       <c r="V62" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="W62" s="42"/>
+        <v>131</v>
+      </c>
+      <c r="W62" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="X62" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y62" s="43"/>
     </row>
-    <row r="63" spans="1:23" ht="15.75" customHeight="1">
+    <row r="63" spans="1:25" ht="15.75" customHeight="1">
       <c r="A63" s="26" t="s">
         <v>62</v>
       </c>
@@ -8548,16 +12018,16 @@
         <v>127</v>
       </c>
       <c r="J63" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="K63" s="21" t="s">
-        <v>127</v>
-      </c>
       <c r="L63" s="21" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="M63" s="21" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="N63" s="21" t="s">
         <v>127</v>
@@ -8566,13 +12036,13 @@
         <v>127</v>
       </c>
       <c r="P63" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q63" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R63" s="21" t="s">
         <v>132</v>
-      </c>
-      <c r="Q63" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="R63" s="21" t="s">
-        <v>131</v>
       </c>
       <c r="S63" s="21" t="s">
         <v>113</v>
@@ -8584,11 +12054,17 @@
         <v>113</v>
       </c>
       <c r="V63" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="W63" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="W63" s="10"/>
+      <c r="X63" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y63" s="10"/>
     </row>
-    <row r="64" spans="1:23" s="15" customFormat="1" ht="15.75" customHeight="1">
+    <row r="64" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1">
       <c r="A64" s="18" t="s">
         <v>63</v>
       </c>
@@ -8617,11 +12093,13 @@
       <c r="T64" s="19"/>
       <c r="U64" s="19"/>
       <c r="V64" s="19"/>
-      <c r="W64" s="14" t="s">
+      <c r="W64" s="19"/>
+      <c r="X64" s="19"/>
+      <c r="Y64" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="15.75" customHeight="1">
+    <row r="65" spans="1:24" ht="15.75" customHeight="1">
       <c r="A65" s="16" t="s">
         <v>63</v>
       </c>
@@ -8643,27 +12121,29 @@
         <v>19</v>
       </c>
       <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
+      <c r="J65" s="21"/>
       <c r="K65" s="17"/>
-      <c r="L65" s="17" t="s">
-        <v>19</v>
-      </c>
+      <c r="L65" s="17"/>
       <c r="M65" s="17" t="s">
         <v>19</v>
       </c>
       <c r="N65" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="O65" s="17"/>
+      <c r="O65" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c r="Q65" s="21"/>
       <c r="R65" s="17"/>
       <c r="S65" s="17"/>
       <c r="T65" s="17"/>
       <c r="U65" s="17"/>
       <c r="V65" s="17"/>
+      <c r="W65" s="17"/>
+      <c r="X65" s="17"/>
     </row>
-    <row r="66" spans="1:22" ht="15.75" customHeight="1">
+    <row r="66" spans="1:24" ht="15.75" customHeight="1">
       <c r="A66" s="16" t="s">
         <v>63</v>
       </c>
@@ -8679,21 +12159,23 @@
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
+      <c r="J66" s="21"/>
       <c r="K66" s="17"/>
       <c r="L66" s="17"/>
       <c r="M66" s="17"/>
       <c r="N66" s="17"/>
       <c r="O66" s="17"/>
       <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c r="Q66" s="21"/>
       <c r="R66" s="17"/>
       <c r="S66" s="17"/>
       <c r="T66" s="17"/>
       <c r="U66" s="17"/>
       <c r="V66" s="17"/>
+      <c r="W66" s="17"/>
+      <c r="X66" s="17"/>
     </row>
-    <row r="67" spans="1:22" ht="15.75" customHeight="1">
+    <row r="67" spans="1:24" ht="15.75" customHeight="1">
       <c r="A67" s="16" t="s">
         <v>63</v>
       </c>
@@ -8709,21 +12191,23 @@
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
+      <c r="J67" s="21"/>
       <c r="K67" s="17"/>
       <c r="L67" s="17"/>
       <c r="M67" s="17"/>
       <c r="N67" s="17"/>
       <c r="O67" s="17"/>
       <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="Q67" s="21"/>
       <c r="R67" s="17"/>
       <c r="S67" s="17"/>
       <c r="T67" s="17"/>
       <c r="U67" s="17"/>
       <c r="V67" s="17"/>
+      <c r="W67" s="17"/>
+      <c r="X67" s="17"/>
     </row>
-    <row r="68" spans="1:22" ht="15.75" customHeight="1">
+    <row r="68" spans="1:24" ht="15.75" customHeight="1">
       <c r="A68" s="16" t="s">
         <v>63</v>
       </c>
@@ -8739,21 +12223,23 @@
       <c r="G68" s="17"/>
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
+      <c r="J68" s="21"/>
       <c r="K68" s="17"/>
       <c r="L68" s="17"/>
       <c r="M68" s="17"/>
       <c r="N68" s="17"/>
       <c r="O68" s="17"/>
       <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="Q68" s="21"/>
       <c r="R68" s="17"/>
       <c r="S68" s="17"/>
       <c r="T68" s="17"/>
       <c r="U68" s="17"/>
       <c r="V68" s="17"/>
+      <c r="W68" s="17"/>
+      <c r="X68" s="17"/>
     </row>
-    <row r="69" spans="1:22" s="35" customFormat="1" ht="15.75" customHeight="1">
+    <row r="69" spans="1:24" s="35" customFormat="1" ht="15.75" customHeight="1">
       <c r="A69" s="16" t="s">
         <v>63</v>
       </c>
@@ -8769,21 +12255,23 @@
       <c r="G69" s="17"/>
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
+      <c r="J69" s="21"/>
       <c r="K69" s="17"/>
       <c r="L69" s="17"/>
       <c r="M69" s="17"/>
       <c r="N69" s="17"/>
       <c r="O69" s="17"/>
       <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="Q69" s="21"/>
       <c r="R69" s="17"/>
       <c r="S69" s="17"/>
       <c r="T69" s="17"/>
       <c r="U69" s="17"/>
       <c r="V69" s="17"/>
+      <c r="W69" s="17"/>
+      <c r="X69" s="17"/>
     </row>
-    <row r="70" spans="1:22" s="32" customFormat="1" ht="15.75" customHeight="1">
+    <row r="70" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A70" s="16" t="s">
         <v>63</v>
       </c>
@@ -8799,21 +12287,23 @@
       <c r="G70" s="17"/>
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
+      <c r="J70" s="21"/>
       <c r="K70" s="17"/>
       <c r="L70" s="17"/>
       <c r="M70" s="17"/>
       <c r="N70" s="17"/>
       <c r="O70" s="17"/>
       <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="Q70" s="21"/>
       <c r="R70" s="17"/>
       <c r="S70" s="17"/>
       <c r="T70" s="17"/>
       <c r="U70" s="17"/>
       <c r="V70" s="17"/>
+      <c r="W70" s="17"/>
+      <c r="X70" s="17"/>
     </row>
-    <row r="71" spans="1:22" ht="15.75" customHeight="1">
+    <row r="71" spans="1:24" ht="15.75" customHeight="1">
       <c r="A71" s="16" t="s">
         <v>109</v>
       </c>
@@ -8829,21 +12319,23 @@
       <c r="G71" s="20"/>
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
+      <c r="J71" s="49"/>
       <c r="K71" s="20"/>
       <c r="L71" s="20"/>
       <c r="M71" s="20"/>
       <c r="N71" s="20"/>
       <c r="O71" s="20"/>
       <c r="P71" s="20"/>
-      <c r="Q71" s="20"/>
+      <c r="Q71" s="49"/>
       <c r="R71" s="20"/>
       <c r="S71" s="20"/>
       <c r="T71" s="20"/>
       <c r="U71" s="20"/>
       <c r="V71" s="20"/>
+      <c r="W71" s="20"/>
+      <c r="X71" s="20"/>
     </row>
-    <row r="72" spans="1:22" ht="15.75" customHeight="1">
+    <row r="72" spans="1:24" ht="15.75" customHeight="1">
       <c r="A72" s="16" t="s">
         <v>119</v>
       </c>
@@ -8863,8 +12355,8 @@
       </c>
       <c r="H72" s="29"/>
       <c r="I72" s="29"/>
-      <c r="J72" s="29" t="s">
-        <v>128</v>
+      <c r="J72" s="50" t="s">
+        <v>161</v>
       </c>
       <c r="K72" s="29" t="s">
         <v>128</v>
@@ -8875,21 +12367,27 @@
       <c r="M72" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="N72" s="29"/>
+      <c r="N72" s="29" t="s">
+        <v>128</v>
+      </c>
       <c r="O72" s="29"/>
       <c r="P72" s="29"/>
-      <c r="Q72" s="29"/>
+      <c r="Q72" s="50" t="s">
+        <v>161</v>
+      </c>
       <c r="R72" s="29"/>
       <c r="S72" s="29"/>
       <c r="T72" s="29"/>
       <c r="U72" s="29"/>
       <c r="V72" s="29"/>
+      <c r="W72" s="29"/>
+      <c r="X72" s="29"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
-      <pane xSplit="2" ySplit="6" topLeftCell="M10" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
+      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
@@ -8897,19 +12395,19 @@
       <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
-      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
+      <pane xSplit="2" ySplit="6" topLeftCell="M10" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="6">
-    <mergeCell ref="W61:W62"/>
+    <mergeCell ref="Y61:Y62"/>
     <mergeCell ref="C5:H5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="P5:V5"/>
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="C2:O2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -8924,10 +12422,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -9039,40 +12537,42 @@
       </c>
       <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:5" ht="15">
+    <row r="8" spans="1:5" s="41" customFormat="1" ht="15">
       <c r="A8" s="23" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E8" s="24"/>
     </row>
     <row r="9" spans="1:5" ht="15">
       <c r="A9" s="23" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="24"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>95</v>
+      </c>
       <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:5" ht="15">
       <c r="A10" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>5</v>
@@ -9082,10 +12582,10 @@
     </row>
     <row r="11" spans="1:5" ht="15">
       <c r="A11" s="23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>5</v>
@@ -9095,25 +12595,23 @@
     </row>
     <row r="12" spans="1:5" ht="15">
       <c r="A12" s="23" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>94</v>
-      </c>
+      <c r="D12" s="24"/>
       <c r="E12" s="24"/>
     </row>
     <row r="13" spans="1:5" ht="15">
       <c r="A13" s="23" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>5</v>
@@ -9125,10 +12623,10 @@
     </row>
     <row r="14" spans="1:5" ht="15">
       <c r="A14" s="23" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>5</v>
@@ -9140,70 +12638,70 @@
     </row>
     <row r="15" spans="1:5" ht="15">
       <c r="A15" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:5" ht="15">
+    <row r="16" spans="1:5" s="41" customFormat="1" ht="15">
       <c r="A16" s="23" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="24"/>
     </row>
     <row r="17" spans="1:5" ht="15">
       <c r="A17" s="23" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:5" ht="15">
       <c r="A18" s="23" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E18" s="24"/>
     </row>
     <row r="19" spans="1:5" ht="15">
       <c r="A19" s="23" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>4</v>
@@ -9215,10 +12713,10 @@
     </row>
     <row r="20" spans="1:5" ht="15">
       <c r="A20" s="23" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>4</v>
@@ -9227,19 +12725,49 @@
         <v>94</v>
       </c>
       <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="1:5" ht="15">
+      <c r="A21" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="1:5" ht="15">
+      <c r="A22" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="24"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
-      <selection activeCell="B19" sqref="B19"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
+      <selection activeCell="B17" sqref="B17"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
       <selection activeCell="C7" sqref="C7"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
-      <selection activeCell="C7" sqref="C7"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
+      <selection activeCell="B19" sqref="B19"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -12,9 +12,9 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="2180" windowHeight="916" tabRatio="500" activeSheetId="2"/>
+    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" xWindow="-3" yWindow="54" windowWidth="2379" windowHeight="1295" tabRatio="500" activeSheetId="2" showStatusbar="0"/>
-    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="2180" windowHeight="916" tabRatio="500" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -923,6 +923,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -935,13 +942,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="159">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -7861,14 +7861,13 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="6">
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="5">
   <userInfo guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" name="Tatu Tarvainen" id="-130145201" dateTime="2016-09-06T09:10:23"/>
   <userInfo guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" name="Jarno Väyrynen" id="-589116405" dateTime="2016-09-06T12:54:09"/>
   <userInfo guid="{0407E191-78DA-F349-B5E5-8AE1BC03A29E}" name="Jarno Väyrynen" id="-589108428" dateTime="2016-09-08T15:33:24"/>
   <userInfo guid="{F8907045-3B30-0A43-A905-F167D27F9989}" name="Jarno Väyrynen" id="-589157736" dateTime="2016-09-27T15:27:41"/>
   <userInfo guid="{C606B059-99AC-3B47-8437-66D15B4E3D4B}" name="Jarno Väyrynen" id="-589137240" dateTime="2016-10-27T09:33:01"/>
-  <userInfo guid="{181E8EC1-A181-2D44-895D-D640E4B6F248}" name="Jarno Väyrynen" id="-589137904" dateTime="2017-01-04T13:30:56"/>
 </users>
 </file>
 
@@ -8236,40 +8235,40 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
@@ -8290,30 +8289,30 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1">
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="K5" s="44" t="s">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="K5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="R5" s="44" t="s">
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="R5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
       <c r="Y5" s="5" t="s">
         <v>14</v>
       </c>
@@ -9725,7 +9724,7 @@
       <c r="I28" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="J28" s="48" t="s">
+      <c r="J28" s="42" t="s">
         <v>160</v>
       </c>
       <c r="K28" s="17" t="s">
@@ -9744,7 +9743,7 @@
         <v>127</v>
       </c>
       <c r="P28" s="21"/>
-      <c r="Q28" s="48" t="s">
+      <c r="Q28" s="42" t="s">
         <v>160</v>
       </c>
       <c r="R28" s="21" t="s">
@@ -11914,7 +11913,7 @@
       <c r="X61" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Y61" s="42" t="s">
+      <c r="Y61" s="45" t="s">
         <v>60</v>
       </c>
     </row>
@@ -11989,7 +11988,7 @@
       <c r="X62" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Y62" s="43"/>
+      <c r="Y62" s="46"/>
     </row>
     <row r="63" spans="1:25" ht="15.75" customHeight="1">
       <c r="A63" s="26" t="s">
@@ -12319,14 +12318,14 @@
       <c r="G71" s="20"/>
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
-      <c r="J71" s="49"/>
+      <c r="J71" s="43"/>
       <c r="K71" s="20"/>
       <c r="L71" s="20"/>
       <c r="M71" s="20"/>
       <c r="N71" s="20"/>
       <c r="O71" s="20"/>
       <c r="P71" s="20"/>
-      <c r="Q71" s="49"/>
+      <c r="Q71" s="43"/>
       <c r="R71" s="20"/>
       <c r="S71" s="20"/>
       <c r="T71" s="20"/>
@@ -12355,7 +12354,7 @@
       </c>
       <c r="H72" s="29"/>
       <c r="I72" s="29"/>
-      <c r="J72" s="50" t="s">
+      <c r="J72" s="44" t="s">
         <v>161</v>
       </c>
       <c r="K72" s="29" t="s">
@@ -12372,7 +12371,7 @@
       </c>
       <c r="O72" s="29"/>
       <c r="P72" s="29"/>
-      <c r="Q72" s="50" t="s">
+      <c r="Q72" s="44" t="s">
         <v>161</v>
       </c>
       <c r="R72" s="29"/>
@@ -12385,9 +12384,9 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
-      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
+      <pane xSplit="2" ySplit="6" topLeftCell="M10" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
@@ -12395,9 +12394,9 @@
       <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
-      <pane xSplit="2" ySplit="6" topLeftCell="M10" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
+      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
@@ -12758,16 +12757,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
-      <selection activeCell="B17" sqref="B17"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
+      <selection activeCell="B19" sqref="B19"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
       <selection activeCell="C7" sqref="C7"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
-      <selection activeCell="B19" sqref="B19"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
+      <selection activeCell="B17" sqref="B17"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="0" windowWidth="47580" windowHeight="26980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-60" yWindow="0" windowWidth="47580" windowHeight="26980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,9 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" xWindow="-3" yWindow="54" windowWidth="2379" windowHeight="1295" tabRatio="500" activeSheetId="2" showStatusbar="0"/>
+    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="2180" windowHeight="916" tabRatio="500" activeSheetId="2"/>
-    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" xWindow="-3" yWindow="54" windowWidth="2379" windowHeight="1295" tabRatio="500" activeSheetId="2" showStatusbar="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="167">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t>ELY rakennuttajakonsultti</t>
+  </si>
+  <si>
+    <t>W+</t>
   </si>
 </sst>
 </file>
@@ -691,7 +694,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="159">
+  <cellStyleXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -851,8 +854,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -942,8 +947,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="159">
+  <cellStyles count="161">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1023,6 +1031,7 @@
     <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1102,6 +1111,7 @@
     <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1115,7 +1125,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{181E8EC1-A181-2D44-895D-D640E4B6F248}" diskRevisions="1" revisionId="304" version="35">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C8E2FDB6-435E-C040-B9F0-46C376A5EFB8}" diskRevisions="1" revisionId="306" version="36">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1320,6 +1330,12 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{C8E2FDB6-435E-C040-B9F0-46C376A5EFB8}" dateTime="2017-02-01T12:42:09" maxSheetId="3" userName="Jarno Väyrynen" r:id="rId36" minRId="305" maxRId="306">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -7165,6 +7181,59 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog35.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="305" sId="1" odxf="1" dxf="1">
+    <nc r="S72" t="inlineStr">
+      <is>
+        <t>W</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="R72" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="306" sId="1" odxf="1" dxf="1">
+    <nc r="R72" t="inlineStr">
+      <is>
+        <t>W+</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="5" sId="1" odxf="1" dxf="1">
@@ -7861,13 +7930,14 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="5">
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="6">
   <userInfo guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" name="Tatu Tarvainen" id="-130145201" dateTime="2016-09-06T09:10:23"/>
   <userInfo guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" name="Jarno Väyrynen" id="-589116405" dateTime="2016-09-06T12:54:09"/>
   <userInfo guid="{0407E191-78DA-F349-B5E5-8AE1BC03A29E}" name="Jarno Väyrynen" id="-589108428" dateTime="2016-09-08T15:33:24"/>
   <userInfo guid="{F8907045-3B30-0A43-A905-F167D27F9989}" name="Jarno Väyrynen" id="-589157736" dateTime="2016-09-27T15:27:41"/>
   <userInfo guid="{C606B059-99AC-3B47-8437-66D15B4E3D4B}" name="Jarno Väyrynen" id="-589137240" dateTime="2016-10-27T09:33:01"/>
+  <userInfo guid="{C8E2FDB6-435E-C040-B9F0-46C376A5EFB8}" name="Jarno Väyrynen" id="-589139215" dateTime="2017-02-01T12:41:16"/>
 </users>
 </file>
 
@@ -8195,11 +8265,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -12374,8 +12444,12 @@
       <c r="Q72" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="R72" s="29"/>
-      <c r="S72" s="29"/>
+      <c r="R72" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="S72" s="44" t="s">
+        <v>161</v>
+      </c>
       <c r="T72" s="29"/>
       <c r="U72" s="29"/>
       <c r="V72" s="29"/>
@@ -12384,9 +12458,9 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
-      <pane xSplit="2" ySplit="6" topLeftCell="M10" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
+      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
@@ -12394,9 +12468,9 @@
       <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
-      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
+      <pane xSplit="2" ySplit="6" topLeftCell="M10" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
@@ -12423,7 +12497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -12757,16 +12831,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
-      <selection activeCell="B19" sqref="B19"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
+      <selection activeCell="B17" sqref="B17"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
       <selection activeCell="C7" sqref="C7"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
-      <selection activeCell="B17" sqref="B17"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
+      <selection activeCell="B19" sqref="B19"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="167">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -1125,7 +1125,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C8E2FDB6-435E-C040-B9F0-46C376A5EFB8}" diskRevisions="1" revisionId="306" version="36">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{73C5A3F1-D661-114E-91EF-0474461FB0FF}" diskRevisions="1" revisionId="307" version="37">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1336,6 +1336,12 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{73C5A3F1-D661-114E-91EF-0474461FB0FF}" dateTime="2017-02-01T13:03:29" maxSheetId="3" userName="Jarno Väyrynen" r:id="rId37" minRId="307">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -7234,6 +7240,18 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog36.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="307" sId="1">
+    <nc r="U72" t="inlineStr">
+      <is>
+        <t>W</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="5" sId="1" odxf="1" dxf="1">
@@ -7930,14 +7948,14 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="6">
   <userInfo guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" name="Tatu Tarvainen" id="-130145201" dateTime="2016-09-06T09:10:23"/>
   <userInfo guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" name="Jarno Väyrynen" id="-589116405" dateTime="2016-09-06T12:54:09"/>
   <userInfo guid="{0407E191-78DA-F349-B5E5-8AE1BC03A29E}" name="Jarno Väyrynen" id="-589108428" dateTime="2016-09-08T15:33:24"/>
   <userInfo guid="{F8907045-3B30-0A43-A905-F167D27F9989}" name="Jarno Väyrynen" id="-589157736" dateTime="2016-09-27T15:27:41"/>
   <userInfo guid="{C606B059-99AC-3B47-8437-66D15B4E3D4B}" name="Jarno Väyrynen" id="-589137240" dateTime="2016-10-27T09:33:01"/>
-  <userInfo guid="{C8E2FDB6-435E-C040-B9F0-46C376A5EFB8}" name="Jarno Väyrynen" id="-589139215" dateTime="2017-02-01T12:41:16"/>
+  <userInfo guid="{73C5A3F1-D661-114E-91EF-0474461FB0FF}" name="Jarno Väyrynen" id="-589139215" dateTime="2017-02-01T12:41:16"/>
 </users>
 </file>
 
@@ -8266,10 +8284,10 @@
   <dimension ref="A1:Y72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C19" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20:XFD20"/>
+      <selection pane="bottomRight" activeCell="U72" sqref="U72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -12451,7 +12469,9 @@
         <v>161</v>
       </c>
       <c r="T72" s="29"/>
-      <c r="U72" s="29"/>
+      <c r="U72" s="29" t="s">
+        <v>161</v>
+      </c>
       <c r="V72" s="29"/>
       <c r="W72" s="29"/>
       <c r="X72" s="29"/>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarihan/Jari/Projektit/Harja/harja/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="0" windowWidth="47580" windowHeight="26980" tabRatio="500"/>
+    <workbookView xWindow="3420" yWindow="1940" windowWidth="43600" windowHeight="19860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -12,16 +17,16 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="2180" windowHeight="891" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" xWindow="-3" yWindow="54" windowWidth="2379" windowHeight="1295" tabRatio="500" activeSheetId="2" showStatusbar="0"/>
-    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="2180" windowHeight="916" tabRatio="500" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -61,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="168">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -562,6 +567,9 @@
   </si>
   <si>
     <t>W+</t>
+  </si>
+  <si>
+    <t>Yhteydenpito</t>
   </si>
 </sst>
 </file>
@@ -857,7 +865,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -935,6 +943,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -947,9 +959,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="161">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1125,7 +1134,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{73C5A3F1-D661-114E-91EF-0474461FB0FF}" diskRevisions="1" revisionId="307" version="37">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C07F9140-3295-A14D-AED0-C4CE9E873F08}" diskRevisions="1" revisionId="311" version="38">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1342,6 +1351,12 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{C07F9140-3295-A14D-AED0-C4CE9E873F08}" dateTime="2017-02-16T15:22:24" maxSheetId="3" userName="Microsoft Office User" r:id="rId38" minRId="308" maxRId="311">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -7252,6 +7267,35 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog37.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="308" sId="1" ref="A69:XFD69" action="insertRow"/>
+  <rcc rId="309" sId="1">
+    <nc r="A69" t="inlineStr">
+      <is>
+        <t>Hallinta</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="310" sId="1">
+    <nc r="B69" t="inlineStr">
+      <is>
+        <t>Yhteydenpito</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="311" sId="1">
+    <nc r="D69" t="inlineStr">
+      <is>
+        <t>R*,W*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="delete"/>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="5" sId="1" odxf="1" dxf="1">
@@ -7948,7 +7992,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="6">
   <userInfo guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" name="Tatu Tarvainen" id="-130145201" dateTime="2016-09-06T09:10:23"/>
   <userInfo guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" name="Jarno Väyrynen" id="-589116405" dateTime="2016-09-06T12:54:09"/>
@@ -8281,16 +8325,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y72"/>
+  <dimension ref="A1:Y73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C19" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C50" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="U72" sqref="U72"/>
+      <selection pane="bottomRight" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
@@ -8318,47 +8362,47 @@
     <col min="25" max="25" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="24" customHeight="1">
+    <row r="1" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -8373,39 +8417,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1">
-      <c r="C5" s="47" t="s">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="K5" s="47" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="K5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="R5" s="47" t="s">
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="R5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
       <c r="Y5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -8477,7 +8521,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
@@ -8550,7 +8594,7 @@
       </c>
       <c r="Y7" s="10"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
@@ -8609,7 +8653,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
@@ -8662,7 +8706,7 @@
       <c r="X9" s="17"/>
       <c r="Y9" s="10"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
@@ -8715,7 +8759,7 @@
       <c r="X10" s="17"/>
       <c r="Y10" s="10"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>15</v>
       </c>
@@ -8782,7 +8826,7 @@
       <c r="X11" s="17"/>
       <c r="Y11" s="10"/>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -8849,7 +8893,7 @@
       <c r="X12" s="17"/>
       <c r="Y12" s="10"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
@@ -8904,7 +8948,7 @@
       <c r="X13" s="17"/>
       <c r="Y13" s="10"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
         <v>15</v>
       </c>
@@ -8959,7 +9003,7 @@
       <c r="X14" s="17"/>
       <c r="Y14" s="10"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
@@ -9014,7 +9058,7 @@
       <c r="X15" s="17"/>
       <c r="Y15" s="10"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
@@ -9081,7 +9125,7 @@
       <c r="X16" s="17"/>
       <c r="Y16" s="10"/>
     </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1">
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -9148,7 +9192,7 @@
       <c r="X17" s="17"/>
       <c r="Y17" s="10"/>
     </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1">
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>15</v>
       </c>
@@ -9203,7 +9247,7 @@
       <c r="X18" s="17"/>
       <c r="Y18" s="10"/>
     </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1">
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
@@ -9270,7 +9314,7 @@
       <c r="X19" s="17"/>
       <c r="Y19" s="10"/>
     </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1">
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>15</v>
       </c>
@@ -9343,7 +9387,7 @@
       </c>
       <c r="Y20" s="10"/>
     </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1">
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="26" t="s">
         <v>15</v>
       </c>
@@ -9416,7 +9460,7 @@
       </c>
       <c r="Y21" s="10"/>
     </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1">
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="26" t="s">
         <v>15</v>
       </c>
@@ -9487,7 +9531,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1">
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="26" t="s">
         <v>15</v>
       </c>
@@ -9556,7 +9600,7 @@
       <c r="X23" s="21"/>
       <c r="Y23" s="10"/>
     </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1">
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="26" t="s">
         <v>15</v>
       </c>
@@ -9625,7 +9669,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="26" t="s">
         <v>15</v>
       </c>
@@ -9686,7 +9730,7 @@
       <c r="X25" s="21"/>
       <c r="Y25" s="10"/>
     </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="26" t="s">
         <v>15</v>
       </c>
@@ -9739,7 +9783,7 @@
       <c r="X26" s="21"/>
       <c r="Y26" s="10"/>
     </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1">
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="26" t="s">
         <v>15</v>
       </c>
@@ -9786,7 +9830,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1">
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="26" t="s">
         <v>15</v>
       </c>
@@ -9855,7 +9899,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1">
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="26" t="s">
         <v>15</v>
       </c>
@@ -9918,7 +9962,7 @@
       <c r="X29" s="21"/>
       <c r="Y29" s="10"/>
     </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="26" t="s">
         <v>15</v>
       </c>
@@ -9983,7 +10027,7 @@
       <c r="X30" s="21"/>
       <c r="Y30" s="10"/>
     </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="26" t="s">
         <v>15</v>
       </c>
@@ -10046,7 +10090,7 @@
       <c r="X31" s="21"/>
       <c r="Y31" s="10"/>
     </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="26" t="s">
         <v>15</v>
       </c>
@@ -10109,7 +10153,7 @@
       <c r="X32" s="21"/>
       <c r="Y32" s="10"/>
     </row>
-    <row r="33" spans="1:25" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="33" spans="1:25" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="26" t="s">
         <v>15</v>
       </c>
@@ -10171,7 +10215,7 @@
       <c r="W33" s="21"/>
       <c r="X33" s="21"/>
     </row>
-    <row r="34" spans="1:25" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="34" spans="1:25" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="26" t="s">
         <v>15</v>
       </c>
@@ -10233,7 +10277,7 @@
       <c r="W34" s="21"/>
       <c r="X34" s="21"/>
     </row>
-    <row r="35" spans="1:25" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="35" spans="1:25" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="26" t="s">
         <v>15</v>
       </c>
@@ -10295,7 +10339,7 @@
       <c r="W35" s="21"/>
       <c r="X35" s="21"/>
     </row>
-    <row r="36" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1">
+    <row r="36" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="26" t="s">
         <v>15</v>
       </c>
@@ -10368,7 +10412,7 @@
       </c>
       <c r="Y36" s="12"/>
     </row>
-    <row r="37" spans="1:25" s="31" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:25" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="26" t="s">
         <v>43</v>
       </c>
@@ -10421,7 +10465,7 @@
       <c r="X37" s="21"/>
       <c r="Y37" s="30"/>
     </row>
-    <row r="38" spans="1:25" ht="15.75" customHeight="1">
+    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="26" t="s">
         <v>43</v>
       </c>
@@ -10476,7 +10520,7 @@
       <c r="X38" s="21"/>
       <c r="Y38" s="10"/>
     </row>
-    <row r="39" spans="1:25" ht="15.75" customHeight="1">
+    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="26" t="s">
         <v>43</v>
       </c>
@@ -10547,7 +10591,7 @@
       </c>
       <c r="Y39" s="10"/>
     </row>
-    <row r="40" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
+    <row r="40" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="26" t="s">
         <v>43</v>
       </c>
@@ -10620,7 +10664,7 @@
       </c>
       <c r="Y40" s="36"/>
     </row>
-    <row r="41" spans="1:25" ht="15.75" customHeight="1">
+    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="26" t="s">
         <v>43</v>
       </c>
@@ -10691,7 +10735,7 @@
       </c>
       <c r="Y41" s="10"/>
     </row>
-    <row r="42" spans="1:25" ht="15.75" customHeight="1">
+    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="26" t="s">
         <v>43</v>
       </c>
@@ -10762,7 +10806,7 @@
       </c>
       <c r="Y42" s="10"/>
     </row>
-    <row r="43" spans="1:25" ht="15.75" customHeight="1">
+    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26" t="s">
         <v>43</v>
       </c>
@@ -10833,7 +10877,7 @@
       </c>
       <c r="Y43" s="10"/>
     </row>
-    <row r="44" spans="1:25" s="40" customFormat="1" ht="15.75" customHeight="1">
+    <row r="44" spans="1:25" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="26" t="s">
         <v>43</v>
       </c>
@@ -10904,7 +10948,7 @@
       </c>
       <c r="Y44" s="39"/>
     </row>
-    <row r="45" spans="1:25" ht="15.75" customHeight="1">
+    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="26" t="s">
         <v>43</v>
       </c>
@@ -10975,7 +11019,7 @@
       </c>
       <c r="Y45" s="10"/>
     </row>
-    <row r="46" spans="1:25" ht="15.75" customHeight="1">
+    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="26" t="s">
         <v>43</v>
       </c>
@@ -11044,7 +11088,7 @@
       </c>
       <c r="Y46" s="10"/>
     </row>
-    <row r="47" spans="1:25" ht="15.75" customHeight="1">
+    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="26" t="s">
         <v>43</v>
       </c>
@@ -11115,7 +11159,7 @@
       </c>
       <c r="Y47" s="10"/>
     </row>
-    <row r="48" spans="1:25" ht="15.75" customHeight="1">
+    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="26" t="s">
         <v>43</v>
       </c>
@@ -11178,7 +11222,7 @@
       </c>
       <c r="Y48" s="10"/>
     </row>
-    <row r="49" spans="1:25" ht="15.75" customHeight="1">
+    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="26" t="s">
         <v>43</v>
       </c>
@@ -11235,7 +11279,7 @@
       <c r="X49" s="21"/>
       <c r="Y49" s="10"/>
     </row>
-    <row r="50" spans="1:25" ht="15.75" customHeight="1">
+    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="26" t="s">
         <v>43</v>
       </c>
@@ -11288,7 +11332,7 @@
       <c r="X50" s="21"/>
       <c r="Y50" s="10"/>
     </row>
-    <row r="51" spans="1:25" ht="15.75" customHeight="1">
+    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="26" t="s">
         <v>43</v>
       </c>
@@ -11341,7 +11385,7 @@
       <c r="X51" s="21"/>
       <c r="Y51" s="10"/>
     </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="26" t="s">
         <v>43</v>
       </c>
@@ -11394,7 +11438,7 @@
       <c r="X52" s="21"/>
       <c r="Y52" s="10"/>
     </row>
-    <row r="53" spans="1:25" s="28" customFormat="1" ht="15.75" customHeight="1">
+    <row r="53" spans="1:25" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="26" t="s">
         <v>43</v>
       </c>
@@ -11463,7 +11507,7 @@
       </c>
       <c r="Y53" s="27"/>
     </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="26" t="s">
         <v>43</v>
       </c>
@@ -11534,7 +11578,7 @@
       </c>
       <c r="Y54" s="10"/>
     </row>
-    <row r="55" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
+    <row r="55" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="26" t="s">
         <v>43</v>
       </c>
@@ -11603,7 +11647,7 @@
       <c r="X55" s="21"/>
       <c r="Y55" s="36"/>
     </row>
-    <row r="56" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
+    <row r="56" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="26" t="s">
         <v>43</v>
       </c>
@@ -11672,7 +11716,7 @@
       <c r="X56" s="21"/>
       <c r="Y56" s="36"/>
     </row>
-    <row r="57" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
+    <row r="57" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="26" t="s">
         <v>43</v>
       </c>
@@ -11741,7 +11785,7 @@
       <c r="X57" s="21"/>
       <c r="Y57" s="36"/>
     </row>
-    <row r="58" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
+    <row r="58" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="26" t="s">
         <v>43</v>
       </c>
@@ -11810,7 +11854,7 @@
       <c r="X58" s="21"/>
       <c r="Y58" s="36"/>
     </row>
-    <row r="59" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
+    <row r="59" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="26" t="s">
         <v>43</v>
       </c>
@@ -11879,7 +11923,7 @@
       <c r="X59" s="21"/>
       <c r="Y59" s="36"/>
     </row>
-    <row r="60" spans="1:25" s="34" customFormat="1" ht="15.75" customHeight="1">
+    <row r="60" spans="1:25" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="26" t="s">
         <v>43</v>
       </c>
@@ -11930,7 +11974,7 @@
       <c r="X60" s="21"/>
       <c r="Y60" s="33"/>
     </row>
-    <row r="61" spans="1:25" ht="15.75" customHeight="1">
+    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="26" t="s">
         <v>58</v>
       </c>
@@ -12001,11 +12045,11 @@
       <c r="X61" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Y61" s="45" t="s">
+      <c r="Y61" s="47" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="15.75" customHeight="1">
+    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="26" t="s">
         <v>58</v>
       </c>
@@ -12076,9 +12120,9 @@
       <c r="X62" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Y62" s="46"/>
+      <c r="Y62" s="48"/>
     </row>
-    <row r="63" spans="1:25" ht="15.75" customHeight="1">
+    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="26" t="s">
         <v>62</v>
       </c>
@@ -12151,7 +12195,7 @@
       </c>
       <c r="Y63" s="10"/>
     </row>
-    <row r="64" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1">
+    <row r="64" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="18" t="s">
         <v>63</v>
       </c>
@@ -12186,7 +12230,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="15.75" customHeight="1">
+    <row r="65" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="16" t="s">
         <v>63</v>
       </c>
@@ -12230,7 +12274,7 @@
       <c r="W65" s="17"/>
       <c r="X65" s="17"/>
     </row>
-    <row r="66" spans="1:24" ht="15.75" customHeight="1">
+    <row r="66" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="16" t="s">
         <v>63</v>
       </c>
@@ -12262,7 +12306,7 @@
       <c r="W66" s="17"/>
       <c r="X66" s="17"/>
     </row>
-    <row r="67" spans="1:24" ht="15.75" customHeight="1">
+    <row r="67" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="16" t="s">
         <v>63</v>
       </c>
@@ -12294,7 +12338,7 @@
       <c r="W67" s="17"/>
       <c r="X67" s="17"/>
     </row>
-    <row r="68" spans="1:24" ht="15.75" customHeight="1">
+    <row r="68" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="16" t="s">
         <v>63</v>
       </c>
@@ -12326,12 +12370,12 @@
       <c r="W68" s="17"/>
       <c r="X68" s="17"/>
     </row>
-    <row r="69" spans="1:24" s="35" customFormat="1" ht="15.75" customHeight="1">
+    <row r="69" spans="1:24" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="C69" s="17"/>
       <c r="D69" s="21" t="s">
@@ -12358,12 +12402,12 @@
       <c r="W69" s="17"/>
       <c r="X69" s="17"/>
     </row>
-    <row r="70" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1">
+    <row r="70" spans="1:24" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="C70" s="17"/>
       <c r="D70" s="21" t="s">
@@ -12390,107 +12434,142 @@
       <c r="W70" s="17"/>
       <c r="X70" s="17"/>
     </row>
-    <row r="71" spans="1:24" ht="15.75" customHeight="1">
+    <row r="71" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="16" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C71" s="20"/>
+        <v>124</v>
+      </c>
+      <c r="C71" s="17"/>
       <c r="D71" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="43"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="20"/>
-      <c r="N71" s="20"/>
-      <c r="O71" s="20"/>
-      <c r="P71" s="20"/>
-      <c r="Q71" s="43"/>
-      <c r="R71" s="20"/>
-      <c r="S71" s="20"/>
-      <c r="T71" s="20"/>
-      <c r="U71" s="20"/>
-      <c r="V71" s="20"/>
-      <c r="W71" s="20"/>
-      <c r="X71" s="20"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="17"/>
+      <c r="S71" s="17"/>
+      <c r="T71" s="17"/>
+      <c r="U71" s="17"/>
+      <c r="V71" s="17"/>
+      <c r="W71" s="17"/>
+      <c r="X71" s="17"/>
     </row>
-    <row r="72" spans="1:24" ht="15.75" customHeight="1">
+    <row r="72" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="16" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C72" s="20"/>
       <c r="D72" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="20"/>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="43"/>
+      <c r="R72" s="20"/>
+      <c r="S72" s="20"/>
+      <c r="T72" s="20"/>
+      <c r="U72" s="20"/>
+      <c r="V72" s="20"/>
+      <c r="W72" s="20"/>
+      <c r="X72" s="20"/>
+    </row>
+    <row r="73" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73" s="20"/>
+      <c r="D73" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E72" s="29" t="s">
+      <c r="E73" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29" t="s">
+      <c r="F73" s="29"/>
+      <c r="G73" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="H72" s="29"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="44" t="s">
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="K72" s="29" t="s">
+      <c r="K73" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="L72" s="29" t="s">
+      <c r="L73" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="M72" s="29" t="s">
+      <c r="M73" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="N72" s="29" t="s">
+      <c r="N73" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="O72" s="29"/>
-      <c r="P72" s="29"/>
-      <c r="Q72" s="44" t="s">
+      <c r="O73" s="29"/>
+      <c r="P73" s="29"/>
+      <c r="Q73" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="R72" s="51" t="s">
+      <c r="R73" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="S72" s="44" t="s">
+      <c r="S73" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="T72" s="29"/>
-      <c r="U72" s="29" t="s">
+      <c r="T73" s="29"/>
+      <c r="U73" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="V72" s="29"/>
-      <c r="W72" s="29"/>
-      <c r="X72" s="29"/>
+      <c r="V73" s="29"/>
+      <c r="W73" s="29"/>
+      <c r="X73" s="29"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
-      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
+      <pane xSplit="2" ySplit="6" topLeftCell="C50" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
       <pane xSplit="2" ySplit="6.0384615384615383" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
-      <pane xSplit="2" ySplit="6" topLeftCell="M10" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
+      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
@@ -12502,14 +12581,9 @@
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="C2:O2"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -12518,10 +12592,10 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" customWidth="1"/>
@@ -12529,7 +12603,7 @@
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>70</v>
       </c>
@@ -12546,7 +12620,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>73</v>
       </c>
@@ -12559,7 +12633,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="15">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>75</v>
       </c>
@@ -12572,7 +12646,7 @@
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="1:5" ht="15">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>77</v>
       </c>
@@ -12585,7 +12659,7 @@
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="1:5" ht="15">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>96</v>
       </c>
@@ -12600,7 +12674,7 @@
       </c>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:5" ht="15">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>97</v>
       </c>
@@ -12615,7 +12689,7 @@
       </c>
       <c r="E6" s="24"/>
     </row>
-    <row r="7" spans="1:5" ht="15">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>98</v>
       </c>
@@ -12630,7 +12704,7 @@
       </c>
       <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:5" s="41" customFormat="1" ht="15">
+    <row r="8" spans="1:5" s="41" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>163</v>
       </c>
@@ -12645,7 +12719,7 @@
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:5" ht="15">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>99</v>
       </c>
@@ -12660,7 +12734,7 @@
       </c>
       <c r="E9" s="24"/>
     </row>
-    <row r="10" spans="1:5" ht="15">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>108</v>
       </c>
@@ -12673,7 +12747,7 @@
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
     </row>
-    <row r="11" spans="1:5" ht="15">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>107</v>
       </c>
@@ -12686,7 +12760,7 @@
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
-    <row r="12" spans="1:5" ht="15">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>106</v>
       </c>
@@ -12699,7 +12773,7 @@
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:5" ht="15">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>100</v>
       </c>
@@ -12714,7 +12788,7 @@
       </c>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:5" ht="15">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>105</v>
       </c>
@@ -12729,7 +12803,7 @@
       </c>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:5" ht="15">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>101</v>
       </c>
@@ -12744,7 +12818,7 @@
       </c>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:5" s="41" customFormat="1" ht="15">
+    <row r="16" spans="1:5" s="41" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>162</v>
       </c>
@@ -12759,7 +12833,7 @@
       </c>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="1:5" ht="15">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>102</v>
       </c>
@@ -12774,7 +12848,7 @@
       </c>
       <c r="E17" s="24"/>
     </row>
-    <row r="18" spans="1:5" ht="15">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>103</v>
       </c>
@@ -12789,7 +12863,7 @@
       </c>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" ht="15">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>122</v>
       </c>
@@ -12804,7 +12878,7 @@
       </c>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" ht="15">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>12</v>
       </c>
@@ -12819,7 +12893,7 @@
       </c>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" ht="15">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>13</v>
       </c>
@@ -12834,7 +12908,7 @@
       </c>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" ht="15">
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>104</v>
       </c>
@@ -12851,25 +12925,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
-      <selection activeCell="B17" sqref="B17"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
+      <selection activeCell="G36" sqref="G36"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
       <selection activeCell="C7" sqref="C7"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
-      <selection activeCell="B19" sqref="B19"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
+      <selection activeCell="B17" sqref="B17"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarihan/Jari/Projektit/Harja/harja/resources/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="1940" windowWidth="43600" windowHeight="19860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -17,16 +12,16 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
+    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="2180" windowHeight="891" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" xWindow="-3" yWindow="54" windowWidth="2379" windowHeight="1295" tabRatio="500" activeSheetId="2" showStatusbar="0"/>
   </customWorkbookViews>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -66,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="170">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -570,6 +565,12 @@
   </si>
   <si>
     <t>Yhteydenpito</t>
+  </si>
+  <si>
+    <t>R,W,TM-valmis</t>
+  </si>
+  <si>
+    <t>R+,W+,TM-valmis</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1135,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C07F9140-3295-A14D-AED0-C4CE9E873F08}" diskRevisions="1" revisionId="311" version="38">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{20D72FDE-B37A-954B-96C9-CC76E718E9F1}" diskRevisions="1" revisionId="313" version="39">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1357,6 +1358,12 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{20D72FDE-B37A-954B-96C9-CC76E718E9F1}" dateTime="2017-03-02T10:37:41" maxSheetId="3" userName="Jarno Väyrynen" r:id="rId39" minRId="312" maxRId="313">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -7296,6 +7303,37 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog38.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="312" sId="1">
+    <oc r="S28" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </oc>
+    <nc r="S28" t="inlineStr">
+      <is>
+        <t>R,W,TM-valmis</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="313" sId="1">
+    <oc r="R28" t="inlineStr">
+      <is>
+        <t>R+,W+</t>
+      </is>
+    </oc>
+    <nc r="R28" t="inlineStr">
+      <is>
+        <t>R+,W+,TM-valmis</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="delete"/>
+  <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="5" sId="1" odxf="1" dxf="1">
@@ -7993,13 +8031,14 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="6">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="7">
   <userInfo guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" name="Tatu Tarvainen" id="-130145201" dateTime="2016-09-06T09:10:23"/>
   <userInfo guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" name="Jarno Väyrynen" id="-589116405" dateTime="2016-09-06T12:54:09"/>
   <userInfo guid="{0407E191-78DA-F349-B5E5-8AE1BC03A29E}" name="Jarno Väyrynen" id="-589108428" dateTime="2016-09-08T15:33:24"/>
   <userInfo guid="{F8907045-3B30-0A43-A905-F167D27F9989}" name="Jarno Väyrynen" id="-589157736" dateTime="2016-09-27T15:27:41"/>
   <userInfo guid="{C606B059-99AC-3B47-8437-66D15B4E3D4B}" name="Jarno Väyrynen" id="-589137240" dateTime="2016-10-27T09:33:01"/>
   <userInfo guid="{73C5A3F1-D661-114E-91EF-0474461FB0FF}" name="Jarno Väyrynen" id="-589139215" dateTime="2017-02-01T12:41:16"/>
+  <userInfo guid="{20D72FDE-B37A-954B-96C9-CC76E718E9F1}" name="Jarno Väyrynen" id="-589140570" dateTime="2017-03-02T10:49:07"/>
 </users>
 </file>
 
@@ -8327,14 +8366,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C50" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D63" sqref="D63"/>
+      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
@@ -8362,7 +8401,7 @@
     <col min="25" max="25" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" ht="24" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -8383,7 +8422,7 @@
       <c r="N1" s="51"/>
       <c r="O1" s="51"/>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="52" t="s">
@@ -8402,7 +8441,7 @@
       <c r="N2" s="48"/>
       <c r="O2" s="48"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -8417,10 +8456,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1">
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1">
       <c r="C5" s="49" t="s">
         <v>6</v>
       </c>
@@ -8449,7 +8488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -8521,7 +8560,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
@@ -8594,7 +8633,7 @@
       </c>
       <c r="Y7" s="10"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1">
       <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
@@ -8653,7 +8692,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
@@ -8706,7 +8745,7 @@
       <c r="X9" s="17"/>
       <c r="Y9" s="10"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
@@ -8759,7 +8798,7 @@
       <c r="X10" s="17"/>
       <c r="Y10" s="10"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>15</v>
       </c>
@@ -8826,7 +8865,7 @@
       <c r="X11" s="17"/>
       <c r="Y11" s="10"/>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -8893,7 +8932,7 @@
       <c r="X12" s="17"/>
       <c r="Y12" s="10"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1">
       <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
@@ -8948,7 +8987,7 @@
       <c r="X13" s="17"/>
       <c r="Y13" s="10"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1">
       <c r="A14" s="16" t="s">
         <v>15</v>
       </c>
@@ -9003,7 +9042,7 @@
       <c r="X14" s="17"/>
       <c r="Y14" s="10"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1">
       <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
@@ -9058,7 +9097,7 @@
       <c r="X15" s="17"/>
       <c r="Y15" s="10"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1">
       <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
@@ -9125,7 +9164,7 @@
       <c r="X16" s="17"/>
       <c r="Y16" s="10"/>
     </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:25" ht="15.75" customHeight="1">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -9192,7 +9231,7 @@
       <c r="X17" s="17"/>
       <c r="Y17" s="10"/>
     </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:25" ht="15.75" customHeight="1">
       <c r="A18" s="16" t="s">
         <v>15</v>
       </c>
@@ -9247,7 +9286,7 @@
       <c r="X18" s="17"/>
       <c r="Y18" s="10"/>
     </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:25" ht="15.75" customHeight="1">
       <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
@@ -9314,7 +9353,7 @@
       <c r="X19" s="17"/>
       <c r="Y19" s="10"/>
     </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:25" ht="15.75" customHeight="1">
       <c r="A20" s="16" t="s">
         <v>15</v>
       </c>
@@ -9387,7 +9426,7 @@
       </c>
       <c r="Y20" s="10"/>
     </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:25" ht="15.75" customHeight="1">
       <c r="A21" s="26" t="s">
         <v>15</v>
       </c>
@@ -9460,7 +9499,7 @@
       </c>
       <c r="Y21" s="10"/>
     </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:25" ht="15.75" customHeight="1">
       <c r="A22" s="26" t="s">
         <v>15</v>
       </c>
@@ -9531,7 +9570,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:25" ht="15.75" customHeight="1">
       <c r="A23" s="26" t="s">
         <v>15</v>
       </c>
@@ -9600,7 +9639,7 @@
       <c r="X23" s="21"/>
       <c r="Y23" s="10"/>
     </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:25" ht="15.75" customHeight="1">
       <c r="A24" s="26" t="s">
         <v>15</v>
       </c>
@@ -9669,7 +9708,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1">
       <c r="A25" s="26" t="s">
         <v>15</v>
       </c>
@@ -9730,7 +9769,7 @@
       <c r="X25" s="21"/>
       <c r="Y25" s="10"/>
     </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1">
       <c r="A26" s="26" t="s">
         <v>15</v>
       </c>
@@ -9783,7 +9822,7 @@
       <c r="X26" s="21"/>
       <c r="Y26" s="10"/>
     </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:25" ht="15.75" customHeight="1">
       <c r="A27" s="26" t="s">
         <v>15</v>
       </c>
@@ -9830,7 +9869,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:25" ht="15.75" customHeight="1">
       <c r="A28" s="26" t="s">
         <v>15</v>
       </c>
@@ -9879,10 +9918,10 @@
         <v>160</v>
       </c>
       <c r="R28" s="21" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="S28" s="21" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="T28" s="21" t="s">
         <v>131</v>
@@ -9899,7 +9938,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:25" ht="15.75" customHeight="1">
       <c r="A29" s="26" t="s">
         <v>15</v>
       </c>
@@ -9962,7 +10001,7 @@
       <c r="X29" s="21"/>
       <c r="Y29" s="10"/>
     </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1">
       <c r="A30" s="26" t="s">
         <v>15</v>
       </c>
@@ -10027,7 +10066,7 @@
       <c r="X30" s="21"/>
       <c r="Y30" s="10"/>
     </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1">
       <c r="A31" s="26" t="s">
         <v>15</v>
       </c>
@@ -10090,7 +10129,7 @@
       <c r="X31" s="21"/>
       <c r="Y31" s="10"/>
     </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1">
       <c r="A32" s="26" t="s">
         <v>15</v>
       </c>
@@ -10153,7 +10192,7 @@
       <c r="X32" s="21"/>
       <c r="Y32" s="10"/>
     </row>
-    <row r="33" spans="1:25" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:25" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A33" s="26" t="s">
         <v>15</v>
       </c>
@@ -10215,7 +10254,7 @@
       <c r="W33" s="21"/>
       <c r="X33" s="21"/>
     </row>
-    <row r="34" spans="1:25" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:25" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A34" s="26" t="s">
         <v>15</v>
       </c>
@@ -10277,7 +10316,7 @@
       <c r="W34" s="21"/>
       <c r="X34" s="21"/>
     </row>
-    <row r="35" spans="1:25" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:25" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A35" s="26" t="s">
         <v>15</v>
       </c>
@@ -10339,7 +10378,7 @@
       <c r="W35" s="21"/>
       <c r="X35" s="21"/>
     </row>
-    <row r="36" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A36" s="26" t="s">
         <v>15</v>
       </c>
@@ -10412,7 +10451,7 @@
       </c>
       <c r="Y36" s="12"/>
     </row>
-    <row r="37" spans="1:25" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:25" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A37" s="26" t="s">
         <v>43</v>
       </c>
@@ -10465,7 +10504,7 @@
       <c r="X37" s="21"/>
       <c r="Y37" s="30"/>
     </row>
-    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:25" ht="15.75" customHeight="1">
       <c r="A38" s="26" t="s">
         <v>43</v>
       </c>
@@ -10520,7 +10559,7 @@
       <c r="X38" s="21"/>
       <c r="Y38" s="10"/>
     </row>
-    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:25" ht="15.75" customHeight="1">
       <c r="A39" s="26" t="s">
         <v>43</v>
       </c>
@@ -10591,7 +10630,7 @@
       </c>
       <c r="Y39" s="10"/>
     </row>
-    <row r="40" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A40" s="26" t="s">
         <v>43</v>
       </c>
@@ -10664,7 +10703,7 @@
       </c>
       <c r="Y40" s="36"/>
     </row>
-    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:25" ht="15.75" customHeight="1">
       <c r="A41" s="26" t="s">
         <v>43</v>
       </c>
@@ -10735,7 +10774,7 @@
       </c>
       <c r="Y41" s="10"/>
     </row>
-    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:25" ht="15.75" customHeight="1">
       <c r="A42" s="26" t="s">
         <v>43</v>
       </c>
@@ -10806,7 +10845,7 @@
       </c>
       <c r="Y42" s="10"/>
     </row>
-    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:25" ht="15.75" customHeight="1">
       <c r="A43" s="26" t="s">
         <v>43</v>
       </c>
@@ -10877,7 +10916,7 @@
       </c>
       <c r="Y43" s="10"/>
     </row>
-    <row r="44" spans="1:25" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:25" s="40" customFormat="1" ht="15.75" customHeight="1">
       <c r="A44" s="26" t="s">
         <v>43</v>
       </c>
@@ -10948,7 +10987,7 @@
       </c>
       <c r="Y44" s="39"/>
     </row>
-    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:25" ht="15.75" customHeight="1">
       <c r="A45" s="26" t="s">
         <v>43</v>
       </c>
@@ -11019,7 +11058,7 @@
       </c>
       <c r="Y45" s="10"/>
     </row>
-    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:25" ht="15.75" customHeight="1">
       <c r="A46" s="26" t="s">
         <v>43</v>
       </c>
@@ -11088,7 +11127,7 @@
       </c>
       <c r="Y46" s="10"/>
     </row>
-    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:25" ht="15.75" customHeight="1">
       <c r="A47" s="26" t="s">
         <v>43</v>
       </c>
@@ -11159,7 +11198,7 @@
       </c>
       <c r="Y47" s="10"/>
     </row>
-    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:25" ht="15.75" customHeight="1">
       <c r="A48" s="26" t="s">
         <v>43</v>
       </c>
@@ -11222,7 +11261,7 @@
       </c>
       <c r="Y48" s="10"/>
     </row>
-    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:25" ht="15.75" customHeight="1">
       <c r="A49" s="26" t="s">
         <v>43</v>
       </c>
@@ -11279,7 +11318,7 @@
       <c r="X49" s="21"/>
       <c r="Y49" s="10"/>
     </row>
-    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:25" ht="15.75" customHeight="1">
       <c r="A50" s="26" t="s">
         <v>43</v>
       </c>
@@ -11332,7 +11371,7 @@
       <c r="X50" s="21"/>
       <c r="Y50" s="10"/>
     </row>
-    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:25" ht="15.75" customHeight="1">
       <c r="A51" s="26" t="s">
         <v>43</v>
       </c>
@@ -11385,7 +11424,7 @@
       <c r="X51" s="21"/>
       <c r="Y51" s="10"/>
     </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1">
       <c r="A52" s="26" t="s">
         <v>43</v>
       </c>
@@ -11438,7 +11477,7 @@
       <c r="X52" s="21"/>
       <c r="Y52" s="10"/>
     </row>
-    <row r="53" spans="1:25" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:25" s="28" customFormat="1" ht="15.75" customHeight="1">
       <c r="A53" s="26" t="s">
         <v>43</v>
       </c>
@@ -11507,7 +11546,7 @@
       </c>
       <c r="Y53" s="27"/>
     </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1">
       <c r="A54" s="26" t="s">
         <v>43</v>
       </c>
@@ -11578,7 +11617,7 @@
       </c>
       <c r="Y54" s="10"/>
     </row>
-    <row r="55" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A55" s="26" t="s">
         <v>43</v>
       </c>
@@ -11647,7 +11686,7 @@
       <c r="X55" s="21"/>
       <c r="Y55" s="36"/>
     </row>
-    <row r="56" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A56" s="26" t="s">
         <v>43</v>
       </c>
@@ -11716,7 +11755,7 @@
       <c r="X56" s="21"/>
       <c r="Y56" s="36"/>
     </row>
-    <row r="57" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A57" s="26" t="s">
         <v>43</v>
       </c>
@@ -11785,7 +11824,7 @@
       <c r="X57" s="21"/>
       <c r="Y57" s="36"/>
     </row>
-    <row r="58" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A58" s="26" t="s">
         <v>43</v>
       </c>
@@ -11854,7 +11893,7 @@
       <c r="X58" s="21"/>
       <c r="Y58" s="36"/>
     </row>
-    <row r="59" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A59" s="26" t="s">
         <v>43</v>
       </c>
@@ -11923,7 +11962,7 @@
       <c r="X59" s="21"/>
       <c r="Y59" s="36"/>
     </row>
-    <row r="60" spans="1:25" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:25" s="34" customFormat="1" ht="15.75" customHeight="1">
       <c r="A60" s="26" t="s">
         <v>43</v>
       </c>
@@ -11974,7 +12013,7 @@
       <c r="X60" s="21"/>
       <c r="Y60" s="33"/>
     </row>
-    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:25" ht="15.75" customHeight="1">
       <c r="A61" s="26" t="s">
         <v>58</v>
       </c>
@@ -12049,7 +12088,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:25" ht="15.75" customHeight="1">
       <c r="A62" s="26" t="s">
         <v>58</v>
       </c>
@@ -12122,7 +12161,7 @@
       </c>
       <c r="Y62" s="48"/>
     </row>
-    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:25" ht="15.75" customHeight="1">
       <c r="A63" s="26" t="s">
         <v>62</v>
       </c>
@@ -12195,7 +12234,7 @@
       </c>
       <c r="Y63" s="10"/>
     </row>
-    <row r="64" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1">
       <c r="A64" s="18" t="s">
         <v>63</v>
       </c>
@@ -12230,7 +12269,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:24" ht="15.75" customHeight="1">
       <c r="A65" s="16" t="s">
         <v>63</v>
       </c>
@@ -12274,7 +12313,7 @@
       <c r="W65" s="17"/>
       <c r="X65" s="17"/>
     </row>
-    <row r="66" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:24" ht="15.75" customHeight="1">
       <c r="A66" s="16" t="s">
         <v>63</v>
       </c>
@@ -12306,7 +12345,7 @@
       <c r="W66" s="17"/>
       <c r="X66" s="17"/>
     </row>
-    <row r="67" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:24" ht="15.75" customHeight="1">
       <c r="A67" s="16" t="s">
         <v>63</v>
       </c>
@@ -12338,7 +12377,7 @@
       <c r="W67" s="17"/>
       <c r="X67" s="17"/>
     </row>
-    <row r="68" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:24" ht="15.75" customHeight="1">
       <c r="A68" s="16" t="s">
         <v>63</v>
       </c>
@@ -12370,7 +12409,7 @@
       <c r="W68" s="17"/>
       <c r="X68" s="17"/>
     </row>
-    <row r="69" spans="1:24" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:24" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A69" s="16" t="s">
         <v>63</v>
       </c>
@@ -12402,7 +12441,7 @@
       <c r="W69" s="17"/>
       <c r="X69" s="17"/>
     </row>
-    <row r="70" spans="1:24" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:24" s="35" customFormat="1" ht="15.75" customHeight="1">
       <c r="A70" s="16" t="s">
         <v>63</v>
       </c>
@@ -12434,7 +12473,7 @@
       <c r="W70" s="17"/>
       <c r="X70" s="17"/>
     </row>
-    <row r="71" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A71" s="16" t="s">
         <v>63</v>
       </c>
@@ -12466,7 +12505,7 @@
       <c r="W71" s="17"/>
       <c r="X71" s="17"/>
     </row>
-    <row r="72" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:24" ht="15.75" customHeight="1">
       <c r="A72" s="16" t="s">
         <v>109</v>
       </c>
@@ -12498,7 +12537,7 @@
       <c r="W72" s="20"/>
       <c r="X72" s="20"/>
     </row>
-    <row r="73" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:24" ht="15.75" customHeight="1">
       <c r="A73" s="16" t="s">
         <v>119</v>
       </c>
@@ -12554,22 +12593,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
-      <pane xSplit="2" ySplit="6" topLeftCell="C50" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
+      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
       <pane xSplit="2" ySplit="6.0384615384615383" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
-      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
+      <pane xSplit="2" ySplit="6" topLeftCell="C50" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
@@ -12584,6 +12620,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -12592,10 +12633,10 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" customWidth="1"/>
@@ -12603,7 +12644,7 @@
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="22" t="s">
         <v>70</v>
       </c>
@@ -12620,7 +12661,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15">
       <c r="A2" s="23" t="s">
         <v>73</v>
       </c>
@@ -12633,7 +12674,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15">
       <c r="A3" s="23" t="s">
         <v>75</v>
       </c>
@@ -12646,7 +12687,7 @@
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15">
       <c r="A4" s="23" t="s">
         <v>77</v>
       </c>
@@ -12659,7 +12700,7 @@
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15">
       <c r="A5" s="23" t="s">
         <v>96</v>
       </c>
@@ -12674,7 +12715,7 @@
       </c>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15">
       <c r="A6" s="23" t="s">
         <v>97</v>
       </c>
@@ -12689,7 +12730,7 @@
       </c>
       <c r="E6" s="24"/>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15">
       <c r="A7" s="23" t="s">
         <v>98</v>
       </c>
@@ -12704,7 +12745,7 @@
       </c>
       <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:5" s="41" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="41" customFormat="1" ht="15">
       <c r="A8" s="23" t="s">
         <v>163</v>
       </c>
@@ -12719,7 +12760,7 @@
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15">
       <c r="A9" s="23" t="s">
         <v>99</v>
       </c>
@@ -12734,7 +12775,7 @@
       </c>
       <c r="E9" s="24"/>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15">
       <c r="A10" s="23" t="s">
         <v>108</v>
       </c>
@@ -12747,7 +12788,7 @@
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15">
       <c r="A11" s="23" t="s">
         <v>107</v>
       </c>
@@ -12760,7 +12801,7 @@
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15">
       <c r="A12" s="23" t="s">
         <v>106</v>
       </c>
@@ -12773,7 +12814,7 @@
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15">
       <c r="A13" s="23" t="s">
         <v>100</v>
       </c>
@@ -12788,7 +12829,7 @@
       </c>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15">
       <c r="A14" s="23" t="s">
         <v>105</v>
       </c>
@@ -12803,7 +12844,7 @@
       </c>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15">
       <c r="A15" s="23" t="s">
         <v>101</v>
       </c>
@@ -12818,7 +12859,7 @@
       </c>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:5" s="41" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="41" customFormat="1" ht="15">
       <c r="A16" s="23" t="s">
         <v>162</v>
       </c>
@@ -12833,7 +12874,7 @@
       </c>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15">
       <c r="A17" s="23" t="s">
         <v>102</v>
       </c>
@@ -12848,7 +12889,7 @@
       </c>
       <c r="E17" s="24"/>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15">
       <c r="A18" s="23" t="s">
         <v>103</v>
       </c>
@@ -12863,7 +12904,7 @@
       </c>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15">
       <c r="A19" s="23" t="s">
         <v>122</v>
       </c>
@@ -12878,7 +12919,7 @@
       </c>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15">
       <c r="A20" s="23" t="s">
         <v>12</v>
       </c>
@@ -12893,7 +12934,7 @@
       </c>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15">
       <c r="A21" s="23" t="s">
         <v>13</v>
       </c>
@@ -12908,7 +12949,7 @@
       </c>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15">
       <c r="A22" s="23" t="s">
         <v>104</v>
       </c>
@@ -12925,23 +12966,25 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
-      <selection activeCell="G36" sqref="G36"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
+      <selection activeCell="B17" sqref="B17"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
       <selection activeCell="C7" sqref="C7"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
-      <selection activeCell="B17" sqref="B17"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
+      <selection activeCell="G36" sqref="G36"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-900" windowWidth="38400" windowHeight="22040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,9 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="2180" windowHeight="891" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="2180" windowHeight="891" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="172">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -571,6 +571,12 @@
   </si>
   <si>
     <t>R+,W+,TM-valmis</t>
+  </si>
+  <si>
+    <t>R*,W*,sido</t>
+  </si>
+  <si>
+    <t>R,W,sido</t>
   </si>
 </sst>
 </file>
@@ -703,8 +709,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="161">
+  <cellStyleXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -961,7 +973,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="161">
+  <cellStyles count="167">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1042,6 +1054,9 @@
     <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1122,6 +1137,9 @@
     <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1135,7 +1153,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{20D72FDE-B37A-954B-96C9-CC76E718E9F1}" diskRevisions="1" revisionId="313" version="39">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B41A3796-87BE-7844-B985-10174BA79182}" diskRevisions="1" revisionId="319" version="40">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1364,6 +1382,12 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{B41A3796-87BE-7844-B985-10174BA79182}" dateTime="2017-03-13T12:47:10" maxSheetId="3" userName="Jarno Väyrynen" r:id="rId40" minRId="314" maxRId="319">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -7334,6 +7358,83 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog39.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="314" sId="1">
+    <oc r="L29" t="inlineStr">
+      <is>
+        <t>R*,W</t>
+      </is>
+    </oc>
+    <nc r="L29" t="inlineStr">
+      <is>
+        <t>R*,W,sido</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="315" sId="1">
+    <oc r="K29" t="inlineStr">
+      <is>
+        <t>R*,W*</t>
+      </is>
+    </oc>
+    <nc r="K29" t="inlineStr">
+      <is>
+        <t>R*,W*,sido</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="316" sId="1">
+    <oc r="Q29" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </oc>
+    <nc r="Q29" t="inlineStr">
+      <is>
+        <t>R,W,sido</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="317" sId="1">
+    <oc r="Q31" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </oc>
+    <nc r="Q31" t="inlineStr">
+      <is>
+        <t>R,W,sido</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="318" sId="1">
+    <oc r="L31" t="inlineStr">
+      <is>
+        <t>R*,W</t>
+      </is>
+    </oc>
+    <nc r="L31" t="inlineStr">
+      <is>
+        <t>R*,W,sido</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="319" sId="1">
+    <oc r="K31" t="inlineStr">
+      <is>
+        <t>R*,W*</t>
+      </is>
+    </oc>
+    <nc r="K31" t="inlineStr">
+      <is>
+        <t>R*,W*,sido</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="5" sId="1" odxf="1" dxf="1">
@@ -8030,8 +8131,8 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="7">
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="8">
   <userInfo guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" name="Tatu Tarvainen" id="-130145201" dateTime="2016-09-06T09:10:23"/>
   <userInfo guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" name="Jarno Väyrynen" id="-589116405" dateTime="2016-09-06T12:54:09"/>
   <userInfo guid="{0407E191-78DA-F349-B5E5-8AE1BC03A29E}" name="Jarno Väyrynen" id="-589108428" dateTime="2016-09-08T15:33:24"/>
@@ -8039,6 +8140,7 @@
   <userInfo guid="{C606B059-99AC-3B47-8437-66D15B4E3D4B}" name="Jarno Väyrynen" id="-589137240" dateTime="2016-10-27T09:33:01"/>
   <userInfo guid="{73C5A3F1-D661-114E-91EF-0474461FB0FF}" name="Jarno Väyrynen" id="-589139215" dateTime="2017-02-01T12:41:16"/>
   <userInfo guid="{20D72FDE-B37A-954B-96C9-CC76E718E9F1}" name="Jarno Väyrynen" id="-589140570" dateTime="2017-03-02T10:49:07"/>
+  <userInfo guid="{B41A3796-87BE-7844-B985-10174BA79182}" name="Jarno Väyrynen" id="-589147330" dateTime="2017-03-13T12:30:30"/>
 </users>
 </file>
 
@@ -8367,10 +8469,10 @@
   <dimension ref="A1:Y73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="E8" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
+      <selection pane="bottomRight" activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -9966,10 +10068,10 @@
         <v>113</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M29" s="21"/>
       <c r="N29" s="21" t="s">
@@ -9980,7 +10082,7 @@
       </c>
       <c r="P29" s="21"/>
       <c r="Q29" s="21" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="R29" s="21" t="s">
         <v>132</v>
@@ -10094,10 +10196,10 @@
         <v>113</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="L31" s="21" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M31" s="21"/>
       <c r="N31" s="21" t="s">
@@ -10108,7 +10210,7 @@
       </c>
       <c r="P31" s="21"/>
       <c r="Q31" s="21" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="R31" s="21" t="s">
         <v>132</v>
@@ -12593,9 +12695,9 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
-      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
+      <pane xSplit="2" ySplit="6" topLeftCell="C50" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
@@ -12603,9 +12705,9 @@
       <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
-      <pane xSplit="2" ySplit="6" topLeftCell="C50" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
+      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
@@ -12617,7 +12719,7 @@
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="C2:O2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
@@ -12966,20 +13068,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
-      <selection activeCell="B17" sqref="B17"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
+      <selection activeCell="G36" sqref="G36"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
       <selection activeCell="C7" sqref="C7"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
-      <selection activeCell="G36" sqref="G36"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
+      <selection activeCell="B17" sqref="B17"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-900" windowWidth="38400" windowHeight="22040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-900" windowWidth="51160" windowHeight="28560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,9 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
+    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="2180" windowHeight="891" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="175">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -577,6 +577,15 @@
   </si>
   <si>
     <t>R,W,sido</t>
+  </si>
+  <si>
+    <t>Kustannukset</t>
+  </si>
+  <si>
+    <t>Kustannusyhteenveto</t>
+  </si>
+  <si>
+    <t>Sakko- ja bonusraportti</t>
   </si>
 </sst>
 </file>
@@ -709,7 +718,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="167">
+  <cellStyleXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -877,8 +886,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -964,6 +981,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -973,7 +994,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="167">
+  <cellStyles count="175">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1057,6 +1078,10 @@
     <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1140,6 +1165,10 @@
     <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1153,7 +1182,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B41A3796-87BE-7844-B985-10174BA79182}" diskRevisions="1" revisionId="319" version="40">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{AB1578F0-267B-E24D-9EF4-EAE2A9AEBDC8}" diskRevisions="1" revisionId="369" version="44">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1388,6 +1417,30 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{35E4DE85-3D5A-D045-9D96-3BD2B1376578}" dateTime="2017-03-17T14:41:34" maxSheetId="3" userName="Jarno Väyrynen" r:id="rId41" minRId="320" maxRId="322">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A14C279D-6DAE-E149-ACDE-46AB60CBBE11}" dateTime="2017-03-17T14:42:58" maxSheetId="3" userName="Jarno Väyrynen" r:id="rId42" minRId="323" maxRId="333">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{56895621-70E2-C443-811F-FDFD71CA98D1}" dateTime="2017-03-17T14:43:43" maxSheetId="3" userName="Jarno Väyrynen" r:id="rId43" minRId="334" maxRId="347">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AB1578F0-267B-E24D-9EF4-EAE2A9AEBDC8}" dateTime="2017-03-17T14:44:52" maxSheetId="3" userName="Jarno Väyrynen" r:id="rId44" minRId="348" maxRId="369">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -7493,6 +7546,360 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog40.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="320" sId="1" ref="A28:XFD28" action="insertRow"/>
+  <rcc rId="321" sId="1">
+    <nc r="A28" t="inlineStr">
+      <is>
+        <t>Urakat</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="322" sId="1">
+    <nc r="B28" t="inlineStr">
+      <is>
+        <t>Kustannukset</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog41.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="323" sId="1">
+    <nc r="D28" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="324" sId="1">
+    <nc r="E28" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="325" sId="1">
+    <nc r="F28" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="326" sId="1">
+    <nc r="J28" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="327" sId="1">
+    <nc r="K28" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="328" sId="1">
+    <nc r="L28" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="329" sId="1">
+    <nc r="N28" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="330" sId="1">
+    <nc r="Q28" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="331" sId="1">
+    <nc r="R28" t="inlineStr">
+      <is>
+        <t>R+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="332" sId="1">
+    <nc r="S28" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="333" sId="1" odxf="1" dxf="1">
+    <nc r="V28" t="inlineStr">
+      <is>
+        <t>R+</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog42.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="334" sId="1" ref="A39:XFD39" action="insertRow"/>
+  <rcc rId="335" sId="1">
+    <nc r="A39" t="inlineStr">
+      <is>
+        <t>Raportit</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="336" sId="1">
+    <nc r="D39" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="337" sId="1">
+    <nc r="E39" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="338" sId="1">
+    <nc r="F39" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="339" sId="1">
+    <nc r="J39" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="340" sId="1">
+    <nc r="K39" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="341" sId="1">
+    <nc r="L39" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="342" sId="1">
+    <nc r="N39" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="343" sId="1">
+    <nc r="Q39" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="344" sId="1">
+    <nc r="R39" t="inlineStr">
+      <is>
+        <t>R+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="345" sId="1">
+    <nc r="S39" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="346" sId="1">
+    <nc r="V39" t="inlineStr">
+      <is>
+        <t>R+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="347" sId="1">
+    <nc r="B39" t="inlineStr">
+      <is>
+        <t>Kustannusyhteenveto</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog43.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="348" sId="1" ref="A56:XFD56" action="insertRow"/>
+  <rcc rId="349" sId="1">
+    <nc r="A56" t="inlineStr">
+      <is>
+        <t>Raportit</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="350" sId="1">
+    <nc r="D56" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="351" sId="1">
+    <nc r="E56" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="352" sId="1">
+    <nc r="F56" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="353" sId="1">
+    <nc r="G56" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="354" sId="1">
+    <nc r="H56" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="355" sId="1">
+    <nc r="I56" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="356" sId="1">
+    <nc r="J56" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="357" sId="1">
+    <nc r="K56" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="358" sId="1">
+    <nc r="L56" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="359" sId="1">
+    <nc r="M56" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="360" sId="1">
+    <nc r="N56" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="361" sId="1">
+    <nc r="P56" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="362" sId="1">
+    <nc r="Q56" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="363" sId="1">
+    <nc r="R56" t="inlineStr">
+      <is>
+        <t>R+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="364" sId="1">
+    <nc r="S56" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="365" sId="1">
+    <nc r="T56" t="inlineStr">
+      <is>
+        <t>R+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="366" sId="1">
+    <nc r="U56" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="367" sId="1">
+    <nc r="V56" t="inlineStr">
+      <is>
+        <t>R+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="368" sId="1">
+    <nc r="X56" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="369" sId="1">
+    <nc r="B56" t="inlineStr">
+      <is>
+        <t>Sakko- ja bonusraportti</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="7" sId="1">
@@ -8131,8 +8538,8 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="8">
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="9">
   <userInfo guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" name="Tatu Tarvainen" id="-130145201" dateTime="2016-09-06T09:10:23"/>
   <userInfo guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" name="Jarno Väyrynen" id="-589116405" dateTime="2016-09-06T12:54:09"/>
   <userInfo guid="{0407E191-78DA-F349-B5E5-8AE1BC03A29E}" name="Jarno Väyrynen" id="-589108428" dateTime="2016-09-08T15:33:24"/>
@@ -8141,6 +8548,7 @@
   <userInfo guid="{73C5A3F1-D661-114E-91EF-0474461FB0FF}" name="Jarno Väyrynen" id="-589139215" dateTime="2017-02-01T12:41:16"/>
   <userInfo guid="{20D72FDE-B37A-954B-96C9-CC76E718E9F1}" name="Jarno Väyrynen" id="-589140570" dateTime="2017-03-02T10:49:07"/>
   <userInfo guid="{B41A3796-87BE-7844-B985-10174BA79182}" name="Jarno Väyrynen" id="-589147330" dateTime="2017-03-13T12:30:30"/>
+  <userInfo guid="{AB1578F0-267B-E24D-9EF4-EAE2A9AEBDC8}" name="Jarno Väyrynen" id="-589122421" dateTime="2017-03-17T14:40:01"/>
 </users>
 </file>
 
@@ -8466,13 +8874,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y73"/>
+  <dimension ref="A1:Y76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="E8" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="D23" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="O26" sqref="O26"/>
+      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -8508,40 +8916,40 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
@@ -8562,30 +8970,30 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1">
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="K5" s="49" t="s">
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="K5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="R5" s="49" t="s">
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="R5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
       <c r="Y5" s="5" t="s">
         <v>14</v>
       </c>
@@ -9971,109 +10379,97 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1">
+    <row r="28" spans="1:25" s="48" customFormat="1" ht="15.75" customHeight="1">
       <c r="A28" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="17" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="F28" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G28" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="J28" s="42" t="s">
-        <v>160</v>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="M28" s="21" t="s">
-        <v>17</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="M28" s="21"/>
       <c r="N28" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O28" s="17" t="s">
-        <v>127</v>
-      </c>
+      <c r="O28" s="21"/>
       <c r="P28" s="21"/>
-      <c r="Q28" s="42" t="s">
-        <v>160</v>
+      <c r="Q28" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="R28" s="21" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="S28" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="T28" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="U28" s="21" t="s">
-        <v>17</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
       <c r="V28" s="17" t="s">
         <v>131</v>
       </c>
       <c r="W28" s="21"/>
       <c r="X28" s="21"/>
-      <c r="Y28" s="10" t="s">
-        <v>118</v>
-      </c>
+      <c r="Y28" s="47"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1">
       <c r="A29" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="21"/>
-      <c r="D29" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>134</v>
+      <c r="D29" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G29" s="21"/>
+      <c r="G29" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="H29" s="21" t="s">
         <v>127</v>
       </c>
       <c r="I29" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="J29" s="21" t="s">
-        <v>113</v>
+      <c r="J29" s="42" t="s">
+        <v>160</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="M29" s="21"/>
+        <v>158</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="N29" s="21" t="s">
         <v>127</v>
       </c>
@@ -10081,14 +10477,14 @@
         <v>127</v>
       </c>
       <c r="P29" s="21"/>
-      <c r="Q29" s="21" t="s">
-        <v>171</v>
+      <c r="Q29" s="42" t="s">
+        <v>160</v>
       </c>
       <c r="R29" s="21" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="S29" s="21" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="T29" s="21" t="s">
         <v>131</v>
@@ -10101,28 +10497,28 @@
       </c>
       <c r="W29" s="21"/>
       <c r="X29" s="21"/>
-      <c r="Y29" s="10"/>
+      <c r="Y29" s="10" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1">
       <c r="A30" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="21"/>
-      <c r="D30" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>130</v>
+      <c r="D30" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="F30" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G30" s="21" t="s">
-        <v>135</v>
-      </c>
+      <c r="G30" s="21"/>
       <c r="H30" s="21" t="s">
         <v>127</v>
       </c>
@@ -10130,13 +10526,13 @@
         <v>127</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="K30" s="17" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="L30" s="21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M30" s="21"/>
       <c r="N30" s="21" t="s">
@@ -10147,7 +10543,7 @@
       </c>
       <c r="P30" s="21"/>
       <c r="Q30" s="21" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="R30" s="21" t="s">
         <v>132</v>
@@ -10173,19 +10569,21 @@
         <v>15</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="21"/>
-      <c r="D31" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>134</v>
+      <c r="D31" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="F31" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G31" s="21"/>
+      <c r="G31" s="21" t="s">
+        <v>135</v>
+      </c>
       <c r="H31" s="21" t="s">
         <v>127</v>
       </c>
@@ -10193,13 +10591,13 @@
         <v>127</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="L31" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M31" s="21"/>
       <c r="N31" s="21" t="s">
@@ -10210,7 +10608,7 @@
       </c>
       <c r="P31" s="21"/>
       <c r="Q31" s="21" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="R31" s="21" t="s">
         <v>132</v>
@@ -10236,14 +10634,14 @@
         <v>15</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="21"/>
-      <c r="D32" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>130</v>
+      <c r="D32" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="F32" s="21" t="s">
         <v>127</v>
@@ -10259,10 +10657,10 @@
         <v>113</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="L32" s="21" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M32" s="21"/>
       <c r="N32" s="21" t="s">
@@ -10273,7 +10671,7 @@
       </c>
       <c r="P32" s="21"/>
       <c r="Q32" s="21" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="R32" s="21" t="s">
         <v>132</v>
@@ -10294,16 +10692,16 @@
       <c r="X32" s="21"/>
       <c r="Y32" s="10"/>
     </row>
-    <row r="33" spans="1:25" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="33" spans="1:25" ht="15.75" customHeight="1">
       <c r="A33" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="17" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>130</v>
@@ -10334,7 +10732,7 @@
       <c r="O33" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="P33" s="17"/>
+      <c r="P33" s="21"/>
       <c r="Q33" s="21" t="s">
         <v>113</v>
       </c>
@@ -10355,13 +10753,14 @@
       </c>
       <c r="W33" s="21"/>
       <c r="X33" s="21"/>
+      <c r="Y33" s="10"/>
     </row>
     <row r="34" spans="1:25" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A34" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="17" t="s">
@@ -10423,7 +10822,7 @@
         <v>15</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="17" t="s">
@@ -10480,12 +10879,12 @@
       <c r="W35" s="21"/>
       <c r="X35" s="21"/>
     </row>
-    <row r="36" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1">
+    <row r="36" spans="1:25" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A36" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="17" t="s">
@@ -10497,14 +10896,12 @@
       <c r="F36" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G36" s="21" t="s">
-        <v>129</v>
-      </c>
+      <c r="G36" s="21"/>
       <c r="H36" s="21" t="s">
         <v>127</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J36" s="21" t="s">
         <v>113</v>
@@ -10513,20 +10910,16 @@
         <v>126</v>
       </c>
       <c r="L36" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="M36" s="21" t="s">
-        <v>113</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M36" s="21"/>
       <c r="N36" s="21" t="s">
         <v>127</v>
       </c>
       <c r="O36" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="P36" s="17" t="s">
-        <v>127</v>
-      </c>
+      <c r="P36" s="17"/>
       <c r="Q36" s="21" t="s">
         <v>113</v>
       </c>
@@ -10540,92 +10933,105 @@
         <v>131</v>
       </c>
       <c r="U36" s="21" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="V36" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="W36" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="X36" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y36" s="12"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
     </row>
-    <row r="37" spans="1:25" s="31" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A37" s="26" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F37" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
+      <c r="G37" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>126</v>
+      </c>
       <c r="J37" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" s="21" t="s">
-        <v>127</v>
+        <v>113</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>126</v>
       </c>
       <c r="L37" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="M37" s="21"/>
+        <v>133</v>
+      </c>
+      <c r="M37" s="21" t="s">
+        <v>113</v>
+      </c>
       <c r="N37" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
+      <c r="O37" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="P37" s="17" t="s">
+        <v>127</v>
+      </c>
       <c r="Q37" s="21" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="R37" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="S37" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="T37" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="S37" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21" t="s">
+      <c r="U37" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="V37" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="30"/>
+      <c r="W37" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="X37" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y37" s="12"/>
     </row>
-    <row r="38" spans="1:25" ht="15.75" customHeight="1">
+    <row r="38" spans="1:25" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A38" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="C38" s="21"/>
-      <c r="D38" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E38" s="21" t="s">
+      <c r="D38" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="17" t="s">
         <v>127</v>
       </c>
       <c r="F38" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G38" s="21" t="s">
-        <v>19</v>
-      </c>
+      <c r="G38" s="21"/>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="21" t="s">
@@ -10659,34 +11065,28 @@
       </c>
       <c r="W38" s="21"/>
       <c r="X38" s="21"/>
-      <c r="Y38" s="10"/>
+      <c r="Y38" s="30"/>
     </row>
-    <row r="39" spans="1:25" ht="15.75" customHeight="1">
+    <row r="39" spans="1:25" s="48" customFormat="1" ht="15.75" customHeight="1">
       <c r="A39" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="C39" s="21"/>
-      <c r="D39" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39" s="21" t="s">
+      <c r="D39" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="17" t="s">
         <v>127</v>
       </c>
       <c r="F39" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G39" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I39" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
       <c r="J39" s="21" t="s">
         <v>17</v>
       </c>
@@ -10696,18 +11096,12 @@
       <c r="L39" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M39" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="M39" s="21"/>
       <c r="N39" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O39" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="P39" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
       <c r="Q39" s="21" t="s">
         <v>17</v>
       </c>
@@ -10717,27 +11111,21 @@
       <c r="S39" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T39" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="U39" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
       <c r="V39" s="21" t="s">
         <v>131</v>
       </c>
       <c r="W39" s="21"/>
-      <c r="X39" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y39" s="10"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="47"/>
     </row>
-    <row r="40" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
+    <row r="40" spans="1:25" ht="15.75" customHeight="1">
       <c r="A40" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C40" s="21"/>
       <c r="D40" s="21" t="s">
@@ -10750,14 +11138,10 @@
         <v>127</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H40" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I40" s="21" t="s">
-        <v>127</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
       <c r="J40" s="21" t="s">
         <v>17</v>
       </c>
@@ -10767,18 +11151,12 @@
       <c r="L40" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M40" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="M40" s="21"/>
       <c r="N40" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O40" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="P40" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
       <c r="Q40" s="21" t="s">
         <v>17</v>
       </c>
@@ -10788,29 +11166,21 @@
       <c r="S40" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T40" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="U40" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
       <c r="V40" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="W40" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="X40" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y40" s="36"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="10"/>
     </row>
     <row r="41" spans="1:25" ht="15.75" customHeight="1">
       <c r="A41" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="C41" s="21"/>
       <c r="D41" s="21" t="s">
@@ -10876,12 +11246,12 @@
       </c>
       <c r="Y41" s="10"/>
     </row>
-    <row r="42" spans="1:25" ht="15.75" customHeight="1">
+    <row r="42" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="21" t="s">
@@ -10941,18 +11311,20 @@
       <c r="V42" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="W42" s="21"/>
+      <c r="W42" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="X42" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Y42" s="10"/>
+      <c r="Y42" s="36"/>
     </row>
     <row r="43" spans="1:25" ht="15.75" customHeight="1">
       <c r="A43" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="21" t="s">
@@ -11018,12 +11390,12 @@
       </c>
       <c r="Y43" s="10"/>
     </row>
-    <row r="44" spans="1:25" s="40" customFormat="1" ht="15.75" customHeight="1">
+    <row r="44" spans="1:25" ht="15.75" customHeight="1">
       <c r="A44" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>156</v>
+        <v>47</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="21" t="s">
@@ -11087,14 +11459,14 @@
       <c r="X44" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Y44" s="39"/>
+      <c r="Y44" s="10"/>
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1">
       <c r="A45" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="21" t="s">
@@ -11160,12 +11532,12 @@
       </c>
       <c r="Y45" s="10"/>
     </row>
-    <row r="46" spans="1:25" ht="15.75" customHeight="1">
+    <row r="46" spans="1:25" s="40" customFormat="1" ht="15.75" customHeight="1">
       <c r="A46" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="21" t="s">
@@ -11201,7 +11573,9 @@
       <c r="N46" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O46" s="21"/>
+      <c r="O46" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="P46" s="21" t="s">
         <v>127</v>
       </c>
@@ -11227,14 +11601,14 @@
       <c r="X46" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Y46" s="10"/>
+      <c r="Y46" s="39"/>
     </row>
     <row r="47" spans="1:25" ht="15.75" customHeight="1">
       <c r="A47" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C47" s="21"/>
       <c r="D47" s="21" t="s">
@@ -11305,7 +11679,7 @@
         <v>43</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="21" t="s">
@@ -11317,8 +11691,12 @@
       <c r="F48" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
+      <c r="G48" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="I48" s="21" t="s">
         <v>127</v>
       </c>
@@ -11331,7 +11709,9 @@
       <c r="L48" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M48" s="21"/>
+      <c r="M48" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="N48" s="21" t="s">
         <v>127</v>
       </c>
@@ -11368,7 +11748,7 @@
         <v>43</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="21"/>
       <c r="D49" s="21" t="s">
@@ -11380,11 +11760,15 @@
       <c r="F49" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G49" s="21"/>
+      <c r="G49" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="H49" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I49" s="21"/>
+        <v>127</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="J49" s="21" t="s">
         <v>17</v>
       </c>
@@ -11394,14 +11778,18 @@
       <c r="L49" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M49" s="21"/>
+      <c r="M49" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="N49" s="21" t="s">
         <v>127</v>
       </c>
       <c r="O49" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="P49" s="21"/>
+        <v>127</v>
+      </c>
+      <c r="P49" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="Q49" s="21" t="s">
         <v>17</v>
       </c>
@@ -11411,13 +11799,19 @@
       <c r="S49" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T49" s="21"/>
-      <c r="U49" s="21"/>
+      <c r="T49" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U49" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="V49" s="21" t="s">
         <v>131</v>
       </c>
       <c r="W49" s="21"/>
-      <c r="X49" s="21"/>
+      <c r="X49" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="Y49" s="10"/>
     </row>
     <row r="50" spans="1:25" ht="15.75" customHeight="1">
@@ -11425,7 +11819,7 @@
         <v>43</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="21"/>
       <c r="D50" s="21" t="s">
@@ -11439,7 +11833,9 @@
       </c>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
+      <c r="I50" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="J50" s="21" t="s">
         <v>17</v>
       </c>
@@ -11454,7 +11850,9 @@
         <v>127</v>
       </c>
       <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
+      <c r="P50" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="Q50" s="21" t="s">
         <v>17</v>
       </c>
@@ -11464,13 +11862,19 @@
       <c r="S50" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T50" s="21"/>
-      <c r="U50" s="21"/>
+      <c r="T50" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U50" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="V50" s="21" t="s">
         <v>131</v>
       </c>
       <c r="W50" s="21"/>
-      <c r="X50" s="21"/>
+      <c r="X50" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="Y50" s="10"/>
     </row>
     <row r="51" spans="1:25" ht="15.75" customHeight="1">
@@ -11478,7 +11882,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="21"/>
       <c r="D51" s="21" t="s">
@@ -11491,7 +11895,9 @@
         <v>127</v>
       </c>
       <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
+      <c r="H51" s="21" t="s">
+        <v>19</v>
+      </c>
       <c r="I51" s="21"/>
       <c r="J51" s="21" t="s">
         <v>17</v>
@@ -11506,7 +11912,9 @@
       <c r="N51" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O51" s="21"/>
+      <c r="O51" s="21" t="s">
+        <v>19</v>
+      </c>
       <c r="P51" s="21"/>
       <c r="Q51" s="21" t="s">
         <v>17</v>
@@ -11531,7 +11939,7 @@
         <v>43</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="21" t="s">
@@ -11579,12 +11987,12 @@
       <c r="X52" s="21"/>
       <c r="Y52" s="10"/>
     </row>
-    <row r="53" spans="1:25" s="28" customFormat="1" ht="15.75" customHeight="1">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1">
       <c r="A53" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="21" t="s">
@@ -11596,15 +12004,9 @@
       <c r="F53" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G53" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H53" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I53" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
       <c r="J53" s="21" t="s">
         <v>17</v>
       </c>
@@ -11614,16 +12016,12 @@
       <c r="L53" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M53" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="M53" s="21"/>
       <c r="N53" s="21" t="s">
         <v>127</v>
       </c>
       <c r="O53" s="21"/>
-      <c r="P53" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="P53" s="21"/>
       <c r="Q53" s="21" t="s">
         <v>17</v>
       </c>
@@ -11633,27 +12031,21 @@
       <c r="S53" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T53" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="U53" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="T53" s="21"/>
+      <c r="U53" s="21"/>
       <c r="V53" s="21" t="s">
         <v>131</v>
       </c>
       <c r="W53" s="21"/>
-      <c r="X53" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y53" s="27"/>
+      <c r="X53" s="21"/>
+      <c r="Y53" s="10"/>
     </row>
     <row r="54" spans="1:25" ht="15.75" customHeight="1">
       <c r="A54" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="21" t="s">
@@ -11665,15 +12057,9 @@
       <c r="F54" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G54" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H54" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I54" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
       <c r="J54" s="21" t="s">
         <v>17</v>
       </c>
@@ -11683,18 +12069,12 @@
       <c r="L54" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M54" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="M54" s="21"/>
       <c r="N54" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O54" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="P54" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
       <c r="Q54" s="21" t="s">
         <v>17</v>
       </c>
@@ -11704,27 +12084,21 @@
       <c r="S54" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T54" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="U54" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="T54" s="21"/>
+      <c r="U54" s="21"/>
       <c r="V54" s="21" t="s">
         <v>131</v>
       </c>
       <c r="W54" s="21"/>
-      <c r="X54" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="X54" s="21"/>
       <c r="Y54" s="10"/>
     </row>
-    <row r="55" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
+    <row r="55" spans="1:25" s="28" customFormat="1" ht="15.75" customHeight="1">
       <c r="A55" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="21" t="s">
@@ -11760,9 +12134,7 @@
       <c r="N55" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O55" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="O55" s="21"/>
       <c r="P55" s="21" t="s">
         <v>127</v>
       </c>
@@ -11785,15 +12157,17 @@
         <v>131</v>
       </c>
       <c r="W55" s="21"/>
-      <c r="X55" s="21"/>
-      <c r="Y55" s="36"/>
+      <c r="X55" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y55" s="27"/>
     </row>
-    <row r="56" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
+    <row r="56" spans="1:25" s="48" customFormat="1" ht="15.75" customHeight="1">
       <c r="A56" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="21" t="s">
@@ -11829,9 +12203,7 @@
       <c r="N56" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O56" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="O56" s="21"/>
       <c r="P56" s="21" t="s">
         <v>127</v>
       </c>
@@ -11854,15 +12226,17 @@
         <v>131</v>
       </c>
       <c r="W56" s="21"/>
-      <c r="X56" s="21"/>
-      <c r="Y56" s="36"/>
+      <c r="X56" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y56" s="47"/>
     </row>
-    <row r="57" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1">
       <c r="A57" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="C57" s="21"/>
       <c r="D57" s="21" t="s">
@@ -11923,15 +12297,17 @@
         <v>131</v>
       </c>
       <c r="W57" s="21"/>
-      <c r="X57" s="21"/>
-      <c r="Y57" s="36"/>
+      <c r="X57" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y57" s="10"/>
     </row>
     <row r="58" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A58" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C58" s="21"/>
       <c r="D58" s="21" t="s">
@@ -12000,7 +12376,7 @@
         <v>43</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C59" s="21"/>
       <c r="D59" s="21" t="s">
@@ -12064,26 +12440,32 @@
       <c r="X59" s="21"/>
       <c r="Y59" s="36"/>
     </row>
-    <row r="60" spans="1:25" s="34" customFormat="1" ht="15.75" customHeight="1">
+    <row r="60" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A60" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C60" s="21"/>
-      <c r="D60" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E60" s="17" t="s">
+      <c r="D60" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F60" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
+      <c r="G60" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="I60" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="J60" s="21" t="s">
         <v>17</v>
       </c>
@@ -12093,12 +12475,18 @@
       <c r="L60" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M60" s="21"/>
+      <c r="M60" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="N60" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O60" s="21"/>
-      <c r="P60" s="21"/>
+      <c r="O60" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="P60" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="Q60" s="21" t="s">
         <v>17</v>
       </c>
@@ -12108,19 +12496,25 @@
       <c r="S60" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T60" s="21"/>
-      <c r="U60" s="21"/>
-      <c r="V60" s="21"/>
+      <c r="T60" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U60" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V60" s="21" t="s">
+        <v>131</v>
+      </c>
       <c r="W60" s="21"/>
       <c r="X60" s="21"/>
-      <c r="Y60" s="33"/>
+      <c r="Y60" s="36"/>
     </row>
-    <row r="61" spans="1:25" ht="15.75" customHeight="1">
+    <row r="61" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A61" s="26" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="C61" s="21"/>
       <c r="D61" s="21" t="s">
@@ -12180,22 +12574,16 @@
       <c r="V61" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="W61" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="X61" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y61" s="47" t="s">
-        <v>60</v>
-      </c>
+      <c r="W61" s="21"/>
+      <c r="X61" s="21"/>
+      <c r="Y61" s="36"/>
     </row>
-    <row r="62" spans="1:25" ht="15.75" customHeight="1">
+    <row r="62" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A62" s="26" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="C62" s="21"/>
       <c r="D62" s="21" t="s">
@@ -12255,252 +12643,351 @@
       <c r="V62" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="W62" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="X62" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y62" s="48"/>
+      <c r="W62" s="21"/>
+      <c r="X62" s="21"/>
+      <c r="Y62" s="36"/>
     </row>
-    <row r="63" spans="1:25" ht="15.75" customHeight="1">
+    <row r="63" spans="1:25" s="34" customFormat="1" ht="15.75" customHeight="1">
       <c r="A63" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="L63" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O63" s="21"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R63" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="S63" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T63" s="21"/>
+      <c r="U63" s="21"/>
+      <c r="V63" s="21"/>
+      <c r="W63" s="21"/>
+      <c r="X63" s="21"/>
+      <c r="Y63" s="33"/>
+    </row>
+    <row r="64" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A64" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G64" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="I64" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="J64" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="L64" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="M64" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N64" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O64" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="P64" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q64" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R64" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="S64" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T64" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U64" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V64" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="W64" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="X64" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y64" s="49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A65" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H65" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="I65" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="J65" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="L65" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="M65" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N65" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O65" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="P65" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q65" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R65" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="S65" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T65" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U65" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V65" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="W65" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="X65" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y65" s="50"/>
+    </row>
+    <row r="66" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A66" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B66" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E63" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F63" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="G63" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H63" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I63" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="J63" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K63" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="L63" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="M63" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="N63" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="O63" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="P63" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q63" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="R63" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="S63" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="T63" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="U63" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="V63" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="W63" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="X63" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y63" s="10"/>
-    </row>
-    <row r="64" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A64" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64" s="19"/>
-      <c r="D64" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="19"/>
-      <c r="P64" s="19"/>
-      <c r="Q64" s="19"/>
-      <c r="R64" s="19"/>
-      <c r="S64" s="19"/>
-      <c r="T64" s="19"/>
-      <c r="U64" s="19"/>
-      <c r="V64" s="19"/>
-      <c r="W64" s="19"/>
-      <c r="X64" s="19"/>
-      <c r="Y64" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A65" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H65" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I65" s="17"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="N65" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="O65" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="21"/>
-      <c r="R65" s="17"/>
-      <c r="S65" s="17"/>
-      <c r="T65" s="17"/>
-      <c r="U65" s="17"/>
-      <c r="V65" s="17"/>
-      <c r="W65" s="17"/>
-      <c r="X65" s="17"/>
-    </row>
-    <row r="66" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A66" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" s="17"/>
+      <c r="C66" s="21"/>
       <c r="D66" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="17"/>
-      <c r="S66" s="17"/>
-      <c r="T66" s="17"/>
-      <c r="U66" s="17"/>
-      <c r="V66" s="17"/>
-      <c r="W66" s="17"/>
-      <c r="X66" s="17"/>
+      <c r="E66" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H66" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="I66" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="J66" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="L66" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="M66" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N66" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O66" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="P66" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q66" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R66" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="S66" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="T66" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U66" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="V66" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="W66" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="X66" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y66" s="10"/>
     </row>
-    <row r="67" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A67" s="16" t="s">
+    <row r="67" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A67" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" s="17"/>
+      <c r="B67" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="19"/>
       <c r="D67" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="17"/>
-      <c r="S67" s="17"/>
-      <c r="T67" s="17"/>
-      <c r="U67" s="17"/>
-      <c r="V67" s="17"/>
-      <c r="W67" s="17"/>
-      <c r="X67" s="17"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="19"/>
+      <c r="U67" s="19"/>
+      <c r="V67" s="19"/>
+      <c r="W67" s="19"/>
+      <c r="X67" s="19"/>
+      <c r="Y67" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="68" spans="1:24" ht="15.75" customHeight="1">
+    <row r="68" spans="1:25" ht="15.75" customHeight="1">
       <c r="A68" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C68" s="17"/>
       <c r="D68" s="21" t="s">
         <v>126</v>
       </c>
       <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
+      <c r="F68" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="I68" s="17"/>
       <c r="J68" s="21"/>
       <c r="K68" s="17"/>
       <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
+      <c r="M68" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N68" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O68" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="P68" s="17"/>
       <c r="Q68" s="21"/>
       <c r="R68" s="17"/>
@@ -12511,12 +12998,12 @@
       <c r="W68" s="17"/>
       <c r="X68" s="17"/>
     </row>
-    <row r="69" spans="1:24" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="69" spans="1:25" ht="15.75" customHeight="1">
       <c r="A69" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="C69" s="17"/>
       <c r="D69" s="21" t="s">
@@ -12543,12 +13030,12 @@
       <c r="W69" s="17"/>
       <c r="X69" s="17"/>
     </row>
-    <row r="70" spans="1:24" s="35" customFormat="1" ht="15.75" customHeight="1">
+    <row r="70" spans="1:25" ht="15.75" customHeight="1">
       <c r="A70" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C70" s="17"/>
       <c r="D70" s="21" t="s">
@@ -12575,12 +13062,12 @@
       <c r="W70" s="17"/>
       <c r="X70" s="17"/>
     </row>
-    <row r="71" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1">
+    <row r="71" spans="1:25" ht="15.75" customHeight="1">
       <c r="A71" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="C71" s="17"/>
       <c r="D71" s="21" t="s">
@@ -12607,97 +13094,193 @@
       <c r="W71" s="17"/>
       <c r="X71" s="17"/>
     </row>
-    <row r="72" spans="1:24" ht="15.75" customHeight="1">
+    <row r="72" spans="1:25" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A72" s="16" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C72" s="20"/>
+        <v>167</v>
+      </c>
+      <c r="C72" s="17"/>
       <c r="D72" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="43"/>
-      <c r="K72" s="20"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="20"/>
-      <c r="N72" s="20"/>
-      <c r="O72" s="20"/>
-      <c r="P72" s="20"/>
-      <c r="Q72" s="43"/>
-      <c r="R72" s="20"/>
-      <c r="S72" s="20"/>
-      <c r="T72" s="20"/>
-      <c r="U72" s="20"/>
-      <c r="V72" s="20"/>
-      <c r="W72" s="20"/>
-      <c r="X72" s="20"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="21"/>
+      <c r="R72" s="17"/>
+      <c r="S72" s="17"/>
+      <c r="T72" s="17"/>
+      <c r="U72" s="17"/>
+      <c r="V72" s="17"/>
+      <c r="W72" s="17"/>
+      <c r="X72" s="17"/>
     </row>
-    <row r="73" spans="1:24" ht="15.75" customHeight="1">
+    <row r="73" spans="1:25" s="35" customFormat="1" ht="15.75" customHeight="1">
       <c r="A73" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="17"/>
+      <c r="D73" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="17"/>
+      <c r="S73" s="17"/>
+      <c r="T73" s="17"/>
+      <c r="U73" s="17"/>
+      <c r="V73" s="17"/>
+      <c r="W73" s="17"/>
+      <c r="X73" s="17"/>
+    </row>
+    <row r="74" spans="1:25" s="32" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A74" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74" s="17"/>
+      <c r="D74" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="17"/>
+      <c r="T74" s="17"/>
+      <c r="U74" s="17"/>
+      <c r="V74" s="17"/>
+      <c r="W74" s="17"/>
+      <c r="X74" s="17"/>
+    </row>
+    <row r="75" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A75" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" s="20"/>
+      <c r="D75" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="20"/>
+      <c r="O75" s="20"/>
+      <c r="P75" s="20"/>
+      <c r="Q75" s="43"/>
+      <c r="R75" s="20"/>
+      <c r="S75" s="20"/>
+      <c r="T75" s="20"/>
+      <c r="U75" s="20"/>
+      <c r="V75" s="20"/>
+      <c r="W75" s="20"/>
+      <c r="X75" s="20"/>
+    </row>
+    <row r="76" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A76" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B76" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C73" s="20"/>
-      <c r="D73" s="21" t="s">
+      <c r="C76" s="20"/>
+      <c r="D76" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E73" s="29" t="s">
+      <c r="E76" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29" t="s">
+      <c r="F76" s="29"/>
+      <c r="G76" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="H73" s="29"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="44" t="s">
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="K73" s="29" t="s">
+      <c r="K76" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="L73" s="29" t="s">
+      <c r="L76" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="M73" s="29" t="s">
+      <c r="M76" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="N73" s="29" t="s">
+      <c r="N76" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="O73" s="29"/>
-      <c r="P73" s="29"/>
-      <c r="Q73" s="44" t="s">
+      <c r="O76" s="29"/>
+      <c r="P76" s="29"/>
+      <c r="Q76" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="R73" s="46" t="s">
+      <c r="R76" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="S73" s="44" t="s">
+      <c r="S76" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="T73" s="29"/>
-      <c r="U73" s="29" t="s">
+      <c r="T76" s="29"/>
+      <c r="U76" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="V73" s="29"/>
-      <c r="W73" s="29"/>
-      <c r="X73" s="29"/>
+      <c r="V76" s="29"/>
+      <c r="W76" s="29"/>
+      <c r="X76" s="29"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
-      <pane xSplit="2" ySplit="6" topLeftCell="C50" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
+      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
@@ -12705,14 +13288,14 @@
       <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
-      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
+      <pane xSplit="2" ySplit="6" topLeftCell="C50" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="6">
-    <mergeCell ref="Y61:Y62"/>
+    <mergeCell ref="Y64:Y65"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="K5:O5"/>
     <mergeCell ref="R5:X5"/>
@@ -13068,16 +13651,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
-      <selection activeCell="G36" sqref="G36"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
+      <selection activeCell="B17" sqref="B17"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
       <selection activeCell="C7" sqref="C7"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
-      <selection activeCell="B17" sqref="B17"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
+      <selection activeCell="G36" sqref="G36"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-900" windowWidth="51160" windowHeight="28560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-900" windowWidth="47320" windowHeight="28320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,9 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="2180" windowHeight="891" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="2180" windowHeight="891" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -528,9 +528,6 @@
     <t>Toteutus / Yksikköhintaiset työt</t>
   </si>
   <si>
-    <t>Toteutus / Muut työt</t>
-  </si>
-  <si>
     <t>Muutos- ja lisätyöt</t>
   </si>
   <si>
@@ -586,6 +583,9 @@
   </si>
   <si>
     <t>Sakko- ja bonusraportti</t>
+  </si>
+  <si>
+    <t>Toteutus / Muut kustannukset</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1182,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{AB1578F0-267B-E24D-9EF4-EAE2A9AEBDC8}" diskRevisions="1" revisionId="369" version="44">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{5E865E05-EE6E-304C-806E-707B869C773E}" diskRevisions="1" revisionId="370" version="45">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1441,6 +1441,12 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{5E865E05-EE6E-304C-806E-707B869C773E}" dateTime="2017-03-27T13:19:01" maxSheetId="3" userName="Jarno Väyrynen" r:id="rId45" minRId="370">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -7900,6 +7906,23 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog44.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="370" sId="1">
+    <oc r="B36" t="inlineStr">
+      <is>
+        <t>Toteutus / Muut työt</t>
+      </is>
+    </oc>
+    <nc r="B36" t="inlineStr">
+      <is>
+        <t>Toteutus / Muut kustannukset</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="7" sId="1">
@@ -8539,7 +8562,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="9">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="10">
   <userInfo guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" name="Tatu Tarvainen" id="-130145201" dateTime="2016-09-06T09:10:23"/>
   <userInfo guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" name="Jarno Väyrynen" id="-589116405" dateTime="2016-09-06T12:54:09"/>
   <userInfo guid="{0407E191-78DA-F349-B5E5-8AE1BC03A29E}" name="Jarno Väyrynen" id="-589108428" dateTime="2016-09-08T15:33:24"/>
@@ -8549,6 +8572,7 @@
   <userInfo guid="{20D72FDE-B37A-954B-96C9-CC76E718E9F1}" name="Jarno Väyrynen" id="-589140570" dateTime="2017-03-02T10:49:07"/>
   <userInfo guid="{B41A3796-87BE-7844-B985-10174BA79182}" name="Jarno Väyrynen" id="-589147330" dateTime="2017-03-13T12:30:30"/>
   <userInfo guid="{AB1578F0-267B-E24D-9EF4-EAE2A9AEBDC8}" name="Jarno Väyrynen" id="-589122421" dateTime="2017-03-17T14:40:01"/>
+  <userInfo guid="{5E865E05-EE6E-304C-806E-707B869C773E}" name="Jarno Väyrynen" id="-589107713" dateTime="2017-03-27T13:18:35"/>
 </users>
 </file>
 
@@ -8877,10 +8901,10 @@
   <dimension ref="A1:Y76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="D23" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -9025,7 +9049,7 @@
         <v>81</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>83</v>
@@ -9046,7 +9070,7 @@
         <v>88</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R6" s="9" t="s">
         <v>82</v>
@@ -9067,7 +9091,7 @@
         <v>92</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1">
@@ -10036,7 +10060,7 @@
         <v>127</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K22" s="17" t="s">
         <v>126</v>
@@ -10057,7 +10081,7 @@
         <v>127</v>
       </c>
       <c r="Q22" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R22" s="21" t="s">
         <v>131</v>
@@ -10384,7 +10408,7 @@
         <v>15</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="17" t="s">
@@ -10444,7 +10468,7 @@
         <v>152</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>127</v>
@@ -10459,13 +10483,13 @@
         <v>127</v>
       </c>
       <c r="J29" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K29" s="17" t="s">
         <v>126</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M29" s="21" t="s">
         <v>17</v>
@@ -10478,13 +10502,13 @@
       </c>
       <c r="P29" s="21"/>
       <c r="Q29" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R29" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S29" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T29" s="21" t="s">
         <v>131</v>
@@ -10529,7 +10553,7 @@
         <v>113</v>
       </c>
       <c r="K30" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L30" s="21" t="s">
         <v>134</v>
@@ -10543,7 +10567,7 @@
       </c>
       <c r="P30" s="21"/>
       <c r="Q30" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R30" s="21" t="s">
         <v>132</v>
@@ -10591,7 +10615,7 @@
         <v>127</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K31" s="17" t="s">
         <v>126</v>
@@ -10608,7 +10632,7 @@
       </c>
       <c r="P31" s="21"/>
       <c r="Q31" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R31" s="21" t="s">
         <v>132</v>
@@ -10657,7 +10681,7 @@
         <v>113</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L32" s="21" t="s">
         <v>134</v>
@@ -10671,7 +10695,7 @@
       </c>
       <c r="P32" s="21"/>
       <c r="Q32" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R32" s="21" t="s">
         <v>132</v>
@@ -10884,7 +10908,7 @@
         <v>15</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="17" t="s">
@@ -11072,7 +11096,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="17" t="s">
@@ -11537,7 +11561,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="21" t="s">
@@ -12167,7 +12191,7 @@
         <v>43</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="21" t="s">
@@ -13099,7 +13123,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C72" s="17"/>
       <c r="D72" s="21" t="s">
@@ -13243,7 +13267,7 @@
       <c r="H76" s="29"/>
       <c r="I76" s="29"/>
       <c r="J76" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K76" s="29" t="s">
         <v>128</v>
@@ -13260,17 +13284,17 @@
       <c r="O76" s="29"/>
       <c r="P76" s="29"/>
       <c r="Q76" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R76" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S76" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T76" s="29"/>
       <c r="U76" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V76" s="29"/>
       <c r="W76" s="29"/>
@@ -13278,9 +13302,9 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
-      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
+      <pane xSplit="2" ySplit="6" topLeftCell="C50" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
@@ -13288,9 +13312,9 @@
       <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
-      <pane xSplit="2" ySplit="6" topLeftCell="C50" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
+      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
@@ -13432,10 +13456,10 @@
     </row>
     <row r="8" spans="1:5" s="41" customFormat="1" ht="15">
       <c r="A8" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>163</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>164</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>3</v>
@@ -13546,10 +13570,10 @@
     </row>
     <row r="16" spans="1:5" s="41" customFormat="1" ht="15">
       <c r="A16" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>5</v>
@@ -13624,7 +13648,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>4</v>
@@ -13651,16 +13675,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
-      <selection activeCell="B17" sqref="B17"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
+      <selection activeCell="G36" sqref="G36"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
       <selection activeCell="C7" sqref="C7"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
-      <selection activeCell="G36" sqref="G36"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
+      <selection activeCell="B17" sqref="B17"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-900" windowWidth="47320" windowHeight="28320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-900" windowWidth="32880" windowHeight="29160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,9 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
+    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="2180" windowHeight="891" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="180">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -586,6 +586,21 @@
   </si>
   <si>
     <t>Toteutus / Muut kustannukset</t>
+  </si>
+  <si>
+    <t>Kohdeluettelo / Maksuerät</t>
+  </si>
+  <si>
+    <t>R,W,maksuerat</t>
+  </si>
+  <si>
+    <t>R*,W,maksueratunnus</t>
+  </si>
+  <si>
+    <t>R+,W+,maksuerat</t>
+  </si>
+  <si>
+    <t>R*,W*,maksueratunnus</t>
   </si>
 </sst>
 </file>
@@ -718,7 +733,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="175">
+  <cellStyleXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -894,8 +909,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -985,6 +1002,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -994,7 +1015,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="175">
+  <cellStyles count="177">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1082,6 +1103,7 @@
     <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1169,6 +1191,7 @@
     <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1182,7 +1205,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{5E865E05-EE6E-304C-806E-707B869C773E}" diskRevisions="1" revisionId="370" version="45">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{ED78840A-3509-BB4A-BA89-075EA96D3AEC}" diskRevisions="1" revisionId="389" version="46">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1447,6 +1470,12 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{ED78840A-3509-BB4A-BA89-075EA96D3AEC}" dateTime="2017-04-04T12:06:48" maxSheetId="3" userName="Jarno Väyrynen" r:id="rId46" minRId="371" maxRId="389">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -7923,6 +7952,138 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog45.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="371" sId="1" ref="A34:XFD34" action="insertRow"/>
+  <rcc rId="372" sId="1">
+    <nc r="A34" t="inlineStr">
+      <is>
+        <t>Urakat</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="373" sId="1">
+    <nc r="F34" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="374" sId="1">
+    <nc r="H34" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="375" sId="1">
+    <nc r="I34" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="376" sId="1">
+    <nc r="J34" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="377" sId="1">
+    <nc r="N34" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="378" sId="1">
+    <nc r="O34" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="379" sId="1">
+    <nc r="Q34" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="380" sId="1">
+    <nc r="T34" t="inlineStr">
+      <is>
+        <t>R+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="381" sId="1">
+    <nc r="U34" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="382" sId="1">
+    <nc r="V34" t="inlineStr">
+      <is>
+        <t>R+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="383" sId="1">
+    <nc r="B34" t="inlineStr">
+      <is>
+        <t>Kohdeluettelo / Maksuerät</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="384" sId="1">
+    <nc r="S34" t="inlineStr">
+      <is>
+        <t>R,W,maksuerat</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="385" sId="1">
+    <nc r="L34" t="inlineStr">
+      <is>
+        <t>R*,W,maksueratunnus</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="386" sId="1">
+    <nc r="E34" t="inlineStr">
+      <is>
+        <t>R*,W,maksueratunnus</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="387" sId="1">
+    <nc r="R34" t="inlineStr">
+      <is>
+        <t>R+,W+,maksuerat</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="388" sId="1">
+    <nc r="K34" t="inlineStr">
+      <is>
+        <t>R*,W*,maksueratunnus</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="389" sId="1">
+    <nc r="D34" t="inlineStr">
+      <is>
+        <t>R*,W*,maksueratunnus</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="7" sId="1">
@@ -8561,8 +8722,8 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="10">
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="11">
   <userInfo guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" name="Tatu Tarvainen" id="-130145201" dateTime="2016-09-06T09:10:23"/>
   <userInfo guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" name="Jarno Väyrynen" id="-589116405" dateTime="2016-09-06T12:54:09"/>
   <userInfo guid="{0407E191-78DA-F349-B5E5-8AE1BC03A29E}" name="Jarno Väyrynen" id="-589108428" dateTime="2016-09-08T15:33:24"/>
@@ -8573,6 +8734,7 @@
   <userInfo guid="{B41A3796-87BE-7844-B985-10174BA79182}" name="Jarno Väyrynen" id="-589147330" dateTime="2017-03-13T12:30:30"/>
   <userInfo guid="{AB1578F0-267B-E24D-9EF4-EAE2A9AEBDC8}" name="Jarno Väyrynen" id="-589122421" dateTime="2017-03-17T14:40:01"/>
   <userInfo guid="{5E865E05-EE6E-304C-806E-707B869C773E}" name="Jarno Väyrynen" id="-589107713" dateTime="2017-03-27T13:18:35"/>
+  <userInfo guid="{ED78840A-3509-BB4A-BA89-075EA96D3AEC}" name="Jarno Väyrynen" id="-589165312" dateTime="2017-04-04T12:00:56"/>
 </users>
 </file>
 
@@ -8898,13 +9060,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y76"/>
+  <dimension ref="A1:Y77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -8940,40 +9102,40 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
@@ -8994,30 +9156,30 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1">
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="K5" s="51" t="s">
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="K5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="R5" s="51" t="s">
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="R5" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
       <c r="Y5" s="5" t="s">
         <v>14</v>
       </c>
@@ -10779,19 +10941,19 @@
       <c r="X33" s="21"/>
       <c r="Y33" s="10"/>
     </row>
-    <row r="34" spans="1:25" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="34" spans="1:25" s="50" customFormat="1" ht="15.75" customHeight="1">
       <c r="A34" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="17" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="F34" s="21" t="s">
         <v>127</v>
@@ -10807,10 +10969,10 @@
         <v>113</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="L34" s="21" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="M34" s="21"/>
       <c r="N34" s="21" t="s">
@@ -10819,15 +10981,15 @@
       <c r="O34" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="P34" s="17"/>
+      <c r="P34" s="21"/>
       <c r="Q34" s="21" t="s">
         <v>113</v>
       </c>
       <c r="R34" s="21" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="S34" s="21" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="T34" s="21" t="s">
         <v>131</v>
@@ -10840,13 +11002,14 @@
       </c>
       <c r="W34" s="21"/>
       <c r="X34" s="21"/>
+      <c r="Y34" s="49"/>
     </row>
     <row r="35" spans="1:25" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A35" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="17" t="s">
@@ -10908,7 +11071,7 @@
         <v>15</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="17" t="s">
@@ -10965,12 +11128,12 @@
       <c r="W36" s="21"/>
       <c r="X36" s="21"/>
     </row>
-    <row r="37" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:25" s="38" customFormat="1" ht="15.75" customHeight="1">
       <c r="A37" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="17" t="s">
@@ -10982,14 +11145,12 @@
       <c r="F37" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G37" s="21" t="s">
-        <v>129</v>
-      </c>
+      <c r="G37" s="21"/>
       <c r="H37" s="21" t="s">
         <v>127</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J37" s="21" t="s">
         <v>113</v>
@@ -10998,20 +11159,16 @@
         <v>126</v>
       </c>
       <c r="L37" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="M37" s="21" t="s">
-        <v>113</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M37" s="21"/>
       <c r="N37" s="21" t="s">
         <v>127</v>
       </c>
       <c r="O37" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="P37" s="17" t="s">
-        <v>127</v>
-      </c>
+      <c r="P37" s="17"/>
       <c r="Q37" s="21" t="s">
         <v>113</v>
       </c>
@@ -11025,78 +11182,93 @@
         <v>131</v>
       </c>
       <c r="U37" s="21" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="V37" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="W37" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="X37" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y37" s="12"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
     </row>
-    <row r="38" spans="1:25" s="31" customFormat="1" ht="15.75" customHeight="1">
+    <row r="38" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A38" s="26" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F38" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
+      <c r="G38" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>126</v>
+      </c>
       <c r="J38" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38" s="21" t="s">
-        <v>127</v>
+        <v>113</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>126</v>
       </c>
       <c r="L38" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="M38" s="21"/>
+        <v>133</v>
+      </c>
+      <c r="M38" s="21" t="s">
+        <v>113</v>
+      </c>
       <c r="N38" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
+      <c r="O38" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="P38" s="17" t="s">
+        <v>127</v>
+      </c>
       <c r="Q38" s="21" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="R38" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="S38" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="T38" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="S38" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21" t="s">
+      <c r="U38" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="V38" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="30"/>
+      <c r="W38" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="X38" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y38" s="12"/>
     </row>
-    <row r="39" spans="1:25" s="48" customFormat="1" ht="15.75" customHeight="1">
+    <row r="39" spans="1:25" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A39" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="17" t="s">
@@ -11142,28 +11314,26 @@
       </c>
       <c r="W39" s="21"/>
       <c r="X39" s="21"/>
-      <c r="Y39" s="47"/>
+      <c r="Y39" s="30"/>
     </row>
-    <row r="40" spans="1:25" ht="15.75" customHeight="1">
+    <row r="40" spans="1:25" s="48" customFormat="1" ht="15.75" customHeight="1">
       <c r="A40" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="C40" s="21"/>
-      <c r="D40" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E40" s="21" t="s">
+      <c r="D40" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="17" t="s">
         <v>127</v>
       </c>
       <c r="F40" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G40" s="21" t="s">
-        <v>19</v>
-      </c>
+      <c r="G40" s="21"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
       <c r="J40" s="21" t="s">
@@ -11197,14 +11367,14 @@
       </c>
       <c r="W40" s="21"/>
       <c r="X40" s="21"/>
-      <c r="Y40" s="10"/>
+      <c r="Y40" s="47"/>
     </row>
     <row r="41" spans="1:25" ht="15.75" customHeight="1">
       <c r="A41" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="21"/>
       <c r="D41" s="21" t="s">
@@ -11217,14 +11387,10 @@
         <v>127</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H41" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I41" s="21" t="s">
-        <v>127</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
       <c r="J41" s="21" t="s">
         <v>17</v>
       </c>
@@ -11234,18 +11400,12 @@
       <c r="L41" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M41" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="M41" s="21"/>
       <c r="N41" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O41" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="P41" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
       <c r="Q41" s="21" t="s">
         <v>17</v>
       </c>
@@ -11255,27 +11415,21 @@
       <c r="S41" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T41" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="U41" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
       <c r="V41" s="21" t="s">
         <v>131</v>
       </c>
       <c r="W41" s="21"/>
-      <c r="X41" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="X41" s="21"/>
       <c r="Y41" s="10"/>
     </row>
-    <row r="42" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
+    <row r="42" spans="1:25" ht="15.75" customHeight="1">
       <c r="A42" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="21" t="s">
@@ -11335,20 +11489,18 @@
       <c r="V42" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="W42" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="W42" s="21"/>
       <c r="X42" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Y42" s="36"/>
+      <c r="Y42" s="10"/>
     </row>
-    <row r="43" spans="1:25" ht="15.75" customHeight="1">
+    <row r="43" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="21" t="s">
@@ -11408,18 +11560,20 @@
       <c r="V43" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="W43" s="21"/>
+      <c r="W43" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="X43" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Y43" s="10"/>
+      <c r="Y43" s="36"/>
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1">
       <c r="A44" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="21" t="s">
@@ -11490,7 +11644,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="21" t="s">
@@ -11556,12 +11710,12 @@
       </c>
       <c r="Y45" s="10"/>
     </row>
-    <row r="46" spans="1:25" s="40" customFormat="1" ht="15.75" customHeight="1">
+    <row r="46" spans="1:25" ht="15.75" customHeight="1">
       <c r="A46" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>155</v>
+        <v>48</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="21" t="s">
@@ -11625,14 +11779,14 @@
       <c r="X46" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Y46" s="39"/>
+      <c r="Y46" s="10"/>
     </row>
-    <row r="47" spans="1:25" ht="15.75" customHeight="1">
+    <row r="47" spans="1:25" s="40" customFormat="1" ht="15.75" customHeight="1">
       <c r="A47" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="C47" s="21"/>
       <c r="D47" s="21" t="s">
@@ -11696,14 +11850,14 @@
       <c r="X47" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Y47" s="10"/>
+      <c r="Y47" s="39"/>
     </row>
     <row r="48" spans="1:25" ht="15.75" customHeight="1">
       <c r="A48" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="21" t="s">
@@ -11739,7 +11893,9 @@
       <c r="N48" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O48" s="21"/>
+      <c r="O48" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="P48" s="21" t="s">
         <v>127</v>
       </c>
@@ -11772,7 +11928,7 @@
         <v>43</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" s="21"/>
       <c r="D49" s="21" t="s">
@@ -11808,9 +11964,7 @@
       <c r="N49" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O49" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="O49" s="21"/>
       <c r="P49" s="21" t="s">
         <v>127</v>
       </c>
@@ -11843,7 +11997,7 @@
         <v>43</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" s="21"/>
       <c r="D50" s="21" t="s">
@@ -11855,8 +12009,12 @@
       <c r="F50" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
+      <c r="G50" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="I50" s="21" t="s">
         <v>127</v>
       </c>
@@ -11869,11 +12027,15 @@
       <c r="L50" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M50" s="21"/>
+      <c r="M50" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="N50" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O50" s="21"/>
+      <c r="O50" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="P50" s="21" t="s">
         <v>127</v>
       </c>
@@ -11906,7 +12068,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51" s="21"/>
       <c r="D51" s="21" t="s">
@@ -11919,10 +12081,10 @@
         <v>127</v>
       </c>
       <c r="G51" s="21"/>
-      <c r="H51" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="J51" s="21" t="s">
         <v>17</v>
       </c>
@@ -11936,10 +12098,10 @@
       <c r="N51" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O51" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="P51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="Q51" s="21" t="s">
         <v>17</v>
       </c>
@@ -11949,13 +12111,19 @@
       <c r="S51" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
+      <c r="T51" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U51" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="V51" s="21" t="s">
         <v>131</v>
       </c>
       <c r="W51" s="21"/>
-      <c r="X51" s="21"/>
+      <c r="X51" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="Y51" s="10"/>
     </row>
     <row r="52" spans="1:25" ht="15.75" customHeight="1">
@@ -11963,7 +12131,7 @@
         <v>43</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="21" t="s">
@@ -11976,7 +12144,9 @@
         <v>127</v>
       </c>
       <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
+      <c r="H52" s="21" t="s">
+        <v>19</v>
+      </c>
       <c r="I52" s="21"/>
       <c r="J52" s="21" t="s">
         <v>17</v>
@@ -11991,7 +12161,9 @@
       <c r="N52" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O52" s="21"/>
+      <c r="O52" s="21" t="s">
+        <v>19</v>
+      </c>
       <c r="P52" s="21"/>
       <c r="Q52" s="21" t="s">
         <v>17</v>
@@ -12016,7 +12188,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="21" t="s">
@@ -12069,7 +12241,7 @@
         <v>43</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="21" t="s">
@@ -12117,12 +12289,12 @@
       <c r="X54" s="21"/>
       <c r="Y54" s="10"/>
     </row>
-    <row r="55" spans="1:25" s="28" customFormat="1" ht="15.75" customHeight="1">
+    <row r="55" spans="1:25" ht="15.75" customHeight="1">
       <c r="A55" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="21" t="s">
@@ -12134,15 +12306,9 @@
       <c r="F55" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G55" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H55" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I55" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
       <c r="J55" s="21" t="s">
         <v>17</v>
       </c>
@@ -12152,16 +12318,12 @@
       <c r="L55" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M55" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="M55" s="21"/>
       <c r="N55" s="21" t="s">
         <v>127</v>
       </c>
       <c r="O55" s="21"/>
-      <c r="P55" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="P55" s="21"/>
       <c r="Q55" s="21" t="s">
         <v>17</v>
       </c>
@@ -12171,27 +12333,21 @@
       <c r="S55" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T55" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="U55" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="T55" s="21"/>
+      <c r="U55" s="21"/>
       <c r="V55" s="21" t="s">
         <v>131</v>
       </c>
       <c r="W55" s="21"/>
-      <c r="X55" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y55" s="27"/>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="10"/>
     </row>
-    <row r="56" spans="1:25" s="48" customFormat="1" ht="15.75" customHeight="1">
+    <row r="56" spans="1:25" s="28" customFormat="1" ht="15.75" customHeight="1">
       <c r="A56" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="21" t="s">
@@ -12253,14 +12409,14 @@
       <c r="X56" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Y56" s="47"/>
+      <c r="Y56" s="27"/>
     </row>
-    <row r="57" spans="1:25" ht="15.75" customHeight="1">
+    <row r="57" spans="1:25" s="48" customFormat="1" ht="15.75" customHeight="1">
       <c r="A57" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>57</v>
+        <v>173</v>
       </c>
       <c r="C57" s="21"/>
       <c r="D57" s="21" t="s">
@@ -12296,9 +12452,7 @@
       <c r="N57" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O57" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="O57" s="21"/>
       <c r="P57" s="21" t="s">
         <v>127</v>
       </c>
@@ -12324,14 +12478,14 @@
       <c r="X57" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Y57" s="10"/>
+      <c r="Y57" s="47"/>
     </row>
-    <row r="58" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1">
       <c r="A58" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="C58" s="21"/>
       <c r="D58" s="21" t="s">
@@ -12392,15 +12546,17 @@
         <v>131</v>
       </c>
       <c r="W58" s="21"/>
-      <c r="X58" s="21"/>
-      <c r="Y58" s="36"/>
+      <c r="X58" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y58" s="10"/>
     </row>
     <row r="59" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A59" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C59" s="21"/>
       <c r="D59" s="21" t="s">
@@ -12469,7 +12625,7 @@
         <v>43</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C60" s="21"/>
       <c r="D60" s="21" t="s">
@@ -12538,7 +12694,7 @@
         <v>43</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C61" s="21"/>
       <c r="D61" s="21" t="s">
@@ -12607,7 +12763,7 @@
         <v>43</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C62" s="21"/>
       <c r="D62" s="21" t="s">
@@ -12671,26 +12827,32 @@
       <c r="X62" s="21"/>
       <c r="Y62" s="36"/>
     </row>
-    <row r="63" spans="1:25" s="34" customFormat="1" ht="15.75" customHeight="1">
+    <row r="63" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A63" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C63" s="21"/>
-      <c r="D63" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E63" s="17" t="s">
+      <c r="D63" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E63" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F63" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
+      <c r="G63" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H63" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="I63" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="J63" s="21" t="s">
         <v>17</v>
       </c>
@@ -12700,12 +12862,18 @@
       <c r="L63" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M63" s="21"/>
+      <c r="M63" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="N63" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O63" s="21"/>
-      <c r="P63" s="21"/>
+      <c r="O63" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="P63" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="Q63" s="21" t="s">
         <v>17</v>
       </c>
@@ -12715,39 +12883,39 @@
       <c r="S63" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T63" s="21"/>
-      <c r="U63" s="21"/>
-      <c r="V63" s="21"/>
+      <c r="T63" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U63" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V63" s="21" t="s">
+        <v>131</v>
+      </c>
       <c r="W63" s="21"/>
       <c r="X63" s="21"/>
-      <c r="Y63" s="33"/>
+      <c r="Y63" s="36"/>
     </row>
-    <row r="64" spans="1:25" ht="15.75" customHeight="1">
+    <row r="64" spans="1:25" s="34" customFormat="1" ht="15.75" customHeight="1">
       <c r="A64" s="26" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="C64" s="21"/>
-      <c r="D64" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E64" s="21" t="s">
+      <c r="D64" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E64" s="17" t="s">
         <v>127</v>
       </c>
       <c r="F64" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G64" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H64" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I64" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
       <c r="J64" s="21" t="s">
         <v>17</v>
       </c>
@@ -12757,18 +12925,12 @@
       <c r="L64" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M64" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="M64" s="21"/>
       <c r="N64" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O64" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="P64" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
       <c r="Q64" s="21" t="s">
         <v>17</v>
       </c>
@@ -12778,31 +12940,19 @@
       <c r="S64" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T64" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="U64" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="V64" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="W64" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="X64" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y64" s="49" t="s">
-        <v>60</v>
-      </c>
+      <c r="T64" s="21"/>
+      <c r="U64" s="21"/>
+      <c r="V64" s="21"/>
+      <c r="W64" s="21"/>
+      <c r="X64" s="21"/>
+      <c r="Y64" s="33"/>
     </row>
     <row r="65" spans="1:25" ht="15.75" customHeight="1">
       <c r="A65" s="26" t="s">
         <v>58</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C65" s="21"/>
       <c r="D65" s="21" t="s">
@@ -12868,20 +13018,22 @@
       <c r="X65" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Y65" s="50"/>
+      <c r="Y65" s="51" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="66" spans="1:25" ht="15.75" customHeight="1">
       <c r="A66" s="26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C66" s="21"/>
       <c r="D66" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E66" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E66" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F66" s="21" t="s">
@@ -12900,7 +13052,7 @@
         <v>17</v>
       </c>
       <c r="K66" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L66" s="21" t="s">
         <v>127</v>
@@ -12921,129 +13073,170 @@
         <v>17</v>
       </c>
       <c r="R66" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S66" s="21" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="T66" s="21" t="s">
         <v>131</v>
       </c>
       <c r="U66" s="21" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="V66" s="21" t="s">
         <v>131</v>
       </c>
       <c r="W66" s="21" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="X66" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y66" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="Y66" s="52"/>
     </row>
-    <row r="67" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A67" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C67" s="19"/>
+    <row r="67" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A67" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="21"/>
       <c r="D67" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19"/>
-      <c r="O67" s="19"/>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="19"/>
-      <c r="R67" s="19"/>
-      <c r="S67" s="19"/>
-      <c r="T67" s="19"/>
-      <c r="U67" s="19"/>
-      <c r="V67" s="19"/>
-      <c r="W67" s="19"/>
-      <c r="X67" s="19"/>
-      <c r="Y67" s="14" t="s">
-        <v>65</v>
-      </c>
+      <c r="E67" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G67" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H67" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="I67" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="J67" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="L67" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="M67" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N67" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O67" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="P67" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q67" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R67" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="S67" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="T67" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U67" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="V67" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="W67" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="X67" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y67" s="10"/>
     </row>
-    <row r="68" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A68" s="16" t="s">
+    <row r="68" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A68" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C68" s="17"/>
+      <c r="B68" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="19"/>
       <c r="D68" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H68" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I68" s="17"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="N68" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="O68" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="21"/>
-      <c r="R68" s="17"/>
-      <c r="S68" s="17"/>
-      <c r="T68" s="17"/>
-      <c r="U68" s="17"/>
-      <c r="V68" s="17"/>
-      <c r="W68" s="17"/>
-      <c r="X68" s="17"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
+      <c r="S68" s="19"/>
+      <c r="T68" s="19"/>
+      <c r="U68" s="19"/>
+      <c r="V68" s="19"/>
+      <c r="W68" s="19"/>
+      <c r="X68" s="19"/>
+      <c r="Y68" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="69" spans="1:25" ht="15.75" customHeight="1">
       <c r="A69" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69" s="17"/>
       <c r="D69" s="21" t="s">
         <v>126</v>
       </c>
       <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
+      <c r="F69" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="I69" s="17"/>
       <c r="J69" s="21"/>
       <c r="K69" s="17"/>
       <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
+      <c r="M69" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N69" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O69" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="P69" s="17"/>
       <c r="Q69" s="21"/>
       <c r="R69" s="17"/>
@@ -13059,7 +13252,7 @@
         <v>63</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70" s="17"/>
       <c r="D70" s="21" t="s">
@@ -13091,7 +13284,7 @@
         <v>63</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C71" s="17"/>
       <c r="D71" s="21" t="s">
@@ -13118,12 +13311,12 @@
       <c r="W71" s="17"/>
       <c r="X71" s="17"/>
     </row>
-    <row r="72" spans="1:25" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="72" spans="1:25" ht="15.75" customHeight="1">
       <c r="A72" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>166</v>
+        <v>69</v>
       </c>
       <c r="C72" s="17"/>
       <c r="D72" s="21" t="s">
@@ -13150,12 +13343,12 @@
       <c r="W72" s="17"/>
       <c r="X72" s="17"/>
     </row>
-    <row r="73" spans="1:25" s="35" customFormat="1" ht="15.75" customHeight="1">
+    <row r="73" spans="1:25" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A73" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="21" t="s">
@@ -13182,12 +13375,12 @@
       <c r="W73" s="17"/>
       <c r="X73" s="17"/>
     </row>
-    <row r="74" spans="1:25" s="32" customFormat="1" ht="15.75" customHeight="1">
+    <row r="74" spans="1:25" s="35" customFormat="1" ht="15.75" customHeight="1">
       <c r="A74" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="C74" s="17"/>
       <c r="D74" s="21" t="s">
@@ -13214,97 +13407,129 @@
       <c r="W74" s="17"/>
       <c r="X74" s="17"/>
     </row>
-    <row r="75" spans="1:25" ht="15.75" customHeight="1">
+    <row r="75" spans="1:25" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A75" s="16" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C75" s="20"/>
+        <v>124</v>
+      </c>
+      <c r="C75" s="17"/>
       <c r="D75" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="43"/>
-      <c r="K75" s="20"/>
-      <c r="L75" s="20"/>
-      <c r="M75" s="20"/>
-      <c r="N75" s="20"/>
-      <c r="O75" s="20"/>
-      <c r="P75" s="20"/>
-      <c r="Q75" s="43"/>
-      <c r="R75" s="20"/>
-      <c r="S75" s="20"/>
-      <c r="T75" s="20"/>
-      <c r="U75" s="20"/>
-      <c r="V75" s="20"/>
-      <c r="W75" s="20"/>
-      <c r="X75" s="20"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="17"/>
+      <c r="S75" s="17"/>
+      <c r="T75" s="17"/>
+      <c r="U75" s="17"/>
+      <c r="V75" s="17"/>
+      <c r="W75" s="17"/>
+      <c r="X75" s="17"/>
     </row>
     <row r="76" spans="1:25" ht="15.75" customHeight="1">
       <c r="A76" s="16" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C76" s="20"/>
       <c r="D76" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="43"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="20"/>
+      <c r="O76" s="20"/>
+      <c r="P76" s="20"/>
+      <c r="Q76" s="43"/>
+      <c r="R76" s="20"/>
+      <c r="S76" s="20"/>
+      <c r="T76" s="20"/>
+      <c r="U76" s="20"/>
+      <c r="V76" s="20"/>
+      <c r="W76" s="20"/>
+      <c r="X76" s="20"/>
+    </row>
+    <row r="77" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A77" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" s="20"/>
+      <c r="D77" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E76" s="29" t="s">
+      <c r="E77" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29" t="s">
+      <c r="F77" s="29"/>
+      <c r="G77" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="H76" s="29"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="44" t="s">
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="K76" s="29" t="s">
+      <c r="K77" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="L76" s="29" t="s">
+      <c r="L77" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="M76" s="29" t="s">
+      <c r="M77" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="N76" s="29" t="s">
+      <c r="N77" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="O76" s="29"/>
-      <c r="P76" s="29"/>
-      <c r="Q76" s="44" t="s">
+      <c r="O77" s="29"/>
+      <c r="P77" s="29"/>
+      <c r="Q77" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="R76" s="46" t="s">
+      <c r="R77" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="S76" s="44" t="s">
+      <c r="S77" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="T76" s="29"/>
-      <c r="U76" s="29" t="s">
+      <c r="T77" s="29"/>
+      <c r="U77" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="V76" s="29"/>
-      <c r="W76" s="29"/>
-      <c r="X76" s="29"/>
+      <c r="V77" s="29"/>
+      <c r="W77" s="29"/>
+      <c r="X77" s="29"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
-      <pane xSplit="2" ySplit="6" topLeftCell="C50" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
+      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
@@ -13312,14 +13537,14 @@
       <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
-      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
+      <pane xSplit="2" ySplit="6" topLeftCell="C50" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="6">
-    <mergeCell ref="Y64:Y65"/>
+    <mergeCell ref="Y65:Y66"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="K5:O5"/>
     <mergeCell ref="R5:X5"/>
@@ -13675,16 +13900,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
-      <selection activeCell="G36" sqref="G36"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
+      <selection activeCell="B17" sqref="B17"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
       <selection activeCell="C7" sqref="C7"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
-      <selection activeCell="B17" sqref="B17"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
+      <selection activeCell="G36" sqref="G36"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarihan/Jari/Projektit/Harja/harja/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-900" windowWidth="32880" windowHeight="29160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="43600" windowHeight="19360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -12,16 +17,16 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="2180" windowHeight="866" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="2180" windowHeight="891" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -61,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="181">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -601,6 +606,9 @@
   </si>
   <si>
     <t>R*,W*,maksueratunnus</t>
+  </si>
+  <si>
+    <t>R*,W*,maksuerat,maksueratunnus</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1213,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{ED78840A-3509-BB4A-BA89-075EA96D3AEC}" diskRevisions="1" revisionId="389" version="46">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{EA67C2AA-D5C4-9A49-8DF5-86A96AD16ED9}" diskRevisions="1" revisionId="390" version="47">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1476,6 +1484,12 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{EA67C2AA-D5C4-9A49-8DF5-86A96AD16ED9}" dateTime="2017-04-04T12:26:09" maxSheetId="3" userName="Microsoft Office User" r:id="rId47" minRId="390">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -8084,6 +8098,25 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog46.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="390" sId="1">
+    <oc r="D34" t="inlineStr">
+      <is>
+        <t>R*,W*,maksueratunnus</t>
+      </is>
+    </oc>
+    <nc r="D34" t="inlineStr">
+      <is>
+        <t>R*,W*,maksuerat,maksueratunnus</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="delete"/>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="7" sId="1">
@@ -8722,7 +8755,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="11">
   <userInfo guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" name="Tatu Tarvainen" id="-130145201" dateTime="2016-09-06T09:10:23"/>
   <userInfo guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" name="Jarno Väyrynen" id="-589116405" dateTime="2016-09-06T12:54:09"/>
@@ -9062,14 +9095,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C14" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
@@ -9097,7 +9130,7 @@
     <col min="25" max="25" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="24" customHeight="1">
+    <row r="1" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -9118,7 +9151,7 @@
       <c r="N1" s="55"/>
       <c r="O1" s="55"/>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="56" t="s">
@@ -9137,7 +9170,7 @@
       <c r="N2" s="52"/>
       <c r="O2" s="52"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -9152,10 +9185,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="53" t="s">
         <v>6</v>
       </c>
@@ -9184,7 +9217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -9256,7 +9289,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
@@ -9329,7 +9362,7 @@
       </c>
       <c r="Y7" s="10"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
@@ -9388,7 +9421,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
@@ -9441,7 +9474,7 @@
       <c r="X9" s="17"/>
       <c r="Y9" s="10"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
@@ -9494,7 +9527,7 @@
       <c r="X10" s="17"/>
       <c r="Y10" s="10"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>15</v>
       </c>
@@ -9561,7 +9594,7 @@
       <c r="X11" s="17"/>
       <c r="Y11" s="10"/>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -9628,7 +9661,7 @@
       <c r="X12" s="17"/>
       <c r="Y12" s="10"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
@@ -9683,7 +9716,7 @@
       <c r="X13" s="17"/>
       <c r="Y13" s="10"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
         <v>15</v>
       </c>
@@ -9738,7 +9771,7 @@
       <c r="X14" s="17"/>
       <c r="Y14" s="10"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
@@ -9793,7 +9826,7 @@
       <c r="X15" s="17"/>
       <c r="Y15" s="10"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
@@ -9860,7 +9893,7 @@
       <c r="X16" s="17"/>
       <c r="Y16" s="10"/>
     </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1">
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -9927,7 +9960,7 @@
       <c r="X17" s="17"/>
       <c r="Y17" s="10"/>
     </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1">
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>15</v>
       </c>
@@ -9982,7 +10015,7 @@
       <c r="X18" s="17"/>
       <c r="Y18" s="10"/>
     </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1">
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
@@ -10049,7 +10082,7 @@
       <c r="X19" s="17"/>
       <c r="Y19" s="10"/>
     </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1">
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>15</v>
       </c>
@@ -10122,7 +10155,7 @@
       </c>
       <c r="Y20" s="10"/>
     </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1">
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="26" t="s">
         <v>15</v>
       </c>
@@ -10195,7 +10228,7 @@
       </c>
       <c r="Y21" s="10"/>
     </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1">
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="26" t="s">
         <v>15</v>
       </c>
@@ -10266,7 +10299,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1">
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="26" t="s">
         <v>15</v>
       </c>
@@ -10335,7 +10368,7 @@
       <c r="X23" s="21"/>
       <c r="Y23" s="10"/>
     </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1">
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="26" t="s">
         <v>15</v>
       </c>
@@ -10404,7 +10437,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="26" t="s">
         <v>15</v>
       </c>
@@ -10465,7 +10498,7 @@
       <c r="X25" s="21"/>
       <c r="Y25" s="10"/>
     </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="26" t="s">
         <v>15</v>
       </c>
@@ -10518,7 +10551,7 @@
       <c r="X26" s="21"/>
       <c r="Y26" s="10"/>
     </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1">
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="26" t="s">
         <v>15</v>
       </c>
@@ -10565,7 +10598,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:25" s="48" customFormat="1" ht="15.75" customHeight="1">
+    <row r="28" spans="1:25" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="26" t="s">
         <v>15</v>
       </c>
@@ -10618,7 +10651,7 @@
       <c r="X28" s="21"/>
       <c r="Y28" s="47"/>
     </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1">
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="26" t="s">
         <v>15</v>
       </c>
@@ -10687,7 +10720,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="26" t="s">
         <v>15</v>
       </c>
@@ -10750,7 +10783,7 @@
       <c r="X30" s="21"/>
       <c r="Y30" s="10"/>
     </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="26" t="s">
         <v>15</v>
       </c>
@@ -10815,7 +10848,7 @@
       <c r="X31" s="21"/>
       <c r="Y31" s="10"/>
     </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="26" t="s">
         <v>15</v>
       </c>
@@ -10878,7 +10911,7 @@
       <c r="X32" s="21"/>
       <c r="Y32" s="10"/>
     </row>
-    <row r="33" spans="1:25" ht="15.75" customHeight="1">
+    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="26" t="s">
         <v>15</v>
       </c>
@@ -10941,7 +10974,7 @@
       <c r="X33" s="21"/>
       <c r="Y33" s="10"/>
     </row>
-    <row r="34" spans="1:25" s="50" customFormat="1" ht="15.75" customHeight="1">
+    <row r="34" spans="1:25" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="26" t="s">
         <v>15</v>
       </c>
@@ -10950,7 +10983,7 @@
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>177</v>
@@ -11004,7 +11037,7 @@
       <c r="X34" s="21"/>
       <c r="Y34" s="49"/>
     </row>
-    <row r="35" spans="1:25" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="35" spans="1:25" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="26" t="s">
         <v>15</v>
       </c>
@@ -11066,7 +11099,7 @@
       <c r="W35" s="21"/>
       <c r="X35" s="21"/>
     </row>
-    <row r="36" spans="1:25" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="36" spans="1:25" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="26" t="s">
         <v>15</v>
       </c>
@@ -11128,7 +11161,7 @@
       <c r="W36" s="21"/>
       <c r="X36" s="21"/>
     </row>
-    <row r="37" spans="1:25" s="38" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:25" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="26" t="s">
         <v>15</v>
       </c>
@@ -11190,7 +11223,7 @@
       <c r="W37" s="21"/>
       <c r="X37" s="21"/>
     </row>
-    <row r="38" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1">
+    <row r="38" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="26" t="s">
         <v>15</v>
       </c>
@@ -11263,7 +11296,7 @@
       </c>
       <c r="Y38" s="12"/>
     </row>
-    <row r="39" spans="1:25" s="31" customFormat="1" ht="15.75" customHeight="1">
+    <row r="39" spans="1:25" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="26" t="s">
         <v>43</v>
       </c>
@@ -11316,7 +11349,7 @@
       <c r="X39" s="21"/>
       <c r="Y39" s="30"/>
     </row>
-    <row r="40" spans="1:25" s="48" customFormat="1" ht="15.75" customHeight="1">
+    <row r="40" spans="1:25" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="26" t="s">
         <v>43</v>
       </c>
@@ -11369,7 +11402,7 @@
       <c r="X40" s="21"/>
       <c r="Y40" s="47"/>
     </row>
-    <row r="41" spans="1:25" ht="15.75" customHeight="1">
+    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="26" t="s">
         <v>43</v>
       </c>
@@ -11424,7 +11457,7 @@
       <c r="X41" s="21"/>
       <c r="Y41" s="10"/>
     </row>
-    <row r="42" spans="1:25" ht="15.75" customHeight="1">
+    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="26" t="s">
         <v>43</v>
       </c>
@@ -11495,7 +11528,7 @@
       </c>
       <c r="Y42" s="10"/>
     </row>
-    <row r="43" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
+    <row r="43" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26" t="s">
         <v>43</v>
       </c>
@@ -11568,7 +11601,7 @@
       </c>
       <c r="Y43" s="36"/>
     </row>
-    <row r="44" spans="1:25" ht="15.75" customHeight="1">
+    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="26" t="s">
         <v>43</v>
       </c>
@@ -11639,7 +11672,7 @@
       </c>
       <c r="Y44" s="10"/>
     </row>
-    <row r="45" spans="1:25" ht="15.75" customHeight="1">
+    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="26" t="s">
         <v>43</v>
       </c>
@@ -11710,7 +11743,7 @@
       </c>
       <c r="Y45" s="10"/>
     </row>
-    <row r="46" spans="1:25" ht="15.75" customHeight="1">
+    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="26" t="s">
         <v>43</v>
       </c>
@@ -11781,7 +11814,7 @@
       </c>
       <c r="Y46" s="10"/>
     </row>
-    <row r="47" spans="1:25" s="40" customFormat="1" ht="15.75" customHeight="1">
+    <row r="47" spans="1:25" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="26" t="s">
         <v>43</v>
       </c>
@@ -11852,7 +11885,7 @@
       </c>
       <c r="Y47" s="39"/>
     </row>
-    <row r="48" spans="1:25" ht="15.75" customHeight="1">
+    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="26" t="s">
         <v>43</v>
       </c>
@@ -11923,7 +11956,7 @@
       </c>
       <c r="Y48" s="10"/>
     </row>
-    <row r="49" spans="1:25" ht="15.75" customHeight="1">
+    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="26" t="s">
         <v>43</v>
       </c>
@@ -11992,7 +12025,7 @@
       </c>
       <c r="Y49" s="10"/>
     </row>
-    <row r="50" spans="1:25" ht="15.75" customHeight="1">
+    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="26" t="s">
         <v>43</v>
       </c>
@@ -12063,7 +12096,7 @@
       </c>
       <c r="Y50" s="10"/>
     </row>
-    <row r="51" spans="1:25" ht="15.75" customHeight="1">
+    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="26" t="s">
         <v>43</v>
       </c>
@@ -12126,7 +12159,7 @@
       </c>
       <c r="Y51" s="10"/>
     </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="26" t="s">
         <v>43</v>
       </c>
@@ -12183,7 +12216,7 @@
       <c r="X52" s="21"/>
       <c r="Y52" s="10"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="26" t="s">
         <v>43</v>
       </c>
@@ -12236,7 +12269,7 @@
       <c r="X53" s="21"/>
       <c r="Y53" s="10"/>
     </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="26" t="s">
         <v>43</v>
       </c>
@@ -12289,7 +12322,7 @@
       <c r="X54" s="21"/>
       <c r="Y54" s="10"/>
     </row>
-    <row r="55" spans="1:25" ht="15.75" customHeight="1">
+    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="26" t="s">
         <v>43</v>
       </c>
@@ -12342,7 +12375,7 @@
       <c r="X55" s="21"/>
       <c r="Y55" s="10"/>
     </row>
-    <row r="56" spans="1:25" s="28" customFormat="1" ht="15.75" customHeight="1">
+    <row r="56" spans="1:25" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="26" t="s">
         <v>43</v>
       </c>
@@ -12411,7 +12444,7 @@
       </c>
       <c r="Y56" s="27"/>
     </row>
-    <row r="57" spans="1:25" s="48" customFormat="1" ht="15.75" customHeight="1">
+    <row r="57" spans="1:25" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="26" t="s">
         <v>43</v>
       </c>
@@ -12480,7 +12513,7 @@
       </c>
       <c r="Y57" s="47"/>
     </row>
-    <row r="58" spans="1:25" ht="15.75" customHeight="1">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="26" t="s">
         <v>43</v>
       </c>
@@ -12551,7 +12584,7 @@
       </c>
       <c r="Y58" s="10"/>
     </row>
-    <row r="59" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
+    <row r="59" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="26" t="s">
         <v>43</v>
       </c>
@@ -12620,7 +12653,7 @@
       <c r="X59" s="21"/>
       <c r="Y59" s="36"/>
     </row>
-    <row r="60" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
+    <row r="60" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="26" t="s">
         <v>43</v>
       </c>
@@ -12689,7 +12722,7 @@
       <c r="X60" s="21"/>
       <c r="Y60" s="36"/>
     </row>
-    <row r="61" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
+    <row r="61" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="26" t="s">
         <v>43</v>
       </c>
@@ -12758,7 +12791,7 @@
       <c r="X61" s="21"/>
       <c r="Y61" s="36"/>
     </row>
-    <row r="62" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
+    <row r="62" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="26" t="s">
         <v>43</v>
       </c>
@@ -12827,7 +12860,7 @@
       <c r="X62" s="21"/>
       <c r="Y62" s="36"/>
     </row>
-    <row r="63" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1">
+    <row r="63" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="26" t="s">
         <v>43</v>
       </c>
@@ -12896,7 +12929,7 @@
       <c r="X63" s="21"/>
       <c r="Y63" s="36"/>
     </row>
-    <row r="64" spans="1:25" s="34" customFormat="1" ht="15.75" customHeight="1">
+    <row r="64" spans="1:25" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="26" t="s">
         <v>43</v>
       </c>
@@ -12947,7 +12980,7 @@
       <c r="X64" s="21"/>
       <c r="Y64" s="33"/>
     </row>
-    <row r="65" spans="1:25" ht="15.75" customHeight="1">
+    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="26" t="s">
         <v>58</v>
       </c>
@@ -13022,7 +13055,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:25" ht="15.75" customHeight="1">
+    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="26" t="s">
         <v>58</v>
       </c>
@@ -13095,7 +13128,7 @@
       </c>
       <c r="Y66" s="52"/>
     </row>
-    <row r="67" spans="1:25" ht="15.75" customHeight="1">
+    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="26" t="s">
         <v>62</v>
       </c>
@@ -13168,7 +13201,7 @@
       </c>
       <c r="Y67" s="10"/>
     </row>
-    <row r="68" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1">
+    <row r="68" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="18" t="s">
         <v>63</v>
       </c>
@@ -13203,7 +13236,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="15.75" customHeight="1">
+    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="16" t="s">
         <v>63</v>
       </c>
@@ -13247,7 +13280,7 @@
       <c r="W69" s="17"/>
       <c r="X69" s="17"/>
     </row>
-    <row r="70" spans="1:25" ht="15.75" customHeight="1">
+    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="16" t="s">
         <v>63</v>
       </c>
@@ -13279,7 +13312,7 @@
       <c r="W70" s="17"/>
       <c r="X70" s="17"/>
     </row>
-    <row r="71" spans="1:25" ht="15.75" customHeight="1">
+    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="16" t="s">
         <v>63</v>
       </c>
@@ -13311,7 +13344,7 @@
       <c r="W71" s="17"/>
       <c r="X71" s="17"/>
     </row>
-    <row r="72" spans="1:25" ht="15.75" customHeight="1">
+    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="16" t="s">
         <v>63</v>
       </c>
@@ -13343,7 +13376,7 @@
       <c r="W72" s="17"/>
       <c r="X72" s="17"/>
     </row>
-    <row r="73" spans="1:25" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="73" spans="1:25" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="16" t="s">
         <v>63</v>
       </c>
@@ -13375,7 +13408,7 @@
       <c r="W73" s="17"/>
       <c r="X73" s="17"/>
     </row>
-    <row r="74" spans="1:25" s="35" customFormat="1" ht="15.75" customHeight="1">
+    <row r="74" spans="1:25" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="16" t="s">
         <v>63</v>
       </c>
@@ -13407,7 +13440,7 @@
       <c r="W74" s="17"/>
       <c r="X74" s="17"/>
     </row>
-    <row r="75" spans="1:25" s="32" customFormat="1" ht="15.75" customHeight="1">
+    <row r="75" spans="1:25" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="16" t="s">
         <v>63</v>
       </c>
@@ -13439,7 +13472,7 @@
       <c r="W75" s="17"/>
       <c r="X75" s="17"/>
     </row>
-    <row r="76" spans="1:25" ht="15.75" customHeight="1">
+    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="16" t="s">
         <v>109</v>
       </c>
@@ -13471,7 +13504,7 @@
       <c r="W76" s="20"/>
       <c r="X76" s="20"/>
     </row>
-    <row r="77" spans="1:25" ht="15.75" customHeight="1">
+    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="16" t="s">
         <v>119</v>
       </c>
@@ -13527,19 +13560,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
-      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
+      <pane xSplit="2" ySplit="6" topLeftCell="C14" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
       <pane xSplit="2" ySplit="6.0384615384615383" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
-      <pane xSplit="2" ySplit="6" topLeftCell="C50" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
+      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
@@ -13551,14 +13587,9 @@
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="C2:O2"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -13567,10 +13598,10 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" customWidth="1"/>
@@ -13578,7 +13609,7 @@
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>70</v>
       </c>
@@ -13595,7 +13626,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>73</v>
       </c>
@@ -13608,7 +13639,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="15">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>75</v>
       </c>
@@ -13621,7 +13652,7 @@
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="1:5" ht="15">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>77</v>
       </c>
@@ -13634,7 +13665,7 @@
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="1:5" ht="15">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>96</v>
       </c>
@@ -13649,7 +13680,7 @@
       </c>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:5" ht="15">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>97</v>
       </c>
@@ -13664,7 +13695,7 @@
       </c>
       <c r="E6" s="24"/>
     </row>
-    <row r="7" spans="1:5" ht="15">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>98</v>
       </c>
@@ -13679,7 +13710,7 @@
       </c>
       <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:5" s="41" customFormat="1" ht="15">
+    <row r="8" spans="1:5" s="41" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>162</v>
       </c>
@@ -13694,7 +13725,7 @@
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:5" ht="15">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>99</v>
       </c>
@@ -13709,7 +13740,7 @@
       </c>
       <c r="E9" s="24"/>
     </row>
-    <row r="10" spans="1:5" ht="15">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>108</v>
       </c>
@@ -13722,7 +13753,7 @@
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
     </row>
-    <row r="11" spans="1:5" ht="15">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>107</v>
       </c>
@@ -13735,7 +13766,7 @@
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
-    <row r="12" spans="1:5" ht="15">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>106</v>
       </c>
@@ -13748,7 +13779,7 @@
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:5" ht="15">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>100</v>
       </c>
@@ -13763,7 +13794,7 @@
       </c>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:5" ht="15">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>105</v>
       </c>
@@ -13778,7 +13809,7 @@
       </c>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:5" ht="15">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>101</v>
       </c>
@@ -13793,7 +13824,7 @@
       </c>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:5" s="41" customFormat="1" ht="15">
+    <row r="16" spans="1:5" s="41" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>161</v>
       </c>
@@ -13808,7 +13839,7 @@
       </c>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="1:5" ht="15">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>102</v>
       </c>
@@ -13823,7 +13854,7 @@
       </c>
       <c r="E17" s="24"/>
     </row>
-    <row r="18" spans="1:5" ht="15">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>103</v>
       </c>
@@ -13838,7 +13869,7 @@
       </c>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" ht="15">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>122</v>
       </c>
@@ -13853,7 +13884,7 @@
       </c>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" ht="15">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>12</v>
       </c>
@@ -13868,7 +13899,7 @@
       </c>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" ht="15">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>13</v>
       </c>
@@ -13883,7 +13914,7 @@
       </c>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" ht="15">
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>104</v>
       </c>
@@ -13900,25 +13931,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
-      <selection activeCell="B17" sqref="B17"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
+      <selection activeCell="G36" sqref="G36"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
       <selection activeCell="C7" sqref="C7"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
-      <selection activeCell="G36" sqref="G36"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
+      <selection activeCell="B17" sqref="B17"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="43600" windowHeight="19360" tabRatio="500"/>
+    <workbookView xWindow="1780" yWindow="1520" windowWidth="43600" windowHeight="18860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,9 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="2180" windowHeight="866" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="2180" windowHeight="770" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -596,19 +596,19 @@
     <t>Kohdeluettelo / Maksuerät</t>
   </si>
   <si>
-    <t>R,W,maksuerat</t>
-  </si>
-  <si>
-    <t>R*,W,maksueratunnus</t>
-  </si>
-  <si>
-    <t>R+,W+,maksuerat</t>
-  </si>
-  <si>
-    <t>R*,W*,maksueratunnus</t>
-  </si>
-  <si>
-    <t>R*,W*,maksuerat,maksueratunnus</t>
+    <t>R*,W*,maksuerät,maksuerätunnus</t>
+  </si>
+  <si>
+    <t>R*,W,maksuerätunnus</t>
+  </si>
+  <si>
+    <t>R*,W*,maksuerätunnus</t>
+  </si>
+  <si>
+    <t>R+,W+,maksuerät</t>
+  </si>
+  <si>
+    <t>R,W,maksuerät</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1213,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{EA67C2AA-D5C4-9A49-8DF5-86A96AD16ED9}" diskRevisions="1" revisionId="390" version="47">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{CF2EB214-A1D0-0A48-BB84-067F19F3C965}" diskRevisions="1" revisionId="396" version="48">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1490,6 +1490,12 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{CF2EB214-A1D0-0A48-BB84-067F19F3C965}" dateTime="2017-04-04T13:01:58" maxSheetId="3" userName="Microsoft Office User" r:id="rId48" minRId="391" maxRId="396">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -8109,6 +8115,85 @@
     <nc r="D34" t="inlineStr">
       <is>
         <t>R*,W*,maksuerat,maksueratunnus</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="delete"/>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog47.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="391" sId="1">
+    <oc r="D34" t="inlineStr">
+      <is>
+        <t>R*,W*,maksuerat,maksueratunnus</t>
+      </is>
+    </oc>
+    <nc r="D34" t="inlineStr">
+      <is>
+        <t>R*,W*,maksuerät,maksuerätunnus</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="392" sId="1">
+    <oc r="E34" t="inlineStr">
+      <is>
+        <t>R*,W,maksueratunnus</t>
+      </is>
+    </oc>
+    <nc r="E34" t="inlineStr">
+      <is>
+        <t>R*,W,maksuerätunnus</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="393" sId="1">
+    <oc r="K34" t="inlineStr">
+      <is>
+        <t>R*,W*,maksueratunnus</t>
+      </is>
+    </oc>
+    <nc r="K34" t="inlineStr">
+      <is>
+        <t>R*,W*,maksuerätunnus</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="394" sId="1">
+    <oc r="L34" t="inlineStr">
+      <is>
+        <t>R*,W,maksueratunnus</t>
+      </is>
+    </oc>
+    <nc r="L34" t="inlineStr">
+      <is>
+        <t>R*,W,maksuerätunnus</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="395" sId="1">
+    <oc r="R34" t="inlineStr">
+      <is>
+        <t>R+,W+,maksuerat</t>
+      </is>
+    </oc>
+    <nc r="R34" t="inlineStr">
+      <is>
+        <t>R+,W+,maksuerät</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="396" sId="1">
+    <oc r="S34" t="inlineStr">
+      <is>
+        <t>R,W,maksuerat</t>
+      </is>
+    </oc>
+    <nc r="S34" t="inlineStr">
+      <is>
+        <t>R,W,maksuerät</t>
       </is>
     </nc>
   </rcc>
@@ -9096,10 +9181,10 @@
   <dimension ref="A1:Y77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C14" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C19" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10983,7 +11068,7 @@
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>177</v>
@@ -11002,7 +11087,7 @@
         <v>113</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L34" s="21" t="s">
         <v>177</v>
@@ -11019,10 +11104,10 @@
         <v>113</v>
       </c>
       <c r="R34" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S34" s="21" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="T34" s="21" t="s">
         <v>131</v>
@@ -13561,20 +13646,20 @@
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
-      <pane xSplit="2" ySplit="6" topLeftCell="C14" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C19" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
+      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
       <pane xSplit="2" ySplit="6.0384615384615383" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
-      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
@@ -13936,13 +14021,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
-      <selection activeCell="C7" sqref="C7"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
+      <selection activeCell="B17" sqref="B17"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
-      <selection activeCell="B17" sqref="B17"/>
+    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
+      <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="1520" windowWidth="43600" windowHeight="18860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="43600" windowHeight="16940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,9 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="2180" windowHeight="770" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="2180" windowHeight="674" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -596,9 +596,6 @@
     <t>Kohdeluettelo / Maksuerät</t>
   </si>
   <si>
-    <t>R*,W*,maksuerät,maksuerätunnus</t>
-  </si>
-  <si>
     <t>R*,W,maksuerätunnus</t>
   </si>
   <si>
@@ -609,6 +606,9 @@
   </si>
   <si>
     <t>R,W,maksuerät</t>
+  </si>
+  <si>
+    <t>R*,W*,maksuerät*,maksuerätunnus*</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1213,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{CF2EB214-A1D0-0A48-BB84-067F19F3C965}" diskRevisions="1" revisionId="396" version="48">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{BB78E6C2-81A3-BD4F-8C39-7DD20054638D}" diskRevisions="1" revisionId="397" version="49">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1496,6 +1496,12 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{BB78E6C2-81A3-BD4F-8C39-7DD20054638D}" dateTime="2017-04-04T13:32:43" maxSheetId="3" userName="Microsoft Office User" r:id="rId49" minRId="397">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -8194,6 +8200,25 @@
     <nc r="S34" t="inlineStr">
       <is>
         <t>R,W,maksuerät</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="delete"/>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog48.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="397" sId="1">
+    <oc r="D34" t="inlineStr">
+      <is>
+        <t>R*,W*,maksuerät,maksuerätunnus</t>
+      </is>
+    </oc>
+    <nc r="D34" t="inlineStr">
+      <is>
+        <t>R*,W*,maksuerät*,maksuerätunnus*</t>
       </is>
     </nc>
   </rcc>
@@ -9181,10 +9206,10 @@
   <dimension ref="A1:Y77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C19" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C20" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11068,10 +11093,10 @@
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" s="17" t="s">
         <v>176</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>177</v>
       </c>
       <c r="F34" s="21" t="s">
         <v>127</v>
@@ -11087,10 +11112,10 @@
         <v>113</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L34" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M34" s="21"/>
       <c r="N34" s="21" t="s">
@@ -11104,10 +11129,10 @@
         <v>113</v>
       </c>
       <c r="R34" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="S34" s="21" t="s">
         <v>179</v>
-      </c>
-      <c r="S34" s="21" t="s">
-        <v>180</v>
       </c>
       <c r="T34" s="21" t="s">
         <v>131</v>
@@ -13646,20 +13671,20 @@
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
-      <pane xSplit="2" ySplit="6" topLeftCell="C19" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C20" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
+      <pane xSplit="2" ySplit="6.0384615384615383" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
       <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
-      <pane xSplit="2" ySplit="6.0384615384615383" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
@@ -14021,13 +14046,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
-      <selection activeCell="B17" sqref="B17"/>
+    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
+      <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
-      <selection activeCell="C7" sqref="C7"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
+      <selection activeCell="B17" sqref="B17"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarihan/Jari/Projektit/Harja/harja/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teemukau/code/harja/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="43600" windowHeight="16940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="43600" windowHeight="15020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,9 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="2180" windowHeight="674" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="2180" windowHeight="578" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="182">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -609,6 +609,9 @@
   </si>
   <si>
     <t>R*,W*,maksuerät*,maksuerätunnus*</t>
+  </si>
+  <si>
+    <t>Vesiväylät</t>
   </si>
 </sst>
 </file>
@@ -920,7 +923,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1009,6 +1012,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1213,7 +1217,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{BB78E6C2-81A3-BD4F-8C39-7DD20054638D}" diskRevisions="1" revisionId="397" version="49">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{88D4547C-A4BB-3843-ABD6-020023F84CCA}" diskRevisions="1" revisionId="401" version="50">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1502,6 +1506,12 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{88D4547C-A4BB-3843-ABD6-020023F84CCA}" dateTime="2017-04-07T14:46:40" maxSheetId="3" userName="Microsoft Office User" r:id="rId50" minRId="398" maxRId="401">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -8227,6 +8237,35 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog49.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="398" sId="1" ref="A75:XFD75" action="insertRow"/>
+  <rcc rId="399" sId="1">
+    <nc r="A75" t="inlineStr">
+      <is>
+        <t>Hallinta</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="400" sId="1">
+    <nc r="B75" t="inlineStr">
+      <is>
+        <t>Vesiväylät</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="401" sId="1">
+    <nc r="D75" t="inlineStr">
+      <is>
+        <t>R*,W*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="delete"/>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="7" sId="1">
@@ -8866,7 +8905,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="11">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="12">
   <userInfo guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" name="Tatu Tarvainen" id="-130145201" dateTime="2016-09-06T09:10:23"/>
   <userInfo guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" name="Jarno Väyrynen" id="-589116405" dateTime="2016-09-06T12:54:09"/>
   <userInfo guid="{0407E191-78DA-F349-B5E5-8AE1BC03A29E}" name="Jarno Väyrynen" id="-589108428" dateTime="2016-09-08T15:33:24"/>
@@ -8878,6 +8917,7 @@
   <userInfo guid="{AB1578F0-267B-E24D-9EF4-EAE2A9AEBDC8}" name="Jarno Väyrynen" id="-589122421" dateTime="2017-03-17T14:40:01"/>
   <userInfo guid="{5E865E05-EE6E-304C-806E-707B869C773E}" name="Jarno Väyrynen" id="-589107713" dateTime="2017-03-27T13:18:35"/>
   <userInfo guid="{ED78840A-3509-BB4A-BA89-075EA96D3AEC}" name="Jarno Väyrynen" id="-589165312" dateTime="2017-04-04T12:00:56"/>
+  <userInfo guid="{88D4547C-A4BB-3843-ABD6-020023F84CCA}" name="Microsoft Office User" id="-297001900" dateTime="2017-04-07T14:47:26"/>
 </users>
 </file>
 
@@ -9203,13 +9243,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y77"/>
+  <dimension ref="A1:Y78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C20" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C67" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9245,40 +9285,40 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
@@ -9299,30 +9339,30 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="K5" s="53" t="s">
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="K5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="R5" s="53" t="s">
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="R5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
       <c r="Y5" s="5" t="s">
         <v>14</v>
       </c>
@@ -13161,7 +13201,7 @@
       <c r="X65" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Y65" s="51" t="s">
+      <c r="Y65" s="52" t="s">
         <v>60</v>
       </c>
     </row>
@@ -13236,7 +13276,7 @@
       <c r="X66" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Y66" s="52"/>
+      <c r="Y66" s="53"/>
     </row>
     <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="26" t="s">
@@ -13550,12 +13590,12 @@
       <c r="W74" s="17"/>
       <c r="X74" s="17"/>
     </row>
-    <row r="75" spans="1:25" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:25" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="21" t="s">
@@ -13582,109 +13622,141 @@
       <c r="W75" s="17"/>
       <c r="X75" s="17"/>
     </row>
-    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:25" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="16" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C76" s="20"/>
+        <v>124</v>
+      </c>
+      <c r="C76" s="17"/>
       <c r="D76" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="43"/>
-      <c r="K76" s="20"/>
-      <c r="L76" s="20"/>
-      <c r="M76" s="20"/>
-      <c r="N76" s="20"/>
-      <c r="O76" s="20"/>
-      <c r="P76" s="20"/>
-      <c r="Q76" s="43"/>
-      <c r="R76" s="20"/>
-      <c r="S76" s="20"/>
-      <c r="T76" s="20"/>
-      <c r="U76" s="20"/>
-      <c r="V76" s="20"/>
-      <c r="W76" s="20"/>
-      <c r="X76" s="20"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="21"/>
+      <c r="R76" s="17"/>
+      <c r="S76" s="17"/>
+      <c r="T76" s="17"/>
+      <c r="U76" s="17"/>
+      <c r="V76" s="17"/>
+      <c r="W76" s="17"/>
+      <c r="X76" s="17"/>
     </row>
     <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="16" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C77" s="20"/>
       <c r="D77" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="43"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="20"/>
+      <c r="N77" s="20"/>
+      <c r="O77" s="20"/>
+      <c r="P77" s="20"/>
+      <c r="Q77" s="43"/>
+      <c r="R77" s="20"/>
+      <c r="S77" s="20"/>
+      <c r="T77" s="20"/>
+      <c r="U77" s="20"/>
+      <c r="V77" s="20"/>
+      <c r="W77" s="20"/>
+      <c r="X77" s="20"/>
+    </row>
+    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" s="20"/>
+      <c r="D78" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E77" s="29" t="s">
+      <c r="E78" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29" t="s">
+      <c r="F78" s="29"/>
+      <c r="G78" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="H77" s="29"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="44" t="s">
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="K77" s="29" t="s">
+      <c r="K78" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="L77" s="29" t="s">
+      <c r="L78" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="M77" s="29" t="s">
+      <c r="M78" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="N77" s="29" t="s">
+      <c r="N78" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="O77" s="29"/>
-      <c r="P77" s="29"/>
-      <c r="Q77" s="44" t="s">
+      <c r="O78" s="29"/>
+      <c r="P78" s="29"/>
+      <c r="Q78" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="R77" s="46" t="s">
+      <c r="R78" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="S77" s="44" t="s">
+      <c r="S78" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="T77" s="29"/>
-      <c r="U77" s="29" t="s">
+      <c r="T78" s="29"/>
+      <c r="U78" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="V77" s="29"/>
-      <c r="W77" s="29"/>
-      <c r="X77" s="29"/>
+      <c r="V78" s="29"/>
+      <c r="W78" s="29"/>
+      <c r="X78" s="29"/>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
-      <pane xSplit="2" ySplit="6" topLeftCell="C20" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C67" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="D75" sqref="D75"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
+      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
       <pane xSplit="2" ySplit="6.0384615384615383" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
-      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
@@ -14046,13 +14118,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
-      <selection activeCell="C7" sqref="C7"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
+      <selection activeCell="B17" sqref="B17"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
-      <selection activeCell="B17" sqref="B17"/>
+    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
+      <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -8905,7 +8905,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="12">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="13">
   <userInfo guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" name="Tatu Tarvainen" id="-130145201" dateTime="2016-09-06T09:10:23"/>
   <userInfo guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" name="Jarno Väyrynen" id="-589116405" dateTime="2016-09-06T12:54:09"/>
   <userInfo guid="{0407E191-78DA-F349-B5E5-8AE1BC03A29E}" name="Jarno Väyrynen" id="-589108428" dateTime="2016-09-08T15:33:24"/>
@@ -8918,6 +8918,7 @@
   <userInfo guid="{5E865E05-EE6E-304C-806E-707B869C773E}" name="Jarno Väyrynen" id="-589107713" dateTime="2017-03-27T13:18:35"/>
   <userInfo guid="{ED78840A-3509-BB4A-BA89-075EA96D3AEC}" name="Jarno Väyrynen" id="-589165312" dateTime="2017-04-04T12:00:56"/>
   <userInfo guid="{88D4547C-A4BB-3843-ABD6-020023F84CCA}" name="Microsoft Office User" id="-297001900" dateTime="2017-04-07T14:47:26"/>
+  <userInfo guid="{88D4547C-A4BB-3843-ABD6-020023F84CCA}" name="Microsoft Office User" id="-296969784" dateTime="2017-05-08T10:00:09"/>
 </users>
 </file>
 

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -9,17 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="43600" windowHeight="15020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="15380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
     <sheet name="Roolit" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Oikeudet!$A$5:$Y$83</definedName>
+    <definedName name="Z_7A9649F2_657F_9445_B6E6_FE94C6A09957_.wvu.FilterData" localSheetId="0" hidden="1">Oikeudet!$A$5:$Y$83</definedName>
+  </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="2180" windowHeight="578" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="1920" windowHeight="596" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -66,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="187">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -612,6 +616,21 @@
   </si>
   <si>
     <t>Vesiväylät</t>
+  </si>
+  <si>
+    <t>Vesiväylätoimenpiteet / Kokonaishintaiset</t>
+  </si>
+  <si>
+    <t>Vesiväylätoimenpiteet / Yksikköhintaiset</t>
+  </si>
+  <si>
+    <t>Vesiväylälaadunseuranta / Sanktiot</t>
+  </si>
+  <si>
+    <t>Vesiväylä / Turvalaitteet</t>
+  </si>
+  <si>
+    <t>Vesiväylälaadunseuranta / Viat</t>
   </si>
 </sst>
 </file>
@@ -923,7 +942,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1013,6 +1032,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1217,7 +1240,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{88D4547C-A4BB-3843-ABD6-020023F84CCA}" diskRevisions="1" revisionId="401" version="50">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{084BE7CF-27AE-7F41-8749-56DF6A95DCBA}" diskRevisions="1" revisionId="437" version="56">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1512,6 +1535,42 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{2A3C1768-5A6C-F54A-9706-235E6C37C69A}" dateTime="2017-05-08T12:22:39" maxSheetId="3" userName="Microsoft Office User" r:id="rId51" minRId="402" maxRId="417">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F5607BA9-8194-A34F-8708-244DCBB6E78D}" dateTime="2017-05-08T12:30:36" maxSheetId="3" userName="Microsoft Office User" r:id="rId52" minRId="419" maxRId="423">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{49EFA7EF-02CD-D544-BC84-4A84D4318CBC}" dateTime="2017-05-08T12:31:27" maxSheetId="3" userName="Microsoft Office User" r:id="rId53" minRId="425">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{29D41E1A-269D-AF4B-AFC8-7844773F57C6}" dateTime="2017-05-08T13:07:40" maxSheetId="3" userName="Microsoft Office User" r:id="rId54" minRId="426" maxRId="427">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{06DC6EEF-37B9-1D49-8D4D-C0FD1057F30B}" dateTime="2017-05-08T13:15:50" maxSheetId="3" userName="Microsoft Office User" r:id="rId55" minRId="428" maxRId="430">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{084BE7CF-27AE-7F41-8749-56DF6A95DCBA}" dateTime="2017-05-08T13:37:31" maxSheetId="3" userName="Microsoft Office User" r:id="rId56" minRId="432" maxRId="436">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -8816,6 +8875,357 @@
   </rcc>
   <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="delete"/>
   <rcv guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog50.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="402" sId="1" ref="A39:XFD43" action="insertRow"/>
+  <rcc rId="403" sId="1">
+    <nc r="A39" t="inlineStr">
+      <is>
+        <t>Urakat</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="404" sId="1">
+    <nc r="B39" t="inlineStr">
+      <is>
+        <t>Vesivaylat / Toimenpiteet / Kokonaishintaiset</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="405" sId="1">
+    <nc r="D39" t="inlineStr">
+      <is>
+        <t>R*,W*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="406" sId="1">
+    <nc r="A40" t="inlineStr">
+      <is>
+        <t>Urakat</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="407" sId="1">
+    <nc r="B40" t="inlineStr">
+      <is>
+        <t>Vesivaylat / Toimenpiteet / Yksikköhintaiset</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="408" sId="1">
+    <nc r="D40" t="inlineStr">
+      <is>
+        <t>R*,W*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="409" sId="1">
+    <nc r="A41" t="inlineStr">
+      <is>
+        <t>Urakat</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="410" sId="1">
+    <nc r="B41" t="inlineStr">
+      <is>
+        <t>Vesivaylat / Laadunseuranta / Viat</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="411" sId="1">
+    <nc r="D41" t="inlineStr">
+      <is>
+        <t>R*,W*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="412" sId="1">
+    <nc r="A42" t="inlineStr">
+      <is>
+        <t>Urakat</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="413" sId="1">
+    <nc r="B42" t="inlineStr">
+      <is>
+        <t>Vesivaylat / Laadunseuranta / Sanktiot</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="414" sId="1">
+    <nc r="D42" t="inlineStr">
+      <is>
+        <t>R*,W*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="415" sId="1">
+    <nc r="A43" t="inlineStr">
+      <is>
+        <t>Urakat</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="416" sId="1">
+    <nc r="B43" t="inlineStr">
+      <is>
+        <t>Vesivaylat / Turvalaitteet</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="417" sId="1">
+    <nc r="D43" t="inlineStr">
+      <is>
+        <t>R*,W*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_7A9649F2_657F_9445_B6E6_FE94C6A09957_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Oikeudet!$A$5:$Y$83</formula>
+  </rdn>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog51.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="419" sId="1">
+    <oc r="B41" t="inlineStr">
+      <is>
+        <t>Vesivaylat / Laadunseuranta / Viat</t>
+      </is>
+    </oc>
+    <nc r="B41" t="inlineStr">
+      <is>
+        <t>Vesiväylälaadunseuranta / Viat</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="420" sId="1">
+    <oc r="B39" t="inlineStr">
+      <is>
+        <t>Vesivaylat / Toimenpiteet / Kokonaishintaiset</t>
+      </is>
+    </oc>
+    <nc r="B39" t="inlineStr">
+      <is>
+        <t>Vesiväylätoimenpiteet / Kokonaishintaiset</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="421" sId="1">
+    <oc r="B40" t="inlineStr">
+      <is>
+        <t>Vesivaylat / Toimenpiteet / Yksikköhintaiset</t>
+      </is>
+    </oc>
+    <nc r="B40" t="inlineStr">
+      <is>
+        <t>Vesiväylätoimenpiteet / Yksikköhintaiset</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="422" sId="1">
+    <oc r="B42" t="inlineStr">
+      <is>
+        <t>Vesivaylat / Laadunseuranta / Sanktiot</t>
+      </is>
+    </oc>
+    <nc r="B42" t="inlineStr">
+      <is>
+        <t>Vesiväylälaadunseuranta / Sanktiot</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="423" sId="1">
+    <oc r="B43" t="inlineStr">
+      <is>
+        <t>Vesivaylat / Turvalaitteet</t>
+      </is>
+    </oc>
+    <nc r="B43" t="inlineStr">
+      <is>
+        <t>Vesiväylät / Turvalaitteet</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_7A9649F2_657F_9445_B6E6_FE94C6A09957_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Oikeudet!$A$5:$Y$83</formula>
+    <oldFormula>Oikeudet!$A$5:$Y$83</oldFormula>
+  </rdn>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog52.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="425" sId="1">
+    <oc r="B43" t="inlineStr">
+      <is>
+        <t>Vesiväylät / Turvalaitteet</t>
+      </is>
+    </oc>
+    <nc r="B43" t="inlineStr">
+      <is>
+        <t>Vesiväylä / Turvalaitteet</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog53.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="426" sId="1">
+    <oc r="B39" t="inlineStr">
+      <is>
+        <t>Vesiväylätoimenpiteet / Kokonaishintaiset</t>
+      </is>
+    </oc>
+    <nc r="B39" t="inlineStr">
+      <is>
+        <t>Vesiväylät / Toimenpiteet / Kokonaishintaiset</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="427" sId="1">
+    <oc r="B40" t="inlineStr">
+      <is>
+        <t>Vesiväylätoimenpiteet / Yksikköhintaiset</t>
+      </is>
+    </oc>
+    <nc r="B40" t="inlineStr">
+      <is>
+        <t>Vesiväylät / Toimenpiteet / Yksikköhintaiset</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog54.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="428" sId="1">
+    <oc r="B41" t="inlineStr">
+      <is>
+        <t>Vesiväylälaadunseuranta / Viat</t>
+      </is>
+    </oc>
+    <nc r="B41" t="inlineStr">
+      <is>
+        <t>Vesiväylät / Laadunseuranta / Viat</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="429" sId="1">
+    <oc r="B42" t="inlineStr">
+      <is>
+        <t>Vesiväylälaadunseuranta / Sanktiot</t>
+      </is>
+    </oc>
+    <nc r="B42" t="inlineStr">
+      <is>
+        <t>Vesiväylät / Laadunseuranta / Sanktiot</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="430" sId="1">
+    <oc r="B43" t="inlineStr">
+      <is>
+        <t>Vesiväylä / Turvalaitteet</t>
+      </is>
+    </oc>
+    <nc r="B43" t="inlineStr">
+      <is>
+        <t>Vesiväylät / Turvalaitteet</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_7A9649F2_657F_9445_B6E6_FE94C6A09957_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Oikeudet!$A$5:$Y$83</formula>
+    <oldFormula>Oikeudet!$A$5:$Y$83</oldFormula>
+  </rdn>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog55.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="432" sId="1">
+    <oc r="B39" t="inlineStr">
+      <is>
+        <t>Vesiväylät / Toimenpiteet / Kokonaishintaiset</t>
+      </is>
+    </oc>
+    <nc r="B39" t="inlineStr">
+      <is>
+        <t>Vesiväylätoimenpiteet / Kokonaishintaiset</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="433" sId="1">
+    <oc r="B40" t="inlineStr">
+      <is>
+        <t>Vesiväylät / Toimenpiteet / Yksikköhintaiset</t>
+      </is>
+    </oc>
+    <nc r="B40" t="inlineStr">
+      <is>
+        <t>Vesiväylätoimenpiteet / Yksikköhintaiset</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="434" sId="1">
+    <oc r="B42" t="inlineStr">
+      <is>
+        <t>Vesiväylät / Laadunseuranta / Sanktiot</t>
+      </is>
+    </oc>
+    <nc r="B42" t="inlineStr">
+      <is>
+        <t>Vesiväylälaadunseuranta / Sanktiot</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="435" sId="1">
+    <oc r="B43" t="inlineStr">
+      <is>
+        <t>Vesiväylät / Turvalaitteet</t>
+      </is>
+    </oc>
+    <nc r="B43" t="inlineStr">
+      <is>
+        <t>Vesiväylä / Turvalaitteet</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="436" sId="1">
+    <oc r="B41" t="inlineStr">
+      <is>
+        <t>Vesiväylät / Laadunseuranta / Viat</t>
+      </is>
+    </oc>
+    <nc r="B41" t="inlineStr">
+      <is>
+        <t>Vesiväylälaadunseuranta / Viat</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_7A9649F2_657F_9445_B6E6_FE94C6A09957_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Oikeudet!$A$5:$Y$83</formula>
+    <oldFormula>Oikeudet!$A$5:$Y$83</oldFormula>
+  </rdn>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="add"/>
 </revisions>
 </file>
 
@@ -9244,13 +9654,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y78"/>
+  <dimension ref="A1:Y83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C67" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C33" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D75" sqref="D75"/>
+      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9286,40 +9696,40 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
@@ -9340,30 +9750,30 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="K5" s="54" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="K5" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="R5" s="54" t="s">
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="R5" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
       <c r="Y5" s="5" t="s">
         <v>14</v>
       </c>
@@ -11447,337 +11857,191 @@
       </c>
       <c r="Y38" s="12"/>
     </row>
-    <row r="39" spans="1:25" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:25" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="26" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>127</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="21"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
-      <c r="J39" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="L39" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="J39" s="21"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="21"/>
       <c r="M39" s="21"/>
-      <c r="N39" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="R39" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="S39" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="N39" s="21"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
       <c r="T39" s="21"/>
       <c r="U39" s="21"/>
-      <c r="V39" s="21" t="s">
-        <v>131</v>
-      </c>
+      <c r="V39" s="17"/>
       <c r="W39" s="21"/>
       <c r="X39" s="21"/>
-      <c r="Y39" s="30"/>
+      <c r="Y39" s="52"/>
     </row>
-    <row r="40" spans="1:25" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:25" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="26" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C40" s="21"/>
       <c r="D40" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>127</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="E40" s="17"/>
+      <c r="F40" s="21"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
-      <c r="J40" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="L40" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="J40" s="21"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="21"/>
       <c r="M40" s="21"/>
-      <c r="N40" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="R40" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="S40" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="N40" s="21"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
       <c r="T40" s="21"/>
       <c r="U40" s="21"/>
-      <c r="V40" s="21" t="s">
-        <v>131</v>
-      </c>
+      <c r="V40" s="17"/>
       <c r="W40" s="21"/>
       <c r="X40" s="21"/>
-      <c r="Y40" s="47"/>
+      <c r="Y40" s="52"/>
     </row>
-    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:25" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="26" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>19</v>
-      </c>
+      <c r="D41" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
-      <c r="J41" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="L41" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="J41" s="21"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="21"/>
       <c r="M41" s="21"/>
-      <c r="N41" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="R41" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="S41" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="N41" s="21"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
       <c r="T41" s="21"/>
       <c r="U41" s="21"/>
-      <c r="V41" s="21" t="s">
-        <v>131</v>
-      </c>
+      <c r="V41" s="17"/>
       <c r="W41" s="21"/>
       <c r="X41" s="21"/>
-      <c r="Y41" s="10"/>
+      <c r="Y41" s="52"/>
     </row>
-    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:25" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="26" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="C42" s="21"/>
-      <c r="D42" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F42" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="G42" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H42" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I42" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="J42" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K42" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="L42" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="M42" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="N42" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="O42" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="P42" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q42" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="R42" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="S42" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="T42" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="U42" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="V42" s="21" t="s">
-        <v>131</v>
-      </c>
+      <c r="D42" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="17"/>
       <c r="W42" s="21"/>
-      <c r="X42" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y42" s="10"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="52"/>
     </row>
-    <row r="43" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:25" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="C43" s="21"/>
-      <c r="D43" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H43" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I43" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="J43" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K43" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="L43" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="M43" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="N43" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="O43" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="P43" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q43" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="R43" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="S43" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="T43" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="U43" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="V43" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="W43" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="X43" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y43" s="36"/>
+      <c r="D43" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="17"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="52"/>
     </row>
-    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:25" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C44" s="21"/>
-      <c r="D44" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E44" s="21" t="s">
+      <c r="D44" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" s="17" t="s">
         <v>127</v>
       </c>
       <c r="F44" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G44" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H44" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I44" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
       <c r="J44" s="21" t="s">
         <v>17</v>
       </c>
@@ -11787,18 +12051,12 @@
       <c r="L44" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M44" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="M44" s="21"/>
       <c r="N44" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O44" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="P44" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
       <c r="Q44" s="21" t="s">
         <v>17</v>
       </c>
@@ -11808,47 +12066,35 @@
       <c r="S44" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T44" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="U44" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
       <c r="V44" s="21" t="s">
         <v>131</v>
       </c>
       <c r="W44" s="21"/>
-      <c r="X44" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y44" s="10"/>
+      <c r="X44" s="21"/>
+      <c r="Y44" s="30"/>
     </row>
-    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:25" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="C45" s="21"/>
-      <c r="D45" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E45" s="21" t="s">
+      <c r="D45" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="17" t="s">
         <v>127</v>
       </c>
       <c r="F45" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G45" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
       <c r="J45" s="21" t="s">
         <v>17</v>
       </c>
@@ -11858,18 +12104,12 @@
       <c r="L45" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M45" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="M45" s="21"/>
       <c r="N45" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O45" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="P45" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
       <c r="Q45" s="21" t="s">
         <v>17</v>
       </c>
@@ -11879,27 +12119,21 @@
       <c r="S45" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T45" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="U45" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="T45" s="21"/>
+      <c r="U45" s="21"/>
       <c r="V45" s="21" t="s">
         <v>131</v>
       </c>
       <c r="W45" s="21"/>
-      <c r="X45" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y45" s="10"/>
+      <c r="X45" s="21"/>
+      <c r="Y45" s="47"/>
     </row>
     <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="21" t="s">
@@ -11912,14 +12146,10 @@
         <v>127</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I46" s="21" t="s">
-        <v>127</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
       <c r="J46" s="21" t="s">
         <v>17</v>
       </c>
@@ -11929,18 +12159,12 @@
       <c r="L46" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M46" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="M46" s="21"/>
       <c r="N46" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O46" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="P46" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
       <c r="Q46" s="21" t="s">
         <v>17</v>
       </c>
@@ -11950,27 +12174,21 @@
       <c r="S46" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T46" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="U46" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
       <c r="V46" s="21" t="s">
         <v>131</v>
       </c>
       <c r="W46" s="21"/>
-      <c r="X46" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="X46" s="21"/>
       <c r="Y46" s="10"/>
     </row>
-    <row r="47" spans="1:25" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="C47" s="21"/>
       <c r="D47" s="21" t="s">
@@ -12034,14 +12252,14 @@
       <c r="X47" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Y47" s="39"/>
+      <c r="Y47" s="10"/>
     </row>
-    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="21" t="s">
@@ -12101,18 +12319,20 @@
       <c r="V48" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="W48" s="21"/>
+      <c r="W48" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="X48" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Y48" s="10"/>
+      <c r="Y48" s="36"/>
     </row>
     <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="C49" s="21"/>
       <c r="D49" s="21" t="s">
@@ -12148,7 +12368,9 @@
       <c r="N49" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O49" s="21"/>
+      <c r="O49" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="P49" s="21" t="s">
         <v>127</v>
       </c>
@@ -12181,7 +12403,7 @@
         <v>43</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C50" s="21"/>
       <c r="D50" s="21" t="s">
@@ -12252,7 +12474,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C51" s="21"/>
       <c r="D51" s="21" t="s">
@@ -12264,8 +12486,12 @@
       <c r="F51" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
+      <c r="G51" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H51" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="I51" s="21" t="s">
         <v>127</v>
       </c>
@@ -12278,11 +12504,15 @@
       <c r="L51" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M51" s="21"/>
+      <c r="M51" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="N51" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O51" s="21"/>
+      <c r="O51" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="P51" s="21" t="s">
         <v>127</v>
       </c>
@@ -12310,12 +12540,12 @@
       </c>
       <c r="Y51" s="10"/>
     </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:25" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="21" t="s">
@@ -12327,11 +12557,15 @@
       <c r="F52" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G52" s="21"/>
+      <c r="G52" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="H52" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I52" s="21"/>
+        <v>127</v>
+      </c>
+      <c r="I52" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="J52" s="21" t="s">
         <v>17</v>
       </c>
@@ -12341,14 +12575,18 @@
       <c r="L52" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M52" s="21"/>
+      <c r="M52" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="N52" s="21" t="s">
         <v>127</v>
       </c>
       <c r="O52" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="P52" s="21"/>
+        <v>127</v>
+      </c>
+      <c r="P52" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="Q52" s="21" t="s">
         <v>17</v>
       </c>
@@ -12358,21 +12596,27 @@
       <c r="S52" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T52" s="21"/>
-      <c r="U52" s="21"/>
+      <c r="T52" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U52" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="V52" s="21" t="s">
         <v>131</v>
       </c>
       <c r="W52" s="21"/>
-      <c r="X52" s="21"/>
-      <c r="Y52" s="10"/>
+      <c r="X52" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y52" s="39"/>
     </row>
     <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="21" t="s">
@@ -12384,9 +12628,15 @@
       <c r="F53" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
+      <c r="G53" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="I53" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="J53" s="21" t="s">
         <v>17</v>
       </c>
@@ -12396,12 +12646,18 @@
       <c r="L53" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M53" s="21"/>
+      <c r="M53" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="N53" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
+      <c r="O53" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="P53" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="Q53" s="21" t="s">
         <v>17</v>
       </c>
@@ -12411,13 +12667,19 @@
       <c r="S53" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T53" s="21"/>
-      <c r="U53" s="21"/>
+      <c r="T53" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U53" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="V53" s="21" t="s">
         <v>131</v>
       </c>
       <c r="W53" s="21"/>
-      <c r="X53" s="21"/>
+      <c r="X53" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="Y53" s="10"/>
     </row>
     <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12425,7 +12687,7 @@
         <v>43</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="21" t="s">
@@ -12437,9 +12699,15 @@
       <c r="F54" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
+      <c r="G54" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="I54" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="J54" s="21" t="s">
         <v>17</v>
       </c>
@@ -12449,12 +12717,16 @@
       <c r="L54" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M54" s="21"/>
+      <c r="M54" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="N54" s="21" t="s">
         <v>127</v>
       </c>
       <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
+      <c r="P54" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="Q54" s="21" t="s">
         <v>17</v>
       </c>
@@ -12464,13 +12736,19 @@
       <c r="S54" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T54" s="21"/>
-      <c r="U54" s="21"/>
+      <c r="T54" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U54" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="V54" s="21" t="s">
         <v>131</v>
       </c>
       <c r="W54" s="21"/>
-      <c r="X54" s="21"/>
+      <c r="X54" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="Y54" s="10"/>
     </row>
     <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12478,7 +12756,7 @@
         <v>43</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="21" t="s">
@@ -12490,9 +12768,15 @@
       <c r="F55" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
+      <c r="G55" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H55" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="I55" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="J55" s="21" t="s">
         <v>17</v>
       </c>
@@ -12502,12 +12786,18 @@
       <c r="L55" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M55" s="21"/>
+      <c r="M55" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="N55" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
+      <c r="O55" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="P55" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="Q55" s="21" t="s">
         <v>17</v>
       </c>
@@ -12517,21 +12807,27 @@
       <c r="S55" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T55" s="21"/>
-      <c r="U55" s="21"/>
+      <c r="T55" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U55" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="V55" s="21" t="s">
         <v>131</v>
       </c>
       <c r="W55" s="21"/>
-      <c r="X55" s="21"/>
+      <c r="X55" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="Y55" s="10"/>
     </row>
-    <row r="56" spans="1:25" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="21" t="s">
@@ -12543,12 +12839,8 @@
       <c r="F56" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G56" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H56" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
       <c r="I56" s="21" t="s">
         <v>127</v>
       </c>
@@ -12561,9 +12853,7 @@
       <c r="L56" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M56" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="M56" s="21"/>
       <c r="N56" s="21" t="s">
         <v>127</v>
       </c>
@@ -12593,14 +12883,14 @@
       <c r="X56" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Y56" s="27"/>
+      <c r="Y56" s="10"/>
     </row>
-    <row r="57" spans="1:25" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="C57" s="21"/>
       <c r="D57" s="21" t="s">
@@ -12612,15 +12902,11 @@
       <c r="F57" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G57" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="G57" s="21"/>
       <c r="H57" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I57" s="21" t="s">
-        <v>127</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I57" s="21"/>
       <c r="J57" s="21" t="s">
         <v>17</v>
       </c>
@@ -12630,16 +12916,14 @@
       <c r="L57" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M57" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="M57" s="21"/>
       <c r="N57" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O57" s="21"/>
-      <c r="P57" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="O57" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="P57" s="21"/>
       <c r="Q57" s="21" t="s">
         <v>17</v>
       </c>
@@ -12649,27 +12933,21 @@
       <c r="S57" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T57" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="U57" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="T57" s="21"/>
+      <c r="U57" s="21"/>
       <c r="V57" s="21" t="s">
         <v>131</v>
       </c>
       <c r="W57" s="21"/>
-      <c r="X57" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y57" s="47"/>
+      <c r="X57" s="21"/>
+      <c r="Y57" s="10"/>
     </row>
     <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C58" s="21"/>
       <c r="D58" s="21" t="s">
@@ -12681,15 +12959,9 @@
       <c r="F58" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G58" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H58" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I58" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
       <c r="J58" s="21" t="s">
         <v>17</v>
       </c>
@@ -12699,18 +12971,12 @@
       <c r="L58" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M58" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="M58" s="21"/>
       <c r="N58" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O58" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="P58" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
       <c r="Q58" s="21" t="s">
         <v>17</v>
       </c>
@@ -12720,27 +12986,21 @@
       <c r="S58" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T58" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="U58" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="T58" s="21"/>
+      <c r="U58" s="21"/>
       <c r="V58" s="21" t="s">
         <v>131</v>
       </c>
       <c r="W58" s="21"/>
-      <c r="X58" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="X58" s="21"/>
       <c r="Y58" s="10"/>
     </row>
-    <row r="59" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="C59" s="21"/>
       <c r="D59" s="21" t="s">
@@ -12752,15 +13012,9 @@
       <c r="F59" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G59" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H59" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I59" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
       <c r="J59" s="21" t="s">
         <v>17</v>
       </c>
@@ -12770,18 +13024,12 @@
       <c r="L59" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M59" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="M59" s="21"/>
       <c r="N59" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O59" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="P59" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
       <c r="Q59" s="21" t="s">
         <v>17</v>
       </c>
@@ -12791,25 +13039,21 @@
       <c r="S59" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T59" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="U59" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="T59" s="21"/>
+      <c r="U59" s="21"/>
       <c r="V59" s="21" t="s">
         <v>131</v>
       </c>
       <c r="W59" s="21"/>
       <c r="X59" s="21"/>
-      <c r="Y59" s="36"/>
+      <c r="Y59" s="10"/>
     </row>
-    <row r="60" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="C60" s="21"/>
       <c r="D60" s="21" t="s">
@@ -12821,15 +13065,9 @@
       <c r="F60" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G60" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H60" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I60" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
       <c r="J60" s="21" t="s">
         <v>17</v>
       </c>
@@ -12839,18 +13077,12 @@
       <c r="L60" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M60" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="M60" s="21"/>
       <c r="N60" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O60" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="P60" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
       <c r="Q60" s="21" t="s">
         <v>17</v>
       </c>
@@ -12860,25 +13092,21 @@
       <c r="S60" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T60" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="U60" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="T60" s="21"/>
+      <c r="U60" s="21"/>
       <c r="V60" s="21" t="s">
         <v>131</v>
       </c>
       <c r="W60" s="21"/>
       <c r="X60" s="21"/>
-      <c r="Y60" s="36"/>
+      <c r="Y60" s="10"/>
     </row>
-    <row r="61" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:25" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="C61" s="21"/>
       <c r="D61" s="21" t="s">
@@ -12914,9 +13142,7 @@
       <c r="N61" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O61" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="O61" s="21"/>
       <c r="P61" s="21" t="s">
         <v>127</v>
       </c>
@@ -12939,15 +13165,17 @@
         <v>131</v>
       </c>
       <c r="W61" s="21"/>
-      <c r="X61" s="21"/>
-      <c r="Y61" s="36"/>
+      <c r="X61" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y61" s="27"/>
     </row>
-    <row r="62" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:25" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="C62" s="21"/>
       <c r="D62" s="21" t="s">
@@ -12983,9 +13211,7 @@
       <c r="N62" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O62" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="O62" s="21"/>
       <c r="P62" s="21" t="s">
         <v>127</v>
       </c>
@@ -13008,15 +13234,17 @@
         <v>131</v>
       </c>
       <c r="W62" s="21"/>
-      <c r="X62" s="21"/>
-      <c r="Y62" s="36"/>
+      <c r="X62" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y62" s="47"/>
     </row>
-    <row r="63" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="C63" s="21"/>
       <c r="D63" s="21" t="s">
@@ -13077,29 +13305,37 @@
         <v>131</v>
       </c>
       <c r="W63" s="21"/>
-      <c r="X63" s="21"/>
-      <c r="Y63" s="36"/>
+      <c r="X63" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y63" s="10"/>
     </row>
-    <row r="64" spans="1:25" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C64" s="21"/>
-      <c r="D64" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E64" s="17" t="s">
+      <c r="D64" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E64" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F64" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
+      <c r="G64" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="I64" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="J64" s="21" t="s">
         <v>17</v>
       </c>
@@ -13109,12 +13345,18 @@
       <c r="L64" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M64" s="21"/>
+      <c r="M64" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="N64" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O64" s="21"/>
-      <c r="P64" s="21"/>
+      <c r="O64" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="P64" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="Q64" s="21" t="s">
         <v>17</v>
       </c>
@@ -13124,19 +13366,25 @@
       <c r="S64" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T64" s="21"/>
-      <c r="U64" s="21"/>
-      <c r="V64" s="21"/>
+      <c r="T64" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U64" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V64" s="21" t="s">
+        <v>131</v>
+      </c>
       <c r="W64" s="21"/>
       <c r="X64" s="21"/>
-      <c r="Y64" s="33"/>
+      <c r="Y64" s="36"/>
     </row>
-    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="26" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="C65" s="21"/>
       <c r="D65" s="21" t="s">
@@ -13196,22 +13444,16 @@
       <c r="V65" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="W65" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="X65" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y65" s="52" t="s">
-        <v>60</v>
-      </c>
+      <c r="W65" s="21"/>
+      <c r="X65" s="21"/>
+      <c r="Y65" s="36"/>
     </row>
-    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="26" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="C66" s="21"/>
       <c r="D66" s="21" t="s">
@@ -13271,26 +13513,22 @@
       <c r="V66" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="W66" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="X66" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y66" s="53"/>
+      <c r="W66" s="21"/>
+      <c r="X66" s="21"/>
+      <c r="Y66" s="36"/>
     </row>
-    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="26" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="C67" s="21"/>
       <c r="D67" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E67" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E67" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F67" s="21" t="s">
@@ -13309,7 +13547,7 @@
         <v>17</v>
       </c>
       <c r="K67" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L67" s="21" t="s">
         <v>127</v>
@@ -13330,257 +13568,434 @@
         <v>17</v>
       </c>
       <c r="R67" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S67" s="21" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="T67" s="21" t="s">
         <v>131</v>
       </c>
       <c r="U67" s="21" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="V67" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="W67" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="X67" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y67" s="10"/>
+      <c r="W67" s="21"/>
+      <c r="X67" s="21"/>
+      <c r="Y67" s="36"/>
     </row>
-    <row r="68" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C68" s="19"/>
+    <row r="68" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" s="21"/>
       <c r="D68" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="19"/>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="19"/>
-      <c r="S68" s="19"/>
-      <c r="T68" s="19"/>
-      <c r="U68" s="19"/>
-      <c r="V68" s="19"/>
-      <c r="W68" s="19"/>
-      <c r="X68" s="19"/>
-      <c r="Y68" s="14" t="s">
-        <v>65</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G68" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H68" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="I68" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="J68" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="L68" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="M68" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N68" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O68" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="P68" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q68" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R68" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="S68" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T68" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U68" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V68" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="W68" s="21"/>
+      <c r="X68" s="21"/>
+      <c r="Y68" s="36"/>
     </row>
-    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C69" s="17"/>
-      <c r="D69" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H69" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I69" s="17"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="N69" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="O69" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="21"/>
-      <c r="R69" s="17"/>
-      <c r="S69" s="17"/>
-      <c r="T69" s="17"/>
-      <c r="U69" s="17"/>
-      <c r="V69" s="17"/>
-      <c r="W69" s="17"/>
-      <c r="X69" s="17"/>
+    <row r="69" spans="1:25" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" s="21"/>
+      <c r="D69" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="L69" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R69" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="S69" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T69" s="21"/>
+      <c r="U69" s="21"/>
+      <c r="V69" s="21"/>
+      <c r="W69" s="21"/>
+      <c r="X69" s="21"/>
+      <c r="Y69" s="33"/>
     </row>
     <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C70" s="17"/>
+      <c r="A70" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" s="21"/>
       <c r="D70" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="21"/>
-      <c r="R70" s="17"/>
-      <c r="S70" s="17"/>
-      <c r="T70" s="17"/>
-      <c r="U70" s="17"/>
-      <c r="V70" s="17"/>
-      <c r="W70" s="17"/>
-      <c r="X70" s="17"/>
+        <v>127</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G70" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H70" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="I70" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="J70" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="L70" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="M70" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N70" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O70" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="P70" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q70" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R70" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="S70" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T70" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U70" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V70" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="W70" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="X70" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y70" s="54" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C71" s="17"/>
+      <c r="A71" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="21"/>
       <c r="D71" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="21"/>
-      <c r="R71" s="17"/>
-      <c r="S71" s="17"/>
-      <c r="T71" s="17"/>
-      <c r="U71" s="17"/>
-      <c r="V71" s="17"/>
-      <c r="W71" s="17"/>
-      <c r="X71" s="17"/>
+        <v>127</v>
+      </c>
+      <c r="E71" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G71" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H71" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="I71" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="J71" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="L71" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="M71" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N71" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O71" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="P71" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q71" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R71" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="S71" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T71" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U71" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V71" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="W71" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="X71" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y71" s="55"/>
     </row>
     <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" s="17"/>
+      <c r="A72" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" s="21"/>
       <c r="D72" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="21"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="21"/>
-      <c r="R72" s="17"/>
-      <c r="S72" s="17"/>
-      <c r="T72" s="17"/>
-      <c r="U72" s="17"/>
-      <c r="V72" s="17"/>
-      <c r="W72" s="17"/>
-      <c r="X72" s="17"/>
+      <c r="E72" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F72" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G72" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H72" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="I72" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="J72" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="L72" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="M72" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N72" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O72" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="P72" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q72" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R72" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="S72" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="T72" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U72" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="V72" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="W72" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="X72" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y72" s="10"/>
     </row>
-    <row r="73" spans="1:25" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="16" t="s">
+    <row r="73" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B73" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C73" s="17"/>
+      <c r="B73" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="19"/>
       <c r="D73" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="21"/>
-      <c r="R73" s="17"/>
-      <c r="S73" s="17"/>
-      <c r="T73" s="17"/>
-      <c r="U73" s="17"/>
-      <c r="V73" s="17"/>
-      <c r="W73" s="17"/>
-      <c r="X73" s="17"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="19"/>
+      <c r="S73" s="19"/>
+      <c r="T73" s="19"/>
+      <c r="U73" s="19"/>
+      <c r="V73" s="19"/>
+      <c r="W73" s="19"/>
+      <c r="X73" s="19"/>
+      <c r="Y73" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="74" spans="1:25" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C74" s="17"/>
       <c r="D74" s="21" t="s">
         <v>126</v>
       </c>
       <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
+      <c r="F74" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="I74" s="17"/>
       <c r="J74" s="21"/>
       <c r="K74" s="17"/>
       <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
+      <c r="M74" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N74" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O74" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="P74" s="17"/>
       <c r="Q74" s="21"/>
       <c r="R74" s="17"/>
@@ -13591,12 +14006,12 @@
       <c r="W74" s="17"/>
       <c r="X74" s="17"/>
     </row>
-    <row r="75" spans="1:25" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="21" t="s">
@@ -13623,12 +14038,12 @@
       <c r="W75" s="17"/>
       <c r="X75" s="17"/>
     </row>
-    <row r="76" spans="1:25" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="C76" s="17"/>
       <c r="D76" s="21" t="s">
@@ -13657,95 +14072,261 @@
     </row>
     <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="16" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C77" s="20"/>
+        <v>69</v>
+      </c>
+      <c r="C77" s="17"/>
       <c r="D77" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="43"/>
-      <c r="K77" s="20"/>
-      <c r="L77" s="20"/>
-      <c r="M77" s="20"/>
-      <c r="N77" s="20"/>
-      <c r="O77" s="20"/>
-      <c r="P77" s="20"/>
-      <c r="Q77" s="43"/>
-      <c r="R77" s="20"/>
-      <c r="S77" s="20"/>
-      <c r="T77" s="20"/>
-      <c r="U77" s="20"/>
-      <c r="V77" s="20"/>
-      <c r="W77" s="20"/>
-      <c r="X77" s="20"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="21"/>
+      <c r="R77" s="17"/>
+      <c r="S77" s="17"/>
+      <c r="T77" s="17"/>
+      <c r="U77" s="17"/>
+      <c r="V77" s="17"/>
+      <c r="W77" s="17"/>
+      <c r="X77" s="17"/>
     </row>
-    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:25" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C78" s="17"/>
+      <c r="D78" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="21"/>
+      <c r="R78" s="17"/>
+      <c r="S78" s="17"/>
+      <c r="T78" s="17"/>
+      <c r="U78" s="17"/>
+      <c r="V78" s="17"/>
+      <c r="W78" s="17"/>
+      <c r="X78" s="17"/>
+    </row>
+    <row r="79" spans="1:25" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" s="17"/>
+      <c r="D79" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="21"/>
+      <c r="R79" s="17"/>
+      <c r="S79" s="17"/>
+      <c r="T79" s="17"/>
+      <c r="U79" s="17"/>
+      <c r="V79" s="17"/>
+      <c r="W79" s="17"/>
+      <c r="X79" s="17"/>
+    </row>
+    <row r="80" spans="1:25" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C80" s="17"/>
+      <c r="D80" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="21"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="17"/>
+      <c r="T80" s="17"/>
+      <c r="U80" s="17"/>
+      <c r="V80" s="17"/>
+      <c r="W80" s="17"/>
+      <c r="X80" s="17"/>
+    </row>
+    <row r="81" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C81" s="17"/>
+      <c r="D81" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="21"/>
+      <c r="R81" s="17"/>
+      <c r="S81" s="17"/>
+      <c r="T81" s="17"/>
+      <c r="U81" s="17"/>
+      <c r="V81" s="17"/>
+      <c r="W81" s="17"/>
+      <c r="X81" s="17"/>
+    </row>
+    <row r="82" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C82" s="20"/>
+      <c r="D82" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="43"/>
+      <c r="K82" s="20"/>
+      <c r="L82" s="20"/>
+      <c r="M82" s="20"/>
+      <c r="N82" s="20"/>
+      <c r="O82" s="20"/>
+      <c r="P82" s="20"/>
+      <c r="Q82" s="43"/>
+      <c r="R82" s="20"/>
+      <c r="S82" s="20"/>
+      <c r="T82" s="20"/>
+      <c r="U82" s="20"/>
+      <c r="V82" s="20"/>
+      <c r="W82" s="20"/>
+      <c r="X82" s="20"/>
+    </row>
+    <row r="83" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B83" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C78" s="20"/>
-      <c r="D78" s="21" t="s">
+      <c r="C83" s="20"/>
+      <c r="D83" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E78" s="29" t="s">
+      <c r="E83" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29" t="s">
+      <c r="F83" s="29"/>
+      <c r="G83" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="44" t="s">
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="K78" s="29" t="s">
+      <c r="K83" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="L78" s="29" t="s">
+      <c r="L83" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="M78" s="29" t="s">
+      <c r="M83" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="N78" s="29" t="s">
+      <c r="N83" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="O78" s="29"/>
-      <c r="P78" s="29"/>
-      <c r="Q78" s="44" t="s">
+      <c r="O83" s="29"/>
+      <c r="P83" s="29"/>
+      <c r="Q83" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="R78" s="46" t="s">
+      <c r="R83" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="S78" s="44" t="s">
+      <c r="S83" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="T78" s="29"/>
-      <c r="U78" s="29" t="s">
+      <c r="T83" s="29"/>
+      <c r="U83" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="V78" s="29"/>
-      <c r="W78" s="29"/>
-      <c r="X78" s="29"/>
+      <c r="V83" s="29"/>
+      <c r="W83" s="29"/>
+      <c r="X83" s="29"/>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
-      <pane xSplit="2" ySplit="6" topLeftCell="C67" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="D75" sqref="D75"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C33" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
+      <pane xSplit="2" ySplit="6.0384615384615383" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
@@ -13755,15 +14336,9 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
-      <pane xSplit="2" ySplit="6.0384615384615383" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
   </customSheetViews>
   <mergeCells count="6">
-    <mergeCell ref="Y65:Y66"/>
+    <mergeCell ref="Y70:Y71"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="K5:O5"/>
     <mergeCell ref="R5:X5"/>
@@ -14119,13 +14694,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
-      <selection activeCell="B17" sqref="B17"/>
+    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
+      <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
-      <selection activeCell="C7" sqref="C7"/>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
+      <selection activeCell="B17" sqref="B17"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teemukau/code/harja/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikkoro/Desktop/Sources/harja/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="15380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28720" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,15 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Oikeudet!$A$5:$Y$83</definedName>
+    <definedName name="Z_1DD617EE_F308_3E45_A8EF_4713F47FA0DD_.wvu.FilterData" localSheetId="0" hidden="1">Oikeudet!$A$5:$Y$83</definedName>
     <definedName name="Z_7A9649F2_657F_9445_B6E6_FE94C6A09957_.wvu.FilterData" localSheetId="0" hidden="1">Oikeudet!$A$5:$Y$83</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Mikko Rönkkömäki - Personal View" guid="{1DD617EE-F308-3E45-A8EF-4713F47FA0DD}" mergeInterval="0" personalView="1" windowWidth="2560" windowHeight="1263" tabRatio="500" activeSheetId="2"/>
+    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
+    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="1920" windowHeight="596" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -70,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="186">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -109,9 +111,6 @@
   </si>
   <si>
     <t>Laadunvalvoja</t>
-  </si>
-  <si>
-    <t>Turvallisuusvastaava</t>
   </si>
   <si>
     <t>Huomioita</t>
@@ -1240,7 +1239,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{084BE7CF-27AE-7F41-8749-56DF6A95DCBA}" diskRevisions="1" revisionId="437" version="56">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FEE05AE3-8182-DC45-9C12-C837CD9BAE99}" diskRevisions="1" revisionId="439" version="57">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1571,6 +1570,12 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{FEE05AE3-8182-DC45-9C12-C837CD9BAE99}" dateTime="2017-05-18T10:21:46" maxSheetId="3" userName="Mikko Rönkkömäki" r:id="rId57" minRId="438">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -9226,6 +9231,27 @@
     <oldFormula>Oikeudet!$A$5:$Y$83</oldFormula>
   </rdn>
   <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog56.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="438" sId="2">
+    <oc r="A21" t="inlineStr">
+      <is>
+        <t>Turvallisuusvastaava</t>
+      </is>
+    </oc>
+    <nc r="A21" t="inlineStr">
+      <is>
+        <t>Kelikeskus</t>
+      </is>
+    </nc>
+  </rcc>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_1DD617EE_F308_3E45_A8EF_4713F47FA0DD_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Oikeudet!$A$5:$Y$83</formula>
+  </rdn>
+  <rcv guid="{1DD617EE-F308-3E45-A8EF-4713F47FA0DD}" action="add"/>
 </revisions>
 </file>
 
@@ -9656,11 +9682,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C33" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C29" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9697,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D1" s="58"/>
       <c r="E1" s="58"/>
@@ -9775,7 +9801,7 @@
       <c r="W5" s="55"/>
       <c r="X5" s="55"/>
       <c r="Y5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9787,249 +9813,249 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="R6" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="T6" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="V6" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="W6" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="V6" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="X6" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="R7" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="S7" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="T7" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="L7" s="17" t="s">
+      <c r="U7" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="V7" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="M7" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="P7" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q7" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="R7" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="S7" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="T7" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="U7" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="V7" s="17" t="s">
-        <v>131</v>
-      </c>
       <c r="W7" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X7" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y7" s="10"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M8" s="21"/>
       <c r="N8" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O8" s="21"/>
       <c r="P8" s="17"/>
       <c r="Q8" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R8" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T8" s="17"/>
       <c r="U8" s="17"/>
       <c r="V8" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W8" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X8" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M9" s="21"/>
       <c r="N9" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O9" s="21"/>
       <c r="P9" s="17"/>
       <c r="Q9" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R9" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T9" s="17"/>
       <c r="U9" s="17"/>
       <c r="V9" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W9" s="17"/>
       <c r="X9" s="17"/>
@@ -10037,52 +10063,52 @@
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M10" s="21"/>
       <c r="N10" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O10" s="21"/>
       <c r="P10" s="17"/>
       <c r="Q10" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R10" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S10" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T10" s="17"/>
       <c r="U10" s="17"/>
       <c r="V10" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W10" s="17"/>
       <c r="X10" s="17"/>
@@ -10090,66 +10116,66 @@
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P11" s="17"/>
       <c r="Q11" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R11" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T11" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U11" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V11" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W11" s="17"/>
       <c r="X11" s="17"/>
@@ -10157,66 +10183,66 @@
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P12" s="17"/>
       <c r="Q12" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S12" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T12" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U12" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V12" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W12" s="17"/>
       <c r="X12" s="17"/>
@@ -10224,54 +10250,54 @@
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M13" s="17"/>
       <c r="N13" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O13" s="21"/>
       <c r="P13" s="17"/>
       <c r="Q13" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R13" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T13" s="21"/>
       <c r="U13" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V13" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W13" s="17"/>
       <c r="X13" s="17"/>
@@ -10279,54 +10305,54 @@
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M14" s="17"/>
       <c r="N14" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O14" s="21"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S14" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T14" s="21"/>
       <c r="U14" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W14" s="17"/>
       <c r="X14" s="17"/>
@@ -10334,54 +10360,54 @@
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M15" s="17"/>
       <c r="N15" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O15" s="21"/>
       <c r="P15" s="17"/>
       <c r="Q15" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S15" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T15" s="21"/>
       <c r="U15" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W15" s="17"/>
       <c r="X15" s="17"/>
@@ -10389,66 +10415,66 @@
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P16" s="17"/>
       <c r="Q16" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S16" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T16" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U16" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W16" s="17"/>
       <c r="X16" s="17"/>
@@ -10456,66 +10482,66 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P17" s="17"/>
       <c r="Q17" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T17" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U17" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V17" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W17" s="17"/>
       <c r="X17" s="17"/>
@@ -10523,54 +10549,54 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M18" s="17"/>
       <c r="N18" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O18" s="21"/>
       <c r="P18" s="17"/>
       <c r="Q18" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T18" s="21"/>
       <c r="U18" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V18" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W18" s="17"/>
       <c r="X18" s="17"/>
@@ -10578,66 +10604,66 @@
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P19" s="17"/>
       <c r="Q19" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T19" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U19" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W19" s="17"/>
       <c r="X19" s="17"/>
@@ -10645,285 +10671,285 @@
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E20" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="P20" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="R20" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="S20" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="T20" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="J20" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="L20" s="17" t="s">
+      <c r="U20" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="V20" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="M20" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="N20" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="O20" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="P20" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q20" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="R20" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="S20" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="T20" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="U20" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="V20" s="17" t="s">
-        <v>131</v>
-      </c>
       <c r="W20" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X20" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y20" s="10"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E21" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="O21" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="P21" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q21" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="R21" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="S21" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="T21" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="J21" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="L21" s="17" t="s">
+      <c r="U21" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="V21" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="M21" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="N21" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="O21" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="P21" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q21" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="R21" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="S21" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="T21" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="U21" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="V21" s="17" t="s">
-        <v>131</v>
-      </c>
       <c r="W21" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X21" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y21" s="10"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E22" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="O22" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="P22" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q22" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="R22" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F22" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="L22" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="M22" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="N22" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="O22" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="P22" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q22" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="R22" s="21" t="s">
-        <v>131</v>
-      </c>
       <c r="S22" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T22" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U22" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W22" s="21"/>
       <c r="X22" s="21"/>
       <c r="Y22" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="M23" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="O23" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="P23" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q23" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="R23" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="S23" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="T23" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="K23" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="L23" s="21" t="s">
+      <c r="U23" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="V23" s="17" t="s">
         <v>130</v>
-      </c>
-      <c r="M23" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="N23" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="O23" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="P23" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q23" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="R23" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="S23" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="T23" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="U23" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="V23" s="17" t="s">
-        <v>131</v>
       </c>
       <c r="W23" s="21"/>
       <c r="X23" s="21"/>
@@ -10931,129 +10957,129 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>141</v>
-      </c>
       <c r="F24" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K24" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="L24" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="L24" s="21" t="s">
-        <v>141</v>
-      </c>
       <c r="M24" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O24" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P24" s="21"/>
       <c r="Q24" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R24" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="S24" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="S24" s="21" t="s">
-        <v>150</v>
-      </c>
       <c r="T24" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U24" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W24" s="21"/>
       <c r="X24" s="21"/>
       <c r="Y24" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M25" s="21"/>
       <c r="N25" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O25" s="21"/>
       <c r="P25" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q25" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S25" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T25" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U25" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V25" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W25" s="21"/>
       <c r="X25" s="21"/>
@@ -11061,52 +11087,52 @@
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M26" s="21"/>
       <c r="N26" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R26" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S26" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T26" s="21"/>
       <c r="U26" s="21"/>
       <c r="V26" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W26" s="21"/>
       <c r="X26" s="21"/>
@@ -11114,39 +11140,39 @@
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L27" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M27" s="21"/>
       <c r="N27" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
@@ -11156,57 +11182,57 @@
       <c r="W27" s="21"/>
       <c r="X27" s="21"/>
       <c r="Y27" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:25" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M28" s="21"/>
       <c r="N28" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R28" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S28" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T28" s="21"/>
       <c r="U28" s="21"/>
       <c r="V28" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W28" s="21"/>
       <c r="X28" s="21"/>
@@ -11214,131 +11240,131 @@
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J29" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O29" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P29" s="21"/>
       <c r="Q29" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R29" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S29" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T29" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U29" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V29" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W29" s="21"/>
       <c r="X29" s="21"/>
       <c r="Y29" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G30" s="21"/>
       <c r="H30" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K30" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L30" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M30" s="21"/>
       <c r="N30" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O30" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P30" s="21"/>
       <c r="Q30" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R30" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S30" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T30" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U30" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V30" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W30" s="21"/>
       <c r="X30" s="21"/>
@@ -11346,64 +11372,64 @@
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L31" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M31" s="21"/>
       <c r="N31" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O31" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P31" s="21"/>
       <c r="Q31" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R31" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S31" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T31" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U31" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V31" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W31" s="21"/>
       <c r="X31" s="21"/>
@@ -11411,62 +11437,62 @@
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G32" s="21"/>
       <c r="H32" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L32" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M32" s="21"/>
       <c r="N32" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O32" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P32" s="21"/>
       <c r="Q32" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R32" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S32" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T32" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U32" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V32" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W32" s="21"/>
       <c r="X32" s="21"/>
@@ -11474,62 +11500,62 @@
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L33" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M33" s="21"/>
       <c r="N33" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O33" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P33" s="21"/>
       <c r="Q33" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R33" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S33" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T33" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U33" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V33" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W33" s="21"/>
       <c r="X33" s="21"/>
@@ -11537,62 +11563,62 @@
     </row>
     <row r="34" spans="1:25" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G34" s="21"/>
       <c r="H34" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L34" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M34" s="21"/>
       <c r="N34" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O34" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P34" s="21"/>
       <c r="Q34" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R34" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="S34" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="S34" s="21" t="s">
-        <v>179</v>
-      </c>
       <c r="T34" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U34" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V34" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W34" s="21"/>
       <c r="X34" s="21"/>
@@ -11600,273 +11626,273 @@
     </row>
     <row r="35" spans="1:25" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G35" s="21"/>
       <c r="H35" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K35" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L35" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M35" s="21"/>
       <c r="N35" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P35" s="17"/>
       <c r="Q35" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R35" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S35" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T35" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U35" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V35" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W35" s="21"/>
       <c r="X35" s="21"/>
     </row>
     <row r="36" spans="1:25" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G36" s="21"/>
       <c r="H36" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J36" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K36" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L36" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M36" s="21"/>
       <c r="N36" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P36" s="17"/>
       <c r="Q36" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R36" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S36" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T36" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U36" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V36" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W36" s="21"/>
       <c r="X36" s="21"/>
     </row>
     <row r="37" spans="1:25" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G37" s="21"/>
       <c r="H37" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J37" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L37" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M37" s="21"/>
       <c r="N37" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P37" s="17"/>
       <c r="Q37" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R37" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S37" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T37" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U37" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V37" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W37" s="21"/>
       <c r="X37" s="21"/>
     </row>
     <row r="38" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E38" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="J38" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="L38" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="M38" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="N38" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="O38" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="P38" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q38" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="R38" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="S38" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="T38" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F38" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I38" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="J38" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="K38" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="L38" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="M38" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="N38" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="O38" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="P38" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q38" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="R38" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="S38" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="T38" s="21" t="s">
-        <v>131</v>
-      </c>
       <c r="U38" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V38" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W38" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X38" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y38" s="12"/>
     </row>
     <row r="39" spans="1:25" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="21"/>
@@ -11892,14 +11918,14 @@
     </row>
     <row r="40" spans="1:25" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C40" s="21"/>
       <c r="D40" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="21"/>
@@ -11925,14 +11951,14 @@
     </row>
     <row r="41" spans="1:25" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C41" s="21"/>
       <c r="D41" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="21"/>
@@ -11958,14 +11984,14 @@
     </row>
     <row r="42" spans="1:25" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="21"/>
@@ -11991,14 +12017,14 @@
     </row>
     <row r="43" spans="1:25" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="21"/>
@@ -12024,52 +12050,52 @@
     </row>
     <row r="44" spans="1:25" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
       <c r="J44" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K44" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L44" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M44" s="21"/>
       <c r="N44" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O44" s="21"/>
       <c r="P44" s="21"/>
       <c r="Q44" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R44" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S44" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T44" s="21"/>
       <c r="U44" s="21"/>
       <c r="V44" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W44" s="21"/>
       <c r="X44" s="21"/>
@@ -12077,52 +12103,52 @@
     </row>
     <row r="45" spans="1:25" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K45" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L45" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M45" s="21"/>
       <c r="N45" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R45" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S45" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T45" s="21"/>
       <c r="U45" s="21"/>
       <c r="V45" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W45" s="21"/>
       <c r="X45" s="21"/>
@@ -12130,54 +12156,54 @@
     </row>
     <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="26" t="s">
         <v>43</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>44</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K46" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L46" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M46" s="21"/>
       <c r="N46" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R46" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S46" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T46" s="21"/>
       <c r="U46" s="21"/>
       <c r="V46" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W46" s="21"/>
       <c r="X46" s="21"/>
@@ -12185,758 +12211,758 @@
     </row>
     <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="21"/>
       <c r="D47" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I47" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J47" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K47" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L47" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M47" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N47" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O47" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P47" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q47" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R47" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S47" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T47" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U47" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V47" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W47" s="21"/>
       <c r="X47" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y47" s="10"/>
     </row>
     <row r="48" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I48" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J48" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K48" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L48" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M48" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N48" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O48" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P48" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q48" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R48" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S48" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T48" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U48" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V48" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W48" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X48" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y48" s="36"/>
     </row>
     <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C49" s="21"/>
       <c r="D49" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I49" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J49" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K49" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L49" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M49" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N49" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O49" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P49" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q49" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R49" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S49" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T49" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U49" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V49" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W49" s="21"/>
       <c r="X49" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y49" s="10"/>
     </row>
     <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" s="21"/>
       <c r="D50" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J50" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K50" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L50" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M50" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N50" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O50" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P50" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q50" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R50" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S50" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T50" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U50" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V50" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W50" s="21"/>
       <c r="X50" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y50" s="10"/>
     </row>
     <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C51" s="21"/>
       <c r="D51" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J51" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K51" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L51" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M51" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N51" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P51" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q51" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R51" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S51" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T51" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U51" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V51" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W51" s="21"/>
       <c r="X51" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y51" s="10"/>
     </row>
     <row r="52" spans="1:25" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I52" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J52" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K52" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L52" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M52" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N52" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O52" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P52" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q52" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R52" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S52" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T52" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U52" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V52" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W52" s="21"/>
       <c r="X52" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y52" s="39"/>
     </row>
     <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I53" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J53" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K53" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L53" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M53" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N53" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O53" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P53" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q53" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R53" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S53" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T53" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U53" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V53" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W53" s="21"/>
       <c r="X53" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y53" s="10"/>
     </row>
     <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I54" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J54" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K54" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L54" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M54" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N54" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O54" s="21"/>
       <c r="P54" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q54" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R54" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S54" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T54" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U54" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V54" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W54" s="21"/>
       <c r="X54" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y54" s="10"/>
     </row>
     <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I55" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J55" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K55" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L55" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M55" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N55" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O55" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P55" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q55" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R55" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S55" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T55" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U55" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V55" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W55" s="21"/>
       <c r="X55" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y55" s="10"/>
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
       <c r="I56" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J56" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K56" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L56" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M56" s="21"/>
       <c r="N56" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O56" s="21"/>
       <c r="P56" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q56" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R56" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S56" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T56" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U56" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V56" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W56" s="21"/>
       <c r="X56" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y56" s="10"/>
     </row>
     <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C57" s="21"/>
       <c r="D57" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G57" s="21"/>
       <c r="H57" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I57" s="21"/>
       <c r="J57" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K57" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L57" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M57" s="21"/>
       <c r="N57" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O57" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P57" s="21"/>
       <c r="Q57" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R57" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S57" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T57" s="21"/>
       <c r="U57" s="21"/>
       <c r="V57" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W57" s="21"/>
       <c r="X57" s="21"/>
@@ -12944,52 +12970,52 @@
     </row>
     <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C58" s="21"/>
       <c r="D58" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
       <c r="J58" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K58" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L58" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M58" s="21"/>
       <c r="N58" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O58" s="21"/>
       <c r="P58" s="21"/>
       <c r="Q58" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R58" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S58" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T58" s="21"/>
       <c r="U58" s="21"/>
       <c r="V58" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W58" s="21"/>
       <c r="X58" s="21"/>
@@ -12997,52 +13023,52 @@
     </row>
     <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C59" s="21"/>
       <c r="D59" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
       <c r="J59" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K59" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L59" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M59" s="21"/>
       <c r="N59" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O59" s="21"/>
       <c r="P59" s="21"/>
       <c r="Q59" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R59" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S59" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T59" s="21"/>
       <c r="U59" s="21"/>
       <c r="V59" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W59" s="21"/>
       <c r="X59" s="21"/>
@@ -13050,52 +13076,52 @@
     </row>
     <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C60" s="21"/>
       <c r="D60" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
       <c r="J60" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K60" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L60" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M60" s="21"/>
       <c r="N60" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O60" s="21"/>
       <c r="P60" s="21"/>
       <c r="Q60" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R60" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S60" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T60" s="21"/>
       <c r="U60" s="21"/>
       <c r="V60" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W60" s="21"/>
       <c r="X60" s="21"/>
@@ -13103,277 +13129,277 @@
     </row>
     <row r="61" spans="1:25" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C61" s="21"/>
       <c r="D61" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G61" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H61" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I61" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J61" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K61" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L61" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M61" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N61" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O61" s="21"/>
       <c r="P61" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q61" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R61" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S61" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T61" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U61" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V61" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W61" s="21"/>
       <c r="X61" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y61" s="27"/>
     </row>
     <row r="62" spans="1:25" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C62" s="21"/>
       <c r="D62" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G62" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H62" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I62" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J62" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K62" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L62" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M62" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N62" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O62" s="21"/>
       <c r="P62" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q62" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R62" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S62" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T62" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U62" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V62" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W62" s="21"/>
       <c r="X62" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y62" s="47"/>
     </row>
     <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C63" s="21"/>
       <c r="D63" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G63" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H63" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I63" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J63" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K63" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L63" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M63" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N63" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O63" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P63" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q63" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R63" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S63" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T63" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U63" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V63" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W63" s="21"/>
       <c r="X63" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y63" s="10"/>
     </row>
     <row r="64" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C64" s="21"/>
       <c r="D64" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H64" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I64" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J64" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K64" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L64" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M64" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N64" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O64" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P64" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q64" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R64" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S64" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T64" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U64" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V64" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W64" s="21"/>
       <c r="X64" s="21"/>
@@ -13381,68 +13407,68 @@
     </row>
     <row r="65" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="21"/>
       <c r="D65" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H65" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I65" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J65" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K65" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L65" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M65" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N65" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O65" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P65" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q65" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R65" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S65" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T65" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U65" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V65" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W65" s="21"/>
       <c r="X65" s="21"/>
@@ -13450,68 +13476,68 @@
     </row>
     <row r="66" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C66" s="21"/>
       <c r="D66" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G66" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H66" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I66" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J66" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K66" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L66" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M66" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N66" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O66" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P66" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q66" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R66" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S66" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T66" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U66" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V66" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W66" s="21"/>
       <c r="X66" s="21"/>
@@ -13519,68 +13545,68 @@
     </row>
     <row r="67" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C67" s="21"/>
       <c r="D67" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H67" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I67" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J67" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K67" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L67" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M67" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N67" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O67" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P67" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q67" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R67" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S67" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T67" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U67" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V67" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W67" s="21"/>
       <c r="X67" s="21"/>
@@ -13588,68 +13614,68 @@
     </row>
     <row r="68" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C68" s="21"/>
       <c r="D68" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G68" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H68" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I68" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J68" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K68" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L68" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M68" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N68" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O68" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P68" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q68" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R68" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S68" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T68" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U68" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V68" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W68" s="21"/>
       <c r="X68" s="21"/>
@@ -13657,47 +13683,47 @@
     </row>
     <row r="69" spans="1:25" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C69" s="21"/>
       <c r="D69" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
       <c r="J69" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K69" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L69" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M69" s="21"/>
       <c r="N69" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O69" s="21"/>
       <c r="P69" s="21"/>
       <c r="Q69" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R69" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S69" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T69" s="21"/>
       <c r="U69" s="21"/>
@@ -13708,235 +13734,235 @@
     </row>
     <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="26" t="s">
         <v>58</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>59</v>
       </c>
       <c r="C70" s="21"/>
       <c r="D70" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G70" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I70" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J70" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K70" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L70" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M70" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N70" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O70" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P70" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q70" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R70" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S70" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T70" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U70" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V70" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W70" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X70" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y70" s="54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C71" s="21"/>
       <c r="D71" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G71" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H71" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I71" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J71" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K71" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L71" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M71" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N71" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O71" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P71" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q71" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R71" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S71" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T71" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U71" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V71" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W71" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X71" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y71" s="55"/>
     </row>
     <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C72" s="21"/>
       <c r="D72" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G72" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H72" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I72" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J72" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K72" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L72" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M72" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N72" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O72" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P72" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q72" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R72" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S72" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T72" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U72" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V72" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W72" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X72" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y72" s="10"/>
     </row>
     <row r="73" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>64</v>
       </c>
       <c r="C73" s="19"/>
       <c r="D73" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
@@ -13959,42 +13985,42 @@
       <c r="W73" s="19"/>
       <c r="X73" s="19"/>
       <c r="Y73" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C74" s="17"/>
       <c r="D74" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E74" s="17"/>
       <c r="F74" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H74" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I74" s="17"/>
       <c r="J74" s="21"/>
       <c r="K74" s="17"/>
       <c r="L74" s="17"/>
       <c r="M74" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N74" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O74" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P74" s="17"/>
       <c r="Q74" s="21"/>
@@ -14008,14 +14034,14 @@
     </row>
     <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E75" s="17"/>
       <c r="F75" s="17"/>
@@ -14040,14 +14066,14 @@
     </row>
     <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C76" s="17"/>
       <c r="D76" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
@@ -14072,14 +14098,14 @@
     </row>
     <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C77" s="17"/>
       <c r="D77" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E77" s="17"/>
       <c r="F77" s="17"/>
@@ -14104,14 +14130,14 @@
     </row>
     <row r="78" spans="1:25" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C78" s="17"/>
       <c r="D78" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E78" s="17"/>
       <c r="F78" s="17"/>
@@ -14136,14 +14162,14 @@
     </row>
     <row r="79" spans="1:25" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C79" s="17"/>
       <c r="D79" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
@@ -14168,14 +14194,14 @@
     </row>
     <row r="80" spans="1:25" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
@@ -14200,14 +14226,14 @@
     </row>
     <row r="81" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C81" s="17"/>
       <c r="D81" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
@@ -14232,14 +14258,14 @@
     </row>
     <row r="82" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" s="16" t="s">
         <v>109</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>110</v>
       </c>
       <c r="C82" s="20"/>
       <c r="D82" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="20"/>
@@ -14264,53 +14290,53 @@
     </row>
     <row r="83" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83" s="16" t="s">
         <v>119</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>120</v>
       </c>
       <c r="C83" s="20"/>
       <c r="D83" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F83" s="29"/>
       <c r="G83" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H83" s="29"/>
       <c r="I83" s="29"/>
       <c r="J83" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K83" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L83" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M83" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N83" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O83" s="29"/>
       <c r="P83" s="29"/>
       <c r="Q83" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R83" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S83" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T83" s="29"/>
       <c r="U83" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V83" s="29"/>
       <c r="W83" s="29"/>
@@ -14318,9 +14344,15 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
-      <pane xSplit="2" ySplit="6" topLeftCell="C33" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
+    <customSheetView guid="{1DD617EE-F308-3E45-A8EF-4713F47FA0DD}" scale="170">
+      <pane xSplit="2" ySplit="6" topLeftCell="C29" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
+      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
@@ -14330,9 +14362,9 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
-      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
+      <pane xSplit="2" ySplit="6" topLeftCell="C33" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
@@ -14355,8 +14387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -14369,27 +14401,27 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>72</v>
-      </c>
       <c r="D1" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>73</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>74</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>3</v>
@@ -14399,10 +14431,10 @@
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>75</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>76</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>3</v>
@@ -14412,10 +14444,10 @@
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>77</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>78</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>3</v>
@@ -14425,85 +14457,85 @@
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:5" s="41" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>162</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>163</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="24"/>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>5</v>
@@ -14513,10 +14545,10 @@
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>5</v>
@@ -14526,10 +14558,10 @@
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>5</v>
@@ -14539,97 +14571,97 @@
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="24"/>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="24"/>
     </row>
     <row r="16" spans="1:5" s="41" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="24"/>
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E18" s="24"/>
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>11</v>
@@ -14638,7 +14670,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E19" s="24"/>
     </row>
@@ -14647,50 +14679,55 @@
         <v>12</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" s="24"/>
     </row>
     <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E21" s="24"/>
     </row>
     <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E22" s="24"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
-      <selection activeCell="G36" sqref="G36"/>
+    <customSheetView guid="{1DD617EE-F308-3E45-A8EF-4713F47FA0DD}">
+      <selection activeCell="A22" sqref="A22"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
+      <selection activeCell="B17" sqref="B17"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
@@ -14699,8 +14736,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
-      <selection activeCell="B17" sqref="B17"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
+      <selection activeCell="G36" sqref="G36"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -9341,7 +9341,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="13">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="14">
   <userInfo guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" name="Tatu Tarvainen" id="-130145201" dateTime="2016-09-06T09:10:23"/>
   <userInfo guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" name="Jarno Väyrynen" id="-589116405" dateTime="2016-09-06T12:54:09"/>
   <userInfo guid="{0407E191-78DA-F349-B5E5-8AE1BC03A29E}" name="Jarno Väyrynen" id="-589108428" dateTime="2016-09-08T15:33:24"/>
@@ -9355,6 +9355,7 @@
   <userInfo guid="{ED78840A-3509-BB4A-BA89-075EA96D3AEC}" name="Jarno Väyrynen" id="-589165312" dateTime="2017-04-04T12:00:56"/>
   <userInfo guid="{88D4547C-A4BB-3843-ABD6-020023F84CCA}" name="Microsoft Office User" id="-297001900" dateTime="2017-04-07T14:47:26"/>
   <userInfo guid="{88D4547C-A4BB-3843-ABD6-020023F84CCA}" name="Microsoft Office User" id="-296969784" dateTime="2017-05-08T10:00:09"/>
+  <userInfo guid="{FEE05AE3-8182-DC45-9C12-C837CD9BAE99}" name="Mikko Rönkkömäki" id="-727915884" dateTime="2017-05-18T10:22:30"/>
 </users>
 </file>
 

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikkoro/Desktop/Sources/harja/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarnova/projects/harja/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28720" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="13460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,10 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="1920" windowHeight="571" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Mikko Rönkkömäki - Personal View" guid="{1DD617EE-F308-3E45-A8EF-4713F47FA0DD}" mergeInterval="0" personalView="1" windowWidth="2560" windowHeight="1263" tabRatio="500" activeSheetId="2"/>
-    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="1920" windowHeight="596" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -1239,7 +1239,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FEE05AE3-8182-DC45-9C12-C837CD9BAE99}" diskRevisions="1" revisionId="439" version="57">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{18D528AF-50AD-3744-BF7B-4E3B5E8C50B3}" diskRevisions="1" revisionId="442" version="58">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1576,6 +1576,12 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{18D528AF-50AD-3744-BF7B-4E3B5E8C50B3}" dateTime="2017-06-15T14:58:33" maxSheetId="3" userName="Microsoft Office User" r:id="rId58" minRId="440" maxRId="441">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -9255,6 +9261,43 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog57.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="440" sId="1" odxf="1" dxf="1">
+    <oc r="G29" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </oc>
+    <nc r="G29" t="inlineStr">
+      <is>
+        <t>R*,W</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="441" sId="1">
+    <oc r="M29" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </oc>
+    <nc r="M29" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_7A9649F2_657F_9445_B6E6_FE94C6A09957_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Oikeudet!$A$5:$Y$83</formula>
+    <oldFormula>Oikeudet!$A$5:$Y$83</oldFormula>
+  </rdn>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="58" sId="1">
@@ -9341,7 +9384,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="14">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="15">
   <userInfo guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" name="Tatu Tarvainen" id="-130145201" dateTime="2016-09-06T09:10:23"/>
   <userInfo guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" name="Jarno Väyrynen" id="-589116405" dateTime="2016-09-06T12:54:09"/>
   <userInfo guid="{0407E191-78DA-F349-B5E5-8AE1BC03A29E}" name="Jarno Väyrynen" id="-589108428" dateTime="2016-09-08T15:33:24"/>
@@ -9356,6 +9399,7 @@
   <userInfo guid="{88D4547C-A4BB-3843-ABD6-020023F84CCA}" name="Microsoft Office User" id="-297001900" dateTime="2017-04-07T14:47:26"/>
   <userInfo guid="{88D4547C-A4BB-3843-ABD6-020023F84CCA}" name="Microsoft Office User" id="-296969784" dateTime="2017-05-08T10:00:09"/>
   <userInfo guid="{FEE05AE3-8182-DC45-9C12-C837CD9BAE99}" name="Mikko Rönkkömäki" id="-727915884" dateTime="2017-05-18T10:22:30"/>
+  <userInfo guid="{18D528AF-50AD-3744-BF7B-4E3B5E8C50B3}" name="Microsoft Office User" id="-297007836" dateTime="2017-06-15T12:29:16"/>
 </users>
 </file>
 
@@ -9683,11 +9727,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y83"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C29" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="H25" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
+      <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11256,8 +11300,8 @@
       <c r="F29" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="G29" s="21" t="s">
-        <v>126</v>
+      <c r="G29" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="H29" s="21" t="s">
         <v>126</v>
@@ -11275,7 +11319,7 @@
         <v>156</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="N29" s="21" t="s">
         <v>126</v>
@@ -14345,9 +14389,15 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{1DD617EE-F308-3E45-A8EF-4713F47FA0DD}" scale="170">
-      <pane xSplit="2" ySplit="6" topLeftCell="C29" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
+      <pane xSplit="2" ySplit="6" topLeftCell="H25" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
+      <pane xSplit="2" ySplit="6.0384615384615383" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
@@ -14357,15 +14407,9 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}" scale="170">
-      <pane xSplit="2" ySplit="6.0384615384615383" topLeftCell="C24" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
-      <pane xSplit="2" ySplit="6" topLeftCell="C33" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
+    <customSheetView guid="{1DD617EE-F308-3E45-A8EF-4713F47FA0DD}" scale="170">
+      <pane xSplit="2" ySplit="6" topLeftCell="C29" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
@@ -14388,8 +14432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -14722,8 +14766,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{1DD617EE-F308-3E45-A8EF-4713F47FA0DD}">
-      <selection activeCell="A22" sqref="A22"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
+      <selection activeCell="G36" sqref="G36"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
+      <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
@@ -14732,13 +14781,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
-      <selection activeCell="C7" sqref="C7"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
-      <selection activeCell="G36" sqref="G36"/>
+    <customSheetView guid="{1DD617EE-F308-3E45-A8EF-4713F47FA0DD}">
+      <selection activeCell="A22" sqref="A22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -5,27 +5,29 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarnova/projects/harja/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatuta/projects/harja/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="13460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
     <sheet name="Roolit" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Oikeudet!$A$5:$Y$83</definedName>
-    <definedName name="Z_1DD617EE_F308_3E45_A8EF_4713F47FA0DD_.wvu.FilterData" localSheetId="0" hidden="1">Oikeudet!$A$5:$Y$83</definedName>
-    <definedName name="Z_7A9649F2_657F_9445_B6E6_FE94C6A09957_.wvu.FilterData" localSheetId="0" hidden="1">Oikeudet!$A$5:$Y$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Oikeudet!$A$5:$Y$84</definedName>
+    <definedName name="Z_1DD617EE_F308_3E45_A8EF_4713F47FA0DD_.wvu.FilterData" localSheetId="0" hidden="1">Oikeudet!$A$5:$Y$84</definedName>
+    <definedName name="Z_7A9649F2_657F_9445_B6E6_FE94C6A09957_.wvu.FilterData" localSheetId="0" hidden="1">Oikeudet!$A$5:$Y$84</definedName>
+    <definedName name="Z_E88E7AA2_EE96_CA4C_AB2A_FE73CCE938AC_.wvu.FilterData" localSheetId="0" hidden="1">Oikeudet!$A$5:$Y$84</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office -käyttäjä - Oma näkymä" guid="{E88E7AA2-EE96-CA4C-AB2A-FE73CCE938AC}" mergeInterval="0" personalView="1" windowWidth="1920" windowHeight="798" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Mikko Rönkkömäki - Personal View" guid="{1DD617EE-F308-3E45-A8EF-4713F47FA0DD}" mergeInterval="0" personalView="1" windowWidth="2560" windowHeight="1263" tabRatio="500" activeSheetId="2"/>
+    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
+    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="1920" windowHeight="571" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Mikko Rönkkömäki - Personal View" guid="{1DD617EE-F308-3E45-A8EF-4713F47FA0DD}" mergeInterval="0" personalView="1" windowWidth="2560" windowHeight="1263" tabRatio="500" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -72,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="187">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -630,6 +632,9 @@
   </si>
   <si>
     <t>Vesiväylälaadunseuranta / Viat</t>
+  </si>
+  <si>
+    <t>Vesiväylä / Materiaalit</t>
   </si>
 </sst>
 </file>
@@ -941,7 +946,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1040,6 +1045,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1050,183 +1059,183 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="177">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Norm." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1239,7 +1248,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{18D528AF-50AD-3744-BF7B-4E3B5E8C50B3}" diskRevisions="1" revisionId="442" version="58">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FED76948-6277-1647-9EFC-6DA116A5279E}" diskRevisions="1" revisionId="460" version="59">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1582,6 +1591,12 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{FED76948-6277-1647-9EFC-6DA116A5279E}" dateTime="2017-06-19T20:29:12" maxSheetId="3" userName="Microsoft Office -käyttäjä" r:id="rId59" minRId="443" maxRId="459">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -9298,6 +9313,128 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog58.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="443" sId="1" ref="A44:XFD44" action="insertRow"/>
+  <rcc rId="444" sId="1">
+    <nc r="A44" t="inlineStr">
+      <is>
+        <t>Urakat</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="445" sId="1">
+    <nc r="B44" t="inlineStr">
+      <is>
+        <t>Vesiväylä / Materiaalit</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="446" sId="1">
+    <nc r="D44" t="inlineStr">
+      <is>
+        <t>R*,W*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="447" sId="1">
+    <nc r="E44" t="inlineStr">
+      <is>
+        <t>R*,W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="448" sId="1">
+    <nc r="F44" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="449" sId="1">
+    <nc r="G44" t="inlineStr">
+      <is>
+        <t>R*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="450" sId="1">
+    <nc r="K44" t="inlineStr">
+      <is>
+        <t>R*,W*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="451" sId="1">
+    <nc r="L44" t="inlineStr">
+      <is>
+        <t>R*,W*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="452" sId="1">
+    <nc r="M44" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="453" sId="1">
+    <nc r="N44" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="454" sId="1">
+    <nc r="O44" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="455" sId="1">
+    <nc r="S44" t="inlineStr">
+      <is>
+        <t>R,W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="456" sId="1">
+    <nc r="R44" t="inlineStr">
+      <is>
+        <t>R+,W+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="457" sId="1">
+    <nc r="T44" t="inlineStr">
+      <is>
+        <t>R+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="458" sId="1">
+    <nc r="U44" t="inlineStr">
+      <is>
+        <t>R</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="459" sId="1">
+    <nc r="V44" t="inlineStr">
+      <is>
+        <t>R+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_E88E7AA2_EE96_CA4C_AB2A_FE73CCE938AC_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Oikeudet!$A$5:$Y$84</formula>
+  </rdn>
+  <rcv guid="{E88E7AA2-EE96-CA4C-AB2A-FE73CCE938AC}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="58" sId="1">
@@ -9384,7 +9521,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="15">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="16">
   <userInfo guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" name="Tatu Tarvainen" id="-130145201" dateTime="2016-09-06T09:10:23"/>
   <userInfo guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" name="Jarno Väyrynen" id="-589116405" dateTime="2016-09-06T12:54:09"/>
   <userInfo guid="{0407E191-78DA-F349-B5E5-8AE1BC03A29E}" name="Jarno Väyrynen" id="-589108428" dateTime="2016-09-08T15:33:24"/>
@@ -9400,6 +9537,7 @@
   <userInfo guid="{88D4547C-A4BB-3843-ABD6-020023F84CCA}" name="Microsoft Office User" id="-296969784" dateTime="2017-05-08T10:00:09"/>
   <userInfo guid="{FEE05AE3-8182-DC45-9C12-C837CD9BAE99}" name="Mikko Rönkkömäki" id="-727915884" dateTime="2017-05-18T10:22:30"/>
   <userInfo guid="{18D528AF-50AD-3744-BF7B-4E3B5E8C50B3}" name="Microsoft Office User" id="-297007836" dateTime="2017-06-15T12:29:16"/>
+  <userInfo guid="{FED76948-6277-1647-9EFC-6DA116A5279E}" name="Microsoft Office -käyttäjä" id="-785734380" dateTime="2017-06-19T20:24:56"/>
 </users>
 </file>
 
@@ -9725,13 +9863,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y83"/>
+  <dimension ref="A1:Y84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="H25" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C32" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
+      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9767,40 +9905,40 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
@@ -9821,30 +9959,30 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="K5" s="56" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="K5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="R5" s="56" t="s">
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="R5" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
       <c r="Y5" s="5" t="s">
         <v>13</v>
       </c>
@@ -12093,65 +12231,71 @@
       <c r="X43" s="21"/>
       <c r="Y43" s="52"/>
     </row>
-    <row r="44" spans="1:25" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:25" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="26" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F44" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="G44" s="21"/>
+      <c r="G44" s="21" t="s">
+        <v>126</v>
+      </c>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
-      <c r="J44" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="K44" s="21" t="s">
-        <v>126</v>
+      <c r="J44" s="21"/>
+      <c r="K44" s="17" t="s">
+        <v>125</v>
       </c>
       <c r="L44" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="M44" s="21"/>
+        <v>125</v>
+      </c>
+      <c r="M44" s="21" t="s">
+        <v>112</v>
+      </c>
       <c r="N44" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21" t="s">
-        <v>16</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="O44" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="21"/>
       <c r="R44" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="S44" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="T44" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="S44" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="T44" s="21"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="21" t="s">
+      <c r="U44" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="V44" s="17" t="s">
         <v>130</v>
       </c>
       <c r="W44" s="21"/>
       <c r="X44" s="21"/>
-      <c r="Y44" s="30"/>
+      <c r="Y44" s="54"/>
     </row>
-    <row r="45" spans="1:25" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:25" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="17" t="s">
@@ -12197,28 +12341,26 @@
       </c>
       <c r="W45" s="21"/>
       <c r="X45" s="21"/>
-      <c r="Y45" s="47"/>
+      <c r="Y45" s="30"/>
     </row>
-    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:25" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="C46" s="21"/>
-      <c r="D46" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E46" s="21" t="s">
+      <c r="D46" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" s="17" t="s">
         <v>126</v>
       </c>
       <c r="F46" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="G46" s="21" t="s">
-        <v>18</v>
-      </c>
+      <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21" t="s">
@@ -12252,14 +12394,14 @@
       </c>
       <c r="W46" s="21"/>
       <c r="X46" s="21"/>
-      <c r="Y46" s="10"/>
+      <c r="Y46" s="47"/>
     </row>
     <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47" s="21"/>
       <c r="D47" s="21" t="s">
@@ -12272,14 +12414,10 @@
         <v>126</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="H47" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="I47" s="21" t="s">
-        <v>126</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
       <c r="J47" s="21" t="s">
         <v>16</v>
       </c>
@@ -12289,18 +12427,12 @@
       <c r="L47" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="M47" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="M47" s="21"/>
       <c r="N47" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="O47" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="P47" s="21" t="s">
-        <v>126</v>
-      </c>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
       <c r="Q47" s="21" t="s">
         <v>16</v>
       </c>
@@ -12310,27 +12442,21 @@
       <c r="S47" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="T47" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="U47" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
       <c r="V47" s="21" t="s">
         <v>130</v>
       </c>
       <c r="W47" s="21"/>
-      <c r="X47" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="X47" s="21"/>
       <c r="Y47" s="10"/>
     </row>
-    <row r="48" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="21" t="s">
@@ -12390,20 +12516,18 @@
       <c r="V48" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="W48" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="W48" s="21"/>
       <c r="X48" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Y48" s="36"/>
+      <c r="Y48" s="10"/>
     </row>
-    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="C49" s="21"/>
       <c r="D49" s="21" t="s">
@@ -12463,18 +12587,20 @@
       <c r="V49" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="W49" s="21"/>
+      <c r="W49" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="X49" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Y49" s="10"/>
+      <c r="Y49" s="36"/>
     </row>
     <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="C50" s="21"/>
       <c r="D50" s="21" t="s">
@@ -12545,7 +12671,7 @@
         <v>42</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51" s="21"/>
       <c r="D51" s="21" t="s">
@@ -12611,12 +12737,12 @@
       </c>
       <c r="Y51" s="10"/>
     </row>
-    <row r="52" spans="1:25" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="21" t="s">
@@ -12680,14 +12806,14 @@
       <c r="X52" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Y52" s="39"/>
+      <c r="Y52" s="10"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:25" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="21" t="s">
@@ -12751,14 +12877,14 @@
       <c r="X53" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Y53" s="10"/>
+      <c r="Y53" s="39"/>
     </row>
     <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="21" t="s">
@@ -12794,7 +12920,9 @@
       <c r="N54" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="O54" s="21"/>
+      <c r="O54" s="21" t="s">
+        <v>126</v>
+      </c>
       <c r="P54" s="21" t="s">
         <v>126</v>
       </c>
@@ -12827,7 +12955,7 @@
         <v>42</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="21" t="s">
@@ -12863,9 +12991,7 @@
       <c r="N55" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="O55" s="21" t="s">
-        <v>126</v>
-      </c>
+      <c r="O55" s="21"/>
       <c r="P55" s="21" t="s">
         <v>126</v>
       </c>
@@ -12898,7 +13024,7 @@
         <v>42</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="21" t="s">
@@ -12910,8 +13036,12 @@
       <c r="F56" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
+      <c r="G56" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>126</v>
+      </c>
       <c r="I56" s="21" t="s">
         <v>126</v>
       </c>
@@ -12924,11 +13054,15 @@
       <c r="L56" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="M56" s="21"/>
+      <c r="M56" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="N56" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="O56" s="21"/>
+      <c r="O56" s="21" t="s">
+        <v>126</v>
+      </c>
       <c r="P56" s="21" t="s">
         <v>126</v>
       </c>
@@ -12961,7 +13095,7 @@
         <v>42</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57" s="21"/>
       <c r="D57" s="21" t="s">
@@ -12974,10 +13108,10 @@
         <v>126</v>
       </c>
       <c r="G57" s="21"/>
-      <c r="H57" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21" t="s">
+        <v>126</v>
+      </c>
       <c r="J57" s="21" t="s">
         <v>16</v>
       </c>
@@ -12991,10 +13125,10 @@
       <c r="N57" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="O57" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="P57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21" t="s">
+        <v>126</v>
+      </c>
       <c r="Q57" s="21" t="s">
         <v>16</v>
       </c>
@@ -13004,13 +13138,19 @@
       <c r="S57" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="T57" s="21"/>
-      <c r="U57" s="21"/>
+      <c r="T57" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="U57" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="V57" s="21" t="s">
         <v>130</v>
       </c>
       <c r="W57" s="21"/>
-      <c r="X57" s="21"/>
+      <c r="X57" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="Y57" s="10"/>
     </row>
     <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -13018,7 +13158,7 @@
         <v>42</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C58" s="21"/>
       <c r="D58" s="21" t="s">
@@ -13031,7 +13171,9 @@
         <v>126</v>
       </c>
       <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
+      <c r="H58" s="21" t="s">
+        <v>18</v>
+      </c>
       <c r="I58" s="21"/>
       <c r="J58" s="21" t="s">
         <v>16</v>
@@ -13046,7 +13188,9 @@
       <c r="N58" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="O58" s="21"/>
+      <c r="O58" s="21" t="s">
+        <v>18</v>
+      </c>
       <c r="P58" s="21"/>
       <c r="Q58" s="21" t="s">
         <v>16</v>
@@ -13071,7 +13215,7 @@
         <v>42</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C59" s="21"/>
       <c r="D59" s="21" t="s">
@@ -13124,7 +13268,7 @@
         <v>42</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C60" s="21"/>
       <c r="D60" s="21" t="s">
@@ -13172,12 +13316,12 @@
       <c r="X60" s="21"/>
       <c r="Y60" s="10"/>
     </row>
-    <row r="61" spans="1:25" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="C61" s="21"/>
       <c r="D61" s="21" t="s">
@@ -13189,15 +13333,9 @@
       <c r="F61" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="G61" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="H61" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="I61" s="21" t="s">
-        <v>126</v>
-      </c>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
       <c r="J61" s="21" t="s">
         <v>16</v>
       </c>
@@ -13207,16 +13345,12 @@
       <c r="L61" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="M61" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="M61" s="21"/>
       <c r="N61" s="21" t="s">
         <v>126</v>
       </c>
       <c r="O61" s="21"/>
-      <c r="P61" s="21" t="s">
-        <v>126</v>
-      </c>
+      <c r="P61" s="21"/>
       <c r="Q61" s="21" t="s">
         <v>16</v>
       </c>
@@ -13226,27 +13360,21 @@
       <c r="S61" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="T61" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="U61" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="T61" s="21"/>
+      <c r="U61" s="21"/>
       <c r="V61" s="21" t="s">
         <v>130</v>
       </c>
       <c r="W61" s="21"/>
-      <c r="X61" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y61" s="27"/>
+      <c r="X61" s="21"/>
+      <c r="Y61" s="10"/>
     </row>
-    <row r="62" spans="1:25" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:25" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="C62" s="21"/>
       <c r="D62" s="21" t="s">
@@ -13308,14 +13436,14 @@
       <c r="X62" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Y62" s="47"/>
+      <c r="Y62" s="27"/>
     </row>
-    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:25" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="C63" s="21"/>
       <c r="D63" s="21" t="s">
@@ -13351,9 +13479,7 @@
       <c r="N63" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="O63" s="21" t="s">
-        <v>126</v>
-      </c>
+      <c r="O63" s="21"/>
       <c r="P63" s="21" t="s">
         <v>126</v>
       </c>
@@ -13379,14 +13505,14 @@
       <c r="X63" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Y63" s="10"/>
+      <c r="Y63" s="47"/>
     </row>
-    <row r="64" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="C64" s="21"/>
       <c r="D64" s="21" t="s">
@@ -13447,15 +13573,17 @@
         <v>130</v>
       </c>
       <c r="W64" s="21"/>
-      <c r="X64" s="21"/>
-      <c r="Y64" s="36"/>
+      <c r="X64" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y64" s="10"/>
     </row>
     <row r="65" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C65" s="21"/>
       <c r="D65" s="21" t="s">
@@ -13524,7 +13652,7 @@
         <v>42</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C66" s="21"/>
       <c r="D66" s="21" t="s">
@@ -13593,7 +13721,7 @@
         <v>42</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C67" s="21"/>
       <c r="D67" s="21" t="s">
@@ -13662,7 +13790,7 @@
         <v>42</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C68" s="21"/>
       <c r="D68" s="21" t="s">
@@ -13726,26 +13854,32 @@
       <c r="X68" s="21"/>
       <c r="Y68" s="36"/>
     </row>
-    <row r="69" spans="1:25" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C69" s="21"/>
-      <c r="D69" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E69" s="17" t="s">
+      <c r="D69" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E69" s="21" t="s">
         <v>126</v>
       </c>
       <c r="F69" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
+      <c r="G69" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="H69" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="I69" s="21" t="s">
+        <v>126</v>
+      </c>
       <c r="J69" s="21" t="s">
         <v>16</v>
       </c>
@@ -13755,12 +13889,18 @@
       <c r="L69" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="M69" s="21"/>
+      <c r="M69" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="N69" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="O69" s="21"/>
-      <c r="P69" s="21"/>
+      <c r="O69" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="P69" s="21" t="s">
+        <v>126</v>
+      </c>
       <c r="Q69" s="21" t="s">
         <v>16</v>
       </c>
@@ -13770,39 +13910,39 @@
       <c r="S69" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="T69" s="21"/>
-      <c r="U69" s="21"/>
-      <c r="V69" s="21"/>
+      <c r="T69" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="U69" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="V69" s="21" t="s">
+        <v>130</v>
+      </c>
       <c r="W69" s="21"/>
       <c r="X69" s="21"/>
-      <c r="Y69" s="33"/>
+      <c r="Y69" s="36"/>
     </row>
-    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:25" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="26" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="C70" s="21"/>
-      <c r="D70" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E70" s="21" t="s">
+      <c r="D70" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E70" s="17" t="s">
         <v>126</v>
       </c>
       <c r="F70" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="G70" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="H70" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="I70" s="21" t="s">
-        <v>126</v>
-      </c>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
       <c r="J70" s="21" t="s">
         <v>16</v>
       </c>
@@ -13812,18 +13952,12 @@
       <c r="L70" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="M70" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="M70" s="21"/>
       <c r="N70" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="O70" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="P70" s="21" t="s">
-        <v>126</v>
-      </c>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
       <c r="Q70" s="21" t="s">
         <v>16</v>
       </c>
@@ -13833,31 +13967,19 @@
       <c r="S70" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="T70" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="U70" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="V70" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="W70" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="X70" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y70" s="54" t="s">
-        <v>59</v>
-      </c>
+      <c r="T70" s="21"/>
+      <c r="U70" s="21"/>
+      <c r="V70" s="21"/>
+      <c r="W70" s="21"/>
+      <c r="X70" s="21"/>
+      <c r="Y70" s="33"/>
     </row>
     <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C71" s="21"/>
       <c r="D71" s="21" t="s">
@@ -13923,20 +14045,22 @@
       <c r="X71" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Y71" s="55"/>
+      <c r="Y71" s="56" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="26" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C72" s="21"/>
       <c r="D72" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="E72" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E72" s="21" t="s">
         <v>126</v>
       </c>
       <c r="F72" s="21" t="s">
@@ -13955,7 +14079,7 @@
         <v>16</v>
       </c>
       <c r="K72" s="21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L72" s="21" t="s">
         <v>126</v>
@@ -13976,129 +14100,170 @@
         <v>16</v>
       </c>
       <c r="R72" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S72" s="21" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="T72" s="21" t="s">
         <v>130</v>
       </c>
       <c r="U72" s="21" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="V72" s="21" t="s">
         <v>130</v>
       </c>
       <c r="W72" s="21" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="X72" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y72" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="Y72" s="57"/>
     </row>
-    <row r="73" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C73" s="19"/>
+    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73" s="21"/>
       <c r="D73" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
-      <c r="O73" s="19"/>
-      <c r="P73" s="19"/>
-      <c r="Q73" s="19"/>
-      <c r="R73" s="19"/>
-      <c r="S73" s="19"/>
-      <c r="T73" s="19"/>
-      <c r="U73" s="19"/>
-      <c r="V73" s="19"/>
-      <c r="W73" s="19"/>
-      <c r="X73" s="19"/>
-      <c r="Y73" s="14" t="s">
-        <v>64</v>
-      </c>
+      <c r="E73" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="H73" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="I73" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="J73" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K73" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="L73" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="M73" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="N73" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="O73" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="P73" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q73" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="R73" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="S73" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="T73" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="U73" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="V73" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="W73" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="X73" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y73" s="10"/>
     </row>
-    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="16" t="s">
+    <row r="74" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B74" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C74" s="17"/>
+      <c r="B74" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" s="19"/>
       <c r="D74" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H74" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I74" s="17"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N74" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O74" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="17"/>
-      <c r="S74" s="17"/>
-      <c r="T74" s="17"/>
-      <c r="U74" s="17"/>
-      <c r="V74" s="17"/>
-      <c r="W74" s="17"/>
-      <c r="X74" s="17"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
+      <c r="S74" s="19"/>
+      <c r="T74" s="19"/>
+      <c r="U74" s="19"/>
+      <c r="V74" s="19"/>
+      <c r="W74" s="19"/>
+      <c r="X74" s="19"/>
+      <c r="Y74" s="14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="21" t="s">
         <v>125</v>
       </c>
       <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
+      <c r="F75" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H75" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="I75" s="17"/>
       <c r="J75" s="21"/>
       <c r="K75" s="17"/>
       <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
+      <c r="M75" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N75" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O75" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="P75" s="17"/>
       <c r="Q75" s="21"/>
       <c r="R75" s="17"/>
@@ -14114,7 +14279,7 @@
         <v>62</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C76" s="17"/>
       <c r="D76" s="21" t="s">
@@ -14146,7 +14311,7 @@
         <v>62</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C77" s="17"/>
       <c r="D77" s="21" t="s">
@@ -14173,12 +14338,12 @@
       <c r="W77" s="17"/>
       <c r="X77" s="17"/>
     </row>
-    <row r="78" spans="1:25" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="C78" s="17"/>
       <c r="D78" s="21" t="s">
@@ -14205,12 +14370,12 @@
       <c r="W78" s="17"/>
       <c r="X78" s="17"/>
     </row>
-    <row r="79" spans="1:25" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:25" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="C79" s="17"/>
       <c r="D79" s="21" t="s">
@@ -14237,12 +14402,12 @@
       <c r="W79" s="17"/>
       <c r="X79" s="17"/>
     </row>
-    <row r="80" spans="1:25" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:25" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="21" t="s">
@@ -14269,12 +14434,12 @@
       <c r="W80" s="17"/>
       <c r="X80" s="17"/>
     </row>
-    <row r="81" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:24" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="C81" s="17"/>
       <c r="D81" s="21" t="s">
@@ -14301,97 +14466,141 @@
       <c r="W81" s="17"/>
       <c r="X81" s="17"/>
     </row>
-    <row r="82" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="16" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C82" s="20"/>
+        <v>123</v>
+      </c>
+      <c r="C82" s="17"/>
       <c r="D82" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="43"/>
-      <c r="K82" s="20"/>
-      <c r="L82" s="20"/>
-      <c r="M82" s="20"/>
-      <c r="N82" s="20"/>
-      <c r="O82" s="20"/>
-      <c r="P82" s="20"/>
-      <c r="Q82" s="43"/>
-      <c r="R82" s="20"/>
-      <c r="S82" s="20"/>
-      <c r="T82" s="20"/>
-      <c r="U82" s="20"/>
-      <c r="V82" s="20"/>
-      <c r="W82" s="20"/>
-      <c r="X82" s="20"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="21"/>
+      <c r="R82" s="17"/>
+      <c r="S82" s="17"/>
+      <c r="T82" s="17"/>
+      <c r="U82" s="17"/>
+      <c r="V82" s="17"/>
+      <c r="W82" s="17"/>
+      <c r="X82" s="17"/>
     </row>
     <row r="83" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="16" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C83" s="20"/>
       <c r="D83" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="43"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="20"/>
+      <c r="O83" s="20"/>
+      <c r="P83" s="20"/>
+      <c r="Q83" s="43"/>
+      <c r="R83" s="20"/>
+      <c r="S83" s="20"/>
+      <c r="T83" s="20"/>
+      <c r="U83" s="20"/>
+      <c r="V83" s="20"/>
+      <c r="W83" s="20"/>
+      <c r="X83" s="20"/>
+    </row>
+    <row r="84" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84" s="20"/>
+      <c r="D84" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="E83" s="29" t="s">
+      <c r="E84" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29" t="s">
+      <c r="F84" s="29"/>
+      <c r="G84" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="44" t="s">
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="K83" s="29" t="s">
+      <c r="K84" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="L83" s="29" t="s">
+      <c r="L84" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="M83" s="29" t="s">
+      <c r="M84" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="N83" s="29" t="s">
+      <c r="N84" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="O83" s="29"/>
-      <c r="P83" s="29"/>
-      <c r="Q83" s="44" t="s">
+      <c r="O84" s="29"/>
+      <c r="P84" s="29"/>
+      <c r="Q84" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="R83" s="46" t="s">
+      <c r="R84" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="S83" s="44" t="s">
+      <c r="S84" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="T83" s="29"/>
-      <c r="U83" s="29" t="s">
+      <c r="T84" s="29"/>
+      <c r="U84" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="V83" s="29"/>
-      <c r="W83" s="29"/>
-      <c r="X83" s="29"/>
+      <c r="V84" s="29"/>
+      <c r="W84" s="29"/>
+      <c r="X84" s="29"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
-      <pane xSplit="2" ySplit="6" topLeftCell="H25" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
+    <customSheetView guid="{E88E7AA2-EE96-CA4C-AB2A-FE73CCE938AC}" scale="170">
+      <pane xSplit="2" ySplit="6" topLeftCell="C32" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{1DD617EE-F308-3E45-A8EF-4713F47FA0DD}" scale="170">
+      <pane xSplit="2" ySplit="6" topLeftCell="C29" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
+      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
@@ -14401,21 +14610,15 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
-      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{1DD617EE-F308-3E45-A8EF-4713F47FA0DD}" scale="170">
-      <pane xSplit="2" ySplit="6" topLeftCell="C29" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
+      <pane xSplit="2" ySplit="6" topLeftCell="H25" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="6">
-    <mergeCell ref="Y70:Y71"/>
+    <mergeCell ref="Y71:Y72"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="K5:O5"/>
     <mergeCell ref="R5:X5"/>
@@ -14766,8 +14969,18 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
+    <customSheetView guid="{E88E7AA2-EE96-CA4C-AB2A-FE73CCE938AC}">
       <selection activeCell="G36" sqref="G36"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{1DD617EE-F308-3E45-A8EF-4713F47FA0DD}">
+      <selection activeCell="A22" sqref="A22"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
+      <selection activeCell="B17" sqref="B17"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
@@ -14776,13 +14989,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}">
-      <selection activeCell="B17" sqref="B17"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{1DD617EE-F308-3E45-A8EF-4713F47FA0DD}">
-      <selection activeCell="A22" sqref="A22"/>
+    <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}">
+      <selection activeCell="G36" sqref="G36"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarnova/projects/harja/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teemukau/code/harja/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="13460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="12960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
     <sheet name="Roolit" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Oikeudet!$A$5:$Y$83</definedName>
-    <definedName name="Z_1DD617EE_F308_3E45_A8EF_4713F47FA0DD_.wvu.FilterData" localSheetId="0" hidden="1">Oikeudet!$A$5:$Y$83</definedName>
-    <definedName name="Z_7A9649F2_657F_9445_B6E6_FE94C6A09957_.wvu.FilterData" localSheetId="0" hidden="1">Oikeudet!$A$5:$Y$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Oikeudet!$A$5:$Y$84</definedName>
+    <definedName name="Z_1DD617EE_F308_3E45_A8EF_4713F47FA0DD_.wvu.FilterData" localSheetId="0" hidden="1">Oikeudet!$A$5:$Y$84</definedName>
+    <definedName name="Z_7A9649F2_657F_9445_B6E6_FE94C6A09957_.wvu.FilterData" localSheetId="0" hidden="1">Oikeudet!$A$5:$Y$84</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="1920" windowHeight="571" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="1920" windowHeight="475" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Mikko Rönkkömäki - Personal View" guid="{1DD617EE-F308-3E45-A8EF-4713F47FA0DD}" mergeInterval="0" personalView="1" windowWidth="2560" windowHeight="1263" tabRatio="500" activeSheetId="2"/>
+    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Mikko Rönkkömäki - Personal View" guid="{1DD617EE-F308-3E45-A8EF-4713F47FA0DD}" mergeInterval="0" personalView="1" windowWidth="2560" windowHeight="1263" tabRatio="500" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="187">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -630,6 +630,9 @@
   </si>
   <si>
     <t>Vesiväylälaadunseuranta / Viat</t>
+  </si>
+  <si>
+    <t>Vesiväyläsuunnittelu / Kiintiöt</t>
   </si>
 </sst>
 </file>
@@ -941,7 +944,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1031,6 +1034,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1239,7 +1246,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{18D528AF-50AD-3744-BF7B-4E3B5E8C50B3}" diskRevisions="1" revisionId="442" version="58">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0F03D371-18B5-0A48-AA9F-F6C218BB06DC}" diskRevisions="1" revisionId="447" version="59">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1582,6 +1589,12 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{0F03D371-18B5-0A48-AA9F-F6C218BB06DC}" dateTime="2017-06-20T09:57:58" maxSheetId="3" userName="Microsoft Office User" r:id="rId59" minRId="443" maxRId="446">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -9298,6 +9311,39 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog58.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="443" sId="1" ref="A43:XFD43" action="insertRow"/>
+  <rcc rId="444" sId="1">
+    <nc r="A43" t="inlineStr">
+      <is>
+        <t>Urakat</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="445" sId="1">
+    <nc r="B43" t="inlineStr">
+      <is>
+        <t>Vesiväyläsuunnittelu / Kiintiöt</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="446" sId="1">
+    <nc r="D43" t="inlineStr">
+      <is>
+        <t>R*,W*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_7A9649F2_657F_9445_B6E6_FE94C6A09957_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Oikeudet!$A$5:$Y$84</formula>
+    <oldFormula>Oikeudet!$A$5:$Y$84</oldFormula>
+  </rdn>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="58" sId="1">
@@ -9383,7 +9429,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="15">
   <userInfo guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" name="Tatu Tarvainen" id="-130145201" dateTime="2016-09-06T09:10:23"/>
   <userInfo guid="{E0850D7E-A93F-EF44-B46A-3BEA4D7DBEDB}" name="Jarno Väyrynen" id="-589116405" dateTime="2016-09-06T12:54:09"/>
@@ -9725,13 +9771,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y83"/>
+  <dimension ref="A1:Y84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="H25" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C40" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
+      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9767,40 +9813,40 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
@@ -9821,30 +9867,30 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="K5" s="56" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="K5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="R5" s="56" t="s">
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="R5" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
       <c r="Y5" s="5" t="s">
         <v>13</v>
       </c>
@@ -12060,12 +12106,12 @@
       <c r="X42" s="21"/>
       <c r="Y42" s="52"/>
     </row>
-    <row r="43" spans="1:25" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:25" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="17" t="s">
@@ -12091,67 +12137,47 @@
       <c r="V43" s="17"/>
       <c r="W43" s="21"/>
       <c r="X43" s="21"/>
-      <c r="Y43" s="52"/>
+      <c r="Y43" s="54"/>
     </row>
-    <row r="44" spans="1:25" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:25" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="26" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>126</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="21"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
-      <c r="J44" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="K44" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="L44" s="21" t="s">
-        <v>126</v>
-      </c>
+      <c r="J44" s="21"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="21"/>
       <c r="M44" s="21"/>
-      <c r="N44" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="R44" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="S44" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="N44" s="21"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
       <c r="T44" s="21"/>
       <c r="U44" s="21"/>
-      <c r="V44" s="21" t="s">
-        <v>130</v>
-      </c>
+      <c r="V44" s="17"/>
       <c r="W44" s="21"/>
       <c r="X44" s="21"/>
-      <c r="Y44" s="30"/>
+      <c r="Y44" s="52"/>
     </row>
-    <row r="45" spans="1:25" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:25" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="17" t="s">
@@ -12197,28 +12223,26 @@
       </c>
       <c r="W45" s="21"/>
       <c r="X45" s="21"/>
-      <c r="Y45" s="47"/>
+      <c r="Y45" s="30"/>
     </row>
-    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:25" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="C46" s="21"/>
-      <c r="D46" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E46" s="21" t="s">
+      <c r="D46" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" s="17" t="s">
         <v>126</v>
       </c>
       <c r="F46" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="G46" s="21" t="s">
-        <v>18</v>
-      </c>
+      <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21" t="s">
@@ -12252,14 +12276,14 @@
       </c>
       <c r="W46" s="21"/>
       <c r="X46" s="21"/>
-      <c r="Y46" s="10"/>
+      <c r="Y46" s="47"/>
     </row>
     <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47" s="21"/>
       <c r="D47" s="21" t="s">
@@ -12272,14 +12296,10 @@
         <v>126</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="H47" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="I47" s="21" t="s">
-        <v>126</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
       <c r="J47" s="21" t="s">
         <v>16</v>
       </c>
@@ -12289,18 +12309,12 @@
       <c r="L47" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="M47" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="M47" s="21"/>
       <c r="N47" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="O47" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="P47" s="21" t="s">
-        <v>126</v>
-      </c>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
       <c r="Q47" s="21" t="s">
         <v>16</v>
       </c>
@@ -12310,27 +12324,21 @@
       <c r="S47" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="T47" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="U47" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
       <c r="V47" s="21" t="s">
         <v>130</v>
       </c>
       <c r="W47" s="21"/>
-      <c r="X47" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="X47" s="21"/>
       <c r="Y47" s="10"/>
     </row>
-    <row r="48" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="21" t="s">
@@ -12390,20 +12398,18 @@
       <c r="V48" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="W48" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="W48" s="21"/>
       <c r="X48" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Y48" s="36"/>
+      <c r="Y48" s="10"/>
     </row>
-    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="C49" s="21"/>
       <c r="D49" s="21" t="s">
@@ -12463,18 +12469,20 @@
       <c r="V49" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="W49" s="21"/>
+      <c r="W49" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="X49" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Y49" s="10"/>
+      <c r="Y49" s="36"/>
     </row>
     <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="C50" s="21"/>
       <c r="D50" s="21" t="s">
@@ -12545,7 +12553,7 @@
         <v>42</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51" s="21"/>
       <c r="D51" s="21" t="s">
@@ -12611,12 +12619,12 @@
       </c>
       <c r="Y51" s="10"/>
     </row>
-    <row r="52" spans="1:25" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="21" t="s">
@@ -12680,14 +12688,14 @@
       <c r="X52" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Y52" s="39"/>
+      <c r="Y52" s="10"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:25" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="21" t="s">
@@ -12751,14 +12759,14 @@
       <c r="X53" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Y53" s="10"/>
+      <c r="Y53" s="39"/>
     </row>
     <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="21" t="s">
@@ -12794,7 +12802,9 @@
       <c r="N54" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="O54" s="21"/>
+      <c r="O54" s="21" t="s">
+        <v>126</v>
+      </c>
       <c r="P54" s="21" t="s">
         <v>126</v>
       </c>
@@ -12827,7 +12837,7 @@
         <v>42</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="21" t="s">
@@ -12863,9 +12873,7 @@
       <c r="N55" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="O55" s="21" t="s">
-        <v>126</v>
-      </c>
+      <c r="O55" s="21"/>
       <c r="P55" s="21" t="s">
         <v>126</v>
       </c>
@@ -12898,7 +12906,7 @@
         <v>42</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="21" t="s">
@@ -12910,8 +12918,12 @@
       <c r="F56" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
+      <c r="G56" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>126</v>
+      </c>
       <c r="I56" s="21" t="s">
         <v>126</v>
       </c>
@@ -12924,11 +12936,15 @@
       <c r="L56" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="M56" s="21"/>
+      <c r="M56" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="N56" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="O56" s="21"/>
+      <c r="O56" s="21" t="s">
+        <v>126</v>
+      </c>
       <c r="P56" s="21" t="s">
         <v>126</v>
       </c>
@@ -12961,7 +12977,7 @@
         <v>42</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57" s="21"/>
       <c r="D57" s="21" t="s">
@@ -12974,10 +12990,10 @@
         <v>126</v>
       </c>
       <c r="G57" s="21"/>
-      <c r="H57" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21" t="s">
+        <v>126</v>
+      </c>
       <c r="J57" s="21" t="s">
         <v>16</v>
       </c>
@@ -12991,10 +13007,10 @@
       <c r="N57" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="O57" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="P57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21" t="s">
+        <v>126</v>
+      </c>
       <c r="Q57" s="21" t="s">
         <v>16</v>
       </c>
@@ -13004,13 +13020,19 @@
       <c r="S57" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="T57" s="21"/>
-      <c r="U57" s="21"/>
+      <c r="T57" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="U57" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="V57" s="21" t="s">
         <v>130</v>
       </c>
       <c r="W57" s="21"/>
-      <c r="X57" s="21"/>
+      <c r="X57" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="Y57" s="10"/>
     </row>
     <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -13018,7 +13040,7 @@
         <v>42</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C58" s="21"/>
       <c r="D58" s="21" t="s">
@@ -13031,7 +13053,9 @@
         <v>126</v>
       </c>
       <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
+      <c r="H58" s="21" t="s">
+        <v>18</v>
+      </c>
       <c r="I58" s="21"/>
       <c r="J58" s="21" t="s">
         <v>16</v>
@@ -13046,7 +13070,9 @@
       <c r="N58" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="O58" s="21"/>
+      <c r="O58" s="21" t="s">
+        <v>18</v>
+      </c>
       <c r="P58" s="21"/>
       <c r="Q58" s="21" t="s">
         <v>16</v>
@@ -13071,7 +13097,7 @@
         <v>42</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C59" s="21"/>
       <c r="D59" s="21" t="s">
@@ -13124,7 +13150,7 @@
         <v>42</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C60" s="21"/>
       <c r="D60" s="21" t="s">
@@ -13172,12 +13198,12 @@
       <c r="X60" s="21"/>
       <c r="Y60" s="10"/>
     </row>
-    <row r="61" spans="1:25" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="C61" s="21"/>
       <c r="D61" s="21" t="s">
@@ -13189,15 +13215,9 @@
       <c r="F61" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="G61" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="H61" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="I61" s="21" t="s">
-        <v>126</v>
-      </c>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
       <c r="J61" s="21" t="s">
         <v>16</v>
       </c>
@@ -13207,16 +13227,12 @@
       <c r="L61" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="M61" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="M61" s="21"/>
       <c r="N61" s="21" t="s">
         <v>126</v>
       </c>
       <c r="O61" s="21"/>
-      <c r="P61" s="21" t="s">
-        <v>126</v>
-      </c>
+      <c r="P61" s="21"/>
       <c r="Q61" s="21" t="s">
         <v>16</v>
       </c>
@@ -13226,27 +13242,21 @@
       <c r="S61" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="T61" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="U61" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="T61" s="21"/>
+      <c r="U61" s="21"/>
       <c r="V61" s="21" t="s">
         <v>130</v>
       </c>
       <c r="W61" s="21"/>
-      <c r="X61" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y61" s="27"/>
+      <c r="X61" s="21"/>
+      <c r="Y61" s="10"/>
     </row>
-    <row r="62" spans="1:25" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:25" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="C62" s="21"/>
       <c r="D62" s="21" t="s">
@@ -13308,14 +13318,14 @@
       <c r="X62" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Y62" s="47"/>
+      <c r="Y62" s="27"/>
     </row>
-    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:25" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="C63" s="21"/>
       <c r="D63" s="21" t="s">
@@ -13351,9 +13361,7 @@
       <c r="N63" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="O63" s="21" t="s">
-        <v>126</v>
-      </c>
+      <c r="O63" s="21"/>
       <c r="P63" s="21" t="s">
         <v>126</v>
       </c>
@@ -13379,14 +13387,14 @@
       <c r="X63" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Y63" s="10"/>
+      <c r="Y63" s="47"/>
     </row>
-    <row r="64" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="C64" s="21"/>
       <c r="D64" s="21" t="s">
@@ -13447,15 +13455,17 @@
         <v>130</v>
       </c>
       <c r="W64" s="21"/>
-      <c r="X64" s="21"/>
-      <c r="Y64" s="36"/>
+      <c r="X64" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y64" s="10"/>
     </row>
     <row r="65" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C65" s="21"/>
       <c r="D65" s="21" t="s">
@@ -13524,7 +13534,7 @@
         <v>42</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C66" s="21"/>
       <c r="D66" s="21" t="s">
@@ -13593,7 +13603,7 @@
         <v>42</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C67" s="21"/>
       <c r="D67" s="21" t="s">
@@ -13662,7 +13672,7 @@
         <v>42</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C68" s="21"/>
       <c r="D68" s="21" t="s">
@@ -13726,26 +13736,32 @@
       <c r="X68" s="21"/>
       <c r="Y68" s="36"/>
     </row>
-    <row r="69" spans="1:25" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:25" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C69" s="21"/>
-      <c r="D69" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E69" s="17" t="s">
+      <c r="D69" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E69" s="21" t="s">
         <v>126</v>
       </c>
       <c r="F69" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
+      <c r="G69" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="H69" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="I69" s="21" t="s">
+        <v>126</v>
+      </c>
       <c r="J69" s="21" t="s">
         <v>16</v>
       </c>
@@ -13755,12 +13771,18 @@
       <c r="L69" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="M69" s="21"/>
+      <c r="M69" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="N69" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="O69" s="21"/>
-      <c r="P69" s="21"/>
+      <c r="O69" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="P69" s="21" t="s">
+        <v>126</v>
+      </c>
       <c r="Q69" s="21" t="s">
         <v>16</v>
       </c>
@@ -13770,39 +13792,39 @@
       <c r="S69" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="T69" s="21"/>
-      <c r="U69" s="21"/>
-      <c r="V69" s="21"/>
+      <c r="T69" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="U69" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="V69" s="21" t="s">
+        <v>130</v>
+      </c>
       <c r="W69" s="21"/>
       <c r="X69" s="21"/>
-      <c r="Y69" s="33"/>
+      <c r="Y69" s="36"/>
     </row>
-    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:25" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="26" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="C70" s="21"/>
-      <c r="D70" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E70" s="21" t="s">
+      <c r="D70" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E70" s="17" t="s">
         <v>126</v>
       </c>
       <c r="F70" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="G70" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="H70" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="I70" s="21" t="s">
-        <v>126</v>
-      </c>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
       <c r="J70" s="21" t="s">
         <v>16</v>
       </c>
@@ -13812,18 +13834,12 @@
       <c r="L70" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="M70" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="M70" s="21"/>
       <c r="N70" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="O70" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="P70" s="21" t="s">
-        <v>126</v>
-      </c>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
       <c r="Q70" s="21" t="s">
         <v>16</v>
       </c>
@@ -13833,31 +13849,19 @@
       <c r="S70" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="T70" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="U70" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="V70" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="W70" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="X70" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y70" s="54" t="s">
-        <v>59</v>
-      </c>
+      <c r="T70" s="21"/>
+      <c r="U70" s="21"/>
+      <c r="V70" s="21"/>
+      <c r="W70" s="21"/>
+      <c r="X70" s="21"/>
+      <c r="Y70" s="33"/>
     </row>
     <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C71" s="21"/>
       <c r="D71" s="21" t="s">
@@ -13923,20 +13927,22 @@
       <c r="X71" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Y71" s="55"/>
+      <c r="Y71" s="56" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="26" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C72" s="21"/>
       <c r="D72" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="E72" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E72" s="21" t="s">
         <v>126</v>
       </c>
       <c r="F72" s="21" t="s">
@@ -13955,7 +13961,7 @@
         <v>16</v>
       </c>
       <c r="K72" s="21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L72" s="21" t="s">
         <v>126</v>
@@ -13976,129 +13982,170 @@
         <v>16</v>
       </c>
       <c r="R72" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S72" s="21" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="T72" s="21" t="s">
         <v>130</v>
       </c>
       <c r="U72" s="21" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="V72" s="21" t="s">
         <v>130</v>
       </c>
       <c r="W72" s="21" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="X72" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y72" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="Y72" s="57"/>
     </row>
-    <row r="73" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C73" s="19"/>
+    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73" s="21"/>
       <c r="D73" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
-      <c r="O73" s="19"/>
-      <c r="P73" s="19"/>
-      <c r="Q73" s="19"/>
-      <c r="R73" s="19"/>
-      <c r="S73" s="19"/>
-      <c r="T73" s="19"/>
-      <c r="U73" s="19"/>
-      <c r="V73" s="19"/>
-      <c r="W73" s="19"/>
-      <c r="X73" s="19"/>
-      <c r="Y73" s="14" t="s">
-        <v>64</v>
-      </c>
+      <c r="E73" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="H73" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="I73" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="J73" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K73" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="L73" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="M73" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="N73" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="O73" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="P73" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q73" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="R73" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="S73" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="T73" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="U73" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="V73" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="W73" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="X73" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y73" s="10"/>
     </row>
-    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="16" t="s">
+    <row r="74" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B74" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C74" s="17"/>
+      <c r="B74" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" s="19"/>
       <c r="D74" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H74" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I74" s="17"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N74" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O74" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="17"/>
-      <c r="S74" s="17"/>
-      <c r="T74" s="17"/>
-      <c r="U74" s="17"/>
-      <c r="V74" s="17"/>
-      <c r="W74" s="17"/>
-      <c r="X74" s="17"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
+      <c r="S74" s="19"/>
+      <c r="T74" s="19"/>
+      <c r="U74" s="19"/>
+      <c r="V74" s="19"/>
+      <c r="W74" s="19"/>
+      <c r="X74" s="19"/>
+      <c r="Y74" s="14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="21" t="s">
         <v>125</v>
       </c>
       <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
+      <c r="F75" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H75" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="I75" s="17"/>
       <c r="J75" s="21"/>
       <c r="K75" s="17"/>
       <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
+      <c r="M75" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N75" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O75" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="P75" s="17"/>
       <c r="Q75" s="21"/>
       <c r="R75" s="17"/>
@@ -14114,7 +14161,7 @@
         <v>62</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C76" s="17"/>
       <c r="D76" s="21" t="s">
@@ -14146,7 +14193,7 @@
         <v>62</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C77" s="17"/>
       <c r="D77" s="21" t="s">
@@ -14173,12 +14220,12 @@
       <c r="W77" s="17"/>
       <c r="X77" s="17"/>
     </row>
-    <row r="78" spans="1:25" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="C78" s="17"/>
       <c r="D78" s="21" t="s">
@@ -14205,12 +14252,12 @@
       <c r="W78" s="17"/>
       <c r="X78" s="17"/>
     </row>
-    <row r="79" spans="1:25" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:25" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="C79" s="17"/>
       <c r="D79" s="21" t="s">
@@ -14237,12 +14284,12 @@
       <c r="W79" s="17"/>
       <c r="X79" s="17"/>
     </row>
-    <row r="80" spans="1:25" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:25" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="21" t="s">
@@ -14269,12 +14316,12 @@
       <c r="W80" s="17"/>
       <c r="X80" s="17"/>
     </row>
-    <row r="81" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:24" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="C81" s="17"/>
       <c r="D81" s="21" t="s">
@@ -14301,97 +14348,141 @@
       <c r="W81" s="17"/>
       <c r="X81" s="17"/>
     </row>
-    <row r="82" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="16" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C82" s="20"/>
+        <v>123</v>
+      </c>
+      <c r="C82" s="17"/>
       <c r="D82" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="43"/>
-      <c r="K82" s="20"/>
-      <c r="L82" s="20"/>
-      <c r="M82" s="20"/>
-      <c r="N82" s="20"/>
-      <c r="O82" s="20"/>
-      <c r="P82" s="20"/>
-      <c r="Q82" s="43"/>
-      <c r="R82" s="20"/>
-      <c r="S82" s="20"/>
-      <c r="T82" s="20"/>
-      <c r="U82" s="20"/>
-      <c r="V82" s="20"/>
-      <c r="W82" s="20"/>
-      <c r="X82" s="20"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="21"/>
+      <c r="R82" s="17"/>
+      <c r="S82" s="17"/>
+      <c r="T82" s="17"/>
+      <c r="U82" s="17"/>
+      <c r="V82" s="17"/>
+      <c r="W82" s="17"/>
+      <c r="X82" s="17"/>
     </row>
     <row r="83" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="16" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C83" s="20"/>
       <c r="D83" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="43"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="20"/>
+      <c r="O83" s="20"/>
+      <c r="P83" s="20"/>
+      <c r="Q83" s="43"/>
+      <c r="R83" s="20"/>
+      <c r="S83" s="20"/>
+      <c r="T83" s="20"/>
+      <c r="U83" s="20"/>
+      <c r="V83" s="20"/>
+      <c r="W83" s="20"/>
+      <c r="X83" s="20"/>
+    </row>
+    <row r="84" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84" s="20"/>
+      <c r="D84" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="E83" s="29" t="s">
+      <c r="E84" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29" t="s">
+      <c r="F84" s="29"/>
+      <c r="G84" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="44" t="s">
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="K83" s="29" t="s">
+      <c r="K84" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="L83" s="29" t="s">
+      <c r="L84" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="M83" s="29" t="s">
+      <c r="M84" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="N83" s="29" t="s">
+      <c r="N84" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="O83" s="29"/>
-      <c r="P83" s="29"/>
-      <c r="Q83" s="44" t="s">
+      <c r="O84" s="29"/>
+      <c r="P84" s="29"/>
+      <c r="Q84" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="R83" s="46" t="s">
+      <c r="R84" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="S83" s="44" t="s">
+      <c r="S84" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="T83" s="29"/>
-      <c r="U83" s="29" t="s">
+      <c r="T84" s="29"/>
+      <c r="U84" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="V83" s="29"/>
-      <c r="W83" s="29"/>
-      <c r="X83" s="29"/>
+      <c r="V84" s="29"/>
+      <c r="W84" s="29"/>
+      <c r="X84" s="29"/>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" scale="170">
-      <pane xSplit="2" ySplit="6" topLeftCell="H25" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C40" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{1DD617EE-F308-3E45-A8EF-4713F47FA0DD}" scale="170">
+      <pane xSplit="2" ySplit="6" topLeftCell="C29" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
+      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
@@ -14401,21 +14492,9 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" scale="125">
-      <pane xSplit="2" ySplit="6.0526315789473681" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{1DD617EE-F308-3E45-A8EF-4713F47FA0DD}" scale="170">
-      <pane xSplit="2" ySplit="6" topLeftCell="C29" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
   </customSheetViews>
   <mergeCells count="6">
-    <mergeCell ref="Y70:Y71"/>
+    <mergeCell ref="Y71:Y72"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="K5:O5"/>
     <mergeCell ref="R5:X5"/>
@@ -14771,8 +14850,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
-      <selection activeCell="C7" sqref="C7"/>
+    <customSheetView guid="{1DD617EE-F308-3E45-A8EF-4713F47FA0DD}">
+      <selection activeCell="A22" sqref="A22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
@@ -14781,8 +14860,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{1DD617EE-F308-3E45-A8EF-4713F47FA0DD}">
-      <selection activeCell="A22" sqref="A22"/>
+    <customSheetView guid="{41779DD2-B938-0C4D-877B-9108B2018222}">
+      <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -9537,7 +9537,7 @@
   <userInfo guid="{88D4547C-A4BB-3843-ABD6-020023F84CCA}" name="Microsoft Office User" id="-296969784" dateTime="2017-05-08T10:00:09"/>
   <userInfo guid="{FEE05AE3-8182-DC45-9C12-C837CD9BAE99}" name="Mikko Rönkkömäki" id="-727915884" dateTime="2017-05-18T10:22:30"/>
   <userInfo guid="{18D528AF-50AD-3744-BF7B-4E3B5E8C50B3}" name="Microsoft Office User" id="-297007836" dateTime="2017-06-15T12:29:16"/>
-  <userInfo guid="{FED76948-6277-1647-9EFC-6DA116A5279E}" name="Microsoft Office -käyttäjä" id="-785734380" dateTime="2017-06-19T20:24:56"/>
+  <userInfo guid="{FED76948-6277-1647-9EFC-6DA116A5279E}" name="Microsoft Office -käyttäjä" id="-785721420" dateTime="2017-06-20T10:52:10"/>
 </users>
 </file>
 

--- a/resources/roolit.xlsx
+++ b/resources/roolit.xlsx
@@ -9,25 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="26440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oikeudet" sheetId="1" r:id="rId1"/>
     <sheet name="Roolit" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Oikeudet!$A$5:$Y$84</definedName>
-    <definedName name="Z_1DD617EE_F308_3E45_A8EF_4713F47FA0DD_.wvu.FilterData" localSheetId="0" hidden="1">Oikeudet!$A$5:$Y$84</definedName>
-    <definedName name="Z_7A9649F2_657F_9445_B6E6_FE94C6A09957_.wvu.FilterData" localSheetId="0" hidden="1">Oikeudet!$A$5:$Y$84</definedName>
-    <definedName name="Z_E88E7AA2_EE96_CA4C_AB2A_FE73CCE938AC_.wvu.FilterData" localSheetId="0" hidden="1">Oikeudet!$A$5:$Y$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Oikeudet!$A$5:$Y$85</definedName>
+    <definedName name="Z_1DD617EE_F308_3E45_A8EF_4713F47FA0DD_.wvu.FilterData" localSheetId="0" hidden="1">Oikeudet!$A$5:$Y$85</definedName>
+    <definedName name="Z_7A9649F2_657F_9445_B6E6_FE94C6A09957_.wvu.FilterData" localSheetId="0" hidden="1">Oikeudet!$A$5:$Y$85</definedName>
+    <definedName name="Z_F86DF6F3_8AE5_3A44_B2D2_D623E01AE54F_.wvu.FilterData" localSheetId="0" hidden="1">Oikeudet!$A$5:$Y$85</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
-    <customWorkbookView name="Microsoft Office -käyttäjä - Oma näkymä" guid="{E88E7AA2-EE96-CA4C-AB2A-FE73CCE938AC}" mergeInterval="0" personalView="1" windowWidth="1920" windowHeight="798" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Microsoft Office -käyttäjä - Oma näkymä" guid="{F86DF6F3-8AE5-3A44-B2D2-D623E01AE54F}" mergeInterval="0" personalView="1" windowWidth="1920" windowHeight="1149" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Mikko Rönkkömäki - Personal View" guid="{1DD617EE-F308-3E45-A8EF-4713F47FA0DD}" mergeInterval="0" personalView="1" windowWidth="2560" windowHeight="1263" tabRatio="500" activeSheetId="2"/>
-    <customWorkbookView name="Jarno Väyrynen - Personal View" guid="{C10F9F10-1A4D-7B47-A88E-9424D9FB3197}" mergeInterval="0" personalView="1" yWindow="9" windowWidth="1920" windowHeight="1048" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Tatu Tarvainen - Personal View" guid="{41779DD2-B938-0C4D-877B-9108B2018222}" mergeInterval="0" personalView="1" xWindow="38" yWindow="54" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="1920" windowHeight="571" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" mergeInterval="0" personalView="1" windowWidth="1920" windowHeight="475" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="188">
   <si>
     <t xml:space="preserve">Rooleissa: </t>
   </si>
@@ -632,6 +632,9 @@
   </si>
   <si>
     <t>Vesiväylälaadunseuranta / Viat</t>
+  </si>
+  <si>
+    <t>Vesiväyläsuunnittelu / Kiintiöt</t>
   </si>
   <si>
     <t>Vesiväylä / Materiaalit</t>
@@ -946,7 +949,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1036,6 +1039,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1248,7 +1255,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FED76948-6277-1647-9EFC-6DA116A5279E}" diskRevisions="1" revisionId="460" version="59">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{1E352813-0B26-DB4E-84BE-460845B77133}" diskRevisions="1" revisionId="465">
   <header guid="{81BBEED1-AE57-644F-AA35-AD2520AD95CE}" dateTime="2016-09-06T09:14:56" maxSheetId="3" userName="Tatu Tarvainen" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1591,7 +1598,13 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
-  <header guid="{FED76948-6277-1647-9EFC-6DA116A5279E}" dateTime="2017-06-19T20:29:12" maxSheetId="3" userName="Microsoft Office -käyttäjä" r:id="rId59" minRId="443" maxRId="459">
+  <header guid="{0F03D371-18B5-0A48-AA9F-F6C218BB06DC}" dateTime="2017-06-20T09:57:58" maxSheetId="3" userName="Microsoft Office User" r:id="rId59" minRId="443" maxRId="446">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1E352813-0B26-DB4E-84BE-460845B77133}" dateTime="2017-06-20T12:32:37" maxSheetId="3" userName="Microsoft Office -käyttäjä" r:id="rId60" minRId="448" maxRId="464">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -9315,123 +9328,156 @@
 
 <file path=xl/revisions/revisionLog58.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="443" sId="1" ref="A44:XFD44" action="insertRow"/>
+  <rrc rId="443" sId="1" ref="A43:XFD43" action="insertRow"/>
   <rcc rId="444" sId="1">
-    <nc r="A44" t="inlineStr">
+    <nc r="A43" t="inlineStr">
       <is>
         <t>Urakat</t>
       </is>
     </nc>
   </rcc>
   <rcc rId="445" sId="1">
-    <nc r="B44" t="inlineStr">
+    <nc r="B43" t="inlineStr">
+      <is>
+        <t>Vesiväyläsuunnittelu / Kiintiöt</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="446" sId="1">
+    <nc r="D43" t="inlineStr">
+      <is>
+        <t>R*,W*</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_7A9649F2_657F_9445_B6E6_FE94C6A09957_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Oikeudet!$A$5:$Y$84</formula>
+    <oldFormula>Oikeudet!$A$5:$Y$84</oldFormula>
+  </rdn>
+  <rcv guid="{7A9649F2-657F-9445-B6E6-FE94C6A09957}" action="add"/>
+</revis